--- a/.xlsx/performance_stock_statistic.xlsx
+++ b/.xlsx/performance_stock_statistic.xlsx
@@ -1122,7 +1122,7 @@
         <v>7.415610436536586</v>
       </c>
       <c r="C2">
-        <v>0.005932488349229271</v>
+        <v>0.005899451421270159</v>
       </c>
       <c r="D2">
         <v>-0.1428570942002891</v>
@@ -1142,7 +1142,7 @@
         <v>6.137223241829957</v>
       </c>
       <c r="C3">
-        <v>0.004909778593463966</v>
+        <v>0.004882436946563212</v>
       </c>
       <c r="D3">
         <v>-0.1428571536697765</v>
@@ -1162,7 +1162,7 @@
         <v>5.889006523340024</v>
       </c>
       <c r="C4">
-        <v>0.004711205218672017</v>
+        <v>0.004684969390087527</v>
       </c>
       <c r="D4">
         <v>-0.06984121906088969</v>
@@ -1182,7 +1182,7 @@
         <v>5.872028819356641</v>
       </c>
       <c r="C5">
-        <v>0.004697623055485307</v>
+        <v>0.004671462863449987</v>
       </c>
       <c r="D5">
         <v>-0.1000000133849027</v>
@@ -1202,7 +1202,7 @@
         <v>5.782565372806189</v>
       </c>
       <c r="C6">
-        <v>0.004626052298244947</v>
+        <v>0.004600290670490202</v>
       </c>
       <c r="D6">
         <v>-0.09090913746128004</v>
@@ -1222,7 +1222,7 @@
         <v>5.666728096697503</v>
       </c>
       <c r="C7">
-        <v>0.004533382477358</v>
+        <v>0.004508136910658314</v>
       </c>
       <c r="D7">
         <v>-0.06998654009966343</v>
@@ -1242,7 +1242,7 @@
         <v>5.590189579298201</v>
       </c>
       <c r="C8">
-        <v>0.004472151663438551</v>
+        <v>0.004447247079791717</v>
       </c>
       <c r="D8">
         <v>-0.07722004832454432</v>
@@ -1262,7 +1262,7 @@
         <v>5.526172921559544</v>
       </c>
       <c r="C9">
-        <v>0.004420938337247635</v>
+        <v>0.004396318951121356</v>
       </c>
       <c r="D9">
         <v>-0.09836071819597147</v>
@@ -1282,7 +1282,7 @@
         <v>5.462787088932446</v>
       </c>
       <c r="C10">
-        <v>0.004370229671145956</v>
+        <v>0.004345892672181739</v>
       </c>
       <c r="D10">
         <v>-0.06990884476887027</v>
@@ -1302,7 +1302,7 @@
         <v>5.395410169482664</v>
       </c>
       <c r="C11">
-        <v>0.00431632813558613</v>
+        <v>0.00429229130428215</v>
       </c>
       <c r="D11">
         <v>-0.09747294299636589</v>
@@ -1322,7 +1322,7 @@
         <v>5.27459006572319</v>
       </c>
       <c r="C12">
-        <v>0.004219672052578565</v>
+        <v>0.004196173481084492</v>
       </c>
       <c r="D12">
         <v>-0.1000000238418579</v>
@@ -1342,7 +1342,7 @@
         <v>5.263810209054501</v>
       </c>
       <c r="C13">
-        <v>0.004211048167243598</v>
+        <v>0.004187597620568414</v>
       </c>
       <c r="D13">
         <v>-0.0699588772113936</v>
@@ -1362,7 +1362,7 @@
         <v>5.125887243085601</v>
       </c>
       <c r="C14">
-        <v>0.004100709794468479</v>
+        <v>0.004077873701738742</v>
       </c>
       <c r="D14">
         <v>-0.06996588428668826</v>
@@ -1382,7 +1382,7 @@
         <v>5.036793938452599</v>
       </c>
       <c r="C15">
-        <v>0.004029435150762081</v>
+        <v>0.004006995973311537</v>
       </c>
       <c r="D15">
         <v>-0.09947640057477158</v>
@@ -1402,7 +1402,7 @@
         <v>5.022984070408222</v>
       </c>
       <c r="C16">
-        <v>0.004018387256326572</v>
+        <v>0.003996009602552278</v>
       </c>
       <c r="D16">
         <v>-0.09839352984437644</v>
@@ -1422,7 +1422,7 @@
         <v>5.00602772817991</v>
       </c>
       <c r="C17">
-        <v>0.004004822182543929</v>
+        <v>0.003982520070151083</v>
       </c>
       <c r="D17">
         <v>-0.06976745184959177</v>
@@ -1442,7 +1442,7 @@
         <v>4.998825307124659</v>
       </c>
       <c r="C18">
-        <v>0.003999060245699732</v>
+        <v>0.003976790220465128</v>
       </c>
       <c r="D18">
         <v>-0.06923077372505004</v>
@@ -1462,7 +1462,7 @@
         <v>4.975199976119383</v>
       </c>
       <c r="C19">
-        <v>0.003980159980895505</v>
+        <v>0.003957995207732204</v>
       </c>
       <c r="D19">
         <v>-0.06999998347270431</v>
@@ -1482,7 +1482,7 @@
         <v>4.939034427777061</v>
       </c>
       <c r="C20">
-        <v>0.003951227542221649</v>
+        <v>0.00392922388844635</v>
       </c>
       <c r="D20">
         <v>-0.06999997141156844</v>
@@ -1502,7 +1502,7 @@
         <v>4.920171725021122</v>
       </c>
       <c r="C21">
-        <v>0.003936137380016898</v>
+        <v>0.003914217760557775</v>
       </c>
       <c r="D21">
         <v>-0.100000045741464</v>
@@ -1522,7 +1522,7 @@
         <v>4.864921415361494</v>
       </c>
       <c r="C22">
-        <v>0.003891937132289198</v>
+        <v>0.003870263655816625</v>
       </c>
       <c r="D22">
         <v>-0.07000000122420647</v>
@@ -1542,7 +1542,7 @@
         <v>4.834374248164919</v>
       </c>
       <c r="C23">
-        <v>0.003867499398531932</v>
+        <v>0.003845962011268826</v>
       </c>
       <c r="D23">
         <v>-0.09999996993865379</v>
@@ -1562,7 +1562,7 @@
         <v>4.815363164778216</v>
       </c>
       <c r="C24">
-        <v>0.003852290531822567</v>
+        <v>0.00383083783991902</v>
       </c>
       <c r="D24">
         <v>-0.06981125912528596</v>
@@ -1582,7 +1582,7 @@
         <v>4.797794557639607</v>
       </c>
       <c r="C25">
-        <v>0.003838235646111686</v>
+        <v>0.003816861223261422</v>
       </c>
       <c r="D25">
         <v>-0.09900989979139119</v>
@@ -1602,7 +1602,7 @@
         <v>4.748866832481329</v>
       </c>
       <c r="C26">
-        <v>0.003799093465985066</v>
+        <v>0.003777937018680456</v>
       </c>
       <c r="D26">
         <v>-0.08070176242893345</v>
@@ -1622,7 +1622,7 @@
         <v>4.709630607258978</v>
       </c>
       <c r="C27">
-        <v>0.003767704485807184</v>
+        <v>0.00374672283791486</v>
       </c>
       <c r="D27">
         <v>-0.1548386904216962</v>
@@ -1642,7 +1642,7 @@
         <v>4.684602128205011</v>
       </c>
       <c r="C28">
-        <v>0.003747681702564008</v>
+        <v>0.003726811557840103</v>
       </c>
       <c r="D28">
         <v>-0.1300000406889452</v>
@@ -1662,7 +1662,7 @@
         <v>4.606357818612006</v>
       </c>
       <c r="C29">
-        <v>0.003685086254889607</v>
+        <v>0.003664564692610985</v>
       </c>
       <c r="D29">
         <v>-0.09795912517683469</v>
@@ -1682,7 +1682,7 @@
         <v>4.553466572345448</v>
       </c>
       <c r="C30">
-        <v>0.003642773257876358</v>
+        <v>0.003622487328834883</v>
       </c>
       <c r="D30">
         <v>-0.1168831085814298</v>
@@ -1702,7 +1702,7 @@
         <v>4.535057603878634</v>
       </c>
       <c r="C31">
-        <v>0.00362804608310291</v>
+        <v>0.00360784216696789</v>
       </c>
       <c r="D31">
         <v>-0.07000002387813875</v>
@@ -1722,7 +1722,7 @@
         <v>4.477200787867845</v>
       </c>
       <c r="C32">
-        <v>0.003581760630294271</v>
+        <v>0.00356181446926638</v>
       </c>
       <c r="D32">
         <v>-0.06993005943680752</v>
@@ -1742,7 +1742,7 @@
         <v>4.450070472289742</v>
       </c>
       <c r="C33">
-        <v>0.003560056377831796</v>
+        <v>0.003540231083762724</v>
       </c>
       <c r="D33">
         <v>-0.07000007186491586</v>
@@ -1762,7 +1762,7 @@
         <v>4.431616244283228</v>
       </c>
       <c r="C34">
-        <v>0.003545292995426588</v>
+        <v>0.003525549915897561</v>
       </c>
       <c r="D34">
         <v>-0.1428571323095533</v>
@@ -1782,7 +1782,7 @@
         <v>4.419596892173348</v>
       </c>
       <c r="C35">
-        <v>0.003535677513738685</v>
+        <v>0.003515987981044834</v>
       </c>
       <c r="D35">
         <v>-0.1285714505174543</v>
@@ -1802,7 +1802,7 @@
         <v>4.393521132614735</v>
       </c>
       <c r="C36">
-        <v>0.003514816906091793</v>
+        <v>0.003495243542255163</v>
       </c>
       <c r="D36">
         <v>-0.06956522257975384</v>
@@ -1822,7 +1822,7 @@
         <v>4.378879670625476</v>
       </c>
       <c r="C37">
-        <v>0.003503103736500379</v>
+        <v>0.003483595601134028</v>
       </c>
       <c r="D37">
         <v>-0.174603154922072</v>
@@ -1842,7 +1842,7 @@
         <v>4.339636426006847</v>
       </c>
       <c r="C38">
-        <v>0.00347170914080548</v>
+        <v>0.003452375836123191</v>
       </c>
       <c r="D38">
         <v>-0.06979283947633397</v>
@@ -1862,7 +1862,7 @@
         <v>4.319662834026766</v>
       </c>
       <c r="C39">
-        <v>0.003455730267221412</v>
+        <v>0.003436485945924236</v>
       </c>
       <c r="D39">
         <v>-0.07000005297929035</v>
@@ -1882,7 +1882,7 @@
         <v>4.312327017400797</v>
       </c>
       <c r="C40">
-        <v>0.003449861613920644</v>
+        <v>0.003430649974065875</v>
       </c>
       <c r="D40">
         <v>-0.06980273558359951</v>
@@ -1902,7 +1902,7 @@
         <v>4.299933297566477</v>
       </c>
       <c r="C41">
-        <v>0.003439946638053181</v>
+        <v>0.003420790212861158</v>
       </c>
       <c r="D41">
         <v>-0.1782608635086822</v>
@@ -1922,7 +1922,7 @@
         <v>4.29120651081837</v>
       </c>
       <c r="C42">
-        <v>0.003432965208654698</v>
+        <v>0.003413847661748904</v>
       </c>
       <c r="D42">
         <v>-0.1000000203758433</v>
@@ -1942,7 +1942,7 @@
         <v>4.286623394875775</v>
       </c>
       <c r="C43">
-        <v>0.003429298715900623</v>
+        <v>0.003410201587013348</v>
       </c>
       <c r="D43">
         <v>-0.06986303623547474</v>
@@ -1962,7 +1962,7 @@
         <v>4.251236192175181</v>
       </c>
       <c r="C44">
-        <v>0.003400988953740147</v>
+        <v>0.00338204947667079</v>
       </c>
       <c r="D44">
         <v>-0.06986893016480245</v>
@@ -1982,7 +1982,7 @@
         <v>4.217639235640426</v>
       </c>
       <c r="C45">
-        <v>0.00337411138851234</v>
+        <v>0.003355321587621658</v>
       </c>
       <c r="D45">
         <v>-0.06980904794106668</v>
@@ -1999,16 +1999,16 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.21441017904449</v>
+        <v>4.214409782182872</v>
       </c>
       <c r="C46">
-        <v>0.003371528143235595</v>
+        <v>0.003352752412237767</v>
       </c>
       <c r="D46">
-        <v>-0.06999994323127945</v>
+        <v>-0.07000000604434009</v>
       </c>
       <c r="E46">
-        <v>0.06997963794080952</v>
+        <v>0.06997975604758744</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -2022,7 +2022,7 @@
         <v>4.194133984581884</v>
       </c>
       <c r="C47">
-        <v>0.003355307187665508</v>
+        <v>0.003336622103883759</v>
       </c>
       <c r="D47">
         <v>-0.06971154660868206</v>
@@ -2042,7 +2042,7 @@
         <v>4.189808499655812</v>
       </c>
       <c r="C48">
-        <v>0.003351846799724655</v>
+        <v>0.003333180986201925</v>
       </c>
       <c r="D48">
         <v>-0.06990878493263875</v>
@@ -2062,7 +2062,7 @@
         <v>4.155960326037494</v>
       </c>
       <c r="C49">
-        <v>0.003324768260829997</v>
+        <v>0.00330625324267104</v>
       </c>
       <c r="D49">
         <v>-0.06999992769970076</v>
@@ -2082,7 +2082,7 @@
         <v>4.133862393500197</v>
       </c>
       <c r="C50">
-        <v>0.003307089914800156</v>
+        <v>0.003288673344073345</v>
       </c>
       <c r="D50">
         <v>-0.06990877728589806</v>
@@ -2102,7 +2102,7 @@
         <v>4.12748662862942</v>
       </c>
       <c r="C51">
-        <v>0.003301989302903533</v>
+        <v>0.003283601136538915</v>
       </c>
       <c r="D51">
         <v>-0.06980057198010614</v>
@@ -2122,7 +2122,7 @@
         <v>4.125291545883119</v>
       </c>
       <c r="C52">
-        <v>0.003300233236706493</v>
+        <v>0.003281854849549019</v>
       </c>
       <c r="D52">
         <v>-0.06960785968576966</v>
@@ -2142,7 +2142,7 @@
         <v>4.121816747803677</v>
       </c>
       <c r="C53">
-        <v>0.003297453398242938</v>
+        <v>0.003279090491490591</v>
       </c>
       <c r="D53">
         <v>-0.06983240372284627</v>
@@ -2162,7 +2162,7 @@
         <v>4.105436751493819</v>
       </c>
       <c r="C54">
-        <v>0.003284349401195054</v>
+        <v>0.003266059468173284</v>
       </c>
       <c r="D54">
         <v>-0.06966616699816708</v>
@@ -2182,7 +2182,7 @@
         <v>4.102348834937428</v>
       </c>
       <c r="C55">
-        <v>0.003281879067949944</v>
+        <v>0.00326360289175611</v>
       </c>
       <c r="D55">
         <v>-0.09836066845665214</v>
@@ -2202,7 +2202,7 @@
         <v>4.060527325943578</v>
       </c>
       <c r="C56">
-        <v>0.003248421860754861</v>
+        <v>0.003230332001546203</v>
       </c>
       <c r="D56">
         <v>-0.0694443920108192</v>
@@ -2222,7 +2222,7 @@
         <v>4.002475347049177</v>
       </c>
       <c r="C57">
-        <v>0.003201980277639346</v>
+        <v>0.003184149042998554</v>
       </c>
       <c r="D57">
         <v>-0.06906909280127882</v>
@@ -2242,7 +2242,7 @@
         <v>3.97611596916235</v>
       </c>
       <c r="C58">
-        <v>0.003180892775329878</v>
+        <v>0.003163178973080627</v>
       </c>
       <c r="D58">
         <v>-0.06942392201604652</v>
@@ -2262,7 +2262,7 @@
         <v>3.971953318948048</v>
       </c>
       <c r="C59">
-        <v>0.003177562655158438</v>
+        <v>0.003159867397731144</v>
       </c>
       <c r="D59">
         <v>-0.06999996730259483</v>
@@ -2282,7 +2282,7 @@
         <v>3.966462339964118</v>
       </c>
       <c r="C60">
-        <v>0.003173169871971294</v>
+        <v>0.003155499077139314</v>
       </c>
       <c r="D60">
         <v>-0.1000000238418579</v>
@@ -2302,7 +2302,7 @@
         <v>3.961260788603776</v>
       </c>
       <c r="C61">
-        <v>0.00316900863088302</v>
+        <v>0.003151361009231325</v>
       </c>
       <c r="D61">
         <v>-0.1000000238418579</v>
@@ -2322,7 +2322,7 @@
         <v>3.954706275298112</v>
       </c>
       <c r="C62">
-        <v>0.003163765020238492</v>
+        <v>0.00314614659928251</v>
       </c>
       <c r="D62">
         <v>-0.09890105974528718</v>
@@ -2342,7 +2342,7 @@
         <v>3.933687568700902</v>
       </c>
       <c r="C63">
-        <v>0.003146950054960717</v>
+        <v>0.003129425273429512</v>
       </c>
       <c r="D63">
         <v>-0.06964520540023522</v>
@@ -2362,7 +2362,7 @@
         <v>3.908436985135312</v>
       </c>
       <c r="C64">
-        <v>0.00312674958810825</v>
+        <v>0.003109337299232548</v>
       </c>
       <c r="D64">
         <v>-0.06976742685600146</v>
@@ -2382,7 +2382,7 @@
         <v>3.906150614785132</v>
       </c>
       <c r="C65">
-        <v>0.003124920491828109</v>
+        <v>0.003107518388850546</v>
       </c>
       <c r="D65">
         <v>-0.07000006962664551</v>
@@ -2402,7 +2402,7 @@
         <v>3.905557071877862</v>
       </c>
       <c r="C66">
-        <v>0.003124445657502292</v>
+        <v>0.003107046198789073</v>
       </c>
       <c r="D66">
         <v>-0.09917355004225092</v>
@@ -2422,7 +2422,7 @@
         <v>3.883256570086616</v>
       </c>
       <c r="C67">
-        <v>0.003106605256069292</v>
+        <v>0.003089305147244722</v>
       </c>
       <c r="D67">
         <v>-0.06994817871151149</v>
@@ -2442,7 +2442,7 @@
         <v>3.86303314579215</v>
       </c>
       <c r="C68">
-        <v>0.00309042651663372</v>
+        <v>0.003073216504210143</v>
       </c>
       <c r="D68">
         <v>-0.06990011538817997</v>
@@ -2462,7 +2462,7 @@
         <v>3.825503947809917</v>
       </c>
       <c r="C69">
-        <v>0.003060403158247934</v>
+        <v>0.003043360340342019</v>
       </c>
       <c r="D69">
         <v>-0.06991265962733595</v>
@@ -2482,7 +2482,7 @@
         <v>3.824489632523474</v>
       </c>
       <c r="C70">
-        <v>0.003059591706018778</v>
+        <v>0.003042553406939914</v>
       </c>
       <c r="D70">
         <v>-0.09811326747023519</v>
@@ -2502,7 +2502,7 @@
         <v>3.773054421350469</v>
       </c>
       <c r="C71">
-        <v>0.003018443537080373</v>
+        <v>0.003001634384527022</v>
       </c>
       <c r="D71">
         <v>-0.127451009167775</v>
@@ -2522,7 +2522,7 @@
         <v>3.75739641972219</v>
       </c>
       <c r="C72">
-        <v>0.00300591713577775</v>
+        <v>0.002989177740431335</v>
       </c>
       <c r="D72">
         <v>-0.06999998367419469</v>
@@ -2542,7 +2542,7 @@
         <v>3.75525139897367</v>
       </c>
       <c r="C73">
-        <v>0.003004201119178935</v>
+        <v>0.002987471280010874</v>
       </c>
       <c r="D73">
         <v>-0.06991524118111359</v>
@@ -2562,7 +2562,7 @@
         <v>3.738327919191449</v>
       </c>
       <c r="C74">
-        <v>0.002990662335353156</v>
+        <v>0.002974007891162645</v>
       </c>
       <c r="D74">
         <v>-0.09999997364919866</v>
@@ -2582,7 +2582,7 @@
         <v>3.736610552581556</v>
       </c>
       <c r="C75">
-        <v>0.002989288442065241</v>
+        <v>0.002972641648831783</v>
       </c>
       <c r="D75">
         <v>-0.06981138606913972</v>
@@ -2602,7 +2602,7 @@
         <v>3.723433581893243</v>
       </c>
       <c r="C76">
-        <v>0.002978746865514594</v>
+        <v>0.002962158776366939</v>
       </c>
       <c r="D76">
         <v>-0.06967219227293242</v>
@@ -2622,7 +2622,7 @@
         <v>3.723181125758361</v>
       </c>
       <c r="C77">
-        <v>0.002978544900606687</v>
+        <v>0.002961957936164168</v>
       </c>
       <c r="D77">
         <v>-0.1000000062450395</v>
@@ -2642,7 +2642,7 @@
         <v>3.684263348701632</v>
       </c>
       <c r="C78">
-        <v>0.002947410678961307</v>
+        <v>0.002930997095228031</v>
       </c>
       <c r="D78">
         <v>-0.06926410457269527</v>
@@ -2662,7 +2662,7 @@
         <v>3.651760188745937</v>
       </c>
       <c r="C79">
-        <v>0.002921408150996748</v>
+        <v>0.002905139370521826</v>
       </c>
       <c r="D79">
         <v>-0.06995077797894378</v>
@@ -2682,7 +2682,7 @@
         <v>3.60035049157064</v>
       </c>
       <c r="C80">
-        <v>0.002880280393256513</v>
+        <v>0.002864240645640924</v>
       </c>
       <c r="D80">
         <v>-0.06983238556819427</v>
@@ -2702,7 +2702,7 @@
         <v>3.555380117044352</v>
       </c>
       <c r="C81">
-        <v>0.00284430409363548</v>
+        <v>0.002828464691363842</v>
       </c>
       <c r="D81">
         <v>-0.0699999904580566</v>
@@ -2722,7 +2722,7 @@
         <v>3.552320997208955</v>
       </c>
       <c r="C82">
-        <v>0.002841856797767162</v>
+        <v>0.002826031024032579</v>
       </c>
       <c r="D82">
         <v>-0.06965173034081296</v>
@@ -2742,7 +2742,7 @@
         <v>3.533483535820529</v>
       </c>
       <c r="C83">
-        <v>0.002826786828656422</v>
+        <v>0.002811044976786418</v>
       </c>
       <c r="D83">
         <v>-0.06997743214725527</v>
@@ -2762,7 +2762,7 @@
         <v>3.526105425269673</v>
       </c>
       <c r="C84">
-        <v>0.002820884340215741</v>
+        <v>0.002805175358209766</v>
       </c>
       <c r="D84">
         <v>-0.1304348202859832</v>
@@ -2782,7 +2782,7 @@
         <v>3.517620915976751</v>
       </c>
       <c r="C85">
-        <v>0.002814096732781401</v>
+        <v>0.002798425549703064</v>
       </c>
       <c r="D85">
         <v>-0.06981745731711786</v>
@@ -2802,7 +2802,7 @@
         <v>3.501065411295452</v>
       </c>
       <c r="C86">
-        <v>0.002800852329036363</v>
+        <v>0.002785254901587473</v>
       </c>
       <c r="D86">
         <v>-0.06952965617498708</v>
@@ -2822,7 +2822,7 @@
         <v>3.473564521395117</v>
       </c>
       <c r="C87">
-        <v>0.002778851617116089</v>
+        <v>0.002763376707553788</v>
       </c>
       <c r="D87">
         <v>-0.1304761545089799</v>
@@ -2842,7 +2842,7 @@
         <v>3.415050402606505</v>
       </c>
       <c r="C88">
-        <v>0.002732040322085201</v>
+        <v>0.002716826095947893</v>
       </c>
       <c r="D88">
         <v>-0.1272727478903398</v>
@@ -2862,7 +2862,7 @@
         <v>3.404554257167515</v>
       </c>
       <c r="C89">
-        <v>0.002723643405734013</v>
+        <v>0.002708475940467396</v>
       </c>
       <c r="D89">
         <v>-0.127249362867722</v>
@@ -2882,7 +2882,7 @@
         <v>3.403653710079162</v>
       </c>
       <c r="C90">
-        <v>0.002722922968063332</v>
+        <v>0.002707759514780561</v>
       </c>
       <c r="D90">
         <v>-0.06923073797167179</v>
@@ -2902,7 +2902,7 @@
         <v>3.38184929588404</v>
       </c>
       <c r="C91">
-        <v>0.002705479436707234</v>
+        <v>0.002690413123217218</v>
       </c>
       <c r="D91">
         <v>-0.1242236130028669</v>
@@ -2922,7 +2922,7 @@
         <v>3.37572720653366</v>
       </c>
       <c r="C92">
-        <v>0.002700581765226927</v>
+        <v>0.002685542725961542</v>
       </c>
       <c r="D92">
         <v>-0.06956519501810421</v>
@@ -2942,7 +2942,7 @@
         <v>3.372463312826955</v>
       </c>
       <c r="C93">
-        <v>0.002697970650261567</v>
+        <v>0.002682946151811423</v>
       </c>
       <c r="D93">
         <v>-0.06949812250967613</v>
@@ -2962,7 +2962,7 @@
         <v>3.332425436306338</v>
       </c>
       <c r="C94">
-        <v>0.002665940349045072</v>
+        <v>0.002651094221405202</v>
       </c>
       <c r="D94">
         <v>-0.06938775819398191</v>
@@ -2982,7 +2982,7 @@
         <v>3.326866648366078</v>
       </c>
       <c r="C95">
-        <v>0.002661493318692861</v>
+        <v>0.002646671955740713</v>
       </c>
       <c r="D95">
         <v>-0.06999997782026035</v>
@@ -3002,7 +3002,7 @@
         <v>3.323720087742411</v>
       </c>
       <c r="C96">
-        <v>0.002658976070193926</v>
+        <v>0.002644168725332066</v>
       </c>
       <c r="D96">
         <v>-0.07000001271565759</v>
@@ -3022,7 +3022,7 @@
         <v>3.294694634556309</v>
       </c>
       <c r="C97">
-        <v>0.002635755707645044</v>
+        <v>0.002621077672678047</v>
       </c>
       <c r="D97">
         <v>-0.06944447396069475</v>
@@ -3039,16 +3039,16 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3.265766993097311</v>
+        <v>3.26576743220035</v>
       </c>
       <c r="C98">
-        <v>0.002612613594477848</v>
+        <v>0.002598064782975616</v>
       </c>
       <c r="D98">
-        <v>-0.0995762593326901</v>
+        <v>-0.09957621472559686</v>
       </c>
       <c r="E98">
-        <v>0.1000000742732303</v>
+        <v>0.09999999145477423</v>
       </c>
       <c r="F98" t="s">
         <v>232</v>
@@ -3062,7 +3062,7 @@
         <v>3.261981963473591</v>
       </c>
       <c r="C99">
-        <v>0.002609585570778875</v>
+        <v>0.002595053272453137</v>
       </c>
       <c r="D99">
         <v>-0.06983654776828885</v>
@@ -3082,7 +3082,7 @@
         <v>3.252409548324585</v>
       </c>
       <c r="C100">
-        <v>0.00260192763865967</v>
+        <v>0.002587437985938415</v>
       </c>
       <c r="D100">
         <v>-0.1330471491685843</v>
@@ -3102,7 +3102,7 @@
         <v>3.192273299853234</v>
       </c>
       <c r="C101">
-        <v>0.00255381863988259</v>
+        <v>0.002539596897257946</v>
       </c>
       <c r="D101">
         <v>-0.06995074530355316</v>
@@ -3122,7 +3122,7 @@
         <v>3.157768840391332</v>
       </c>
       <c r="C102">
-        <v>0.002526215072313066</v>
+        <v>0.002512147048839565</v>
       </c>
       <c r="D102">
         <v>-0.06993004618460641</v>
@@ -3142,7 +3142,7 @@
         <v>3.128152033239858</v>
       </c>
       <c r="C103">
-        <v>0.002502521626591884</v>
+        <v>0.00248858554752574</v>
       </c>
       <c r="D103">
         <v>-0.06976743201567071</v>
@@ -3162,7 +3162,7 @@
         <v>3.116288149621204</v>
       </c>
       <c r="C104">
-        <v>0.002493030519696963</v>
+        <v>0.002479147294845827</v>
       </c>
       <c r="D104">
         <v>-0.0697248316574185</v>
@@ -3182,7 +3182,7 @@
         <v>3.112464613555314</v>
       </c>
       <c r="C105">
-        <v>0.00248997169084425</v>
+        <v>0.002476105500044004</v>
       </c>
       <c r="D105">
         <v>-0.06931824967388134</v>
@@ -3202,7 +3202,7 @@
         <v>3.109321992825664</v>
       </c>
       <c r="C106">
-        <v>0.002487457594260535</v>
+        <v>0.002473605403998145</v>
       </c>
       <c r="D106">
         <v>-0.11</v>
@@ -3222,7 +3222,7 @@
         <v>3.07363085694844</v>
       </c>
       <c r="C107">
-        <v>0.00245890468555875</v>
+        <v>0.002445211501152297</v>
       </c>
       <c r="D107">
         <v>-0.06994532630501693</v>
@@ -3242,7 +3242,7 @@
         <v>3.049388515657014</v>
       </c>
       <c r="C108">
-        <v>0.002439510812525606</v>
+        <v>0.002425925629003188</v>
       </c>
       <c r="D108">
         <v>-0.07000002897064406</v>
@@ -3262,7 +3262,7 @@
         <v>3.033880557446153</v>
       </c>
       <c r="C109">
-        <v>0.002427104445956918</v>
+        <v>0.002413588351190253</v>
       </c>
       <c r="D109">
         <v>-0.0696629239211296</v>
@@ -3282,7 +3282,7 @@
         <v>2.967752498400769</v>
       </c>
       <c r="C110">
-        <v>0.002374201998720617</v>
+        <v>0.002360980507876509</v>
       </c>
       <c r="D110">
         <v>-0.06967741573181419</v>
@@ -3302,7 +3302,7 @@
         <v>2.936694315439018</v>
       </c>
       <c r="C111">
-        <v>0.002349355452351217</v>
+        <v>0.002336272327318234</v>
       </c>
       <c r="D111">
         <v>-0.1499999939813762</v>
@@ -3322,7 +3322,7 @@
         <v>2.894101485117289</v>
       </c>
       <c r="C112">
-        <v>0.002315281188093832</v>
+        <v>0.002302387816322427</v>
       </c>
       <c r="D112">
         <v>-0.06957929823877562</v>
@@ -3342,7 +3342,7 @@
         <v>2.884545528394606</v>
       </c>
       <c r="C113">
-        <v>0.002307636422715689</v>
+        <v>0.002294785623225625</v>
       </c>
       <c r="D113">
         <v>-0.0697674143522814</v>
@@ -3362,7 +3362,7 @@
         <v>2.881967359495861</v>
       </c>
       <c r="C114">
-        <v>0.00230557388759669</v>
+        <v>0.002292734573982388</v>
       </c>
       <c r="D114">
         <v>-0.06956526161967846</v>
@@ -3382,7 +3382,7 @@
         <v>2.852591799036629</v>
       </c>
       <c r="C115">
-        <v>0.002282073439229303</v>
+        <v>0.00226936499525587</v>
       </c>
       <c r="D115">
         <v>-0.06998447125522034</v>
@@ -3402,7 +3402,7 @@
         <v>2.839657500052028</v>
       </c>
       <c r="C116">
-        <v>0.002271726000041622</v>
+        <v>0.002259075179039003</v>
       </c>
       <c r="D116">
         <v>-0.07000003881454508</v>
@@ -3422,7 +3422,7 @@
         <v>2.816608645922832</v>
       </c>
       <c r="C117">
-        <v>0.002253286916738268</v>
+        <v>0.002240738779572662</v>
       </c>
       <c r="D117">
         <v>-0.08201897144182857</v>
@@ -3442,7 +3442,7 @@
         <v>2.803537172965926</v>
       </c>
       <c r="C118">
-        <v>0.002242829738372736</v>
+        <v>0.002230339835295084</v>
       </c>
       <c r="D118">
         <v>-0.06992082043113557</v>
@@ -3462,7 +3462,7 @@
         <v>2.799603643075968</v>
       </c>
       <c r="C119">
-        <v>0.002239682914460777</v>
+        <v>0.002227210535462189</v>
       </c>
       <c r="D119">
         <v>-0.06865670695458925</v>
@@ -3482,7 +3482,7 @@
         <v>2.78481185597491</v>
       </c>
       <c r="C120">
-        <v>0.002227849484779927</v>
+        <v>0.002215443003957763</v>
       </c>
       <c r="D120">
         <v>-0.06962963901845465</v>
@@ -3502,7 +3502,7 @@
         <v>2.741427243480079</v>
       </c>
       <c r="C121">
-        <v>0.002193141794784061</v>
+        <v>0.002180928594653998</v>
       </c>
       <c r="D121">
         <v>-0.06969699217213376</v>
@@ -3522,7 +3522,7 @@
         <v>2.72473208514697</v>
       </c>
       <c r="C122">
-        <v>0.002179785668117573</v>
+        <v>0.002167646845781199</v>
       </c>
       <c r="D122">
         <v>-0.06896546456051744</v>
@@ -3542,7 +3542,7 @@
         <v>2.718722377055677</v>
       </c>
       <c r="C123">
-        <v>0.002174977901644541</v>
+        <v>0.002162865852868478</v>
       </c>
       <c r="D123">
         <v>-0.06972473234968801</v>
@@ -3562,7 +3562,7 @@
         <v>2.692170564687485</v>
       </c>
       <c r="C124">
-        <v>0.002153736451749986</v>
+        <v>0.002141742692671028</v>
       </c>
       <c r="D124">
         <v>-0.07000000223089442</v>
@@ -3582,7 +3582,7 @@
         <v>2.667000169614315</v>
       </c>
       <c r="C125">
-        <v>0.002133600135691453</v>
+        <v>0.002121718512024118</v>
       </c>
       <c r="D125">
         <v>-0.1151832837173046</v>
@@ -3602,7 +3602,7 @@
         <v>2.665836940550078</v>
       </c>
       <c r="C126">
-        <v>0.002132669552440062</v>
+        <v>0.002120793111018359</v>
       </c>
       <c r="D126">
         <v>-0.06875001784113677</v>
@@ -3622,7 +3622,7 @@
         <v>2.661791882280355</v>
       </c>
       <c r="C127">
-        <v>0.002129433505824285</v>
+        <v>0.002117575085346345</v>
       </c>
       <c r="D127">
         <v>-0.06986440309375563</v>
@@ -3642,7 +3642,7 @@
         <v>2.641719863097624</v>
       </c>
       <c r="C128">
-        <v>0.0021133758904781</v>
+        <v>0.002101606891883552</v>
       </c>
       <c r="D128">
         <v>-0.06906908533350598</v>
@@ -3662,7 +3662,7 @@
         <v>2.632372954585308</v>
       </c>
       <c r="C129">
-        <v>0.002105898363668248</v>
+        <v>0.002094171006034456</v>
       </c>
       <c r="D129">
         <v>-0.06972473507949539</v>
@@ -3682,7 +3682,7 @@
         <v>2.62258913178207</v>
       </c>
       <c r="C130">
-        <v>0.002098071305425655</v>
+        <v>0.002086387535228376</v>
       </c>
       <c r="D130">
         <v>-0.06994534890679716</v>
@@ -3702,7 +3702,7 @@
         <v>2.62168064759221</v>
       </c>
       <c r="C131">
-        <v>0.002097344518073767</v>
+        <v>0.002085664795220532</v>
       </c>
       <c r="D131">
         <v>-0.06997967590354115</v>
@@ -3722,7 +3722,7 @@
         <v>2.579320634087724</v>
       </c>
       <c r="C132">
-        <v>0.00206345650727018</v>
+        <v>0.002051965500467561</v>
       </c>
       <c r="D132">
         <v>-0.08396954793476008</v>
@@ -3742,7 +3742,7 @@
         <v>2.567364680663033</v>
       </c>
       <c r="C133">
-        <v>0.002053891744530427</v>
+        <v>0.002042454002118564</v>
       </c>
       <c r="D133">
         <v>-0.09749304910107026</v>
@@ -3762,7 +3762,7 @@
         <v>2.565468803238069</v>
       </c>
       <c r="C134">
-        <v>0.002052375042590452</v>
+        <v>0.002040945746410554</v>
       </c>
       <c r="D134">
         <v>-0.06984474097020532</v>
@@ -3782,7 +3782,7 @@
         <v>2.554371161859318</v>
       </c>
       <c r="C135">
-        <v>0.002043496929487453</v>
+        <v>0.002032117073873759</v>
       </c>
       <c r="D135">
         <v>-0.09999997733786892</v>
@@ -3802,7 +3802,7 @@
         <v>2.546032975529465</v>
       </c>
       <c r="C136">
-        <v>0.00203682638042357</v>
+        <v>0.002025483671861148</v>
       </c>
       <c r="D136">
         <v>-0.06999997592232032</v>
@@ -3822,7 +3822,7 @@
         <v>2.543431153808137</v>
       </c>
       <c r="C137">
-        <v>0.00203474492304651</v>
+        <v>0.002023413805734398</v>
       </c>
       <c r="D137">
         <v>-0.069462652746203</v>
@@ -3842,7 +3842,7 @@
         <v>2.533757207781401</v>
       </c>
       <c r="C138">
-        <v>0.00202700576622512</v>
+        <v>0.002015717746842801</v>
       </c>
       <c r="D138">
         <v>-0.09987198462060953</v>
@@ -3862,7 +3862,7 @@
         <v>2.525953350768558</v>
       </c>
       <c r="C139">
-        <v>0.002020762680614848</v>
+        <v>0.002009509427819061</v>
       </c>
       <c r="D139">
         <v>-0.06986907208583493</v>
@@ -3882,7 +3882,7 @@
         <v>2.521911455286874</v>
       </c>
       <c r="C140">
-        <v>0.002017529164229499</v>
+        <v>0.002006293918287091</v>
       </c>
       <c r="D140">
         <v>-0.09655179331050101</v>
@@ -3902,7 +3902,7 @@
         <v>2.513433263497445</v>
       </c>
       <c r="C141">
-        <v>0.00201074661079796</v>
+        <v>0.001999549135638385</v>
       </c>
       <c r="D141">
         <v>-0.06990523333736054</v>
@@ -3922,7 +3922,7 @@
         <v>2.505028543966455</v>
       </c>
       <c r="C142">
-        <v>0.002004022835173163</v>
+        <v>0.00199286280347371</v>
       </c>
       <c r="D142">
         <v>-0.06946685135807706</v>
@@ -3942,7 +3942,7 @@
         <v>2.501703360924076</v>
       </c>
       <c r="C143">
-        <v>0.002001362688739263</v>
+        <v>0.001990217470902211</v>
       </c>
       <c r="D143">
         <v>-0.06994813129869171</v>
@@ -3962,7 +3962,7 @@
         <v>2.491779118399533</v>
       </c>
       <c r="C144">
-        <v>0.001993423294719627</v>
+        <v>0.001982322289896209</v>
       </c>
       <c r="D144">
         <v>-0.0698412724976426</v>
@@ -3982,7 +3982,7 @@
         <v>2.489896612799631</v>
       </c>
       <c r="C145">
-        <v>0.001991917290239701</v>
+        <v>0.001980824672076075</v>
       </c>
       <c r="D145">
         <v>-0.06972115173805338</v>
@@ -4002,7 +4002,7 @@
         <v>2.479274339810012</v>
       </c>
       <c r="C146">
-        <v>0.001983419471848008</v>
+        <v>0.001972374176459834</v>
       </c>
       <c r="D146">
         <v>-0.06992079729673628</v>
@@ -4022,7 +4022,7 @@
         <v>2.478477419200941</v>
       </c>
       <c r="C147">
-        <v>0.001982781935360753</v>
+        <v>0.0019717401902951</v>
       </c>
       <c r="D147">
         <v>-0.06557378213221121</v>
@@ -4042,7 +4042,7 @@
         <v>2.476170546567818</v>
       </c>
       <c r="C148">
-        <v>0.001980936437254252</v>
+        <v>0.001969904969425469</v>
       </c>
       <c r="D148">
         <v>-0.06999999284744263</v>
@@ -4062,7 +4062,7 @@
         <v>2.467754827710609</v>
       </c>
       <c r="C149">
-        <v>0.001974203862168488</v>
+        <v>0.001963209886802395</v>
       </c>
       <c r="D149">
         <v>-0.06963250274027122</v>
@@ -4082,7 +4082,7 @@
         <v>2.444372318490909</v>
       </c>
       <c r="C150">
-        <v>0.001955497854792727</v>
+        <v>0.001944608049714327</v>
       </c>
       <c r="D150">
         <v>-0.06927714050223288</v>
@@ -4102,7 +4102,7 @@
         <v>2.442184454598007</v>
       </c>
       <c r="C151">
-        <v>0.001953747563678403</v>
+        <v>0.001942867505646781</v>
       </c>
       <c r="D151">
         <v>-0.06990293725202734</v>
@@ -4122,7 +4122,7 @@
         <v>2.435730359943895</v>
       </c>
       <c r="C152">
-        <v>0.001948584287955117</v>
+        <v>0.001937732983248923</v>
       </c>
       <c r="D152">
         <v>-0.07000008020039405</v>
@@ -4142,7 +4142,7 @@
         <v>2.417733344303555</v>
       </c>
       <c r="C153">
-        <v>0.001934186675442846</v>
+        <v>0.001923415548371963</v>
       </c>
       <c r="D153">
         <v>-0.06987575137530111</v>
@@ -4162,7 +4162,7 @@
         <v>2.411885786622388</v>
       </c>
       <c r="C154">
-        <v>0.001929508629297911</v>
+        <v>0.001918763553398878</v>
       </c>
       <c r="D154">
         <v>-0.06870229825350138</v>
@@ -4182,7 +4182,7 @@
         <v>2.409970904518604</v>
       </c>
       <c r="C155">
-        <v>0.001927976723614885</v>
+        <v>0.001917240178614643</v>
       </c>
       <c r="D155">
         <v>-0.08465116636107473</v>
@@ -4202,7 +4202,7 @@
         <v>2.408158704547233</v>
       </c>
       <c r="C156">
-        <v>0.001926526963637787</v>
+        <v>0.001915798492082127</v>
       </c>
       <c r="D156">
         <v>-0.06997743007304569</v>
@@ -4222,7 +4222,7 @@
         <v>2.383857611876045</v>
       </c>
       <c r="C157">
-        <v>0.001907086089500834</v>
+        <v>0.001896465880569645</v>
       </c>
       <c r="D157">
         <v>-0.06944444136063499</v>
@@ -4242,7 +4242,7 @@
         <v>2.382304678707296</v>
       </c>
       <c r="C158">
-        <v>0.001905843742965837</v>
+        <v>0.001895230452432216</v>
       </c>
       <c r="D158">
         <v>-0.06990017574271634</v>
@@ -4262,7 +4262,7 @@
         <v>2.381459048173585</v>
       </c>
       <c r="C159">
-        <v>0.001905167238538867</v>
+        <v>0.001894557715333002</v>
       </c>
       <c r="D159">
         <v>-0.06988350176847491</v>
@@ -4282,7 +4282,7 @@
         <v>2.368547239682655</v>
       </c>
       <c r="C160">
-        <v>0.001894837791746124</v>
+        <v>0.001884285791314761</v>
       </c>
       <c r="D160">
         <v>-0.06984127978392152</v>
@@ -4302,7 +4302,7 @@
         <v>2.366377322781318</v>
       </c>
       <c r="C161">
-        <v>0.001893101858225056</v>
+        <v>0.001882559524885696</v>
       </c>
       <c r="D161">
         <v>-0.0690608151727804</v>
@@ -4322,7 +4322,7 @@
         <v>2.365398494718307</v>
       </c>
       <c r="C162">
-        <v>0.001892318795774643</v>
+        <v>0.001881780823164919</v>
       </c>
       <c r="D162">
         <v>-0.06903348229865602</v>
@@ -4342,7 +4342,7 @@
         <v>2.294577614097162</v>
       </c>
       <c r="C163">
-        <v>0.001835662091277727</v>
+        <v>0.001825439629353349</v>
       </c>
       <c r="D163">
         <v>-0.06906902405434578</v>
@@ -4362,7 +4362,7 @@
         <v>2.222177150692973</v>
       </c>
       <c r="C164">
-        <v>0.001777741720554382</v>
+        <v>0.001767841806438327</v>
       </c>
       <c r="D164">
         <v>-0.09677420366253031</v>
@@ -4382,7 +4382,7 @@
         <v>2.212905483752379</v>
       </c>
       <c r="C165">
-        <v>0.001770324387001903</v>
+        <v>0.001760465778641511</v>
       </c>
       <c r="D165">
         <v>-0.06979280195244686</v>
@@ -4402,7 +4402,7 @@
         <v>2.131062822631005</v>
       </c>
       <c r="C166">
-        <v>0.001704850258104803</v>
+        <v>0.001695356263031825</v>
       </c>
       <c r="D166">
         <v>-0.1111111042149548</v>
@@ -4422,7 +4422,7 @@
         <v>2.111999006148011</v>
       </c>
       <c r="C167">
-        <v>0.00168959920491841</v>
+        <v>0.001680190140133662</v>
       </c>
       <c r="D167">
         <v>-0.06936408737921229</v>
@@ -4442,7 +4442,7 @@
         <v>2.104831454628723</v>
       </c>
       <c r="C168">
-        <v>0.001683865163702978</v>
+        <v>0.001674488030730886</v>
       </c>
       <c r="D168">
         <v>-0.06991872282140932</v>
@@ -4462,7 +4462,7 @@
         <v>2.098144511307812</v>
       </c>
       <c r="C169">
-        <v>0.001678515609046247</v>
+        <v>0.001669168266752434</v>
       </c>
       <c r="D169">
         <v>-0.06909089280352687</v>
@@ -4482,7 +4482,7 @@
         <v>2.095948151640311</v>
       </c>
       <c r="C170">
-        <v>0.001676758521312248</v>
+        <v>0.001667420963914328</v>
       </c>
       <c r="D170">
         <v>-0.07719292174407599</v>
@@ -4502,7 +4502,7 @@
         <v>1.985628054934576</v>
       </c>
       <c r="C171">
-        <v>0.001588502443947661</v>
+        <v>0.001579656368285263</v>
       </c>
       <c r="D171">
         <v>-0.06984663259319479</v>
@@ -4522,7 +4522,7 @@
         <v>1.969150202460746</v>
       </c>
       <c r="C172">
-        <v>0.001575320161968595</v>
+        <v>0.001566547495991045</v>
       </c>
       <c r="D172">
         <v>-0.06896555323692</v>
@@ -4542,7 +4542,7 @@
         <v>1.967218328812642</v>
       </c>
       <c r="C173">
-        <v>0.001573774663050114</v>
+        <v>0.001565010603669564</v>
       </c>
       <c r="D173">
         <v>-0.06976743899502935</v>
@@ -4562,7 +4562,7 @@
         <v>1.956913649455014</v>
       </c>
       <c r="C174">
-        <v>0.001565530919564011</v>
+        <v>0.001556812768062859</v>
       </c>
       <c r="D174">
         <v>-0.2127659574468085</v>
@@ -4582,7 +4582,7 @@
         <v>1.952180027909109</v>
       </c>
       <c r="C175">
-        <v>0.001561744022327287</v>
+        <v>0.0015530469593549</v>
       </c>
       <c r="D175">
         <v>-0.09547738013434359</v>
@@ -4602,7 +4602,7 @@
         <v>1.875191856183886</v>
       </c>
       <c r="C176">
-        <v>0.001500153484947109</v>
+        <v>0.001491799408260848</v>
       </c>
       <c r="D176">
         <v>-0.07482990068676376</v>
@@ -4622,7 +4622,7 @@
         <v>1.844721993472982</v>
       </c>
       <c r="C177">
-        <v>0.001475777594778386</v>
+        <v>0.001467559262906111</v>
       </c>
       <c r="D177">
         <v>-0.06947889057242518</v>
@@ -4642,7 +4642,7 @@
         <v>1.832763146249315</v>
       </c>
       <c r="C178">
-        <v>0.001466210516999451</v>
+        <v>0.001458045462409956</v>
       </c>
       <c r="D178">
         <v>-0.06997739339750808</v>
@@ -4662,7 +4662,7 @@
         <v>1.832635963944594</v>
       </c>
       <c r="C179">
-        <v>0.001466108771155675</v>
+        <v>0.001457944283169924</v>
       </c>
       <c r="D179">
         <v>-0.0695187053760733</v>
@@ -4682,7 +4682,7 @@
         <v>1.823401533418815</v>
       </c>
       <c r="C180">
-        <v>0.001458721226735051</v>
+        <v>0.001450597878614808</v>
       </c>
       <c r="D180">
         <v>-0.06962027661690495</v>
@@ -4702,7 +4702,7 @@
         <v>1.790784255307355</v>
       </c>
       <c r="C181">
-        <v>0.001432627404245886</v>
+        <v>0.001424649367786283</v>
       </c>
       <c r="D181">
         <v>-0.06600663872224521</v>
@@ -4722,7 +4722,7 @@
         <v>1.764850491095587</v>
       </c>
       <c r="C182">
-        <v>0.001411880392876471</v>
+        <v>0.001404017892677477</v>
       </c>
       <c r="D182">
         <v>-0.06964281581374276</v>
@@ -4742,7 +4742,7 @@
         <v>1.748298912905265</v>
       </c>
       <c r="C183">
-        <v>0.001398639130324212</v>
+        <v>0.001390850368261945</v>
       </c>
       <c r="D183">
         <v>-0.06904232708871627</v>
@@ -4762,7 +4762,7 @@
         <v>1.716952597866596</v>
       </c>
       <c r="C184">
-        <v>0.001373562078293277</v>
+        <v>0.001365912965685438</v>
       </c>
       <c r="D184">
         <v>-0.1290322479309236</v>
@@ -4782,7 +4782,7 @@
         <v>1.689283559559422</v>
       </c>
       <c r="C185">
-        <v>0.001351426847647538</v>
+        <v>0.001343901002036136</v>
       </c>
       <c r="D185">
         <v>-0.07586206896551728</v>
@@ -4802,7 +4802,7 @@
         <v>1.651199378835179</v>
       </c>
       <c r="C186">
-        <v>0.001320959503068144</v>
+        <v>0.001313603324451217</v>
       </c>
       <c r="D186">
         <v>-0.1000000159853983</v>
@@ -4822,7 +4822,7 @@
         <v>1.631011547668572</v>
       </c>
       <c r="C187">
-        <v>0.001304809238134857</v>
+        <v>0.001297542997349698</v>
       </c>
       <c r="D187">
         <v>-0.06981524422491381</v>
@@ -4842,7 +4842,7 @@
         <v>1.624543911722209</v>
       </c>
       <c r="C188">
-        <v>0.001299635129377768</v>
+        <v>0.001292397702245194</v>
       </c>
       <c r="D188">
         <v>-0.1359223209634383</v>
@@ -4862,7 +4862,7 @@
         <v>1.581055971430679</v>
       </c>
       <c r="C189">
-        <v>0.001264844777144544</v>
+        <v>0.001257801091034749</v>
       </c>
       <c r="D189">
         <v>-0.06988695709559989</v>
@@ -4882,7 +4882,7 @@
         <v>1.572017530075613</v>
       </c>
       <c r="C190">
-        <v>0.00125761402406049</v>
+        <v>0.001250610604674314</v>
       </c>
       <c r="D190">
         <v>-0.06920418159995967</v>
@@ -4902,7 +4902,7 @@
         <v>1.570127807578676</v>
       </c>
       <c r="C191">
-        <v>0.001256102246062941</v>
+        <v>0.001249107245488207</v>
       </c>
       <c r="D191">
         <v>-0.1153846689979657</v>
@@ -4922,7 +4922,7 @@
         <v>1.550804950922618</v>
       </c>
       <c r="C192">
-        <v>0.001240643960738094</v>
+        <v>0.001233735044488955</v>
       </c>
       <c r="D192">
         <v>-0.06903359353592942</v>
@@ -4942,7 +4942,7 @@
         <v>1.432830969119015</v>
       </c>
       <c r="C193">
-        <v>0.001146264775295212</v>
+        <v>0.001139881439235494</v>
       </c>
       <c r="D193">
         <v>-0.07000002832724772</v>
@@ -4962,7 +4962,7 @@
         <v>1.398754864381863</v>
       </c>
       <c r="C194">
-        <v>0.00111900389150549</v>
+        <v>0.001112772366254465</v>
       </c>
       <c r="D194">
         <v>-0.06910562732073722</v>
@@ -4982,7 +4982,7 @@
         <v>1.37191087572145</v>
       </c>
       <c r="C195">
-        <v>0.00109752870057716</v>
+        <v>0.001091416766683731</v>
       </c>
       <c r="D195">
         <v>-0.07505523455869945</v>
@@ -5002,7 +5002,7 @@
         <v>1.36762577310947</v>
       </c>
       <c r="C196">
-        <v>0.001094100618487575</v>
+        <v>0.001088007774947867</v>
       </c>
       <c r="D196">
         <v>-0.08776595744680848</v>
@@ -5022,7 +5022,7 @@
         <v>1.334120137288996</v>
       </c>
       <c r="C197">
-        <v>0.001067296109831197</v>
+        <v>0.001061352535631659</v>
       </c>
       <c r="D197">
         <v>-0.1026615720542988</v>
@@ -5042,7 +5042,7 @@
         <v>1.294519661652472</v>
       </c>
       <c r="C198">
-        <v>0.001035615729321977</v>
+        <v>0.001029848577289158</v>
       </c>
       <c r="D198">
         <v>-0.0694126800439423</v>
@@ -5062,7 +5062,7 @@
         <v>1.262368758273469</v>
       </c>
       <c r="C199">
-        <v>0.001009895006618776</v>
+        <v>0.001004271088523047</v>
       </c>
       <c r="D199">
         <v>-0.06771649541528946</v>
@@ -5082,7 +5082,7 @@
         <v>1.221748464310593</v>
       </c>
       <c r="C200">
-        <v>0.0009773987714484747</v>
+        <v>0.0009719558188628428</v>
       </c>
       <c r="D200">
         <v>-0.06849312549060282</v>
@@ -5102,7 +5102,7 @@
         <v>1.1474968951577</v>
       </c>
       <c r="C201">
-        <v>0.0009179975161261599</v>
+        <v>0.000912885358120684</v>
       </c>
       <c r="D201">
         <v>-0.06994330999834741</v>
@@ -5122,7 +5122,7 @@
         <v>1.132965082056107</v>
       </c>
       <c r="C202">
-        <v>0.0009063720656448855</v>
+        <v>0.0009013246476182234</v>
       </c>
       <c r="D202">
         <v>-0.06999998712539734</v>
@@ -5142,7 +5142,7 @@
         <v>1.050556122575372</v>
       </c>
       <c r="C203">
-        <v>0.0008404448980602975</v>
+        <v>0.0008357646162095242</v>
       </c>
       <c r="D203">
         <v>-0.06919944750899132</v>
@@ -5162,7 +5162,7 @@
         <v>0.8656416790658884</v>
       </c>
       <c r="C204">
-        <v>0.0006925133432527107</v>
+        <v>0.0006886568648097759</v>
       </c>
       <c r="D204">
         <v>-0.0972221983067777</v>
@@ -5182,7 +5182,7 @@
         <v>0.8613896054728223</v>
       </c>
       <c r="C205">
-        <v>0.0006891116843782578</v>
+        <v>0.0006852741491430567</v>
       </c>
       <c r="D205">
         <v>-0.06962025639760372</v>
@@ -5202,7 +5202,7 @@
         <v>0.8407246857701912</v>
       </c>
       <c r="C206">
-        <v>0.000672579748616153</v>
+        <v>0.0006688342766668188</v>
       </c>
       <c r="D206">
         <v>-0.06948425182676632</v>
@@ -5222,7 +5222,7 @@
         <v>0.7053159780841297</v>
       </c>
       <c r="C207">
-        <v>0.0005642527824673037</v>
+        <v>0.0005611105633127523</v>
       </c>
       <c r="D207">
         <v>-0.06984870440182311</v>
@@ -5242,7 +5242,7 @@
         <v>0.703625619650065</v>
       </c>
       <c r="C208">
-        <v>0.000562900495720052</v>
+        <v>0.0005597658071997334</v>
       </c>
       <c r="D208">
         <v>-0.06957191048317279</v>
@@ -5262,7 +5262,7 @@
         <v>0.656492571549953</v>
       </c>
       <c r="C209">
-        <v>0.0005251940572399624</v>
+        <v>0.0005222693488861997</v>
       </c>
       <c r="D209">
         <v>-0.06969986365866065</v>
@@ -5282,7 +5282,7 @@
         <v>0.5207094770997991</v>
       </c>
       <c r="C210">
-        <v>0.0004165675816798393</v>
+        <v>0.0004142477940332531</v>
       </c>
       <c r="D210">
         <v>-0.05138337060327858</v>
@@ -5302,7 +5302,7 @@
         <v>0.1704313290524826</v>
       </c>
       <c r="C211">
-        <v>0.0001363450632419861</v>
+        <v>0.0001355857828579814</v>
       </c>
       <c r="D211">
         <v>-0.04887222277315439</v>
@@ -5322,7 +5322,7 @@
         <v>0.1151020417389471</v>
       </c>
       <c r="C212">
-        <v>9.208163339115769E-05</v>
+        <v>9.156884784323557E-05</v>
       </c>
       <c r="D212">
         <v>-0.1435185289428612</v>

--- a/.xlsx/performance_stock_statistic.xlsx
+++ b/.xlsx/performance_stock_statistic.xlsx
@@ -40,24 +40,24 @@
     <t>SBS</t>
   </si>
   <si>
+    <t>CEO</t>
+  </si>
+  <si>
     <t>CTS</t>
   </si>
   <si>
-    <t>CEO</t>
+    <t>VGS</t>
   </si>
   <si>
     <t>NHA</t>
   </si>
   <si>
+    <t>VIX</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>VGS</t>
-  </si>
-  <si>
     <t>AGR</t>
   </si>
   <si>
@@ -67,597 +67,597 @@
     <t>PSI</t>
   </si>
   <si>
+    <t>PVC</t>
+  </si>
+  <si>
     <t>HQC</t>
   </si>
   <si>
+    <t>VDS</t>
+  </si>
+  <si>
+    <t>VCI</t>
+  </si>
+  <si>
     <t>FTS</t>
   </si>
   <si>
-    <t>PVC</t>
+    <t>NKG</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>MBS</t>
+  </si>
+  <si>
+    <t>SCI</t>
   </si>
   <si>
     <t>HUT</t>
   </si>
   <si>
-    <t>IDI</t>
-  </si>
-  <si>
-    <t>VDS</t>
-  </si>
-  <si>
-    <t>VCI</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>NKG</t>
-  </si>
-  <si>
-    <t>MBS</t>
-  </si>
-  <si>
     <t>PET</t>
   </si>
   <si>
-    <t>BSI</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
     <t>SGP</t>
   </si>
   <si>
+    <t>BVS</t>
+  </si>
+  <si>
     <t>C4G</t>
   </si>
   <si>
-    <t>BVS</t>
-  </si>
-  <si>
     <t>DRI</t>
   </si>
   <si>
+    <t>ORS</t>
+  </si>
+  <si>
     <t>DGW</t>
   </si>
   <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>VPH</t>
+  </si>
+  <si>
+    <t>DXG</t>
+  </si>
+  <si>
+    <t>HSG</t>
+  </si>
+  <si>
+    <t>OGC</t>
+  </si>
+  <si>
     <t>TSC</t>
   </si>
   <si>
-    <t>VPH</t>
-  </si>
-  <si>
-    <t>ORS</t>
-  </si>
-  <si>
-    <t>G36</t>
-  </si>
-  <si>
-    <t>ASM</t>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>PVD</t>
   </si>
   <si>
     <t>DDV</t>
   </si>
   <si>
-    <t>OGC</t>
-  </si>
-  <si>
-    <t>DBC</t>
-  </si>
-  <si>
-    <t>JVC</t>
+    <t>DGC</t>
   </si>
   <si>
     <t>IPA</t>
   </si>
   <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>DXG</t>
-  </si>
-  <si>
     <t>SCR</t>
   </si>
   <si>
-    <t>DGC</t>
-  </si>
-  <si>
-    <t>HSG</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>BFC</t>
+    <t>HHS</t>
   </si>
   <si>
     <t>DPG</t>
   </si>
   <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
     <t>IJC</t>
   </si>
   <si>
+    <t>PVB</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>HTN</t>
+  </si>
+  <si>
     <t>DCM</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>HTN</t>
-  </si>
-  <si>
-    <t>HHS</t>
-  </si>
-  <si>
-    <t>TIG</t>
-  </si>
-  <si>
-    <t>SSI</t>
+    <t>FRT</t>
+  </si>
+  <si>
+    <t>NBC</t>
   </si>
   <si>
     <t>HCM</t>
   </si>
   <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>LCG</t>
+  </si>
+  <si>
+    <t>IDJ</t>
+  </si>
+  <si>
+    <t>IVS</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
     <t>HAH</t>
   </si>
   <si>
+    <t>HAG</t>
+  </si>
+  <si>
+    <t>GEX</t>
+  </si>
+  <si>
     <t>LGL</t>
   </si>
   <si>
-    <t>IVS</t>
-  </si>
-  <si>
-    <t>IDJ</t>
-  </si>
-  <si>
-    <t>PVB</t>
-  </si>
-  <si>
-    <t>BCG</t>
-  </si>
-  <si>
-    <t>GEX</t>
-  </si>
-  <si>
-    <t>FRT</t>
-  </si>
-  <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>LCG</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>HAG</t>
-  </si>
-  <si>
     <t>S99</t>
   </si>
   <si>
+    <t>PVS</t>
+  </si>
+  <si>
     <t>BSR</t>
   </si>
   <si>
+    <t>GVR</t>
+  </si>
+  <si>
     <t>CSV</t>
   </si>
   <si>
     <t>LDG</t>
   </si>
   <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>EVF</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>SZC</t>
+  </si>
+  <si>
     <t>DTD</t>
   </si>
   <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>GVR</t>
-  </si>
-  <si>
-    <t>PVS</t>
-  </si>
-  <si>
     <t>ANV</t>
   </si>
   <si>
-    <t>FCN</t>
-  </si>
-  <si>
-    <t>SZC</t>
-  </si>
-  <si>
-    <t>HDC</t>
+    <t>VGC</t>
+  </si>
+  <si>
+    <t>LPB</t>
+  </si>
+  <si>
+    <t>APG</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>VPG</t>
   </si>
   <si>
     <t>DPM</t>
   </si>
   <si>
-    <t>VPG</t>
-  </si>
-  <si>
-    <t>EVF</t>
-  </si>
-  <si>
-    <t>VGC</t>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>HAX</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>HDG</t>
   </si>
   <si>
     <t>GIL</t>
   </si>
   <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>TTN</t>
-  </si>
-  <si>
-    <t>CTR</t>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>CII</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>CKG</t>
   </si>
   <si>
     <t>TV2</t>
   </si>
   <si>
-    <t>VGT</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>LPB</t>
-  </si>
-  <si>
-    <t>HAX</t>
-  </si>
-  <si>
-    <t>CKG</t>
-  </si>
-  <si>
-    <t>KBC</t>
-  </si>
-  <si>
-    <t>CII</t>
-  </si>
-  <si>
-    <t>IDC</t>
-  </si>
-  <si>
-    <t>HDG</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>APG</t>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>VIB</t>
+  </si>
+  <si>
+    <t>TCM</t>
   </si>
   <si>
     <t>PDR</t>
   </si>
   <si>
-    <t>VIB</t>
-  </si>
-  <si>
-    <t>TCM</t>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>TCH</t>
   </si>
   <si>
     <t>CMX</t>
   </si>
   <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>VIP</t>
-  </si>
-  <si>
     <t>HVH</t>
   </si>
   <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>HHV</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
     <t>MWG</t>
   </si>
   <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>HHV</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
     <t>ASP</t>
   </si>
   <si>
-    <t>STB</t>
+    <t>HDB</t>
   </si>
   <si>
     <t>VHC</t>
   </si>
   <si>
-    <t>HPG</t>
+    <t>TCB</t>
+  </si>
+  <si>
+    <t>PTB</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>TCB</t>
-  </si>
-  <si>
-    <t>PTB</t>
+    <t>MBB</t>
+  </si>
+  <si>
+    <t>NBB</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>VTO</t>
+  </si>
+  <si>
+    <t>BCM</t>
   </si>
   <si>
     <t>LHG</t>
   </si>
   <si>
-    <t>BCM</t>
-  </si>
-  <si>
-    <t>HDB</t>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>MSH</t>
+  </si>
+  <si>
+    <t>VGI</t>
   </si>
   <si>
     <t>NTL</t>
   </si>
   <si>
-    <t>VGI</t>
-  </si>
-  <si>
-    <t>MBB</t>
-  </si>
-  <si>
-    <t>MSH</t>
-  </si>
-  <si>
-    <t>DPR</t>
+    <t>SHB</t>
+  </si>
+  <si>
+    <t>TNI</t>
   </si>
   <si>
     <t>HVN</t>
   </si>
   <si>
-    <t>VTO</t>
-  </si>
-  <si>
-    <t>TNI</t>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>THG</t>
+  </si>
+  <si>
+    <t>NLG</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>DAH</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>SKG</t>
   </si>
   <si>
     <t>VCG</t>
   </si>
   <si>
-    <t>NTP</t>
-  </si>
-  <si>
-    <t>NBB</t>
-  </si>
-  <si>
-    <t>SHB</t>
-  </si>
-  <si>
-    <t>SKG</t>
-  </si>
-  <si>
-    <t>NLG</t>
-  </si>
-  <si>
-    <t>VCS</t>
-  </si>
-  <si>
-    <t>BMI</t>
+    <t>SAM</t>
   </si>
   <si>
     <t>NVB</t>
   </si>
   <si>
-    <t>TCL</t>
-  </si>
-  <si>
-    <t>GMD</t>
-  </si>
-  <si>
-    <t>CTG</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t>DRC</t>
-  </si>
-  <si>
-    <t>THG</t>
-  </si>
-  <si>
-    <t>DAH</t>
-  </si>
-  <si>
-    <t>SBT</t>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>PHR</t>
+  </si>
+  <si>
+    <t>VPB</t>
   </si>
   <si>
     <t>VSC</t>
   </si>
   <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>SAM</t>
+    <t>EIB</t>
   </si>
   <si>
     <t>D2D</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>VPB</t>
+    <t>KDH</t>
+  </si>
+  <si>
+    <t>HNG</t>
+  </si>
+  <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>CMG</t>
   </si>
   <si>
     <t>DQC</t>
   </si>
   <si>
-    <t>HNG</t>
-  </si>
-  <si>
-    <t>KDH</t>
-  </si>
-  <si>
-    <t>HT1</t>
-  </si>
-  <si>
-    <t>EIB</t>
-  </si>
-  <si>
-    <t>PHR</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
     <t>NDN</t>
   </si>
   <si>
+    <t>YEG</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
     <t>MSN</t>
   </si>
   <si>
     <t>DVN</t>
   </si>
   <si>
+    <t>BMP</t>
+  </si>
+  <si>
     <t>REE</t>
   </si>
   <si>
-    <t>BMP</t>
-  </si>
-  <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>YEG</t>
+    <t>VTP</t>
   </si>
   <si>
     <t>BVH</t>
   </si>
   <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
     <t>DXS</t>
   </si>
   <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>VTP</t>
+    <t>BWE</t>
+  </si>
+  <si>
+    <t>DVP</t>
+  </si>
+  <si>
+    <t>GEG</t>
   </si>
   <si>
     <t>KHG</t>
   </si>
   <si>
-    <t>POW</t>
+    <t>ACV</t>
   </si>
   <si>
     <t>NVL</t>
   </si>
   <si>
-    <t>GEG</t>
-  </si>
-  <si>
-    <t>GAS</t>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>ABB</t>
   </si>
   <si>
     <t>GDT</t>
   </si>
   <si>
-    <t>BWE</t>
-  </si>
-  <si>
-    <t>DVP</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ACV</t>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>QTP</t>
+  </si>
+  <si>
+    <t>PLX</t>
   </si>
   <si>
     <t>DL1</t>
   </si>
   <si>
-    <t>VCB</t>
+    <t>ICT</t>
   </si>
   <si>
     <t>VTD</t>
   </si>
   <si>
-    <t>BID</t>
-  </si>
-  <si>
-    <t>MSB</t>
-  </si>
-  <si>
-    <t>QTP</t>
-  </si>
-  <si>
-    <t>PLX</t>
-  </si>
-  <si>
-    <t>ICT</t>
+    <t>OCB</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>FOC</t>
+  </si>
+  <si>
+    <t>SCS</t>
   </si>
   <si>
     <t>AGG</t>
   </si>
   <si>
-    <t>VEA</t>
-  </si>
-  <si>
-    <t>QNS</t>
-  </si>
-  <si>
-    <t>FOC</t>
-  </si>
-  <si>
-    <t>SCS</t>
-  </si>
-  <si>
-    <t>OCB</t>
-  </si>
-  <si>
     <t>NT2</t>
   </si>
   <si>
     <t>PPC</t>
   </si>
   <si>
+    <t>BAF</t>
+  </si>
+  <si>
     <t>VIC</t>
   </si>
   <si>
-    <t>BAF</t>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>VJC</t>
+  </si>
+  <si>
+    <t>DHG</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>VNM</t>
   </si>
   <si>
     <t>ABW</t>
   </si>
   <si>
-    <t>SAB</t>
-  </si>
-  <si>
-    <t>DHG</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>VJC</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
     <t>GDA</t>
   </si>
   <si>
@@ -673,21 +673,21 @@
     <t>bds</t>
   </si>
   <si>
+    <t>thep</t>
+  </si>
+  <si>
     <t>van_tai</t>
   </si>
   <si>
-    <t>thep</t>
-  </si>
-  <si>
     <t>dau_khi</t>
   </si>
   <si>
+    <t>thuy_san</t>
+  </si>
+  <si>
     <t>xd</t>
   </si>
   <si>
-    <t>thuy_san</t>
-  </si>
-  <si>
     <t>ban_le</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>hoa_chat</t>
   </si>
   <si>
+    <t>y_te</t>
+  </si>
+  <si>
     <t>thuc_pham</t>
   </si>
   <si>
-    <t>y_te</t>
-  </si>
-  <si>
     <t>tai_chinh</t>
   </si>
   <si>
@@ -715,10 +715,10 @@
     <t>bds_kcn</t>
   </si>
   <si>
+    <t>ngan_hang</t>
+  </si>
+  <si>
     <t>det_may</t>
-  </si>
-  <si>
-    <t>ngan_hang</t>
   </si>
   <si>
     <t>htd</t>
@@ -1119,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.415610436536586</v>
+        <v>7.250613892021286</v>
       </c>
       <c r="C2">
-        <v>0.005899451421270159</v>
+        <v>0.005731710586578093</v>
       </c>
       <c r="D2">
         <v>-0.1428570942002891</v>
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6.137223241829957</v>
+        <v>5.941721147938496</v>
       </c>
       <c r="C3">
-        <v>0.004882436946563212</v>
+        <v>0.004697012765168773</v>
       </c>
       <c r="D3">
         <v>-0.1428571536697765</v>
@@ -1159,19 +1159,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.889006523340024</v>
+        <v>5.902455027374119</v>
       </c>
       <c r="C4">
-        <v>0.004684969390087527</v>
+        <v>0.004665972353655427</v>
       </c>
       <c r="D4">
-        <v>-0.06984121906088969</v>
+        <v>-0.1000000133849027</v>
       </c>
       <c r="E4">
-        <v>0.07000001271565748</v>
+        <v>0.1000000356930739</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5.872028819356641</v>
+        <v>5.747640858313886</v>
       </c>
       <c r="C5">
-        <v>0.004671462863449987</v>
+        <v>0.004543589611315324</v>
       </c>
       <c r="D5">
-        <v>-0.1000000133849027</v>
+        <v>-0.06984121906088969</v>
       </c>
       <c r="E5">
-        <v>0.1000000356930739</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.782565372806189</v>
+        <v>5.625065888750305</v>
       </c>
       <c r="C6">
-        <v>0.004600290670490202</v>
+        <v>0.004446692402174154</v>
       </c>
       <c r="D6">
-        <v>-0.09090913746128004</v>
+        <v>-0.0994475370355048</v>
       </c>
       <c r="E6">
-        <v>0.09999998081128969</v>
+        <v>0.1000000603655131</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5.666728096697503</v>
+        <v>5.609309586976261</v>
       </c>
       <c r="C7">
-        <v>0.004508136910658314</v>
+        <v>0.004434236827649215</v>
       </c>
       <c r="D7">
-        <v>-0.06998654009966343</v>
+        <v>-0.09090913746128004</v>
       </c>
       <c r="E7">
-        <v>0.06998449426375264</v>
+        <v>0.09999998081128969</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1239,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5.590189579298201</v>
+        <v>5.433477445340378</v>
       </c>
       <c r="C8">
-        <v>0.004447247079791717</v>
+        <v>0.004295239087225586</v>
       </c>
       <c r="D8">
         <v>-0.07722004832454432</v>
@@ -1259,16 +1259,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>5.526172921559544</v>
+        <v>5.415594114102441</v>
       </c>
       <c r="C9">
-        <v>0.004396318951121356</v>
+        <v>0.00428110206648414</v>
       </c>
       <c r="D9">
-        <v>-0.09836071819597147</v>
+        <v>-0.06998654009966343</v>
       </c>
       <c r="E9">
-        <v>0.1000000603655131</v>
+        <v>0.06998449426375264</v>
       </c>
       <c r="F9" t="s">
         <v>220</v>
@@ -1279,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>5.462787088932446</v>
+        <v>5.343535894800372</v>
       </c>
       <c r="C10">
-        <v>0.004345892672181739</v>
+        <v>0.004224139047273021</v>
       </c>
       <c r="D10">
         <v>-0.06990884476887027</v>
@@ -1299,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5.395410169482664</v>
+        <v>5.275740922277189</v>
       </c>
       <c r="C11">
-        <v>0.00429229130428215</v>
+        <v>0.00417054618361833</v>
       </c>
       <c r="D11">
         <v>-0.09747294299636589</v>
@@ -1319,10 +1319,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>5.27459006572319</v>
+        <v>5.152876217185405</v>
       </c>
       <c r="C12">
-        <v>0.004196173481084492</v>
+        <v>0.004073419934533929</v>
       </c>
       <c r="D12">
         <v>-0.1000000238418579</v>
@@ -1339,19 +1339,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>5.263810209054501</v>
+        <v>5.064124662714919</v>
       </c>
       <c r="C13">
-        <v>0.004187597620568414</v>
+        <v>0.004003260602936698</v>
       </c>
       <c r="D13">
-        <v>-0.0699588772113936</v>
+        <v>-0.09947640057477158</v>
       </c>
       <c r="E13">
-        <v>0.06999998092651372</v>
+        <v>0.1000000321380858</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5.125887243085601</v>
+        <v>5.039870594220533</v>
       </c>
       <c r="C14">
-        <v>0.004077873701738742</v>
+        <v>0.003984087426261287</v>
       </c>
       <c r="D14">
-        <v>-0.06996588428668826</v>
+        <v>-0.0699588772113936</v>
       </c>
       <c r="E14">
-        <v>0.07016946915667877</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5.036793938452599</v>
+        <v>4.903515103503275</v>
       </c>
       <c r="C15">
-        <v>0.004006995973311537</v>
+        <v>0.003876296524508522</v>
       </c>
       <c r="D15">
-        <v>-0.09947640057477158</v>
+        <v>-0.06923077372505004</v>
       </c>
       <c r="E15">
-        <v>0.1000000321380858</v>
+        <v>0.07000004083252076</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>5.022984070408222</v>
+        <v>4.879506381764896</v>
       </c>
       <c r="C16">
-        <v>0.003996009602552278</v>
+        <v>0.00385731729783786</v>
       </c>
       <c r="D16">
-        <v>-0.09839352984437644</v>
+        <v>-0.06999998347270431</v>
       </c>
       <c r="E16">
-        <v>0.1000000238418579</v>
+        <v>0.06998659929211004</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>5.00602772817991</v>
+        <v>4.861006486772804</v>
       </c>
       <c r="C17">
-        <v>0.003982520070151083</v>
+        <v>0.003842692874919212</v>
       </c>
       <c r="D17">
-        <v>-0.06976745184959177</v>
+        <v>-0.06996588428668826</v>
       </c>
       <c r="E17">
-        <v>0.06989253433580078</v>
+        <v>0.07016946915667877</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>4.998825307124659</v>
+        <v>4.838116432274371</v>
       </c>
       <c r="C18">
-        <v>0.003976790220465128</v>
+        <v>0.003824597970177372</v>
       </c>
       <c r="D18">
-        <v>-0.06923077372505004</v>
+        <v>-0.07000000122420647</v>
       </c>
       <c r="E18">
-        <v>0.07000004083252076</v>
+        <v>0.0700000547880828</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>4.975199976119383</v>
+        <v>4.834710676998814</v>
       </c>
       <c r="C19">
-        <v>0.003957995207732204</v>
+        <v>0.00382190567351685</v>
       </c>
       <c r="D19">
-        <v>-0.06999998347270431</v>
+        <v>-0.06999997141156844</v>
       </c>
       <c r="E19">
-        <v>0.06998659929211004</v>
+        <v>0.06999997724745022</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>4.939034427777061</v>
+        <v>4.791106698350825</v>
       </c>
       <c r="C20">
-        <v>0.00392922388844635</v>
+        <v>0.003787436125178518</v>
       </c>
       <c r="D20">
-        <v>-0.06999997141156844</v>
+        <v>-0.09900989979139119</v>
       </c>
       <c r="E20">
-        <v>0.06999997724745022</v>
+        <v>0.1000000489120731</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1499,16 +1499,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>4.920171725021122</v>
+        <v>4.760012254711309</v>
       </c>
       <c r="C21">
-        <v>0.003914217760557775</v>
+        <v>0.003762855537321193</v>
       </c>
       <c r="D21">
-        <v>-0.100000045741464</v>
+        <v>-0.06995068892871459</v>
       </c>
       <c r="E21">
-        <v>0.1000000934302641</v>
+        <v>0.06989253433580078</v>
       </c>
       <c r="F21" t="s">
         <v>222</v>
@@ -1519,19 +1519,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>4.864921415361494</v>
+        <v>4.752607364151463</v>
       </c>
       <c r="C22">
-        <v>0.003870263655816625</v>
+        <v>0.003757001868894432</v>
       </c>
       <c r="D22">
-        <v>-0.07000000122420647</v>
+        <v>-0.09999996993865379</v>
       </c>
       <c r="E22">
-        <v>0.0700000547880828</v>
+        <v>0.1000000674532162</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>4.834374248164919</v>
+        <v>4.733541005072569</v>
       </c>
       <c r="C23">
-        <v>0.003845962011268826</v>
+        <v>0.003741929648278712</v>
       </c>
       <c r="D23">
-        <v>-0.09999996993865379</v>
+        <v>-0.100000045741464</v>
       </c>
       <c r="E23">
-        <v>0.1000000674532162</v>
+        <v>0.1000000934302641</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>4.815363164778216</v>
+        <v>4.71481572686448</v>
       </c>
       <c r="C24">
-        <v>0.00383083783991902</v>
+        <v>0.00372712705680986</v>
       </c>
       <c r="D24">
-        <v>-0.06981125912528596</v>
+        <v>-0.09952608263049945</v>
       </c>
       <c r="E24">
-        <v>0.07000002114868153</v>
+        <v>0.1000000238418579</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>4.797794557639607</v>
+        <v>4.636537183961069</v>
       </c>
       <c r="C25">
-        <v>0.003816861223261422</v>
+        <v>0.00366524678573997</v>
       </c>
       <c r="D25">
-        <v>-0.09900989979139119</v>
+        <v>-0.06981125912528596</v>
       </c>
       <c r="E25">
-        <v>0.1000000489120731</v>
+        <v>0.07000002114868153</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1599,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>4.748866832481329</v>
+        <v>4.618284108509296</v>
       </c>
       <c r="C26">
-        <v>0.003777937018680456</v>
+        <v>0.003650817477082449</v>
       </c>
       <c r="D26">
         <v>-0.08070176242893345</v>
@@ -1619,10 +1619,10 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.709630607258978</v>
+        <v>4.571345469835961</v>
       </c>
       <c r="C27">
-        <v>0.00374672283791486</v>
+        <v>0.00361371183386242</v>
       </c>
       <c r="D27">
         <v>-0.1548386904216962</v>
@@ -1639,19 +1639,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>4.684602128205011</v>
+        <v>4.535847131809684</v>
       </c>
       <c r="C28">
-        <v>0.003726811557840103</v>
+        <v>0.003585649906568923</v>
       </c>
       <c r="D28">
-        <v>-0.1300000406889452</v>
+        <v>-0.09795912517683469</v>
       </c>
       <c r="E28">
-        <v>0.1476792721775402</v>
+        <v>0.1000000134083143</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>4.606357818612006</v>
+        <v>4.50765656277976</v>
       </c>
       <c r="C29">
-        <v>0.003664564692610985</v>
+        <v>0.003563364871762656</v>
       </c>
       <c r="D29">
-        <v>-0.09795912517683469</v>
+        <v>-0.1300000406889452</v>
       </c>
       <c r="E29">
-        <v>0.1000000134083143</v>
+        <v>0.1476792721775402</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1679,10 +1679,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>4.553466572345448</v>
+        <v>4.406488264466473</v>
       </c>
       <c r="C30">
-        <v>0.003622487328834883</v>
+        <v>0.003483389932384562</v>
       </c>
       <c r="D30">
         <v>-0.1168831085814298</v>
@@ -1699,19 +1699,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4.535057603878634</v>
+        <v>4.364043766833678</v>
       </c>
       <c r="C31">
-        <v>0.00360784216696789</v>
+        <v>0.003449836969828999</v>
       </c>
       <c r="D31">
-        <v>-0.07000002387813875</v>
+        <v>-0.1428571323095533</v>
       </c>
       <c r="E31">
-        <v>0.06994810878000934</v>
+        <v>0.1478260775459737</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>4.477200787867845</v>
+        <v>4.328535777543262</v>
       </c>
       <c r="C32">
-        <v>0.00356181446926638</v>
+        <v>0.003421767413077682</v>
       </c>
       <c r="D32">
-        <v>-0.06993005943680752</v>
+        <v>-0.07000002387813875</v>
       </c>
       <c r="E32">
-        <v>0.0699658239594414</v>
+        <v>0.06994810878000934</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>4.450070472289742</v>
+        <v>4.305378440941344</v>
       </c>
       <c r="C33">
-        <v>0.003540231083762724</v>
+        <v>0.003403461218135456</v>
       </c>
       <c r="D33">
-        <v>-0.07000007186491586</v>
+        <v>-0.1285714505174543</v>
       </c>
       <c r="E33">
-        <v>0.06991529194695567</v>
+        <v>0.1506849534158108</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>4.431616244283228</v>
+        <v>4.291491741332791</v>
       </c>
       <c r="C34">
-        <v>0.003525549915897561</v>
+        <v>0.003392483589986402</v>
       </c>
       <c r="D34">
-        <v>-0.1428571323095533</v>
+        <v>-0.06956522257975384</v>
       </c>
       <c r="E34">
-        <v>0.1478260775459737</v>
+        <v>0.06979873093402555</v>
       </c>
       <c r="F34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>4.419596892173348</v>
+        <v>4.287139115809495</v>
       </c>
       <c r="C35">
-        <v>0.003515987981044834</v>
+        <v>0.003389042779296046</v>
       </c>
       <c r="D35">
-        <v>-0.1285714505174543</v>
+        <v>-0.07000007186491586</v>
       </c>
       <c r="E35">
-        <v>0.1506849534158108</v>
+        <v>0.06991529194695567</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1799,16 +1799,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>4.393521132614735</v>
+        <v>4.277813594147739</v>
       </c>
       <c r="C36">
-        <v>0.003495243542255163</v>
+        <v>0.003381670825413235</v>
       </c>
       <c r="D36">
-        <v>-0.06956522257975384</v>
+        <v>-0.06986303623547474</v>
       </c>
       <c r="E36">
-        <v>0.06979873093402555</v>
+        <v>0.06999997102510291</v>
       </c>
       <c r="F36" t="s">
         <v>218</v>
@@ -1819,19 +1819,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>4.378879670625476</v>
+        <v>4.270926149597373</v>
       </c>
       <c r="C37">
-        <v>0.003483595601134028</v>
+        <v>0.003376226205215316</v>
       </c>
       <c r="D37">
-        <v>-0.174603154922072</v>
+        <v>-0.07000000604434009</v>
       </c>
       <c r="E37">
-        <v>0.1774193689505823</v>
+        <v>0.06997975604758744</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1839,13 +1839,13 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>4.339636426006847</v>
+        <v>4.225534220157672</v>
       </c>
       <c r="C38">
-        <v>0.003452375836123191</v>
+        <v>0.003340343257041642</v>
       </c>
       <c r="D38">
-        <v>-0.06979283947633397</v>
+        <v>-0.06999996730259483</v>
       </c>
       <c r="E38">
         <v>0.06999998092651372</v>
@@ -1859,19 +1859,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>4.319662834026766</v>
+        <v>4.201498030357268</v>
       </c>
       <c r="C39">
-        <v>0.003436485945924236</v>
+        <v>0.003321342316487954</v>
       </c>
       <c r="D39">
-        <v>-0.07000005297929035</v>
+        <v>-0.06993005943680752</v>
       </c>
       <c r="E39">
-        <v>0.06988348582748261</v>
+        <v>0.0699658239594414</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1879,19 +1879,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>4.312327017400797</v>
+        <v>4.195674540481024</v>
       </c>
       <c r="C40">
-        <v>0.003430649974065875</v>
+        <v>0.003316738767178678</v>
       </c>
       <c r="D40">
-        <v>-0.06980273558359951</v>
+        <v>-0.1000000203758433</v>
       </c>
       <c r="E40">
-        <v>0.0700000524520874</v>
+        <v>0.1000000181118603</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1899,19 +1899,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>4.299933297566477</v>
+        <v>4.179526106289591</v>
       </c>
       <c r="C41">
-        <v>0.003420790212861158</v>
+        <v>0.003303973206553041</v>
       </c>
       <c r="D41">
-        <v>-0.1782608635086822</v>
+        <v>-0.06980273558359951</v>
       </c>
       <c r="E41">
-        <v>0.2704918278796569</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1919,19 +1919,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>4.29120651081837</v>
+        <v>4.133915345996228</v>
       </c>
       <c r="C42">
-        <v>0.003413847661748904</v>
+        <v>0.003267917269562236</v>
       </c>
       <c r="D42">
-        <v>-0.1000000203758433</v>
+        <v>-0.07000005297929035</v>
       </c>
       <c r="E42">
-        <v>0.1000000181118603</v>
+        <v>0.06988348582748261</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1939,19 +1939,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>4.286623394875775</v>
+        <v>4.114590047639481</v>
       </c>
       <c r="C43">
-        <v>0.003410201587013348</v>
+        <v>0.003252640353865209</v>
       </c>
       <c r="D43">
-        <v>-0.06986303623547474</v>
+        <v>-0.06990878493263875</v>
       </c>
       <c r="E43">
-        <v>0.06999997102510291</v>
+        <v>0.0698630229531596</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1959,19 +1959,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>4.251236192175181</v>
+        <v>4.106857776299143</v>
       </c>
       <c r="C44">
-        <v>0.00338204947667079</v>
+        <v>0.003246527886402486</v>
       </c>
       <c r="D44">
-        <v>-0.06986893016480245</v>
+        <v>-0.06971154660868206</v>
       </c>
       <c r="E44">
-        <v>0.06997738905893836</v>
+        <v>0.06993006899733545</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1979,16 +1979,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>4.217639235640426</v>
+        <v>4.103470223689856</v>
       </c>
       <c r="C45">
-        <v>0.003355321587621658</v>
+        <v>0.003243849979201466</v>
       </c>
       <c r="D45">
-        <v>-0.06980904794106668</v>
+        <v>-0.174603154922072</v>
       </c>
       <c r="E45">
-        <v>0.07537685316252496</v>
+        <v>0.1774193689505823</v>
       </c>
       <c r="F45" t="s">
         <v>226</v>
@@ -1999,19 +1999,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.214409782182872</v>
+        <v>4.099793490914236</v>
       </c>
       <c r="C46">
-        <v>0.003352752412237767</v>
+        <v>0.003240943471078447</v>
       </c>
       <c r="D46">
-        <v>-0.07000000604434009</v>
+        <v>-0.06980904794106668</v>
       </c>
       <c r="E46">
-        <v>0.06997975604758744</v>
+        <v>0.07537685316252496</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2019,19 +2019,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>4.194133984581884</v>
+        <v>4.0877818639655</v>
       </c>
       <c r="C47">
-        <v>0.003336622103883759</v>
+        <v>0.003231448113806719</v>
       </c>
       <c r="D47">
-        <v>-0.06971154660868206</v>
+        <v>-0.1782608635086822</v>
       </c>
       <c r="E47">
-        <v>0.06993006899733545</v>
+        <v>0.2704918278796569</v>
       </c>
       <c r="F47" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2039,19 +2039,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>4.189808499655812</v>
+        <v>4.068172273818108</v>
       </c>
       <c r="C48">
-        <v>0.003333180986201925</v>
+        <v>0.003215946461516293</v>
       </c>
       <c r="D48">
-        <v>-0.06990878493263875</v>
+        <v>-0.06986893016480245</v>
       </c>
       <c r="E48">
-        <v>0.0698630229531596</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2059,19 +2059,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>4.155960326037494</v>
+        <v>4.050010291414287</v>
       </c>
       <c r="C49">
-        <v>0.00330625324267104</v>
+        <v>0.003201589163173349</v>
       </c>
       <c r="D49">
-        <v>-0.06999992769970076</v>
+        <v>-0.06966616699816708</v>
       </c>
       <c r="E49">
-        <v>0.06997457977664978</v>
+        <v>0.0699815781617823</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2079,19 +2079,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>4.133862393500197</v>
+        <v>4.047674616571576</v>
       </c>
       <c r="C50">
-        <v>0.003288673344073345</v>
+        <v>0.003199742779898482</v>
       </c>
       <c r="D50">
-        <v>-0.06990877728589806</v>
+        <v>-0.06999992769970076</v>
       </c>
       <c r="E50">
-        <v>0.06999999775677934</v>
+        <v>0.06997457977664978</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2099,19 +2099,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>4.12748662862942</v>
+        <v>4.043635968588228</v>
       </c>
       <c r="C51">
-        <v>0.003283601136538915</v>
+        <v>0.003196550172797017</v>
       </c>
       <c r="D51">
-        <v>-0.06980057198010614</v>
+        <v>-0.06960785968576966</v>
       </c>
       <c r="E51">
-        <v>0.06987580375933811</v>
+        <v>0.06986899154603265</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2119,19 +2119,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>4.125291545883119</v>
+        <v>4.019175708850061</v>
       </c>
       <c r="C52">
-        <v>0.003281854849549019</v>
+        <v>0.003177213999090961</v>
       </c>
       <c r="D52">
-        <v>-0.06960785968576966</v>
+        <v>-0.09836066845665214</v>
       </c>
       <c r="E52">
-        <v>0.06986899154603265</v>
+        <v>0.10000003972919</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2139,19 +2139,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>4.121816747803677</v>
+        <v>3.996227482518631</v>
       </c>
       <c r="C53">
-        <v>0.003279090491490591</v>
+        <v>0.00315907310871038</v>
       </c>
       <c r="D53">
-        <v>-0.06983240372284627</v>
+        <v>-0.06990877728589806</v>
       </c>
       <c r="E53">
-        <v>0.0699999402767284</v>
+        <v>0.06999999775677934</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2159,19 +2159,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4.105436751493819</v>
+        <v>3.974310479536164</v>
       </c>
       <c r="C54">
-        <v>0.003266059468173284</v>
+        <v>0.003141747414653096</v>
       </c>
       <c r="D54">
-        <v>-0.06966616699816708</v>
+        <v>-0.09890105974528718</v>
       </c>
       <c r="E54">
-        <v>0.0699815781617823</v>
+        <v>0.1000000269541488</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2179,19 +2179,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>4.102348834937428</v>
+        <v>3.958121036278742</v>
       </c>
       <c r="C55">
-        <v>0.00326360289175611</v>
+        <v>0.003128949435793469</v>
       </c>
       <c r="D55">
-        <v>-0.09836066845665214</v>
+        <v>-0.0694443920108192</v>
       </c>
       <c r="E55">
-        <v>0.10000003972919</v>
+        <v>0.06995885344862196</v>
       </c>
       <c r="F55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2199,19 +2199,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>4.060527325943578</v>
+        <v>3.951338901409353</v>
       </c>
       <c r="C56">
-        <v>0.003230332001546203</v>
+        <v>0.003123588064355217</v>
       </c>
       <c r="D56">
-        <v>-0.0694443920108192</v>
+        <v>-0.06983240372284627</v>
       </c>
       <c r="E56">
-        <v>0.06995885344862196</v>
+        <v>0.0699999402767284</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2219,19 +2219,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>4.002475347049177</v>
+        <v>3.942737936564131</v>
       </c>
       <c r="C57">
-        <v>0.003184149042998554</v>
+        <v>0.003116788882659391</v>
       </c>
       <c r="D57">
-        <v>-0.06906909280127882</v>
+        <v>-0.06980057198010614</v>
       </c>
       <c r="E57">
-        <v>0.07000000531313377</v>
+        <v>0.06987580375933811</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2239,19 +2239,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>3.97611596916235</v>
+        <v>3.927006451936297</v>
       </c>
       <c r="C58">
-        <v>0.003163178973080627</v>
+        <v>0.003104352926431857</v>
       </c>
       <c r="D58">
-        <v>-0.06942392201604652</v>
+        <v>-0.07000006962664551</v>
       </c>
       <c r="E58">
-        <v>0.07000005506630558</v>
+        <v>0.06999996599443681</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2259,19 +2259,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>3.971953318948048</v>
+        <v>3.887474163916234</v>
       </c>
       <c r="C59">
-        <v>0.003159867397731144</v>
+        <v>0.003073102105862639</v>
       </c>
       <c r="D59">
-        <v>-0.06999996730259483</v>
+        <v>-0.09917355004225092</v>
       </c>
       <c r="E59">
-        <v>0.06985296147865805</v>
+        <v>0.1000000338011144</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2279,16 +2279,16 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3.966462339964118</v>
+        <v>3.876651995803848</v>
       </c>
       <c r="C60">
-        <v>0.003155499077139314</v>
+        <v>0.00306454703225601</v>
       </c>
       <c r="D60">
-        <v>-0.1000000238418579</v>
+        <v>-0.0696517128903591</v>
       </c>
       <c r="E60">
-        <v>0.09999997275216232</v>
+        <v>0.07000000531313377</v>
       </c>
       <c r="F60" t="s">
         <v>217</v>
@@ -2299,19 +2299,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>3.961260788603776</v>
+        <v>3.862431546139075</v>
       </c>
       <c r="C61">
-        <v>0.003151361009231325</v>
+        <v>0.003053305570070414</v>
       </c>
       <c r="D61">
-        <v>-0.1000000238418579</v>
+        <v>-0.06990011538817997</v>
       </c>
       <c r="E61">
-        <v>0.1000000000000001</v>
+        <v>0.07000007521759044</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2319,19 +2319,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>3.954706275298112</v>
+        <v>3.819424740695033</v>
       </c>
       <c r="C62">
-        <v>0.00314614659928251</v>
+        <v>0.003019308095411093</v>
       </c>
       <c r="D62">
-        <v>-0.09890105974528718</v>
+        <v>-0.06994817871151149</v>
       </c>
       <c r="E62">
-        <v>0.1000000269541488</v>
+        <v>0.06987955396140721</v>
       </c>
       <c r="F62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2339,19 +2339,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>3.933687568700902</v>
+        <v>3.809169128562961</v>
       </c>
       <c r="C63">
-        <v>0.003129425273429512</v>
+        <v>0.003011200892144635</v>
       </c>
       <c r="D63">
-        <v>-0.06964520540023522</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E63">
-        <v>0.06993000152954676</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2359,19 +2359,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>3.908436985135312</v>
+        <v>3.798215225625308</v>
       </c>
       <c r="C64">
-        <v>0.003109337299232548</v>
+        <v>0.003002541680336211</v>
       </c>
       <c r="D64">
-        <v>-0.06976742685600146</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E64">
-        <v>0.06991526597649589</v>
+        <v>0.09999997275216232</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2379,19 +2379,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>3.906150614785132</v>
+        <v>3.774713517272562</v>
       </c>
       <c r="C65">
-        <v>0.003107518388850546</v>
+        <v>0.002983963254760914</v>
       </c>
       <c r="D65">
-        <v>-0.07000006962664551</v>
+        <v>-0.06968214868884215</v>
       </c>
       <c r="E65">
-        <v>0.06999996599443681</v>
+        <v>0.06993000152954676</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2399,19 +2399,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>3.905557071877862</v>
+        <v>3.755465006545076</v>
       </c>
       <c r="C66">
-        <v>0.003107046198789073</v>
+        <v>0.002968747040747094</v>
       </c>
       <c r="D66">
-        <v>-0.09917355004225092</v>
+        <v>-0.06999996636708516</v>
       </c>
       <c r="E66">
-        <v>0.1000000338011144</v>
+        <v>0.07000005506630558</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2419,19 +2419,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>3.883256570086616</v>
+        <v>3.737016889498951</v>
       </c>
       <c r="C67">
-        <v>0.003089305147244722</v>
+        <v>0.002954163549011029</v>
       </c>
       <c r="D67">
-        <v>-0.06994817871151149</v>
+        <v>-0.06991265962733595</v>
       </c>
       <c r="E67">
-        <v>0.06987955396140721</v>
+        <v>0.0699745171189694</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2439,19 +2439,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>3.86303314579215</v>
+        <v>3.728171069652901</v>
       </c>
       <c r="C68">
-        <v>0.003073216504210143</v>
+        <v>0.002947170806049725</v>
       </c>
       <c r="D68">
-        <v>-0.06990011538817997</v>
+        <v>-0.06976742685600146</v>
       </c>
       <c r="E68">
-        <v>0.07000007521759044</v>
+        <v>0.06991526597649589</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2459,19 +2459,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>3.825503947809917</v>
+        <v>3.673230606376049</v>
       </c>
       <c r="C69">
-        <v>0.003043360340342019</v>
+        <v>0.002903739609783437</v>
       </c>
       <c r="D69">
-        <v>-0.06991265962733595</v>
+        <v>-0.06999996730259483</v>
       </c>
       <c r="E69">
-        <v>0.0699745171189694</v>
+        <v>0.06985296147865805</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2479,10 +2479,10 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>3.824489632523474</v>
+        <v>3.666451776372359</v>
       </c>
       <c r="C70">
-        <v>0.003042553406939914</v>
+        <v>0.002898380850887239</v>
       </c>
       <c r="D70">
         <v>-0.09811326747023519</v>
@@ -2491,7 +2491,7 @@
         <v>0.1000000531325442</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2499,16 +2499,16 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>3.773054421350469</v>
+        <v>3.654610325645665</v>
       </c>
       <c r="C71">
-        <v>0.003001634384527022</v>
+        <v>0.002889020020273251</v>
       </c>
       <c r="D71">
-        <v>-0.127451009167775</v>
+        <v>-0.1000000062450395</v>
       </c>
       <c r="E71">
-        <v>0.1300813240134215</v>
+        <v>0.1000000393206184</v>
       </c>
       <c r="F71" t="s">
         <v>221</v>
@@ -2519,19 +2519,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>3.75739641972219</v>
+        <v>3.6522561049931</v>
       </c>
       <c r="C72">
-        <v>0.002989177740431335</v>
+        <v>0.002887158976279128</v>
       </c>
       <c r="D72">
-        <v>-0.06999998367419469</v>
+        <v>-0.127451009167775</v>
       </c>
       <c r="E72">
-        <v>0.07000000515551741</v>
+        <v>0.1300813240134215</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2539,19 +2539,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>3.75525139897367</v>
+        <v>3.615729908945958</v>
       </c>
       <c r="C73">
-        <v>0.002987471280010874</v>
+        <v>0.002858284513000756</v>
       </c>
       <c r="D73">
-        <v>-0.06991524118111359</v>
+        <v>-0.06967219227293242</v>
       </c>
       <c r="E73">
-        <v>0.0700000524520874</v>
+        <v>0.06988568858560917</v>
       </c>
       <c r="F73" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2559,19 +2559,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>3.738327919191449</v>
+        <v>3.599953117331076</v>
       </c>
       <c r="C74">
-        <v>0.002974007891162645</v>
+        <v>0.002845812740973181</v>
       </c>
       <c r="D74">
-        <v>-0.09999997364919866</v>
+        <v>-0.06999998367419469</v>
       </c>
       <c r="E74">
-        <v>0.1000000376661454</v>
+        <v>0.07000000515551741</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2579,19 +2579,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>3.736610552581556</v>
+        <v>3.55610768232793</v>
       </c>
       <c r="C75">
-        <v>0.002972641648831783</v>
+        <v>0.002811152318045792</v>
       </c>
       <c r="D75">
-        <v>-0.06981138606913972</v>
+        <v>-0.06991524118111359</v>
       </c>
       <c r="E75">
-        <v>0.06999994198437531</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2599,19 +2599,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>3.723433581893243</v>
+        <v>3.551031422857563</v>
       </c>
       <c r="C76">
-        <v>0.002962158776366939</v>
+        <v>0.002807139464709532</v>
       </c>
       <c r="D76">
-        <v>-0.06967219227293242</v>
+        <v>-0.06981138606913972</v>
       </c>
       <c r="E76">
-        <v>0.06988568858560917</v>
+        <v>0.06999994198437531</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2619,19 +2619,19 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>3.723181125758361</v>
+        <v>3.546951048520429</v>
       </c>
       <c r="C77">
-        <v>0.002961957936164168</v>
+        <v>0.002803913872348167</v>
       </c>
       <c r="D77">
-        <v>-0.1000000062450395</v>
+        <v>-0.1304348202859832</v>
       </c>
       <c r="E77">
-        <v>0.1000000393206184</v>
+        <v>0.1250000377486467</v>
       </c>
       <c r="F77" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2639,19 +2639,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>3.684263348701632</v>
+        <v>3.5292059002947</v>
       </c>
       <c r="C78">
-        <v>0.002930997095228031</v>
+        <v>0.002789886087189485</v>
       </c>
       <c r="D78">
-        <v>-0.06926410457269527</v>
+        <v>-0.0699999904580566</v>
       </c>
       <c r="E78">
-        <v>0.07000000767308356</v>
+        <v>0.07000001605615425</v>
       </c>
       <c r="F78" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2659,10 +2659,10 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>3.651760188745937</v>
+        <v>3.500201797614682</v>
       </c>
       <c r="C79">
-        <v>0.002905139370521826</v>
+        <v>0.002766957942778402</v>
       </c>
       <c r="D79">
         <v>-0.06995077797894378</v>
@@ -2671,7 +2671,7 @@
         <v>0.06993003000671383</v>
       </c>
       <c r="F79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2679,10 +2679,10 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>3.60035049157064</v>
+        <v>3.478935074982915</v>
       </c>
       <c r="C80">
-        <v>0.002864240645640924</v>
+        <v>0.00275014630433432</v>
       </c>
       <c r="D80">
         <v>-0.06983238556819427</v>
@@ -2699,19 +2699,19 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>3.555380117044352</v>
+        <v>3.471785084108137</v>
       </c>
       <c r="C81">
-        <v>0.002828464691363842</v>
+        <v>0.002744494137634888</v>
       </c>
       <c r="D81">
-        <v>-0.0699999904580566</v>
+        <v>-0.09999997364919866</v>
       </c>
       <c r="E81">
-        <v>0.07000001605615425</v>
+        <v>0.1000000376661454</v>
       </c>
       <c r="F81" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2719,19 +2719,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>3.552320997208955</v>
+        <v>3.45428794617111</v>
       </c>
       <c r="C82">
-        <v>0.002826031024032579</v>
+        <v>0.002730662408040405</v>
       </c>
       <c r="D82">
-        <v>-0.06965173034081296</v>
+        <v>-0.06997459402927553</v>
       </c>
       <c r="E82">
-        <v>0.06965174430128407</v>
+        <v>0.07000000767308356</v>
       </c>
       <c r="F82" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2739,19 +2739,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>3.533483535820529</v>
+        <v>3.413282142492391</v>
       </c>
       <c r="C83">
-        <v>0.002811044976786418</v>
+        <v>0.002698246752958412</v>
       </c>
       <c r="D83">
-        <v>-0.06997743214725527</v>
+        <v>-0.06981745731711786</v>
       </c>
       <c r="E83">
-        <v>0.07000002671115535</v>
+        <v>0.06998441731509875</v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2759,19 +2759,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>3.526105425269673</v>
+        <v>3.380266354235818</v>
       </c>
       <c r="C84">
-        <v>0.002805175358209766</v>
+        <v>0.002672147315601441</v>
       </c>
       <c r="D84">
-        <v>-0.1304348202859832</v>
+        <v>-0.06949812250967613</v>
       </c>
       <c r="E84">
-        <v>0.1250000377486467</v>
+        <v>0.09230772155477718</v>
       </c>
       <c r="F84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2779,19 +2779,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>3.517620915976751</v>
+        <v>3.348976210953019</v>
       </c>
       <c r="C85">
-        <v>0.002798425549703064</v>
+        <v>0.002647412024468793</v>
       </c>
       <c r="D85">
-        <v>-0.06981745731711786</v>
+        <v>-0.06995074530355316</v>
       </c>
       <c r="E85">
-        <v>0.06998441731509875</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2799,19 +2799,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>3.501065411295452</v>
+        <v>3.333744504831197</v>
       </c>
       <c r="C86">
-        <v>0.002785254901587473</v>
+        <v>0.002635371150064188</v>
       </c>
       <c r="D86">
-        <v>-0.06952965617498708</v>
+        <v>-0.127249362867722</v>
       </c>
       <c r="E86">
-        <v>0.07000001297327585</v>
+        <v>0.1605301935977024</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2819,19 +2819,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>3.473564521395117</v>
+        <v>3.328208413838146</v>
       </c>
       <c r="C87">
-        <v>0.002763376707553788</v>
+        <v>0.002630994793547938</v>
       </c>
       <c r="D87">
-        <v>-0.1304761545089799</v>
+        <v>-0.1272727478903398</v>
       </c>
       <c r="E87">
-        <v>0.1604599842452998</v>
+        <v>0.137085780795716</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2839,19 +2839,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>3.415050402606505</v>
+        <v>3.313702837777452</v>
       </c>
       <c r="C88">
-        <v>0.002716826095947893</v>
+        <v>0.00261952793500194</v>
       </c>
       <c r="D88">
-        <v>-0.1272727478903398</v>
+        <v>-0.1242236130028669</v>
       </c>
       <c r="E88">
-        <v>0.137085780795716</v>
+        <v>0.14857145391008</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2859,19 +2859,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>3.404554257167515</v>
+        <v>3.305052513399439</v>
       </c>
       <c r="C89">
-        <v>0.002708475940467396</v>
+        <v>0.0026126897339126</v>
       </c>
       <c r="D89">
-        <v>-0.127249362867722</v>
+        <v>-0.06997743214725527</v>
       </c>
       <c r="E89">
-        <v>0.1605301935977024</v>
+        <v>0.07000002671115535</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2879,19 +2879,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>3.403653710079162</v>
+        <v>3.297297219747895</v>
       </c>
       <c r="C90">
-        <v>0.002707759514780561</v>
+        <v>0.002606559066994381</v>
       </c>
       <c r="D90">
-        <v>-0.06923073797167179</v>
+        <v>-0.06965173034081296</v>
       </c>
       <c r="E90">
-        <v>0.06979863080000803</v>
+        <v>0.06965174430128407</v>
       </c>
       <c r="F90" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2899,19 +2899,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>3.38184929588404</v>
+        <v>3.259622963648598</v>
       </c>
       <c r="C91">
-        <v>0.002690413123217218</v>
+        <v>0.002576777046362524</v>
       </c>
       <c r="D91">
-        <v>-0.1242236130028669</v>
+        <v>-0.1304761545089799</v>
       </c>
       <c r="E91">
-        <v>0.14857145391008</v>
+        <v>0.1604599842452998</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2919,19 +2919,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>3.37572720653366</v>
+        <v>3.247460158487931</v>
       </c>
       <c r="C92">
-        <v>0.002685542725961542</v>
+        <v>0.002567162180622872</v>
       </c>
       <c r="D92">
-        <v>-0.06956519501810421</v>
+        <v>-0.06938775819398191</v>
       </c>
       <c r="E92">
-        <v>0.06976746696236935</v>
+        <v>0.06994052864697031</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2939,19 +2939,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>3.372463312826955</v>
+        <v>3.213442953666246</v>
       </c>
       <c r="C93">
-        <v>0.002682946151811423</v>
+        <v>0.002540271109617583</v>
       </c>
       <c r="D93">
-        <v>-0.06949812250967613</v>
+        <v>-0.06956519501810421</v>
       </c>
       <c r="E93">
-        <v>0.09230772155477718</v>
+        <v>0.06976746696236935</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2959,19 +2959,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>3.332425436306338</v>
+        <v>3.200479281134047</v>
       </c>
       <c r="C94">
-        <v>0.002651094221405202</v>
+        <v>0.002530023147141541</v>
       </c>
       <c r="D94">
-        <v>-0.06938775819398191</v>
+        <v>-0.1330471491685843</v>
       </c>
       <c r="E94">
-        <v>0.06994052864697031</v>
+        <v>0.1658292064154774</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2979,19 +2979,19 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>3.326866648366078</v>
+        <v>3.195321847514938</v>
       </c>
       <c r="C95">
-        <v>0.002646671955740713</v>
+        <v>0.002525946124517739</v>
       </c>
       <c r="D95">
-        <v>-0.06999997782026035</v>
+        <v>-0.06983654776828885</v>
       </c>
       <c r="E95">
-        <v>0.06989243066659689</v>
+        <v>0.06998442664013571</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2999,19 +2999,19 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>3.323720087742411</v>
+        <v>3.190432568443685</v>
       </c>
       <c r="C96">
-        <v>0.002644168725332066</v>
+        <v>0.002522081081773664</v>
       </c>
       <c r="D96">
-        <v>-0.07000001271565759</v>
+        <v>-0.06952965617498708</v>
       </c>
       <c r="E96">
-        <v>0.06997081478595923</v>
+        <v>0.07000001297327585</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3019,19 +3019,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>3.294694634556309</v>
+        <v>3.190017731455558</v>
       </c>
       <c r="C97">
-        <v>0.002621077672678047</v>
+        <v>0.002521753147395697</v>
       </c>
       <c r="D97">
-        <v>-0.06944447396069475</v>
+        <v>-0.07000001271565759</v>
       </c>
       <c r="E97">
-        <v>0.06976748588725368</v>
+        <v>0.06997081478595923</v>
       </c>
       <c r="F97" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3039,19 +3039,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3.26576743220035</v>
+        <v>3.171318226561077</v>
       </c>
       <c r="C98">
-        <v>0.002598064782975616</v>
+        <v>0.002506970930087805</v>
       </c>
       <c r="D98">
-        <v>-0.09957621472559686</v>
+        <v>-0.06962024613300188</v>
       </c>
       <c r="E98">
-        <v>0.09999999145477423</v>
+        <v>0.06976748588725368</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3059,19 +3059,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>3.261981963473591</v>
+        <v>3.132736121060122</v>
       </c>
       <c r="C99">
-        <v>0.002595053272453137</v>
+        <v>0.00247647124194476</v>
       </c>
       <c r="D99">
-        <v>-0.06983654776828885</v>
+        <v>-0.09957621472559686</v>
       </c>
       <c r="E99">
-        <v>0.06998442664013571</v>
+        <v>0.09999999145477423</v>
       </c>
       <c r="F99" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3079,19 +3079,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>3.252409548324585</v>
+        <v>3.129686275738857</v>
       </c>
       <c r="C100">
-        <v>0.002587437985938415</v>
+        <v>0.002474060297026763</v>
       </c>
       <c r="D100">
-        <v>-0.1330471491685843</v>
+        <v>-0.06999997782026035</v>
       </c>
       <c r="E100">
-        <v>0.1658292064154774</v>
+        <v>0.06989243066659689</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>3.192273299853234</v>
+        <v>3.110961698573472</v>
       </c>
       <c r="C101">
-        <v>0.002539596897257946</v>
+        <v>0.002459258259741876</v>
       </c>
       <c r="D101">
-        <v>-0.06995074530355316</v>
+        <v>-0.06957926793810387</v>
       </c>
       <c r="E101">
-        <v>0.0700000524520874</v>
+        <v>0.06979863080000803</v>
       </c>
       <c r="F101" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3119,19 +3119,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>3.157768840391332</v>
+        <v>3.103231658032763</v>
       </c>
       <c r="C102">
-        <v>0.002512147048839565</v>
+        <v>0.002453147555757128</v>
       </c>
       <c r="D102">
-        <v>-0.06993004618460641</v>
+        <v>-0.11</v>
       </c>
       <c r="E102">
-        <v>0.06986026275022938</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="F102" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3139,19 +3139,19 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>3.128152033239858</v>
+        <v>3.097329652538286</v>
       </c>
       <c r="C103">
-        <v>0.00248858554752574</v>
+        <v>0.002448481938765445</v>
       </c>
       <c r="D103">
-        <v>-0.06976743201567071</v>
+        <v>-0.06976751350713783</v>
       </c>
       <c r="E103">
-        <v>0.108552661732827</v>
+        <v>0.1085526280956379</v>
       </c>
       <c r="F103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3159,10 +3159,10 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>3.116288149621204</v>
+        <v>3.06708370438659</v>
       </c>
       <c r="C104">
-        <v>0.002479147294845827</v>
+        <v>0.002424572098329321</v>
       </c>
       <c r="D104">
         <v>-0.0697248316574185</v>
@@ -3171,7 +3171,7 @@
         <v>0.06999995493381395</v>
       </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3179,19 +3179,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>3.112464613555314</v>
+        <v>3.056772634960691</v>
       </c>
       <c r="C105">
-        <v>0.002476105500044004</v>
+        <v>0.002416421055304896</v>
       </c>
       <c r="D105">
-        <v>-0.06931824967388134</v>
+        <v>-0.06995888241702264</v>
       </c>
       <c r="E105">
-        <v>0.06993002893379119</v>
+        <v>0.06986026275022938</v>
       </c>
       <c r="F105" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3199,19 +3199,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>3.109321992825664</v>
+        <v>2.995008329391829</v>
       </c>
       <c r="C106">
-        <v>0.002473605403998145</v>
+        <v>0.002367595517305791</v>
       </c>
       <c r="D106">
-        <v>-0.11</v>
+        <v>-0.06994532630501693</v>
       </c>
       <c r="E106">
-        <v>0.1451612903225807</v>
+        <v>0.07000004036554519</v>
       </c>
       <c r="F106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3219,19 +3219,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>3.07363085694844</v>
+        <v>2.983474938680103</v>
       </c>
       <c r="C107">
-        <v>0.002445211501152297</v>
+        <v>0.00235847821239534</v>
       </c>
       <c r="D107">
-        <v>-0.06994532630501693</v>
+        <v>-0.06967741573181419</v>
       </c>
       <c r="E107">
-        <v>0.07000004036554519</v>
+        <v>0.06995881283881245</v>
       </c>
       <c r="F107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3239,16 +3239,16 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>3.049388515657014</v>
+        <v>2.941425252882151</v>
       </c>
       <c r="C108">
-        <v>0.002425925629003188</v>
+        <v>0.002325237354057037</v>
       </c>
       <c r="D108">
-        <v>-0.07000002897064406</v>
+        <v>-0.06973997044060543</v>
       </c>
       <c r="E108">
-        <v>0.06999995355794231</v>
+        <v>0.06993002893379119</v>
       </c>
       <c r="F108" t="s">
         <v>222</v>
@@ -3259,19 +3259,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>3.033880557446153</v>
+        <v>2.936758607860957</v>
       </c>
       <c r="C109">
-        <v>0.002413588351190253</v>
+        <v>0.002321548306609448</v>
       </c>
       <c r="D109">
-        <v>-0.0696629239211296</v>
+        <v>-0.07000002897064406</v>
       </c>
       <c r="E109">
-        <v>0.06924643922666429</v>
+        <v>0.06999995355794231</v>
       </c>
       <c r="F109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>2.967752498400769</v>
+        <v>2.926319126675519</v>
       </c>
       <c r="C110">
-        <v>0.002360980507876509</v>
+        <v>0.00231329575231266</v>
       </c>
       <c r="D110">
-        <v>-0.06967741573181419</v>
+        <v>-0.06992082043113557</v>
       </c>
       <c r="E110">
-        <v>0.06995881283881245</v>
+        <v>0.06997458880656726</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3299,10 +3299,10 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>2.936694315439018</v>
+        <v>2.875246212776273</v>
       </c>
       <c r="C111">
-        <v>0.002336272327318234</v>
+        <v>0.002272921907333024</v>
       </c>
       <c r="D111">
         <v>-0.1499999939813762</v>
@@ -3311,7 +3311,7 @@
         <v>0.1500000085980338</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3319,19 +3319,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>2.894101485117289</v>
+        <v>2.808723375391716</v>
       </c>
       <c r="C112">
-        <v>0.002302387816322427</v>
+        <v>0.002220334684104121</v>
       </c>
       <c r="D112">
-        <v>-0.06957929823877562</v>
+        <v>-0.07000003881454508</v>
       </c>
       <c r="E112">
-        <v>0.06987577890517138</v>
+        <v>0.06944446710892715</v>
       </c>
       <c r="F112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3339,19 +3339,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>2.884545528394606</v>
+        <v>2.797913869604146</v>
       </c>
       <c r="C113">
-        <v>0.002294785623225625</v>
+        <v>0.002211789620240434</v>
       </c>
       <c r="D113">
-        <v>-0.0697674143522814</v>
+        <v>-0.06957929823877562</v>
       </c>
       <c r="E113">
-        <v>0.06999994136573751</v>
+        <v>0.06987577890517138</v>
       </c>
       <c r="F113" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3359,10 +3359,10 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>2.881967359495861</v>
+        <v>2.785930713592719</v>
       </c>
       <c r="C114">
-        <v>0.002292734573982388</v>
+        <v>0.002202316769638514</v>
       </c>
       <c r="D114">
         <v>-0.06956526161967846</v>
@@ -3371,7 +3371,7 @@
         <v>0.06976744186046502</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3379,19 +3379,19 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>2.852591799036629</v>
+        <v>2.785564300373865</v>
       </c>
       <c r="C115">
-        <v>0.00226936499525587</v>
+        <v>0.002202027114920047</v>
       </c>
       <c r="D115">
-        <v>-0.06998447125522034</v>
+        <v>-0.0696629239211296</v>
       </c>
       <c r="E115">
-        <v>0.06999995790763691</v>
+        <v>0.06924643922666429</v>
       </c>
       <c r="F115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3399,19 +3399,19 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>2.839657500052028</v>
+        <v>2.774988266237809</v>
       </c>
       <c r="C116">
-        <v>0.002259075179039003</v>
+        <v>0.00219366661362673</v>
       </c>
       <c r="D116">
-        <v>-0.07000003881454508</v>
+        <v>-0.0697674143522814</v>
       </c>
       <c r="E116">
-        <v>0.06944446710892715</v>
+        <v>0.06999994136573751</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3419,19 +3419,19 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>2.816608645922832</v>
+        <v>2.774958522199387</v>
       </c>
       <c r="C117">
-        <v>0.002240738779572662</v>
+        <v>0.002193643100552874</v>
       </c>
       <c r="D117">
-        <v>-0.08201897144182857</v>
+        <v>-0.06972473234968801</v>
       </c>
       <c r="E117">
-        <v>0.07480314507795027</v>
+        <v>0.06953647233846705</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3439,16 +3439,16 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>2.803537172965926</v>
+        <v>2.73989071688072</v>
       </c>
       <c r="C118">
-        <v>0.002230339835295084</v>
+        <v>0.002165921515320727</v>
       </c>
       <c r="D118">
-        <v>-0.06992082043113557</v>
+        <v>-0.06998447125522034</v>
       </c>
       <c r="E118">
-        <v>0.06997458880656726</v>
+        <v>0.06999995790763691</v>
       </c>
       <c r="F118" t="s">
         <v>222</v>
@@ -3459,10 +3459,10 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>2.799603643075968</v>
+        <v>2.737925903914473</v>
       </c>
       <c r="C119">
-        <v>0.002227210535462189</v>
+        <v>0.002164368303489705</v>
       </c>
       <c r="D119">
         <v>-0.06865670695458925</v>
@@ -3471,7 +3471,7 @@
         <v>0.06956520921218723</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3479,10 +3479,10 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>2.78481185597491</v>
+        <v>2.73020381971252</v>
       </c>
       <c r="C120">
-        <v>0.002215443003957763</v>
+        <v>0.002158263889100806</v>
       </c>
       <c r="D120">
         <v>-0.06962963901845465</v>
@@ -3491,7 +3491,7 @@
         <v>0.0700000172183497</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3499,19 +3499,19 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>2.741427243480079</v>
+        <v>2.713459177588217</v>
       </c>
       <c r="C121">
-        <v>0.002180928594653998</v>
+        <v>0.002145027017856302</v>
       </c>
       <c r="D121">
-        <v>-0.06969699217213376</v>
+        <v>-0.08201897144182857</v>
       </c>
       <c r="E121">
-        <v>0.06999998731872803</v>
+        <v>0.07480314507795027</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3519,19 +3519,19 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>2.72473208514697</v>
+        <v>2.60242602327035</v>
       </c>
       <c r="C122">
-        <v>0.002167646845781199</v>
+        <v>0.002057253773336245</v>
       </c>
       <c r="D122">
-        <v>-0.06896546456051744</v>
+        <v>-0.06875001784113677</v>
       </c>
       <c r="E122">
-        <v>0.1256544614200634</v>
+        <v>0.06920424111197221</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3539,19 +3539,19 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>2.718722377055677</v>
+        <v>2.585625056925207</v>
       </c>
       <c r="C123">
-        <v>0.002162865852868478</v>
+        <v>0.002043972377015972</v>
       </c>
       <c r="D123">
-        <v>-0.06972473234968801</v>
+        <v>-0.06984474097020532</v>
       </c>
       <c r="E123">
-        <v>0.06953647233846705</v>
+        <v>0.07024788437999741</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3559,19 +3559,19 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>2.692170564687485</v>
+        <v>2.584805288978452</v>
       </c>
       <c r="C124">
-        <v>0.002141742692671028</v>
+        <v>0.002043324339113401</v>
       </c>
       <c r="D124">
-        <v>-0.07000000223089442</v>
+        <v>-0.09749304910107026</v>
       </c>
       <c r="E124">
-        <v>0.06993873610075818</v>
+        <v>0.09999999108856006</v>
       </c>
       <c r="F124" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3579,19 +3579,19 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>2.667000169614315</v>
+        <v>2.577494246729213</v>
       </c>
       <c r="C125">
-        <v>0.002121718512024118</v>
+        <v>0.002037544859074477</v>
       </c>
       <c r="D125">
-        <v>-0.1151832837173046</v>
+        <v>-0.06994534890679716</v>
       </c>
       <c r="E125">
-        <v>0.1390134747770668</v>
+        <v>0.07000004790569681</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3599,19 +3599,19 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>2.665836940550078</v>
+        <v>2.56947672067338</v>
       </c>
       <c r="C126">
-        <v>0.002120793111018359</v>
+        <v>0.002031206893812945</v>
       </c>
       <c r="D126">
-        <v>-0.06875001784113677</v>
+        <v>-0.06896546456051744</v>
       </c>
       <c r="E126">
-        <v>0.06920424111197221</v>
+        <v>0.1256544614200634</v>
       </c>
       <c r="F126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3619,19 +3619,19 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>2.661791882280355</v>
+        <v>2.533042102452118</v>
       </c>
       <c r="C127">
-        <v>0.002117575085346345</v>
+        <v>0.002002404824072819</v>
       </c>
       <c r="D127">
-        <v>-0.06986440309375563</v>
+        <v>-0.06972789346638986</v>
       </c>
       <c r="E127">
-        <v>0.06976744886443242</v>
+        <v>0.06999998731872803</v>
       </c>
       <c r="F127" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3639,19 +3639,19 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>2.641719863097624</v>
+        <v>2.529932341591277</v>
       </c>
       <c r="C128">
-        <v>0.002101606891883552</v>
+        <v>0.001999946515091917</v>
       </c>
       <c r="D128">
-        <v>-0.06906908533350598</v>
+        <v>-0.06946685135807706</v>
       </c>
       <c r="E128">
-        <v>0.06993864382065795</v>
+        <v>0.06907893298560075</v>
       </c>
       <c r="F128" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3659,19 +3659,19 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>2.632372954585308</v>
+        <v>2.525929476283469</v>
       </c>
       <c r="C129">
-        <v>0.002094171006034456</v>
+        <v>0.001996782194690491</v>
       </c>
       <c r="D129">
-        <v>-0.06972473507949539</v>
+        <v>-0.06906908533350598</v>
       </c>
       <c r="E129">
-        <v>0.06994818895639487</v>
+        <v>0.06993864382065795</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3679,19 +3679,19 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>2.62258913178207</v>
+        <v>2.518234711014036</v>
       </c>
       <c r="C130">
-        <v>0.002086387535228376</v>
+        <v>0.001990699376295682</v>
       </c>
       <c r="D130">
-        <v>-0.06994534890679716</v>
+        <v>-0.06997453988363178</v>
       </c>
       <c r="E130">
-        <v>0.07000004790569681</v>
+        <v>0.06976744886443242</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3699,19 +3699,19 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>2.62168064759221</v>
+        <v>2.51491012002271</v>
       </c>
       <c r="C131">
-        <v>0.002085664795220532</v>
+        <v>0.001988071241124672</v>
       </c>
       <c r="D131">
-        <v>-0.06997967590354115</v>
+        <v>-0.1151832837173046</v>
       </c>
       <c r="E131">
-        <v>0.07000001271565748</v>
+        <v>0.1390134747770668</v>
       </c>
       <c r="F131" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3719,19 +3719,19 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>2.579320634087724</v>
+        <v>2.508791494774932</v>
       </c>
       <c r="C132">
-        <v>0.002051965500467561</v>
+        <v>0.001983234383221288</v>
       </c>
       <c r="D132">
-        <v>-0.08396954793476008</v>
+        <v>-0.07000000223089442</v>
       </c>
       <c r="E132">
-        <v>0.1000001069779202</v>
+        <v>0.06993873610075818</v>
       </c>
       <c r="F132" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3739,19 +3739,19 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>2.567364680663033</v>
+        <v>2.498062892032577</v>
       </c>
       <c r="C133">
-        <v>0.002042454002118564</v>
+        <v>0.001974753274334053</v>
       </c>
       <c r="D133">
-        <v>-0.09749304910107026</v>
+        <v>-0.09999997733786892</v>
       </c>
       <c r="E133">
-        <v>0.09999999108856006</v>
+        <v>0.09999999150170114</v>
       </c>
       <c r="F133" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3759,19 +3759,19 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>2.565468803238069</v>
+        <v>2.476845076474743</v>
       </c>
       <c r="C134">
-        <v>0.002040945746410554</v>
+        <v>0.001957980297608492</v>
       </c>
       <c r="D134">
-        <v>-0.06984474097020532</v>
+        <v>-0.06997967590354115</v>
       </c>
       <c r="E134">
-        <v>0.07024788437999741</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3779,19 +3779,19 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>2.554371161859318</v>
+        <v>2.475270300387169</v>
       </c>
       <c r="C135">
-        <v>0.002032117073873759</v>
+        <v>0.001956735415325827</v>
       </c>
       <c r="D135">
-        <v>-0.09999997733786892</v>
+        <v>-0.06972473507949539</v>
       </c>
       <c r="E135">
-        <v>0.09999999150170114</v>
+        <v>0.06994818895639487</v>
       </c>
       <c r="F135" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3799,19 +3799,19 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>2.546032975529465</v>
+        <v>2.456032706430684</v>
       </c>
       <c r="C136">
-        <v>0.002025483671861148</v>
+        <v>0.001941527831170499</v>
       </c>
       <c r="D136">
-        <v>-0.06999997592232032</v>
+        <v>-0.06990520990855775</v>
       </c>
       <c r="E136">
-        <v>0.06994826894424944</v>
+        <v>0.07000005232670703</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3819,19 +3819,19 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>2.543431153808137</v>
+        <v>2.445739638594</v>
       </c>
       <c r="C137">
-        <v>0.002023413805734398</v>
+        <v>0.001933391018651383</v>
       </c>
       <c r="D137">
-        <v>-0.069462652746203</v>
+        <v>-0.06633905194470424</v>
       </c>
       <c r="E137">
-        <v>0.06999996154723576</v>
+        <v>0.06993008581616222</v>
       </c>
       <c r="F137" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3839,19 +3839,19 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>2.533757207781401</v>
+        <v>2.445715648418064</v>
       </c>
       <c r="C138">
-        <v>0.002015717746842801</v>
+        <v>0.001933372054085427</v>
       </c>
       <c r="D138">
-        <v>-0.09987198462060953</v>
+        <v>-0.069462652746203</v>
       </c>
       <c r="E138">
-        <v>0.09909911742804933</v>
+        <v>0.06999996154723576</v>
       </c>
       <c r="F138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3859,19 +3859,19 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>2.525953350768558</v>
+        <v>2.440178872989273</v>
       </c>
       <c r="C139">
-        <v>0.002009509427819061</v>
+        <v>0.001928995156513263</v>
       </c>
       <c r="D139">
-        <v>-0.06986907208583493</v>
+        <v>-0.06994813129869171</v>
       </c>
       <c r="E139">
-        <v>0.06976744878977881</v>
+        <v>0.0692090108753014</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3879,19 +3879,19 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>2.521911455286874</v>
+        <v>2.421753445445604</v>
       </c>
       <c r="C140">
-        <v>0.002006293918287091</v>
+        <v>0.001914429601142771</v>
       </c>
       <c r="D140">
-        <v>-0.09655179331050101</v>
+        <v>-0.06963250274027122</v>
       </c>
       <c r="E140">
-        <v>0.1000000505736387</v>
+        <v>0.06994822547715462</v>
       </c>
       <c r="F140" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3899,19 +3899,19 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>2.513433263497445</v>
+        <v>2.405987518353195</v>
       </c>
       <c r="C141">
-        <v>0.001999549135638385</v>
+        <v>0.001901966417670511</v>
       </c>
       <c r="D141">
-        <v>-0.06990523333736054</v>
+        <v>-0.08465116636107473</v>
       </c>
       <c r="E141">
-        <v>0.07000001712818005</v>
+        <v>0.15049746137451</v>
       </c>
       <c r="F141" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3919,19 +3919,19 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>2.505028543966455</v>
+        <v>2.40404208384797</v>
       </c>
       <c r="C142">
-        <v>0.00199286280347371</v>
+        <v>0.001900428524780999</v>
       </c>
       <c r="D142">
-        <v>-0.06946685135807706</v>
+        <v>-0.06972115173805338</v>
       </c>
       <c r="E142">
-        <v>0.06907893298560075</v>
+        <v>0.06984474535064189</v>
       </c>
       <c r="F142" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3939,19 +3939,19 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2.501703360924076</v>
+        <v>2.403312884489994</v>
       </c>
       <c r="C143">
-        <v>0.001990217470902211</v>
+        <v>0.001899852082600783</v>
       </c>
       <c r="D143">
-        <v>-0.06994813129869171</v>
+        <v>-0.06992079729673628</v>
       </c>
       <c r="E143">
-        <v>0.0692090108753014</v>
+        <v>0.06959710722228385</v>
       </c>
       <c r="F143" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3959,10 +3959,10 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2.491779118399533</v>
+        <v>2.389246268379635</v>
       </c>
       <c r="C144">
-        <v>0.001982322289896209</v>
+        <v>0.001888732227968091</v>
       </c>
       <c r="D144">
         <v>-0.0698412724976426</v>
@@ -3979,19 +3979,19 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2.489896612799631</v>
+        <v>2.3710910923409</v>
       </c>
       <c r="C145">
-        <v>0.001980824672076075</v>
+        <v>0.00187438031015091</v>
       </c>
       <c r="D145">
-        <v>-0.06972115173805338</v>
+        <v>-0.09987198462060953</v>
       </c>
       <c r="E145">
-        <v>0.06984474535064189</v>
+        <v>0.09909911742804933</v>
       </c>
       <c r="F145" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3999,19 +3999,19 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2.479274339810012</v>
+        <v>2.369465986531165</v>
       </c>
       <c r="C146">
-        <v>0.001972374176459834</v>
+        <v>0.00187309564152661</v>
       </c>
       <c r="D146">
-        <v>-0.06992079729673628</v>
+        <v>-0.06999999284744263</v>
       </c>
       <c r="E146">
-        <v>0.06959710722228385</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F146" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4019,19 +4019,19 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2.478477419200941</v>
+        <v>2.367436245701345</v>
       </c>
       <c r="C147">
-        <v>0.0019717401902951</v>
+        <v>0.001871491103321223</v>
       </c>
       <c r="D147">
-        <v>-0.06557378213221121</v>
+        <v>-0.06986907208583493</v>
       </c>
       <c r="E147">
-        <v>0.06993008581616222</v>
+        <v>0.06976744878977881</v>
       </c>
       <c r="F147" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4039,19 +4039,19 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2.476170546567818</v>
+        <v>2.360916465727584</v>
       </c>
       <c r="C148">
-        <v>0.001969904969425469</v>
+        <v>0.001866337127057377</v>
       </c>
       <c r="D148">
-        <v>-0.06999999284744263</v>
+        <v>-0.06999997592232032</v>
       </c>
       <c r="E148">
-        <v>0.06999998092651372</v>
+        <v>0.06994826894424944</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4059,19 +4059,19 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2.467754827710609</v>
+        <v>2.351203616531213</v>
       </c>
       <c r="C149">
-        <v>0.001963209886802395</v>
+        <v>0.001858658985400169</v>
       </c>
       <c r="D149">
-        <v>-0.06963250274027122</v>
+        <v>-0.08396954793476008</v>
       </c>
       <c r="E149">
-        <v>0.06994822547715462</v>
+        <v>0.1000001069779202</v>
       </c>
       <c r="F149" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4079,19 +4079,19 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2.444372318490909</v>
+        <v>2.324125115761434</v>
       </c>
       <c r="C150">
-        <v>0.001944608049714327</v>
+        <v>0.001837253055937893</v>
       </c>
       <c r="D150">
-        <v>-0.06927714050223288</v>
+        <v>-0.07000008020039405</v>
       </c>
       <c r="E150">
-        <v>0.07000002910231018</v>
+        <v>0.06963249407981098</v>
       </c>
       <c r="F150" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4099,19 +4099,19 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2.442184454598007</v>
+        <v>2.319269342757885</v>
       </c>
       <c r="C151">
-        <v>0.001942867505646781</v>
+        <v>0.001833414500203861</v>
       </c>
       <c r="D151">
-        <v>-0.06990293725202734</v>
+        <v>-0.09655179331050101</v>
       </c>
       <c r="E151">
-        <v>0.06991526455819863</v>
+        <v>0.1000000505736387</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4119,19 +4119,19 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2.435730359943895</v>
+        <v>2.316381347804287</v>
       </c>
       <c r="C152">
-        <v>0.001937732983248923</v>
+        <v>0.001831131500240545</v>
       </c>
       <c r="D152">
-        <v>-0.07000008020039405</v>
+        <v>-0.06971424647739954</v>
       </c>
       <c r="E152">
-        <v>0.06963249407981098</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F152" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4139,19 +4139,19 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2.417733344303555</v>
+        <v>2.315430095001054</v>
       </c>
       <c r="C153">
-        <v>0.001923415548371963</v>
+        <v>0.001830379521739961</v>
       </c>
       <c r="D153">
-        <v>-0.06987575137530111</v>
+        <v>-0.06990293725202734</v>
       </c>
       <c r="E153">
-        <v>0.06984668510129555</v>
+        <v>0.06991526455819863</v>
       </c>
       <c r="F153" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4159,16 +4159,16 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2.411885786622388</v>
+        <v>2.302291214301844</v>
       </c>
       <c r="C154">
-        <v>0.001918763553398878</v>
+        <v>0.001819993054784065</v>
       </c>
       <c r="D154">
-        <v>-0.06870229825350138</v>
+        <v>-0.06903348229865602</v>
       </c>
       <c r="E154">
-        <v>0.06999998092651372</v>
+        <v>0.06999997075373066</v>
       </c>
       <c r="F154" t="s">
         <v>226</v>
@@ -4179,19 +4179,19 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2.409970904518604</v>
+        <v>2.302089492363598</v>
       </c>
       <c r="C155">
-        <v>0.001917240178614643</v>
+        <v>0.001819833590801264</v>
       </c>
       <c r="D155">
-        <v>-0.08465116636107473</v>
+        <v>-0.06997743007304569</v>
       </c>
       <c r="E155">
-        <v>0.15049746137451</v>
+        <v>0.06970509199332731</v>
       </c>
       <c r="F155" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4199,19 +4199,19 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2.408158704547233</v>
+        <v>2.292336763171011</v>
       </c>
       <c r="C156">
-        <v>0.001915798492082127</v>
+        <v>0.001812123923455344</v>
       </c>
       <c r="D156">
-        <v>-0.06997743007304569</v>
+        <v>-0.06927714050223288</v>
       </c>
       <c r="E156">
-        <v>0.06970509199332731</v>
+        <v>0.07000002910231018</v>
       </c>
       <c r="F156" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4219,19 +4219,19 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2.383857611876045</v>
+        <v>2.291082188729298</v>
       </c>
       <c r="C157">
-        <v>0.001896465880569645</v>
+        <v>0.001811132165003399</v>
       </c>
       <c r="D157">
-        <v>-0.06944444136063499</v>
+        <v>-0.0690608151727804</v>
       </c>
       <c r="E157">
-        <v>0.06998162675237007</v>
+        <v>0.06993009546669837</v>
       </c>
       <c r="F157" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4239,19 +4239,19 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2.382304678707296</v>
+        <v>2.286441470219085</v>
       </c>
       <c r="C158">
-        <v>0.001895230452432216</v>
+        <v>0.001807463612821413</v>
       </c>
       <c r="D158">
-        <v>-0.06990017574271634</v>
+        <v>-0.06987575137530111</v>
       </c>
       <c r="E158">
-        <v>0.09433961924644252</v>
+        <v>0.06984668510129555</v>
       </c>
       <c r="F158" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4259,10 +4259,10 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2.381459048173585</v>
+        <v>2.258225199966336</v>
       </c>
       <c r="C159">
-        <v>0.001894557715333002</v>
+        <v>0.001785158260842953</v>
       </c>
       <c r="D159">
         <v>-0.06988350176847491</v>
@@ -4279,19 +4279,19 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2.368547239682655</v>
+        <v>2.24107594131695</v>
       </c>
       <c r="C160">
-        <v>0.001884285791314761</v>
+        <v>0.001771601534637905</v>
       </c>
       <c r="D160">
-        <v>-0.06984127978392152</v>
+        <v>-0.06990017574271634</v>
       </c>
       <c r="E160">
-        <v>0.06960556867709977</v>
+        <v>0.09433961924644252</v>
       </c>
       <c r="F160" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4299,19 +4299,19 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2.366377322781318</v>
+        <v>2.183703243573475</v>
       </c>
       <c r="C161">
-        <v>0.001882559524885696</v>
+        <v>0.00172624762337824</v>
       </c>
       <c r="D161">
-        <v>-0.0690608151727804</v>
+        <v>-0.06984127978392152</v>
       </c>
       <c r="E161">
-        <v>0.06993009546669837</v>
+        <v>0.06960556867709977</v>
       </c>
       <c r="F161" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4319,19 +4319,19 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2.365398494718307</v>
+        <v>2.154341109817051</v>
       </c>
       <c r="C162">
-        <v>0.001881780823164919</v>
+        <v>0.00170303645044826</v>
       </c>
       <c r="D162">
-        <v>-0.06903348229865602</v>
+        <v>-0.06906902405434578</v>
       </c>
       <c r="E162">
-        <v>0.06999997075373066</v>
+        <v>0.06989247814046018</v>
       </c>
       <c r="F162" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4339,19 +4339,19 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2.294577614097162</v>
+        <v>2.121667402239148</v>
       </c>
       <c r="C163">
-        <v>0.001825439629353349</v>
+        <v>0.001677207432600116</v>
       </c>
       <c r="D163">
-        <v>-0.06906902405434578</v>
+        <v>-0.06944444136063499</v>
       </c>
       <c r="E163">
-        <v>0.06989247814046018</v>
+        <v>0.06998162675237007</v>
       </c>
       <c r="F163" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4359,13 +4359,13 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2.222177150692973</v>
+        <v>2.118287610612639</v>
       </c>
       <c r="C164">
-        <v>0.001767841806438327</v>
+        <v>0.001674535660563355</v>
       </c>
       <c r="D164">
-        <v>-0.09677420366253031</v>
+        <v>-0.09708737684291768</v>
       </c>
       <c r="E164">
         <v>0.09913793710206664</v>
@@ -4379,19 +4379,19 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2.212905483752379</v>
+        <v>2.080314643392332</v>
       </c>
       <c r="C165">
-        <v>0.001760465778641511</v>
+        <v>0.00164451750465797</v>
       </c>
       <c r="D165">
-        <v>-0.06979280195244686</v>
+        <v>-0.06984663259319479</v>
       </c>
       <c r="E165">
-        <v>0.06993009596505595</v>
+        <v>0.07000008006928793</v>
       </c>
       <c r="F165" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4399,19 +4399,19 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2.131062822631005</v>
+        <v>2.059500609485557</v>
       </c>
       <c r="C166">
-        <v>0.001695356263031825</v>
+        <v>0.001628063722913483</v>
       </c>
       <c r="D166">
-        <v>-0.1111111042149548</v>
+        <v>-0.07719292174407599</v>
       </c>
       <c r="E166">
-        <v>0.1593406343488595</v>
+        <v>0.1352312830457774</v>
       </c>
       <c r="F166" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4419,19 +4419,19 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2.111999006148011</v>
+        <v>2.058171683812813</v>
       </c>
       <c r="C167">
-        <v>0.001680190140133662</v>
+        <v>0.001627013188784831</v>
       </c>
       <c r="D167">
-        <v>-0.06936408737921229</v>
+        <v>-0.06909089280352687</v>
       </c>
       <c r="E167">
-        <v>0.06979862411866566</v>
+        <v>0.0960698568919014</v>
       </c>
       <c r="F167" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4439,19 +4439,19 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2.104831454628723</v>
+        <v>2.056978476284056</v>
       </c>
       <c r="C168">
-        <v>0.001674488030730886</v>
+        <v>0.001626069941726525</v>
       </c>
       <c r="D168">
-        <v>-0.06991872282140932</v>
+        <v>-0.06979280195244686</v>
       </c>
       <c r="E168">
-        <v>0.06963475841615496</v>
+        <v>0.06993009596505595</v>
       </c>
       <c r="F168" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4459,19 +4459,19 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2.098144511307812</v>
+        <v>2.051950106829797</v>
       </c>
       <c r="C169">
-        <v>0.001669168266752434</v>
+        <v>0.001622094946110511</v>
       </c>
       <c r="D169">
-        <v>-0.06909089280352687</v>
+        <v>-0.1111111042149548</v>
       </c>
       <c r="E169">
-        <v>0.0960698568919014</v>
+        <v>0.1593406343488595</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4479,19 +4479,19 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>2.095948151640311</v>
+        <v>2.014425098679332</v>
       </c>
       <c r="C170">
-        <v>0.001667420963914328</v>
+        <v>0.001592430908046903</v>
       </c>
       <c r="D170">
-        <v>-0.07719292174407599</v>
+        <v>-0.06991872282140932</v>
       </c>
       <c r="E170">
-        <v>0.1352312830457774</v>
+        <v>0.06963475841615496</v>
       </c>
       <c r="F170" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4499,19 +4499,19 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>1.985628054934576</v>
+        <v>1.970518695239095</v>
       </c>
       <c r="C171">
-        <v>0.001579656368285263</v>
+        <v>0.001557722288726557</v>
       </c>
       <c r="D171">
-        <v>-0.06984663259319479</v>
+        <v>-0.06936408737921229</v>
       </c>
       <c r="E171">
-        <v>0.07000008006928793</v>
+        <v>0.06979862411866566</v>
       </c>
       <c r="F171" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4519,19 +4519,19 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>1.969150202460746</v>
+        <v>1.909134250746238</v>
       </c>
       <c r="C172">
-        <v>0.001566547495991045</v>
+        <v>0.001509197036163033</v>
       </c>
       <c r="D172">
-        <v>-0.06896555323692</v>
+        <v>-0.1150442660549275</v>
       </c>
       <c r="E172">
-        <v>0.0698197830537064</v>
+        <v>0.1366666172496895</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4539,19 +4539,19 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>1.967218328812642</v>
+        <v>1.897279953808653</v>
       </c>
       <c r="C173">
-        <v>0.001565010603669564</v>
+        <v>0.001499826050441622</v>
       </c>
       <c r="D173">
-        <v>-0.06976743899502935</v>
+        <v>-0.06896555323692</v>
       </c>
       <c r="E173">
-        <v>0.06997456409537439</v>
+        <v>0.0698197830537064</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4559,10 +4559,10 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>1.956913649455014</v>
+        <v>1.814222612103903</v>
       </c>
       <c r="C174">
-        <v>0.001556812768062859</v>
+        <v>0.00143416807280941</v>
       </c>
       <c r="D174">
         <v>-0.2127659574468085</v>
@@ -4571,7 +4571,7 @@
         <v>0.1612903275425304</v>
       </c>
       <c r="F174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4579,19 +4579,19 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>1.952180027909109</v>
+        <v>1.809125601270966</v>
       </c>
       <c r="C175">
-        <v>0.0015530469593549</v>
+        <v>0.001430138815233965</v>
       </c>
       <c r="D175">
-        <v>-0.09547738013434359</v>
+        <v>-0.06947889057242518</v>
       </c>
       <c r="E175">
-        <v>0.1366666172496895</v>
+        <v>0.06956526161967846</v>
       </c>
       <c r="F175" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4599,19 +4599,19 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>1.875191856183886</v>
+        <v>1.788998785043077</v>
       </c>
       <c r="C176">
-        <v>0.001491799408260848</v>
+        <v>0.001414228288571602</v>
       </c>
       <c r="D176">
-        <v>-0.07482990068676376</v>
+        <v>-0.06962027661690495</v>
       </c>
       <c r="E176">
-        <v>0.0699481742507313</v>
+        <v>0.07000003017804945</v>
       </c>
       <c r="F176" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4619,19 +4619,19 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>1.844721993472982</v>
+        <v>1.748960998558861</v>
       </c>
       <c r="C177">
-        <v>0.001467559262906111</v>
+        <v>0.001382577864473408</v>
       </c>
       <c r="D177">
-        <v>-0.06947889057242518</v>
+        <v>-0.06976743899502935</v>
       </c>
       <c r="E177">
-        <v>0.06956526161967846</v>
+        <v>0.06997456409537439</v>
       </c>
       <c r="F177" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4639,19 +4639,19 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>1.832763146249315</v>
+        <v>1.715197068949988</v>
       </c>
       <c r="C178">
-        <v>0.001458045462409956</v>
+        <v>0.00135588701102766</v>
       </c>
       <c r="D178">
-        <v>-0.06997739339750808</v>
+        <v>-0.06964281581374276</v>
       </c>
       <c r="E178">
-        <v>0.06985292519252639</v>
+        <v>0.06962028753701133</v>
       </c>
       <c r="F178" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4659,19 +4659,19 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>1.832635963944594</v>
+        <v>1.696768491356355</v>
       </c>
       <c r="C179">
-        <v>0.001457944283169924</v>
+        <v>0.001341318965499094</v>
       </c>
       <c r="D179">
-        <v>-0.0695187053760733</v>
+        <v>-0.06904232708871627</v>
       </c>
       <c r="E179">
-        <v>0.0698795925471658</v>
+        <v>0.06921680523124629</v>
       </c>
       <c r="F179" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4679,16 +4679,16 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>1.823401533418815</v>
+        <v>1.683069815949959</v>
       </c>
       <c r="C180">
-        <v>0.001450597878614808</v>
+        <v>0.001330489973082971</v>
       </c>
       <c r="D180">
-        <v>-0.06962027661690495</v>
+        <v>-0.0695187053760733</v>
       </c>
       <c r="E180">
-        <v>0.07000003017804945</v>
+        <v>0.0698795925471658</v>
       </c>
       <c r="F180" t="s">
         <v>237</v>
@@ -4699,19 +4699,19 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>1.790784255307355</v>
+        <v>1.677316083622858</v>
       </c>
       <c r="C181">
-        <v>0.001424649367786283</v>
+        <v>0.001325941568081311</v>
       </c>
       <c r="D181">
-        <v>-0.06600663872224521</v>
+        <v>-0.07482990068676376</v>
       </c>
       <c r="E181">
-        <v>0.06999997773390709</v>
+        <v>0.0699481742507313</v>
       </c>
       <c r="F181" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4719,19 +4719,19 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>1.764850491095587</v>
+        <v>1.669962852667841</v>
       </c>
       <c r="C182">
-        <v>0.001404017892677477</v>
+        <v>0.00132012873728683</v>
       </c>
       <c r="D182">
-        <v>-0.06964281581374276</v>
+        <v>-0.07586206896551728</v>
       </c>
       <c r="E182">
-        <v>0.06962028753701133</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="F182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4739,19 +4739,19 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>1.748298912905265</v>
+        <v>1.638374574860745</v>
       </c>
       <c r="C183">
-        <v>0.001390850368261945</v>
+        <v>0.001295157766688336</v>
       </c>
       <c r="D183">
-        <v>-0.06904232708871627</v>
+        <v>-0.06997739339750808</v>
       </c>
       <c r="E183">
-        <v>0.06921680523124629</v>
+        <v>0.06985292519252639</v>
       </c>
       <c r="F183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4759,19 +4759,19 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>1.716952597866596</v>
+        <v>1.630037282050162</v>
       </c>
       <c r="C184">
-        <v>0.001365912965685438</v>
+        <v>0.001288567021383527</v>
       </c>
       <c r="D184">
-        <v>-0.1290322479309236</v>
+        <v>-0.06981524422491381</v>
       </c>
       <c r="E184">
-        <v>0.1111111191262406</v>
+        <v>0.06915483200771044</v>
       </c>
       <c r="F184" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4779,19 +4779,19 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>1.689283559559422</v>
+        <v>1.61372895558507</v>
       </c>
       <c r="C185">
-        <v>0.001343901002036136</v>
+        <v>0.001275675063703613</v>
       </c>
       <c r="D185">
-        <v>-0.07586206896551728</v>
+        <v>-0.1290322479309236</v>
       </c>
       <c r="E185">
-        <v>0.1071428571428572</v>
+        <v>0.1111111191262406</v>
       </c>
       <c r="F185" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4799,19 +4799,19 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>1.651199378835179</v>
+        <v>1.593249350764818</v>
       </c>
       <c r="C186">
-        <v>0.001313603324451217</v>
+        <v>0.001259485652778514</v>
       </c>
       <c r="D186">
-        <v>-0.1000000159853983</v>
+        <v>-0.06600663872224521</v>
       </c>
       <c r="E186">
-        <v>0.1000000142726771</v>
+        <v>0.06999997773390709</v>
       </c>
       <c r="F186" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4819,19 +4819,19 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>1.631011547668572</v>
+        <v>1.538352273506696</v>
       </c>
       <c r="C187">
-        <v>0.001297542997349698</v>
+        <v>0.001216088753760234</v>
       </c>
       <c r="D187">
-        <v>-0.06981524422491381</v>
+        <v>-0.06920418159995967</v>
       </c>
       <c r="E187">
-        <v>0.06915483200771044</v>
+        <v>0.06936415869942159</v>
       </c>
       <c r="F187" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4839,19 +4839,19 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>1.624543911722209</v>
+        <v>1.521926886722694</v>
       </c>
       <c r="C188">
-        <v>0.001292397702245194</v>
+        <v>0.00120310425827881</v>
       </c>
       <c r="D188">
-        <v>-0.1359223209634383</v>
+        <v>-0.06988695709559989</v>
       </c>
       <c r="E188">
-        <v>0.1481481176235944</v>
+        <v>0.06997078384203337</v>
       </c>
       <c r="F188" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4859,19 +4859,19 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>1.581055971430679</v>
+        <v>1.484243908208783</v>
       </c>
       <c r="C189">
-        <v>0.001257801091034749</v>
+        <v>0.001173315342457537</v>
       </c>
       <c r="D189">
-        <v>-0.06988695709559989</v>
+        <v>-0.1153846689979657</v>
       </c>
       <c r="E189">
-        <v>0.06997078384203337</v>
+        <v>0.1119403565368413</v>
       </c>
       <c r="F189" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4879,19 +4879,19 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>1.572017530075613</v>
+        <v>1.47984631536678</v>
       </c>
       <c r="C190">
-        <v>0.001250610604674314</v>
+        <v>0.001169838984479666</v>
       </c>
       <c r="D190">
-        <v>-0.06920418159995967</v>
+        <v>-0.06930696622036969</v>
       </c>
       <c r="E190">
-        <v>0.06936415869942159</v>
+        <v>0.0698027847269107</v>
       </c>
       <c r="F190" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4899,19 +4899,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>1.570127807578676</v>
+        <v>1.462472658917511</v>
       </c>
       <c r="C191">
-        <v>0.001249107245488207</v>
+        <v>0.001156104868709495</v>
       </c>
       <c r="D191">
-        <v>-0.1153846689979657</v>
+        <v>-0.1000000159853983</v>
       </c>
       <c r="E191">
-        <v>0.1119403565368413</v>
+        <v>0.1000000142726771</v>
       </c>
       <c r="F191" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4919,19 +4919,19 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>1.550804950922618</v>
+        <v>1.448646016471024</v>
       </c>
       <c r="C192">
-        <v>0.001233735044488955</v>
+        <v>0.001145174716577884</v>
       </c>
       <c r="D192">
-        <v>-0.06903359353592942</v>
+        <v>-0.07000002832724772</v>
       </c>
       <c r="E192">
-        <v>0.0698027847269107</v>
+        <v>0.06999998166089894</v>
       </c>
       <c r="F192" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4939,19 +4939,19 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>1.432830969119015</v>
+        <v>1.443226602287761</v>
       </c>
       <c r="C193">
-        <v>0.001139881439235494</v>
+        <v>0.001140890594693882</v>
       </c>
       <c r="D193">
-        <v>-0.07000002832724772</v>
+        <v>-0.1359223209634383</v>
       </c>
       <c r="E193">
-        <v>0.06999998166089894</v>
+        <v>0.1481481176235944</v>
       </c>
       <c r="F193" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4959,19 +4959,19 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>1.398754864381863</v>
+        <v>1.371618754780676</v>
       </c>
       <c r="C194">
-        <v>0.001112772366254465</v>
+        <v>0.001084283600617136</v>
       </c>
       <c r="D194">
-        <v>-0.06910562732073722</v>
+        <v>-0.06771649541528946</v>
       </c>
       <c r="E194">
-        <v>0.06997741154931059</v>
+        <v>0.06992999997499116</v>
       </c>
       <c r="F194" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4979,10 +4979,10 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>1.37191087572145</v>
+        <v>1.357692732914005</v>
       </c>
       <c r="C195">
-        <v>0.001091416766683731</v>
+        <v>0.001073274887679056</v>
       </c>
       <c r="D195">
         <v>-0.07505523455869945</v>
@@ -4999,19 +4999,19 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>1.36762577310947</v>
+        <v>1.317630493246677</v>
       </c>
       <c r="C196">
-        <v>0.001088007774947867</v>
+        <v>0.001041605133001324</v>
       </c>
       <c r="D196">
-        <v>-0.08776595744680848</v>
+        <v>-0.08776598364985366</v>
       </c>
       <c r="E196">
-        <v>0.07205239448609779</v>
+        <v>0.07205231730075634</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5019,10 +5019,10 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>1.334120137288996</v>
+        <v>1.273192214228156</v>
       </c>
       <c r="C197">
-        <v>0.001061352535631659</v>
+        <v>0.001006476058678384</v>
       </c>
       <c r="D197">
         <v>-0.1026615720542988</v>
@@ -5039,10 +5039,10 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>1.294519661652472</v>
+        <v>1.232663790744505</v>
       </c>
       <c r="C198">
-        <v>0.001029848577289158</v>
+        <v>0.0009744377792446677</v>
       </c>
       <c r="D198">
         <v>-0.0694126800439423</v>
@@ -5051,7 +5051,7 @@
         <v>0.0698027288367753</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5059,19 +5059,19 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>1.262368758273469</v>
+        <v>1.181117627895755</v>
       </c>
       <c r="C199">
-        <v>0.001004271088523047</v>
+        <v>0.0009336898244235217</v>
       </c>
       <c r="D199">
-        <v>-0.06771649541528946</v>
+        <v>-0.06910562732073722</v>
       </c>
       <c r="E199">
-        <v>0.06992999997499116</v>
+        <v>0.06997741154931059</v>
       </c>
       <c r="F199" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5079,10 +5079,10 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>1.221748464310593</v>
+        <v>1.117413654425269</v>
       </c>
       <c r="C200">
-        <v>0.0009719558188628428</v>
+        <v>0.0008833309521148373</v>
       </c>
       <c r="D200">
         <v>-0.06849312549060282</v>
@@ -5099,10 +5099,10 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>1.1474968951577</v>
+        <v>1.066374948920879</v>
       </c>
       <c r="C201">
-        <v>0.000912885358120684</v>
+        <v>0.0008429841493445685</v>
       </c>
       <c r="D201">
         <v>-0.06994330999834741</v>
@@ -5119,19 +5119,19 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>1.132965082056107</v>
+        <v>1.038997478123127</v>
       </c>
       <c r="C202">
-        <v>0.0009013246476182234</v>
+        <v>0.0008213418799392304</v>
       </c>
       <c r="D202">
-        <v>-0.06999998712539734</v>
+        <v>-0.06919944750899132</v>
       </c>
       <c r="E202">
-        <v>0.0699880626678262</v>
+        <v>0.06989244448068677</v>
       </c>
       <c r="F202" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5139,19 +5139,19 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>1.050556122575372</v>
+        <v>0.914595421270567</v>
       </c>
       <c r="C203">
-        <v>0.0008357646162095242</v>
+        <v>0.000723000333020211</v>
       </c>
       <c r="D203">
-        <v>-0.06919944750899132</v>
+        <v>-0.06999998712539734</v>
       </c>
       <c r="E203">
-        <v>0.06989244448068677</v>
+        <v>0.0699880626678262</v>
       </c>
       <c r="F203" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5159,19 +5159,19 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>0.8656416790658884</v>
+        <v>0.7772194916211317</v>
       </c>
       <c r="C204">
-        <v>0.0006886568648097759</v>
+        <v>0.0006144027601748077</v>
       </c>
       <c r="D204">
-        <v>-0.0972221983067777</v>
+        <v>-0.06962025639760372</v>
       </c>
       <c r="E204">
-        <v>0.1428572115491726</v>
+        <v>0.06988248106916406</v>
       </c>
       <c r="F204" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5179,19 +5179,19 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.8613896054728223</v>
+        <v>0.7122307984038301</v>
       </c>
       <c r="C205">
-        <v>0.0006852741491430567</v>
+        <v>0.0005630282991334625</v>
       </c>
       <c r="D205">
-        <v>-0.06962025639760372</v>
+        <v>-0.06957191048317279</v>
       </c>
       <c r="E205">
-        <v>0.06988248106916406</v>
+        <v>0.06981133514980109</v>
       </c>
       <c r="F205" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5199,10 +5199,10 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.8407246857701912</v>
+        <v>0.6729232191592482</v>
       </c>
       <c r="C206">
-        <v>0.0006688342766668188</v>
+        <v>0.00053195511395988</v>
       </c>
       <c r="D206">
         <v>-0.06948425182676632</v>
@@ -5211,7 +5211,7 @@
         <v>0.06995079725746844</v>
       </c>
       <c r="F206" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5219,10 +5219,10 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.7053159780841297</v>
+        <v>0.6190767478979318</v>
       </c>
       <c r="C207">
-        <v>0.0005611105633127523</v>
+        <v>0.0004893887335161516</v>
       </c>
       <c r="D207">
         <v>-0.06984870440182311</v>
@@ -5239,19 +5239,19 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.703625619650065</v>
+        <v>0.5545030535107022</v>
       </c>
       <c r="C208">
-        <v>0.0005597658071997334</v>
+        <v>0.0004383423347910689</v>
       </c>
       <c r="D208">
-        <v>-0.06957191048317279</v>
+        <v>-0.06969986365866065</v>
       </c>
       <c r="E208">
-        <v>0.06981133514980109</v>
+        <v>0.06971903224517639</v>
       </c>
       <c r="F208" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5259,19 +5259,19 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.656492571549953</v>
+        <v>0.5227323047233202</v>
       </c>
       <c r="C209">
-        <v>0.0005222693488861997</v>
+        <v>0.0004132271183583559</v>
       </c>
       <c r="D209">
-        <v>-0.06969986365866065</v>
+        <v>-0.1134020050953738</v>
       </c>
       <c r="E209">
-        <v>0.06971903224517639</v>
+        <v>0.1428572115491726</v>
       </c>
       <c r="F209" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5279,19 +5279,19 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.5207094770997991</v>
+        <v>0.2361660166210567</v>
       </c>
       <c r="C210">
-        <v>0.0004142477940332531</v>
+        <v>0.0001866925032577524</v>
       </c>
       <c r="D210">
-        <v>-0.05138337060327858</v>
+        <v>-0.09275364811254527</v>
       </c>
       <c r="E210">
         <v>0.1078431879464437</v>
       </c>
       <c r="F210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5302,7 +5302,7 @@
         <v>0.1704313290524826</v>
       </c>
       <c r="C211">
-        <v>0.0001355857828579814</v>
+        <v>0.0001347283233616463</v>
       </c>
       <c r="D211">
         <v>-0.04887222277315439</v>
@@ -5322,7 +5322,7 @@
         <v>0.1151020417389471</v>
       </c>
       <c r="C212">
-        <v>9.156884784323557E-05</v>
+        <v>9.098975631537321E-05</v>
       </c>
       <c r="D212">
         <v>-0.1435185289428612</v>

--- a/.xlsx/performance_stock_statistic.xlsx
+++ b/.xlsx/performance_stock_statistic.xlsx
@@ -40,24 +40,24 @@
     <t>SBS</t>
   </si>
   <si>
+    <t>CTS</t>
+  </si>
+  <si>
     <t>CEO</t>
   </si>
   <si>
-    <t>CTS</t>
+    <t>NHA</t>
+  </si>
+  <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>VIX</t>
   </si>
   <si>
     <t>VGS</t>
   </si>
   <si>
-    <t>NHA</t>
-  </si>
-  <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>VOS</t>
-  </si>
-  <si>
     <t>AGR</t>
   </si>
   <si>
@@ -67,10 +67,19 @@
     <t>PSI</t>
   </si>
   <si>
+    <t>HQC</t>
+  </si>
+  <si>
+    <t>FTS</t>
+  </si>
+  <si>
     <t>PVC</t>
   </si>
   <si>
-    <t>HQC</t>
+    <t>HUT</t>
+  </si>
+  <si>
+    <t>IDI</t>
   </si>
   <si>
     <t>VDS</t>
@@ -79,127 +88,139 @@
     <t>VCI</t>
   </si>
   <si>
-    <t>FTS</t>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>SCI</t>
   </si>
   <si>
     <t>NKG</t>
   </si>
   <si>
-    <t>DIG</t>
+    <t>MBS</t>
+  </si>
+  <si>
+    <t>PET</t>
   </si>
   <si>
     <t>BSI</t>
   </si>
   <si>
-    <t>IDI</t>
-  </si>
-  <si>
-    <t>MBS</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>HUT</t>
-  </si>
-  <si>
-    <t>PET</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
     <t>SGP</t>
   </si>
   <si>
+    <t>C4G</t>
+  </si>
+  <si>
     <t>BVS</t>
   </si>
   <si>
-    <t>C4G</t>
-  </si>
-  <si>
     <t>DRI</t>
   </si>
   <si>
+    <t>DGW</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>VPH</t>
+  </si>
+  <si>
     <t>ORS</t>
   </si>
   <si>
-    <t>DGW</t>
-  </si>
-  <si>
     <t>G36</t>
   </si>
   <si>
     <t>ASM</t>
   </si>
   <si>
-    <t>VPH</t>
+    <t>DDV</t>
+  </si>
+  <si>
+    <t>OGC</t>
+  </si>
+  <si>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>LAS</t>
   </si>
   <si>
     <t>DXG</t>
   </si>
   <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>DGC</t>
+  </si>
+  <si>
     <t>HSG</t>
   </si>
   <si>
-    <t>OGC</t>
-  </si>
-  <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>JVC</t>
-  </si>
-  <si>
-    <t>DBC</t>
+    <t>PVD</t>
   </si>
   <si>
     <t>BFC</t>
   </si>
   <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>DDV</t>
-  </si>
-  <si>
-    <t>DGC</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>SCR</t>
+    <t>DPG</t>
+  </si>
+  <si>
+    <t>IJC</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>HTN</t>
   </si>
   <si>
     <t>HHS</t>
   </si>
   <si>
-    <t>DPG</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>TIG</t>
   </si>
   <si>
-    <t>IJC</t>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>HAH</t>
+  </si>
+  <si>
+    <t>LGL</t>
+  </si>
+  <si>
+    <t>IVS</t>
+  </si>
+  <si>
+    <t>IDJ</t>
   </si>
   <si>
     <t>PVB</t>
   </si>
   <si>
-    <t>SSI</t>
-  </si>
-  <si>
-    <t>HTN</t>
-  </si>
-  <si>
-    <t>DCM</t>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>GEX</t>
   </si>
   <si>
     <t>FRT</t>
@@ -208,358 +229,349 @@
     <t>NBC</t>
   </si>
   <si>
-    <t>HCM</t>
+    <t>LCG</t>
   </si>
   <si>
     <t>BMC</t>
   </si>
   <si>
-    <t>LCG</t>
-  </si>
-  <si>
-    <t>IDJ</t>
-  </si>
-  <si>
-    <t>IVS</t>
-  </si>
-  <si>
-    <t>BCG</t>
-  </si>
-  <si>
-    <t>HAH</t>
-  </si>
-  <si>
     <t>HAG</t>
   </si>
   <si>
-    <t>GEX</t>
-  </si>
-  <si>
-    <t>LGL</t>
-  </si>
-  <si>
     <t>S99</t>
   </si>
   <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>LDG</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>GVR</t>
+  </si>
+  <si>
     <t>PVS</t>
   </si>
   <si>
-    <t>BSR</t>
-  </si>
-  <si>
-    <t>GVR</t>
-  </si>
-  <si>
-    <t>CSV</t>
-  </si>
-  <si>
-    <t>LDG</t>
-  </si>
-  <si>
-    <t>KSB</t>
+    <t>ANV</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>SZC</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>VPG</t>
   </si>
   <si>
     <t>EVF</t>
   </si>
   <si>
-    <t>HDC</t>
-  </si>
-  <si>
-    <t>FCN</t>
-  </si>
-  <si>
-    <t>SZC</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>ANV</t>
-  </si>
-  <si>
     <t>VGC</t>
   </si>
   <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
     <t>LPB</t>
   </si>
   <si>
+    <t>HAX</t>
+  </si>
+  <si>
+    <t>CKG</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>CII</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>HDG</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
     <t>APG</t>
   </si>
   <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>TTN</t>
-  </si>
-  <si>
-    <t>VGT</t>
-  </si>
-  <si>
-    <t>VPG</t>
-  </si>
-  <si>
-    <t>DPM</t>
-  </si>
-  <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>HAX</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>HDG</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>KBC</t>
-  </si>
-  <si>
-    <t>CII</t>
-  </si>
-  <si>
-    <t>IDC</t>
-  </si>
-  <si>
-    <t>CKG</t>
-  </si>
-  <si>
-    <t>TV2</t>
+    <t>PDR</t>
+  </si>
+  <si>
+    <t>VIB</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>CMX</t>
   </si>
   <si>
     <t>OIL</t>
   </si>
   <si>
-    <t>VIB</t>
-  </si>
-  <si>
-    <t>TCM</t>
-  </si>
-  <si>
-    <t>PDR</t>
-  </si>
-  <si>
     <t>VIP</t>
   </si>
   <si>
+    <t>HVH</t>
+  </si>
+  <si>
+    <t>MWG</t>
+  </si>
+  <si>
     <t>TCH</t>
   </si>
   <si>
-    <t>CMX</t>
-  </si>
-  <si>
-    <t>HVH</t>
+    <t>HHV</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>VHC</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>PAN</t>
   </si>
   <si>
     <t>CTD</t>
   </si>
   <si>
-    <t>HHV</t>
-  </si>
-  <si>
-    <t>HPG</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
-    <t>STB</t>
-  </si>
-  <si>
-    <t>MWG</t>
-  </si>
-  <si>
-    <t>ASP</t>
+    <t>TCB</t>
+  </si>
+  <si>
+    <t>PTB</t>
+  </si>
+  <si>
+    <t>LHG</t>
+  </si>
+  <si>
+    <t>BCM</t>
   </si>
   <si>
     <t>HDB</t>
   </si>
   <si>
-    <t>VHC</t>
-  </si>
-  <si>
-    <t>TCB</t>
-  </si>
-  <si>
-    <t>PTB</t>
-  </si>
-  <si>
-    <t>PAN</t>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>VGI</t>
   </si>
   <si>
     <t>MBB</t>
   </si>
   <si>
+    <t>MSH</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>HVN</t>
+  </si>
+  <si>
+    <t>VTO</t>
+  </si>
+  <si>
+    <t>TNI</t>
+  </si>
+  <si>
+    <t>VCG</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
     <t>NBB</t>
   </si>
   <si>
-    <t>NTP</t>
-  </si>
-  <si>
-    <t>VTO</t>
-  </si>
-  <si>
-    <t>BCM</t>
-  </si>
-  <si>
-    <t>LHG</t>
+    <t>SHB</t>
+  </si>
+  <si>
+    <t>SKG</t>
+  </si>
+  <si>
+    <t>NLG</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>NVB</t>
+  </si>
+  <si>
+    <t>TCL</t>
   </si>
   <si>
     <t>GMD</t>
   </si>
   <si>
-    <t>DPR</t>
-  </si>
-  <si>
-    <t>MSH</t>
-  </si>
-  <si>
-    <t>VGI</t>
-  </si>
-  <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>SHB</t>
-  </si>
-  <si>
-    <t>TNI</t>
-  </si>
-  <si>
-    <t>HVN</t>
-  </si>
-  <si>
-    <t>TCL</t>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>DRC</t>
   </si>
   <si>
     <t>THG</t>
   </si>
   <si>
-    <t>NLG</t>
-  </si>
-  <si>
-    <t>CTG</t>
+    <t>DAH</t>
   </si>
   <si>
     <t>SBT</t>
   </si>
   <si>
+    <t>VSC</t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>D2D</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
     <t>FOX</t>
   </si>
   <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t>DRC</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>VCS</t>
-  </si>
-  <si>
-    <t>DAH</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>SKG</t>
-  </si>
-  <si>
-    <t>VCG</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>NVB</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>CRE</t>
+    <t>VPB</t>
+  </si>
+  <si>
+    <t>DQC</t>
+  </si>
+  <si>
+    <t>HNG</t>
+  </si>
+  <si>
+    <t>KDH</t>
+  </si>
+  <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>EIB</t>
   </si>
   <si>
     <t>PHR</t>
   </si>
   <si>
-    <t>VPB</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
-    <t>EIB</t>
-  </si>
-  <si>
-    <t>D2D</t>
-  </si>
-  <si>
-    <t>KDH</t>
-  </si>
-  <si>
-    <t>HNG</t>
-  </si>
-  <si>
-    <t>HT1</t>
-  </si>
-  <si>
     <t>CMG</t>
   </si>
   <si>
-    <t>DQC</t>
-  </si>
-  <si>
     <t>NDN</t>
   </si>
   <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>REE</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
     <t>YEG</t>
   </si>
   <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>MSN</t>
-  </si>
-  <si>
-    <t>DVN</t>
-  </si>
-  <si>
-    <t>BMP</t>
-  </si>
-  <si>
-    <t>REE</t>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>DXS</t>
+  </si>
+  <si>
+    <t>BOT</t>
   </si>
   <si>
     <t>VTP</t>
   </si>
   <si>
-    <t>BVH</t>
-  </si>
-  <si>
-    <t>BOT</t>
+    <t>KHG</t>
   </si>
   <si>
     <t>POW</t>
   </si>
   <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>GEG</t>
+  </si>
+  <si>
     <t>GAS</t>
   </si>
   <si>
-    <t>DXS</t>
+    <t>GDT</t>
   </si>
   <si>
     <t>BWE</t>
@@ -568,96 +580,84 @@
     <t>DVP</t>
   </si>
   <si>
-    <t>GEG</t>
-  </si>
-  <si>
-    <t>KHG</t>
+    <t>ABB</t>
   </si>
   <si>
     <t>ACV</t>
   </si>
   <si>
-    <t>NVL</t>
+    <t>DL1</t>
   </si>
   <si>
     <t>VCB</t>
   </si>
   <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>GDT</t>
+    <t>VTD</t>
+  </si>
+  <si>
+    <t>BID</t>
   </si>
   <si>
     <t>MSB</t>
   </si>
   <si>
-    <t>BID</t>
-  </si>
-  <si>
     <t>QTP</t>
   </si>
   <si>
     <t>PLX</t>
   </si>
   <si>
-    <t>DL1</t>
-  </si>
-  <si>
     <t>ICT</t>
   </si>
   <si>
-    <t>VTD</t>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>FOC</t>
+  </si>
+  <si>
+    <t>SCS</t>
   </si>
   <si>
     <t>OCB</t>
   </si>
   <si>
-    <t>VEA</t>
-  </si>
-  <si>
-    <t>QNS</t>
-  </si>
-  <si>
-    <t>FOC</t>
-  </si>
-  <si>
-    <t>SCS</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
     <t>NT2</t>
   </si>
   <si>
     <t>PPC</t>
   </si>
   <si>
+    <t>VIC</t>
+  </si>
+  <si>
     <t>BAF</t>
   </si>
   <si>
-    <t>VIC</t>
+    <t>ABW</t>
   </si>
   <si>
     <t>SAB</t>
   </si>
   <si>
+    <t>DHG</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
     <t>VJC</t>
   </si>
   <si>
-    <t>DHG</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
     <t>VNM</t>
   </si>
   <si>
-    <t>ABW</t>
-  </si>
-  <si>
     <t>GDA</t>
   </si>
   <si>
@@ -673,21 +673,21 @@
     <t>bds</t>
   </si>
   <si>
+    <t>van_tai</t>
+  </si>
+  <si>
     <t>thep</t>
   </si>
   <si>
-    <t>van_tai</t>
-  </si>
-  <si>
     <t>dau_khi</t>
   </si>
   <si>
+    <t>xd</t>
+  </si>
+  <si>
     <t>thuy_san</t>
   </si>
   <si>
-    <t>xd</t>
-  </si>
-  <si>
     <t>ban_le</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>hoa_chat</t>
   </si>
   <si>
+    <t>thuc_pham</t>
+  </si>
+  <si>
     <t>y_te</t>
   </si>
   <si>
-    <t>thuc_pham</t>
-  </si>
-  <si>
     <t>tai_chinh</t>
   </si>
   <si>
@@ -715,10 +715,10 @@
     <t>bds_kcn</t>
   </si>
   <si>
+    <t>det_may</t>
+  </si>
+  <si>
     <t>ngan_hang</t>
-  </si>
-  <si>
-    <t>det_may</t>
   </si>
   <si>
     <t>htd</t>
@@ -1119,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.250613892021286</v>
+        <v>7.415610436536586</v>
       </c>
       <c r="C2">
-        <v>0.005731710586578093</v>
+        <v>0.005862142637578331</v>
       </c>
       <c r="D2">
         <v>-0.1428570942002891</v>
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5.941721147938496</v>
+        <v>6.137223241829957</v>
       </c>
       <c r="C3">
-        <v>0.004697012765168773</v>
+        <v>0.004851559874964393</v>
       </c>
       <c r="D3">
         <v>-0.1428571536697765</v>
@@ -1159,19 +1159,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.902455027374119</v>
+        <v>5.889006523340024</v>
       </c>
       <c r="C4">
-        <v>0.004665972353655427</v>
+        <v>0.004655341125169977</v>
       </c>
       <c r="D4">
-        <v>-0.1000000133849027</v>
+        <v>-0.06984121906088969</v>
       </c>
       <c r="E4">
-        <v>0.1000000356930739</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1179,19 +1179,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5.747640858313886</v>
+        <v>5.872028819356641</v>
       </c>
       <c r="C5">
-        <v>0.004543589611315324</v>
+        <v>0.004641920015301687</v>
       </c>
       <c r="D5">
-        <v>-0.06984121906088969</v>
+        <v>-0.1000000133849027</v>
       </c>
       <c r="E5">
-        <v>0.07000001271565748</v>
+        <v>0.1000000356930739</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1199,19 +1199,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.625065888750305</v>
+        <v>5.782565372806189</v>
       </c>
       <c r="C6">
-        <v>0.004446692402174154</v>
+        <v>0.004571197923166944</v>
       </c>
       <c r="D6">
-        <v>-0.0994475370355048</v>
+        <v>-0.09090913746128004</v>
       </c>
       <c r="E6">
-        <v>0.1000000603655131</v>
+        <v>0.09999998081128969</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1219,19 +1219,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5.609309586976261</v>
+        <v>5.666728096697503</v>
       </c>
       <c r="C7">
-        <v>0.004434236827649215</v>
+        <v>0.004479626953911068</v>
       </c>
       <c r="D7">
-        <v>-0.09090913746128004</v>
+        <v>-0.06998654009966343</v>
       </c>
       <c r="E7">
-        <v>0.09999998081128969</v>
+        <v>0.06998449426375264</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1239,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5.433477445340378</v>
+        <v>5.590189579298201</v>
       </c>
       <c r="C8">
-        <v>0.004295239087225586</v>
+        <v>0.004419122197073667</v>
       </c>
       <c r="D8">
         <v>-0.07722004832454432</v>
@@ -1259,16 +1259,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>5.415594114102441</v>
+        <v>5.526172921559544</v>
       </c>
       <c r="C9">
-        <v>0.00428110206648414</v>
+        <v>0.004368516143525332</v>
       </c>
       <c r="D9">
-        <v>-0.06998654009966343</v>
+        <v>-0.09836071819597147</v>
       </c>
       <c r="E9">
-        <v>0.06998449426375264</v>
+        <v>0.1000000603655131</v>
       </c>
       <c r="F9" t="s">
         <v>220</v>
@@ -1279,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>5.343535894800372</v>
+        <v>5.462787088932446</v>
       </c>
       <c r="C10">
-        <v>0.004224139047273021</v>
+        <v>0.004318408765954503</v>
       </c>
       <c r="D10">
         <v>-0.06990884476887027</v>
@@ -1299,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5.275740922277189</v>
+        <v>5.395410169482664</v>
       </c>
       <c r="C11">
-        <v>0.00417054618361833</v>
+        <v>0.004265146379037678</v>
       </c>
       <c r="D11">
         <v>-0.09747294299636589</v>
@@ -1319,10 +1319,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>5.152876217185405</v>
+        <v>5.27459006572319</v>
       </c>
       <c r="C12">
-        <v>0.004073419934533929</v>
+        <v>0.004169636415591467</v>
       </c>
       <c r="D12">
         <v>-0.1000000238418579</v>
@@ -1339,19 +1339,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>5.064124662714919</v>
+        <v>5.263810209054501</v>
       </c>
       <c r="C13">
-        <v>0.004003260602936698</v>
+        <v>0.004161114789766399</v>
       </c>
       <c r="D13">
-        <v>-0.09947640057477158</v>
+        <v>-0.0699588772113936</v>
       </c>
       <c r="E13">
-        <v>0.1000000321380858</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1359,19 +1359,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5.039870594220533</v>
+        <v>5.125887243085601</v>
       </c>
       <c r="C14">
-        <v>0.003984087426261287</v>
+        <v>0.004052084777142765</v>
       </c>
       <c r="D14">
-        <v>-0.0699588772113936</v>
+        <v>-0.06996588428668826</v>
       </c>
       <c r="E14">
-        <v>0.06999998092651372</v>
+        <v>0.07016946915667877</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1379,19 +1379,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>4.903515103503275</v>
+        <v>5.036793938452599</v>
       </c>
       <c r="C15">
-        <v>0.003876296524508522</v>
+        <v>0.003981655287314309</v>
       </c>
       <c r="D15">
-        <v>-0.06923077372505004</v>
+        <v>-0.09947640057477158</v>
       </c>
       <c r="E15">
-        <v>0.07000004083252076</v>
+        <v>0.1000000321380858</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1399,19 +1399,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>4.879506381764896</v>
+        <v>5.022984070408222</v>
       </c>
       <c r="C16">
-        <v>0.00385731729783786</v>
+        <v>0.003970738395579616</v>
       </c>
       <c r="D16">
-        <v>-0.06999998347270431</v>
+        <v>-0.09839352984437644</v>
       </c>
       <c r="E16">
-        <v>0.06998659929211004</v>
+        <v>0.1000000238418579</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1419,19 +1419,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>4.861006486772804</v>
+        <v>5.00602772817991</v>
       </c>
       <c r="C17">
-        <v>0.003842692874919212</v>
+        <v>0.003957334172474238</v>
       </c>
       <c r="D17">
-        <v>-0.06996588428668826</v>
+        <v>-0.06976745184959177</v>
       </c>
       <c r="E17">
-        <v>0.07016946915667877</v>
+        <v>0.06989253433580078</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1439,19 +1439,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>4.838116432274371</v>
+        <v>4.998825307124659</v>
       </c>
       <c r="C18">
-        <v>0.003824597970177372</v>
+        <v>0.00395164055899183</v>
       </c>
       <c r="D18">
-        <v>-0.07000000122420647</v>
+        <v>-0.06923077372505004</v>
       </c>
       <c r="E18">
-        <v>0.0700000547880828</v>
+        <v>0.07000004083252076</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1459,19 +1459,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>4.834710676998814</v>
+        <v>4.975199976119383</v>
       </c>
       <c r="C19">
-        <v>0.00382190567351685</v>
+        <v>0.003932964407999511</v>
       </c>
       <c r="D19">
-        <v>-0.06999997141156844</v>
+        <v>-0.06999998347270431</v>
       </c>
       <c r="E19">
-        <v>0.06999997724745022</v>
+        <v>0.06998659929211004</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1479,19 +1479,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>4.791106698350825</v>
+        <v>4.939034427777061</v>
       </c>
       <c r="C20">
-        <v>0.003787436125178518</v>
+        <v>0.003904375041720998</v>
       </c>
       <c r="D20">
-        <v>-0.09900989979139119</v>
+        <v>-0.06999997141156844</v>
       </c>
       <c r="E20">
-        <v>0.1000000489120731</v>
+        <v>0.06999997724745022</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1499,16 +1499,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>4.760012254711309</v>
+        <v>4.920171725021122</v>
       </c>
       <c r="C21">
-        <v>0.003762855537321193</v>
+        <v>0.003889463814245947</v>
       </c>
       <c r="D21">
-        <v>-0.06995068892871459</v>
+        <v>-0.100000045741464</v>
       </c>
       <c r="E21">
-        <v>0.06989253433580078</v>
+        <v>0.1000000934302641</v>
       </c>
       <c r="F21" t="s">
         <v>222</v>
@@ -1519,19 +1519,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>4.752607364151463</v>
+        <v>4.864921415361494</v>
       </c>
       <c r="C22">
-        <v>0.003757001868894432</v>
+        <v>0.003845787680127666</v>
       </c>
       <c r="D22">
-        <v>-0.09999996993865379</v>
+        <v>-0.07000000122420647</v>
       </c>
       <c r="E22">
-        <v>0.1000000674532162</v>
+        <v>0.0700000547880828</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1539,19 +1539,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>4.733541005072569</v>
+        <v>4.834374248164919</v>
       </c>
       <c r="C23">
-        <v>0.003741929648278712</v>
+        <v>0.003821639721869498</v>
       </c>
       <c r="D23">
-        <v>-0.100000045741464</v>
+        <v>-0.09999996993865379</v>
       </c>
       <c r="E23">
-        <v>0.1000000934302641</v>
+        <v>0.1000000674532162</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1559,19 +1559,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>4.71481572686448</v>
+        <v>4.815363164778216</v>
       </c>
       <c r="C24">
-        <v>0.00372712705680986</v>
+        <v>0.003806611197453129</v>
       </c>
       <c r="D24">
-        <v>-0.09952608263049945</v>
+        <v>-0.06981125912528596</v>
       </c>
       <c r="E24">
-        <v>0.1000000238418579</v>
+        <v>0.07000002114868153</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>4.636537183961069</v>
+        <v>4.797794557639607</v>
       </c>
       <c r="C25">
-        <v>0.00366524678573997</v>
+        <v>0.003792722970466093</v>
       </c>
       <c r="D25">
-        <v>-0.06981125912528596</v>
+        <v>-0.09900989979139119</v>
       </c>
       <c r="E25">
-        <v>0.07000002114868153</v>
+        <v>0.1000000489120731</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1599,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>4.618284108509296</v>
+        <v>4.748866832481329</v>
       </c>
       <c r="C26">
-        <v>0.003650817477082449</v>
+        <v>0.003754044926862714</v>
       </c>
       <c r="D26">
         <v>-0.08070176242893345</v>
@@ -1619,10 +1619,10 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.571345469835961</v>
+        <v>4.709630607258978</v>
       </c>
       <c r="C27">
-        <v>0.00361371183386242</v>
+        <v>0.003723028148030814</v>
       </c>
       <c r="D27">
         <v>-0.1548386904216962</v>
@@ -1639,19 +1639,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>4.535847131809684</v>
+        <v>4.684602128205011</v>
       </c>
       <c r="C28">
-        <v>0.003585649906568923</v>
+        <v>0.003703242789094869</v>
       </c>
       <c r="D28">
-        <v>-0.09795912517683469</v>
+        <v>-0.1300000406889452</v>
       </c>
       <c r="E28">
-        <v>0.1000000134083143</v>
+        <v>0.1476792721775402</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1659,19 +1659,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>4.50765656277976</v>
+        <v>4.606357818612006</v>
       </c>
       <c r="C29">
-        <v>0.003563364871762656</v>
+        <v>0.003641389579930441</v>
       </c>
       <c r="D29">
-        <v>-0.1300000406889452</v>
+        <v>-0.09795912517683469</v>
       </c>
       <c r="E29">
-        <v>0.1476792721775402</v>
+        <v>0.1000000134083143</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1679,10 +1679,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>4.406488264466473</v>
+        <v>4.553466572345448</v>
       </c>
       <c r="C30">
-        <v>0.003483389932384562</v>
+        <v>0.003599578318059642</v>
       </c>
       <c r="D30">
         <v>-0.1168831085814298</v>
@@ -1699,19 +1699,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4.364043766833678</v>
+        <v>4.535057603878634</v>
       </c>
       <c r="C31">
-        <v>0.003449836969828999</v>
+        <v>0.003585025773817105</v>
       </c>
       <c r="D31">
-        <v>-0.1428571323095533</v>
+        <v>-0.07000002387813875</v>
       </c>
       <c r="E31">
-        <v>0.1478260775459737</v>
+        <v>0.06994810878000934</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>4.328535777543262</v>
+        <v>4.477200787867845</v>
       </c>
       <c r="C32">
-        <v>0.003421767413077682</v>
+        <v>0.003539289160369833</v>
       </c>
       <c r="D32">
-        <v>-0.07000002387813875</v>
+        <v>-0.06993005943680752</v>
       </c>
       <c r="E32">
-        <v>0.06994810878000934</v>
+        <v>0.0699658239594414</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1739,19 +1739,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>4.305378440941344</v>
+        <v>4.450070472289742</v>
       </c>
       <c r="C33">
-        <v>0.003403461218135456</v>
+        <v>0.003517842270584778</v>
       </c>
       <c r="D33">
-        <v>-0.1285714505174543</v>
+        <v>-0.07000007186491586</v>
       </c>
       <c r="E33">
-        <v>0.1506849534158108</v>
+        <v>0.06991529194695567</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1759,19 +1759,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>4.291491741332791</v>
+        <v>4.431616244283228</v>
       </c>
       <c r="C34">
-        <v>0.003392483589986402</v>
+        <v>0.003503253948049988</v>
       </c>
       <c r="D34">
-        <v>-0.06956522257975384</v>
+        <v>-0.1428571323095533</v>
       </c>
       <c r="E34">
-        <v>0.06979873093402555</v>
+        <v>0.1478260775459737</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>4.287139115809495</v>
+        <v>4.419596892173348</v>
       </c>
       <c r="C35">
-        <v>0.003389042779296046</v>
+        <v>0.003493752483931507</v>
       </c>
       <c r="D35">
-        <v>-0.07000007186491586</v>
+        <v>-0.1285714505174543</v>
       </c>
       <c r="E35">
-        <v>0.06991529194695567</v>
+        <v>0.1506849534158108</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1799,16 +1799,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>4.277813594147739</v>
+        <v>4.393521132614735</v>
       </c>
       <c r="C36">
-        <v>0.003381670825413235</v>
+        <v>0.00347313923526857</v>
       </c>
       <c r="D36">
-        <v>-0.06986303623547474</v>
+        <v>-0.06956522257975384</v>
       </c>
       <c r="E36">
-        <v>0.06999997102510291</v>
+        <v>0.06979873093402555</v>
       </c>
       <c r="F36" t="s">
         <v>218</v>
@@ -1819,19 +1819,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>4.270926149597373</v>
+        <v>4.378879670625476</v>
       </c>
       <c r="C37">
-        <v>0.003376226205215316</v>
+        <v>0.003461564957016184</v>
       </c>
       <c r="D37">
-        <v>-0.07000000604434009</v>
+        <v>-0.174603154922072</v>
       </c>
       <c r="E37">
-        <v>0.06997975604758744</v>
+        <v>0.1774193689505823</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1839,13 +1839,13 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>4.225534220157672</v>
+        <v>4.339636426006847</v>
       </c>
       <c r="C38">
-        <v>0.003340343257041642</v>
+        <v>0.003430542629254428</v>
       </c>
       <c r="D38">
-        <v>-0.06999996730259483</v>
+        <v>-0.06979283947633397</v>
       </c>
       <c r="E38">
         <v>0.06999998092651372</v>
@@ -1859,19 +1859,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>4.201498030357268</v>
+        <v>4.319662834026766</v>
       </c>
       <c r="C39">
-        <v>0.003321342316487954</v>
+        <v>0.003414753228479656</v>
       </c>
       <c r="D39">
-        <v>-0.06993005943680752</v>
+        <v>-0.07000005297929035</v>
       </c>
       <c r="E39">
-        <v>0.0699658239594414</v>
+        <v>0.06988348582748261</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1879,19 +1879,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>4.195674540481024</v>
+        <v>4.312327017400797</v>
       </c>
       <c r="C40">
-        <v>0.003316738767178678</v>
+        <v>0.003408954163953206</v>
       </c>
       <c r="D40">
-        <v>-0.1000000203758433</v>
+        <v>-0.06980273558359951</v>
       </c>
       <c r="E40">
-        <v>0.1000000181118603</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1899,19 +1899,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>4.179526106289591</v>
+        <v>4.299933297566477</v>
       </c>
       <c r="C41">
-        <v>0.003303973206553041</v>
+        <v>0.003399156756969546</v>
       </c>
       <c r="D41">
-        <v>-0.06980273558359951</v>
+        <v>-0.1782608635086822</v>
       </c>
       <c r="E41">
-        <v>0.0700000524520874</v>
+        <v>0.2704918278796569</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1919,19 +1919,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>4.133915345996228</v>
+        <v>4.29120651081837</v>
       </c>
       <c r="C42">
-        <v>0.003267917269562236</v>
+        <v>0.003392258111318871</v>
       </c>
       <c r="D42">
-        <v>-0.07000005297929035</v>
+        <v>-0.1000000203758433</v>
       </c>
       <c r="E42">
-        <v>0.06988348582748261</v>
+        <v>0.1000000181118603</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1939,19 +1939,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>4.114590047639481</v>
+        <v>4.286623394875775</v>
       </c>
       <c r="C43">
-        <v>0.003252640353865209</v>
+        <v>0.003388635094763461</v>
       </c>
       <c r="D43">
-        <v>-0.06990878493263875</v>
+        <v>-0.06986303623547474</v>
       </c>
       <c r="E43">
-        <v>0.0698630229531596</v>
+        <v>0.06999997102510291</v>
       </c>
       <c r="F43" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1959,19 +1959,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>4.106857776299143</v>
+        <v>4.251236192175181</v>
       </c>
       <c r="C44">
-        <v>0.003246527886402486</v>
+        <v>0.003360661021482358</v>
       </c>
       <c r="D44">
-        <v>-0.06971154660868206</v>
+        <v>-0.06986893016480245</v>
       </c>
       <c r="E44">
-        <v>0.06993006899733545</v>
+        <v>0.06997738905893836</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1979,16 +1979,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>4.103470223689856</v>
+        <v>4.217639235640426</v>
       </c>
       <c r="C45">
-        <v>0.003243849979201466</v>
+        <v>0.003334102162561601</v>
       </c>
       <c r="D45">
-        <v>-0.174603154922072</v>
+        <v>-0.06980904794106668</v>
       </c>
       <c r="E45">
-        <v>0.1774193689505823</v>
+        <v>0.07537685316252496</v>
       </c>
       <c r="F45" t="s">
         <v>226</v>
@@ -1999,19 +1999,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.099793490914236</v>
+        <v>4.214409782182872</v>
       </c>
       <c r="C46">
-        <v>0.003240943471078447</v>
+        <v>0.003331549234927173</v>
       </c>
       <c r="D46">
-        <v>-0.06980904794106668</v>
+        <v>-0.07000000604434009</v>
       </c>
       <c r="E46">
-        <v>0.07537685316252496</v>
+        <v>0.06997975604758744</v>
       </c>
       <c r="F46" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2019,19 +2019,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>4.0877818639655</v>
+        <v>4.194133984581884</v>
       </c>
       <c r="C47">
-        <v>0.003231448113806719</v>
+        <v>0.003315520936428368</v>
       </c>
       <c r="D47">
-        <v>-0.1782608635086822</v>
+        <v>-0.06971154660868206</v>
       </c>
       <c r="E47">
-        <v>0.2704918278796569</v>
+        <v>0.06993006899733545</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2039,19 +2039,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>4.068172273818108</v>
+        <v>4.189808499655812</v>
       </c>
       <c r="C48">
-        <v>0.003215946461516293</v>
+        <v>0.003312101580755588</v>
       </c>
       <c r="D48">
-        <v>-0.06986893016480245</v>
+        <v>-0.06990878493263875</v>
       </c>
       <c r="E48">
-        <v>0.07000001271565748</v>
+        <v>0.0698630229531596</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2059,19 +2059,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>4.050010291414287</v>
+        <v>4.155960326037494</v>
       </c>
       <c r="C49">
-        <v>0.003201589163173349</v>
+        <v>0.003285344131254938</v>
       </c>
       <c r="D49">
-        <v>-0.06966616699816708</v>
+        <v>-0.06999992769970076</v>
       </c>
       <c r="E49">
-        <v>0.0699815781617823</v>
+        <v>0.06997457977664978</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2079,19 +2079,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>4.047674616571576</v>
+        <v>4.133862393500197</v>
       </c>
       <c r="C50">
-        <v>0.003199742779898482</v>
+        <v>0.003267875409881577</v>
       </c>
       <c r="D50">
-        <v>-0.06999992769970076</v>
+        <v>-0.06990877728589806</v>
       </c>
       <c r="E50">
-        <v>0.06997457977664978</v>
+        <v>0.06999999775677934</v>
       </c>
       <c r="F50" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2099,19 +2099,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>4.043635968588228</v>
+        <v>4.12748662862942</v>
       </c>
       <c r="C51">
-        <v>0.003196550172797017</v>
+        <v>0.003262835279548946</v>
       </c>
       <c r="D51">
-        <v>-0.06960785968576966</v>
+        <v>-0.06980057198010614</v>
       </c>
       <c r="E51">
-        <v>0.06986899154603265</v>
+        <v>0.06987580375933811</v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2119,19 +2119,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>4.019175708850061</v>
+        <v>4.125291545883119</v>
       </c>
       <c r="C52">
-        <v>0.003177213999090961</v>
+        <v>0.003261100036271238</v>
       </c>
       <c r="D52">
-        <v>-0.09836066845665214</v>
+        <v>-0.06960785968576966</v>
       </c>
       <c r="E52">
-        <v>0.10000003972919</v>
+        <v>0.06986899154603265</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2139,19 +2139,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3.996227482518631</v>
+        <v>4.121816747803677</v>
       </c>
       <c r="C53">
-        <v>0.00315907310871038</v>
+        <v>0.003258353160319109</v>
       </c>
       <c r="D53">
-        <v>-0.06990877728589806</v>
+        <v>-0.06983240372284627</v>
       </c>
       <c r="E53">
-        <v>0.06999999775677934</v>
+        <v>0.0699999402767284</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2159,19 +2159,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>3.974310479536164</v>
+        <v>4.105436751493819</v>
       </c>
       <c r="C54">
-        <v>0.003141747414653096</v>
+        <v>0.003245404546635429</v>
       </c>
       <c r="D54">
-        <v>-0.09890105974528718</v>
+        <v>-0.06966616699816708</v>
       </c>
       <c r="E54">
-        <v>0.1000000269541488</v>
+        <v>0.0699815781617823</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2179,19 +2179,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>3.958121036278742</v>
+        <v>4.102348834937428</v>
       </c>
       <c r="C55">
-        <v>0.003128949435793469</v>
+        <v>0.003242963505879392</v>
       </c>
       <c r="D55">
-        <v>-0.0694443920108192</v>
+        <v>-0.09836066845665214</v>
       </c>
       <c r="E55">
-        <v>0.06995885344862196</v>
+        <v>0.10000003972919</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2199,19 +2199,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>3.951338901409353</v>
+        <v>4.060527325943578</v>
       </c>
       <c r="C56">
-        <v>0.003123588064355217</v>
+        <v>0.003209903024461325</v>
       </c>
       <c r="D56">
-        <v>-0.06983240372284627</v>
+        <v>-0.0694443920108192</v>
       </c>
       <c r="E56">
-        <v>0.0699999402767284</v>
+        <v>0.06995885344862196</v>
       </c>
       <c r="F56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2219,19 +2219,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>3.942737936564131</v>
+        <v>4.002475347049177</v>
       </c>
       <c r="C57">
-        <v>0.003116788882659391</v>
+        <v>0.00316401213205469</v>
       </c>
       <c r="D57">
-        <v>-0.06980057198010614</v>
+        <v>-0.06906909280127882</v>
       </c>
       <c r="E57">
-        <v>0.06987580375933811</v>
+        <v>0.07000000531313377</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2239,19 +2239,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>3.927006451936297</v>
+        <v>3.97611596916235</v>
       </c>
       <c r="C58">
-        <v>0.003104352926431857</v>
+        <v>0.003143174679179721</v>
       </c>
       <c r="D58">
-        <v>-0.07000006962664551</v>
+        <v>-0.06942392201604652</v>
       </c>
       <c r="E58">
-        <v>0.06999996599443681</v>
+        <v>0.07000005506630558</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2259,19 +2259,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>3.887474163916234</v>
+        <v>3.971953318948048</v>
       </c>
       <c r="C59">
-        <v>0.003073102105862639</v>
+        <v>0.003139884046599248</v>
       </c>
       <c r="D59">
-        <v>-0.09917355004225092</v>
+        <v>-0.06999996730259483</v>
       </c>
       <c r="E59">
-        <v>0.1000000338011144</v>
+        <v>0.06985296147865805</v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2279,16 +2279,16 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3.876651995803848</v>
+        <v>3.966462339964118</v>
       </c>
       <c r="C60">
-        <v>0.00306454703225601</v>
+        <v>0.003135543351750291</v>
       </c>
       <c r="D60">
-        <v>-0.0696517128903591</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E60">
-        <v>0.07000000531313377</v>
+        <v>0.09999997275216232</v>
       </c>
       <c r="F60" t="s">
         <v>217</v>
@@ -2299,19 +2299,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>3.862431546139075</v>
+        <v>3.961260788603776</v>
       </c>
       <c r="C61">
-        <v>0.003053305570070414</v>
+        <v>0.00313143145344172</v>
       </c>
       <c r="D61">
-        <v>-0.06990011538817997</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E61">
-        <v>0.07000007521759044</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2319,19 +2319,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>3.819424740695033</v>
+        <v>3.954706275298112</v>
       </c>
       <c r="C62">
-        <v>0.003019308095411093</v>
+        <v>0.00312625001999851</v>
       </c>
       <c r="D62">
-        <v>-0.06994817871151149</v>
+        <v>-0.09890105974528718</v>
       </c>
       <c r="E62">
-        <v>0.06987955396140721</v>
+        <v>0.1000000269541488</v>
       </c>
       <c r="F62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2339,19 +2339,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>3.809169128562961</v>
+        <v>3.933687568700902</v>
       </c>
       <c r="C63">
-        <v>0.003011200892144635</v>
+        <v>0.003109634441660787</v>
       </c>
       <c r="D63">
-        <v>-0.1000000238418579</v>
+        <v>-0.06964520540023522</v>
       </c>
       <c r="E63">
-        <v>0.1000000000000001</v>
+        <v>0.06993000152954676</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2359,19 +2359,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>3.798215225625308</v>
+        <v>3.908436985135312</v>
       </c>
       <c r="C64">
-        <v>0.003002541680336211</v>
+        <v>0.00308967350603582</v>
       </c>
       <c r="D64">
-        <v>-0.1000000238418579</v>
+        <v>-0.06976742685600146</v>
       </c>
       <c r="E64">
-        <v>0.09999997275216232</v>
+        <v>0.06991526597649589</v>
       </c>
       <c r="F64" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2379,19 +2379,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>3.774713517272562</v>
+        <v>3.906150614785132</v>
       </c>
       <c r="C65">
-        <v>0.002983963254760914</v>
+        <v>0.003087866098644377</v>
       </c>
       <c r="D65">
-        <v>-0.06968214868884215</v>
+        <v>-0.07000006962664551</v>
       </c>
       <c r="E65">
-        <v>0.06993000152954676</v>
+        <v>0.06999996599443681</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2399,19 +2399,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>3.755465006545076</v>
+        <v>3.905557071877862</v>
       </c>
       <c r="C66">
-        <v>0.002968747040747094</v>
+        <v>0.00308739689476511</v>
       </c>
       <c r="D66">
-        <v>-0.06999996636708516</v>
+        <v>-0.09917355004225092</v>
       </c>
       <c r="E66">
-        <v>0.07000005506630558</v>
+        <v>0.1000000338011144</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2419,19 +2419,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>3.737016889498951</v>
+        <v>3.883256570086616</v>
       </c>
       <c r="C67">
-        <v>0.002954163549011029</v>
+        <v>0.003069768039594163</v>
       </c>
       <c r="D67">
-        <v>-0.06991265962733595</v>
+        <v>-0.06994817871151149</v>
       </c>
       <c r="E67">
-        <v>0.0699745171189694</v>
+        <v>0.06987955396140721</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2439,19 +2439,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>3.728171069652901</v>
+        <v>3.86303314579215</v>
       </c>
       <c r="C68">
-        <v>0.002947170806049725</v>
+        <v>0.003053781142918696</v>
       </c>
       <c r="D68">
-        <v>-0.06976742685600146</v>
+        <v>-0.06990011538817997</v>
       </c>
       <c r="E68">
-        <v>0.06991526597649589</v>
+        <v>0.07000007521759044</v>
       </c>
       <c r="F68" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2459,19 +2459,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>3.673230606376049</v>
+        <v>3.825503947809917</v>
       </c>
       <c r="C69">
-        <v>0.002903739609783437</v>
+        <v>0.003024113792735113</v>
       </c>
       <c r="D69">
-        <v>-0.06999996730259483</v>
+        <v>-0.06991265962733595</v>
       </c>
       <c r="E69">
-        <v>0.06985296147865805</v>
+        <v>0.0699745171189694</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2479,10 +2479,10 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>3.666451776372359</v>
+        <v>3.824489632523474</v>
       </c>
       <c r="C70">
-        <v>0.002898380850887239</v>
+        <v>0.003023311962469148</v>
       </c>
       <c r="D70">
         <v>-0.09811326747023519</v>
@@ -2491,7 +2491,7 @@
         <v>0.1000000531325442</v>
       </c>
       <c r="F70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2499,16 +2499,16 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>3.654610325645665</v>
+        <v>3.773054421350469</v>
       </c>
       <c r="C71">
-        <v>0.002889020020273251</v>
+        <v>0.002982651716482582</v>
       </c>
       <c r="D71">
-        <v>-0.1000000062450395</v>
+        <v>-0.127451009167775</v>
       </c>
       <c r="E71">
-        <v>0.1000000393206184</v>
+        <v>0.1300813240134215</v>
       </c>
       <c r="F71" t="s">
         <v>221</v>
@@ -2519,19 +2519,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>3.6522561049931</v>
+        <v>3.75739641972219</v>
       </c>
       <c r="C72">
-        <v>0.002887158976279128</v>
+        <v>0.002970273849582757</v>
       </c>
       <c r="D72">
-        <v>-0.127451009167775</v>
+        <v>-0.06999998367419469</v>
       </c>
       <c r="E72">
-        <v>0.1300813240134215</v>
+        <v>0.07000000515551741</v>
       </c>
       <c r="F72" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2539,19 +2539,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>3.615729908945958</v>
+        <v>3.75525139897367</v>
       </c>
       <c r="C73">
-        <v>0.002858284513000756</v>
+        <v>0.002968578181006853</v>
       </c>
       <c r="D73">
-        <v>-0.06967219227293242</v>
+        <v>-0.06991524118111359</v>
       </c>
       <c r="E73">
-        <v>0.06988568858560917</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2559,19 +2559,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>3.599953117331076</v>
+        <v>3.738327919191449</v>
       </c>
       <c r="C74">
-        <v>0.002845812740973181</v>
+        <v>0.002955199936119719</v>
       </c>
       <c r="D74">
-        <v>-0.06999998367419469</v>
+        <v>-0.09999997364919866</v>
       </c>
       <c r="E74">
-        <v>0.07000000515551741</v>
+        <v>0.1000000376661454</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2579,19 +2579,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>3.55610768232793</v>
+        <v>3.736610552581556</v>
       </c>
       <c r="C75">
-        <v>0.002811152318045792</v>
+        <v>0.002953842334056562</v>
       </c>
       <c r="D75">
-        <v>-0.06991524118111359</v>
+        <v>-0.06981138606913972</v>
       </c>
       <c r="E75">
-        <v>0.0700000524520874</v>
+        <v>0.06999994198437531</v>
       </c>
       <c r="F75" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2599,19 +2599,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>3.551031422857563</v>
+        <v>3.723433581893243</v>
       </c>
       <c r="C76">
-        <v>0.002807139464709532</v>
+        <v>0.002943425756437346</v>
       </c>
       <c r="D76">
-        <v>-0.06981138606913972</v>
+        <v>-0.06967219227293242</v>
       </c>
       <c r="E76">
-        <v>0.06999994198437531</v>
+        <v>0.06988568858560917</v>
       </c>
       <c r="F76" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2619,19 +2619,19 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>3.546951048520429</v>
+        <v>3.723181125758361</v>
       </c>
       <c r="C77">
-        <v>0.002803913872348167</v>
+        <v>0.002943226186370244</v>
       </c>
       <c r="D77">
-        <v>-0.1304348202859832</v>
+        <v>-0.1000000062450395</v>
       </c>
       <c r="E77">
-        <v>0.1250000377486467</v>
+        <v>0.1000000393206184</v>
       </c>
       <c r="F77" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2639,19 +2639,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>3.5292059002947</v>
+        <v>3.684263348701632</v>
       </c>
       <c r="C78">
-        <v>0.002789886087189485</v>
+        <v>0.002912461145218683</v>
       </c>
       <c r="D78">
-        <v>-0.0699999904580566</v>
+        <v>-0.06926410457269527</v>
       </c>
       <c r="E78">
-        <v>0.07000001605615425</v>
+        <v>0.07000000767308356</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2659,10 +2659,10 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>3.500201797614682</v>
+        <v>3.651760188745937</v>
       </c>
       <c r="C79">
-        <v>0.002766957942778402</v>
+        <v>0.002886766947625245</v>
       </c>
       <c r="D79">
         <v>-0.06995077797894378</v>
@@ -2671,7 +2671,7 @@
         <v>0.06993003000671383</v>
       </c>
       <c r="F79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2679,10 +2679,10 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>3.478935074982915</v>
+        <v>3.60035049157064</v>
       </c>
       <c r="C80">
-        <v>0.00275014630433432</v>
+        <v>0.002846126870806831</v>
       </c>
       <c r="D80">
         <v>-0.06983238556819427</v>
@@ -2699,19 +2699,19 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>3.471785084108137</v>
+        <v>3.555380117044352</v>
       </c>
       <c r="C81">
-        <v>0.002744494137634888</v>
+        <v>0.002810577167623992</v>
       </c>
       <c r="D81">
-        <v>-0.09999997364919866</v>
+        <v>-0.0699999904580566</v>
       </c>
       <c r="E81">
-        <v>0.1000000376661454</v>
+        <v>0.07000001605615425</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2719,19 +2719,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>3.45428794617111</v>
+        <v>3.552320997208955</v>
       </c>
       <c r="C82">
-        <v>0.002730662408040405</v>
+        <v>0.00280815889107427</v>
       </c>
       <c r="D82">
-        <v>-0.06997459402927553</v>
+        <v>-0.06965173034081296</v>
       </c>
       <c r="E82">
-        <v>0.07000000767308356</v>
+        <v>0.06965174430128407</v>
       </c>
       <c r="F82" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2739,19 +2739,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>3.413282142492391</v>
+        <v>3.533483535820529</v>
       </c>
       <c r="C83">
-        <v>0.002698246752958412</v>
+        <v>0.002793267617249429</v>
       </c>
       <c r="D83">
-        <v>-0.06981745731711786</v>
+        <v>-0.06997743214725527</v>
       </c>
       <c r="E83">
-        <v>0.06998441731509875</v>
+        <v>0.07000002671115535</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2759,19 +2759,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>3.380266354235818</v>
+        <v>3.526105425269673</v>
       </c>
       <c r="C84">
-        <v>0.002672147315601441</v>
+        <v>0.002787435118790258</v>
       </c>
       <c r="D84">
-        <v>-0.06949812250967613</v>
+        <v>-0.1304348202859832</v>
       </c>
       <c r="E84">
-        <v>0.09230772155477718</v>
+        <v>0.1250000377486467</v>
       </c>
       <c r="F84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2779,19 +2779,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>3.348976210953019</v>
+        <v>3.517620915976751</v>
       </c>
       <c r="C85">
-        <v>0.002647412024468793</v>
+        <v>0.002780727996819566</v>
       </c>
       <c r="D85">
-        <v>-0.06995074530355316</v>
+        <v>-0.06981745731711786</v>
       </c>
       <c r="E85">
-        <v>0.0700000524520874</v>
+        <v>0.06998441731509875</v>
       </c>
       <c r="F85" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2799,19 +2799,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>3.333744504831197</v>
+        <v>3.501065411295452</v>
       </c>
       <c r="C86">
-        <v>0.002635371150064188</v>
+        <v>0.00276764064134028</v>
       </c>
       <c r="D86">
-        <v>-0.127249362867722</v>
+        <v>-0.06952965617498708</v>
       </c>
       <c r="E86">
-        <v>0.1605301935977024</v>
+        <v>0.07000001297327585</v>
       </c>
       <c r="F86" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2819,19 +2819,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>3.328208413838146</v>
+        <v>3.473564521395117</v>
       </c>
       <c r="C87">
-        <v>0.002630994793547938</v>
+        <v>0.002745900807426966</v>
       </c>
       <c r="D87">
-        <v>-0.1272727478903398</v>
+        <v>-0.1304761545089799</v>
       </c>
       <c r="E87">
-        <v>0.137085780795716</v>
+        <v>0.1604599842452998</v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2839,19 +2839,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>3.313702837777452</v>
+        <v>3.415050402606505</v>
       </c>
       <c r="C88">
-        <v>0.00261952793500194</v>
+        <v>0.002699644587040712</v>
       </c>
       <c r="D88">
-        <v>-0.1242236130028669</v>
+        <v>-0.1272727478903398</v>
       </c>
       <c r="E88">
-        <v>0.14857145391008</v>
+        <v>0.137085780795716</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2859,19 +2859,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>3.305052513399439</v>
+        <v>3.404554257167515</v>
       </c>
       <c r="C89">
-        <v>0.0026126897339126</v>
+        <v>0.002691347238867602</v>
       </c>
       <c r="D89">
-        <v>-0.06997743214725527</v>
+        <v>-0.127249362867722</v>
       </c>
       <c r="E89">
-        <v>0.07000002671115535</v>
+        <v>0.1605301935977024</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2879,19 +2879,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>3.297297219747895</v>
+        <v>3.403653710079162</v>
       </c>
       <c r="C90">
-        <v>0.002606559066994381</v>
+        <v>0.002690635343936099</v>
       </c>
       <c r="D90">
-        <v>-0.06965173034081296</v>
+        <v>-0.06923073797167179</v>
       </c>
       <c r="E90">
-        <v>0.06965174430128407</v>
+        <v>0.06979863080000803</v>
       </c>
       <c r="F90" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2899,19 +2899,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>3.259622963648598</v>
+        <v>3.38184929588404</v>
       </c>
       <c r="C91">
-        <v>0.002576777046362524</v>
+        <v>0.002673398652872761</v>
       </c>
       <c r="D91">
-        <v>-0.1304761545089799</v>
+        <v>-0.1242236130028669</v>
       </c>
       <c r="E91">
-        <v>0.1604599842452998</v>
+        <v>0.14857145391008</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2919,19 +2919,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>3.247460158487931</v>
+        <v>3.37572720653366</v>
       </c>
       <c r="C92">
-        <v>0.002567162180622872</v>
+        <v>0.002668559056548346</v>
       </c>
       <c r="D92">
-        <v>-0.06938775819398191</v>
+        <v>-0.06956519501810421</v>
       </c>
       <c r="E92">
-        <v>0.06994052864697031</v>
+        <v>0.06976746696236935</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2939,19 +2939,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>3.213442953666246</v>
+        <v>3.372463312826955</v>
       </c>
       <c r="C93">
-        <v>0.002540271109617583</v>
+        <v>0.002665978903420521</v>
       </c>
       <c r="D93">
-        <v>-0.06956519501810421</v>
+        <v>-0.06949812250967613</v>
       </c>
       <c r="E93">
-        <v>0.06976746696236935</v>
+        <v>0.09230772155477718</v>
       </c>
       <c r="F93" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2959,19 +2959,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>3.200479281134047</v>
+        <v>3.332425436306338</v>
       </c>
       <c r="C94">
-        <v>0.002530023147141541</v>
+        <v>0.002634328408147304</v>
       </c>
       <c r="D94">
-        <v>-0.1330471491685843</v>
+        <v>-0.06938775819398191</v>
       </c>
       <c r="E94">
-        <v>0.1658292064154774</v>
+        <v>0.06994052864697031</v>
       </c>
       <c r="F94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2979,19 +2979,19 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>3.195321847514938</v>
+        <v>3.326866648366078</v>
       </c>
       <c r="C95">
-        <v>0.002525946124517739</v>
+        <v>0.002629934109380297</v>
       </c>
       <c r="D95">
-        <v>-0.06983654776828885</v>
+        <v>-0.06999997782026035</v>
       </c>
       <c r="E95">
-        <v>0.06998442664013571</v>
+        <v>0.06989243066659689</v>
       </c>
       <c r="F95" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2999,19 +2999,19 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>3.190432568443685</v>
+        <v>3.323720087742411</v>
       </c>
       <c r="C96">
-        <v>0.002522081081773664</v>
+        <v>0.002627446709677792</v>
       </c>
       <c r="D96">
-        <v>-0.06952965617498708</v>
+        <v>-0.07000001271565759</v>
       </c>
       <c r="E96">
-        <v>0.07000001297327585</v>
+        <v>0.06997081478595923</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3019,19 +3019,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>3.190017731455558</v>
+        <v>3.294694634556309</v>
       </c>
       <c r="C97">
-        <v>0.002521753147395697</v>
+        <v>0.002604501687396289</v>
       </c>
       <c r="D97">
-        <v>-0.07000001271565759</v>
+        <v>-0.06944447396069475</v>
       </c>
       <c r="E97">
-        <v>0.06997081478595923</v>
+        <v>0.06976748588725368</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3039,19 +3039,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3.171318226561077</v>
+        <v>3.26576743220035</v>
       </c>
       <c r="C98">
-        <v>0.002506970930087805</v>
+        <v>0.002581634333755216</v>
       </c>
       <c r="D98">
-        <v>-0.06962024613300188</v>
+        <v>-0.09957621472559686</v>
       </c>
       <c r="E98">
-        <v>0.06976748588725368</v>
+        <v>0.09999999145477423</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3059,19 +3059,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>3.132736121060122</v>
+        <v>3.261981963473591</v>
       </c>
       <c r="C99">
-        <v>0.00247647124194476</v>
+        <v>0.002578641868358572</v>
       </c>
       <c r="D99">
-        <v>-0.09957621472559686</v>
+        <v>-0.06983654776828885</v>
       </c>
       <c r="E99">
-        <v>0.09999999145477423</v>
+        <v>0.06998442664013571</v>
       </c>
       <c r="F99" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3079,19 +3079,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>3.129686275738857</v>
+        <v>3.252409548324585</v>
       </c>
       <c r="C100">
-        <v>0.002474060297026763</v>
+        <v>0.002571074741758567</v>
       </c>
       <c r="D100">
-        <v>-0.06999997782026035</v>
+        <v>-0.1330471491685843</v>
       </c>
       <c r="E100">
-        <v>0.06989243066659689</v>
+        <v>0.1658292064154774</v>
       </c>
       <c r="F100" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>3.110961698573472</v>
+        <v>3.192273299853234</v>
       </c>
       <c r="C101">
-        <v>0.002459258259741876</v>
+        <v>0.002523536205417579</v>
       </c>
       <c r="D101">
-        <v>-0.06957926793810387</v>
+        <v>-0.06995074530355316</v>
       </c>
       <c r="E101">
-        <v>0.06979863080000803</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F101" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3119,19 +3119,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>3.103231658032763</v>
+        <v>3.157768840391332</v>
       </c>
       <c r="C102">
-        <v>0.002453147555757128</v>
+        <v>0.002496259952878524</v>
       </c>
       <c r="D102">
-        <v>-0.11</v>
+        <v>-0.06993004618460641</v>
       </c>
       <c r="E102">
-        <v>0.1451612903225807</v>
+        <v>0.06986026275022938</v>
       </c>
       <c r="F102" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3139,10 +3139,10 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>3.097329652538286</v>
+        <v>3.128152260946405</v>
       </c>
       <c r="C103">
-        <v>0.002448481938765445</v>
+        <v>0.002472847637111785</v>
       </c>
       <c r="D103">
         <v>-0.06976751350713783</v>
@@ -3151,7 +3151,7 @@
         <v>0.1085526280956379</v>
       </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3159,10 +3159,10 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>3.06708370438659</v>
+        <v>3.116288149621204</v>
       </c>
       <c r="C104">
-        <v>0.002424572098329321</v>
+        <v>0.002463468892981189</v>
       </c>
       <c r="D104">
         <v>-0.0697248316574185</v>
@@ -3171,7 +3171,7 @@
         <v>0.06999995493381395</v>
       </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3179,19 +3179,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>3.056772634960691</v>
+        <v>3.112464613555314</v>
       </c>
       <c r="C105">
-        <v>0.002416421055304896</v>
+        <v>0.002460446334826334</v>
       </c>
       <c r="D105">
-        <v>-0.06995888241702264</v>
+        <v>-0.06931824967388134</v>
       </c>
       <c r="E105">
-        <v>0.06986026275022938</v>
+        <v>0.06993002893379119</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3199,19 +3199,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>2.995008329391829</v>
+        <v>3.109321992825664</v>
       </c>
       <c r="C106">
-        <v>0.002367595517305791</v>
+        <v>0.00245796204966456</v>
       </c>
       <c r="D106">
-        <v>-0.06994532630501693</v>
+        <v>-0.11</v>
       </c>
       <c r="E106">
-        <v>0.07000004036554519</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="F106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3219,19 +3219,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>2.983474938680103</v>
+        <v>3.07363085694844</v>
       </c>
       <c r="C107">
-        <v>0.00235847821239534</v>
+        <v>0.002429747713002717</v>
       </c>
       <c r="D107">
-        <v>-0.06967741573181419</v>
+        <v>-0.06994532630501693</v>
       </c>
       <c r="E107">
-        <v>0.06995881283881245</v>
+        <v>0.07000004036554519</v>
       </c>
       <c r="F107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3239,16 +3239,16 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>2.941425252882151</v>
+        <v>3.049388515657014</v>
       </c>
       <c r="C108">
-        <v>0.002325237354057037</v>
+        <v>0.002410583806843484</v>
       </c>
       <c r="D108">
-        <v>-0.06973997044060543</v>
+        <v>-0.07000002897064406</v>
       </c>
       <c r="E108">
-        <v>0.06993002893379119</v>
+        <v>0.06999995355794231</v>
       </c>
       <c r="F108" t="s">
         <v>222</v>
@@ -3259,19 +3259,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>2.936758607860957</v>
+        <v>3.033880557446153</v>
       </c>
       <c r="C109">
-        <v>0.002321548306609448</v>
+        <v>0.002398324551340828</v>
       </c>
       <c r="D109">
-        <v>-0.07000002897064406</v>
+        <v>-0.0696629239211296</v>
       </c>
       <c r="E109">
-        <v>0.06999995355794231</v>
+        <v>0.06924643922666429</v>
       </c>
       <c r="F109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>2.926319126675519</v>
+        <v>2.967752498400769</v>
       </c>
       <c r="C110">
-        <v>0.00231329575231266</v>
+        <v>0.002346049405850412</v>
       </c>
       <c r="D110">
-        <v>-0.06992082043113557</v>
+        <v>-0.06967741573181419</v>
       </c>
       <c r="E110">
-        <v>0.06997458880656726</v>
+        <v>0.06995881283881245</v>
       </c>
       <c r="F110" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3299,10 +3299,10 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>2.875246212776273</v>
+        <v>2.936694315439018</v>
       </c>
       <c r="C111">
-        <v>0.002272921907333024</v>
+        <v>0.002321497482560491</v>
       </c>
       <c r="D111">
         <v>-0.1499999939813762</v>
@@ -3311,7 +3311,7 @@
         <v>0.1500000085980338</v>
       </c>
       <c r="F111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3319,19 +3319,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>2.808723375391716</v>
+        <v>2.894101485117289</v>
       </c>
       <c r="C112">
-        <v>0.002220334684104121</v>
+        <v>0.002287827260962285</v>
       </c>
       <c r="D112">
-        <v>-0.07000003881454508</v>
+        <v>-0.06957929823877562</v>
       </c>
       <c r="E112">
-        <v>0.06944446710892715</v>
+        <v>0.06987577890517138</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3339,19 +3339,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>2.797913869604146</v>
+        <v>2.884545528394606</v>
       </c>
       <c r="C113">
-        <v>0.002211789620240434</v>
+        <v>0.002280273144975977</v>
       </c>
       <c r="D113">
-        <v>-0.06957929823877562</v>
+        <v>-0.0697674143522814</v>
       </c>
       <c r="E113">
-        <v>0.06987577890517138</v>
+        <v>0.06999994136573751</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3359,10 +3359,10 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>2.785930713592719</v>
+        <v>2.881967359495861</v>
       </c>
       <c r="C114">
-        <v>0.002202316769638514</v>
+        <v>0.002278235066795148</v>
       </c>
       <c r="D114">
         <v>-0.06956526161967846</v>
@@ -3371,7 +3371,7 @@
         <v>0.06976744186046502</v>
       </c>
       <c r="F114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3379,19 +3379,19 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>2.785564300373865</v>
+        <v>2.852591799036629</v>
       </c>
       <c r="C115">
-        <v>0.002202027114920047</v>
+        <v>0.002255013279870853</v>
       </c>
       <c r="D115">
-        <v>-0.0696629239211296</v>
+        <v>-0.06998447125522034</v>
       </c>
       <c r="E115">
-        <v>0.06924643922666429</v>
+        <v>0.06999995790763691</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3399,19 +3399,19 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>2.774988266237809</v>
+        <v>2.839657500052028</v>
       </c>
       <c r="C116">
-        <v>0.00219366661362673</v>
+        <v>0.002244788537590535</v>
       </c>
       <c r="D116">
-        <v>-0.0697674143522814</v>
+        <v>-0.07000003881454508</v>
       </c>
       <c r="E116">
-        <v>0.06999994136573751</v>
+        <v>0.06944446710892715</v>
       </c>
       <c r="F116" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3419,19 +3419,19 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>2.774958522199387</v>
+        <v>2.816608645922832</v>
       </c>
       <c r="C117">
-        <v>0.002193643100552874</v>
+        <v>0.002226568099543743</v>
       </c>
       <c r="D117">
-        <v>-0.06972473234968801</v>
+        <v>-0.08201897144182857</v>
       </c>
       <c r="E117">
-        <v>0.06953647233846705</v>
+        <v>0.07480314507795027</v>
       </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3439,16 +3439,16 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>2.73989071688072</v>
+        <v>2.803537172965926</v>
       </c>
       <c r="C118">
-        <v>0.002165921515320727</v>
+        <v>0.002216234919340648</v>
       </c>
       <c r="D118">
-        <v>-0.06998447125522034</v>
+        <v>-0.06992082043113557</v>
       </c>
       <c r="E118">
-        <v>0.06999995790763691</v>
+        <v>0.06997458880656726</v>
       </c>
       <c r="F118" t="s">
         <v>222</v>
@@ -3459,10 +3459,10 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>2.737925903914473</v>
+        <v>2.799603643075968</v>
       </c>
       <c r="C119">
-        <v>0.002164368303489705</v>
+        <v>0.002213125409546222</v>
       </c>
       <c r="D119">
         <v>-0.06865670695458925</v>
@@ -3471,7 +3471,7 @@
         <v>0.06956520921218723</v>
       </c>
       <c r="F119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3479,10 +3479,10 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>2.73020381971252</v>
+        <v>2.78481185597491</v>
       </c>
       <c r="C120">
-        <v>0.002158263889100806</v>
+        <v>0.002201432297213366</v>
       </c>
       <c r="D120">
         <v>-0.06962963901845465</v>
@@ -3491,7 +3491,7 @@
         <v>0.0700000172183497</v>
       </c>
       <c r="F120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3499,19 +3499,19 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>2.713459177588217</v>
+        <v>2.741427243480079</v>
       </c>
       <c r="C121">
-        <v>0.002145027017856302</v>
+        <v>0.002167136160853815</v>
       </c>
       <c r="D121">
-        <v>-0.08201897144182857</v>
+        <v>-0.06969699217213376</v>
       </c>
       <c r="E121">
-        <v>0.07480314507795027</v>
+        <v>0.06999998731872803</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3519,19 +3519,19 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>2.60242602327035</v>
+        <v>2.72473208514697</v>
       </c>
       <c r="C122">
-        <v>0.002057253773336245</v>
+        <v>0.002153938407230804</v>
       </c>
       <c r="D122">
-        <v>-0.06875001784113677</v>
+        <v>-0.06896546456051744</v>
       </c>
       <c r="E122">
-        <v>0.06920424111197221</v>
+        <v>0.1256544614200634</v>
       </c>
       <c r="F122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3539,19 +3539,19 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>2.585625056925207</v>
+        <v>2.718722377055677</v>
       </c>
       <c r="C123">
-        <v>0.002043972377015972</v>
+        <v>0.002149187649846384</v>
       </c>
       <c r="D123">
-        <v>-0.06984474097020532</v>
+        <v>-0.06972473234968801</v>
       </c>
       <c r="E123">
-        <v>0.07024788437999741</v>
+        <v>0.06953647233846705</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3559,19 +3559,19 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>2.584805288978452</v>
+        <v>2.692170564687485</v>
       </c>
       <c r="C124">
-        <v>0.002043324339113401</v>
+        <v>0.002128198074851765</v>
       </c>
       <c r="D124">
-        <v>-0.09749304910107026</v>
+        <v>-0.07000000223089442</v>
       </c>
       <c r="E124">
-        <v>0.09999999108856006</v>
+        <v>0.06993873610075818</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3579,19 +3579,19 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>2.577494246729213</v>
+        <v>2.667000169614315</v>
       </c>
       <c r="C125">
-        <v>0.002037544859074477</v>
+        <v>0.002108300529339381</v>
       </c>
       <c r="D125">
-        <v>-0.06994534890679716</v>
+        <v>-0.1151832837173046</v>
       </c>
       <c r="E125">
-        <v>0.07000004790569681</v>
+        <v>0.1390134747770668</v>
       </c>
       <c r="F125" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3599,19 +3599,19 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>2.56947672067338</v>
+        <v>2.665836940550078</v>
       </c>
       <c r="C126">
-        <v>0.002031206893812945</v>
+        <v>0.002107380980671998</v>
       </c>
       <c r="D126">
-        <v>-0.06896546456051744</v>
+        <v>-0.06875001784113677</v>
       </c>
       <c r="E126">
-        <v>0.1256544614200634</v>
+        <v>0.06920424111197221</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3619,19 +3619,19 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>2.533042102452118</v>
+        <v>2.661791882280355</v>
       </c>
       <c r="C127">
-        <v>0.002002404824072819</v>
+        <v>0.002104183306150479</v>
       </c>
       <c r="D127">
-        <v>-0.06972789346638986</v>
+        <v>-0.06986440309375563</v>
       </c>
       <c r="E127">
-        <v>0.06999998731872803</v>
+        <v>0.06976744886443242</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3639,19 +3639,19 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>2.529932341591277</v>
+        <v>2.641719863097624</v>
       </c>
       <c r="C128">
-        <v>0.001999946515091917</v>
+        <v>0.002088316097310376</v>
       </c>
       <c r="D128">
-        <v>-0.06946685135807706</v>
+        <v>-0.06906908533350598</v>
       </c>
       <c r="E128">
-        <v>0.06907893298560075</v>
+        <v>0.06993864382065795</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3659,19 +3659,19 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>2.525929476283469</v>
+        <v>2.632372954585308</v>
       </c>
       <c r="C129">
-        <v>0.001996782194690491</v>
+        <v>0.002080927236826333</v>
       </c>
       <c r="D129">
-        <v>-0.06906908533350598</v>
+        <v>-0.06972473507949539</v>
       </c>
       <c r="E129">
-        <v>0.06993864382065795</v>
+        <v>0.06994818895639487</v>
       </c>
       <c r="F129" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3679,19 +3679,19 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>2.518234711014036</v>
+        <v>2.62258913178207</v>
       </c>
       <c r="C130">
-        <v>0.001990699376295682</v>
+        <v>0.002073192989551042</v>
       </c>
       <c r="D130">
-        <v>-0.06997453988363178</v>
+        <v>-0.06994534890679716</v>
       </c>
       <c r="E130">
-        <v>0.06976744886443242</v>
+        <v>0.07000004790569681</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3699,19 +3699,19 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>2.51491012002271</v>
+        <v>2.62168064759221</v>
       </c>
       <c r="C131">
-        <v>0.001988071241124672</v>
+        <v>0.002072474820230995</v>
       </c>
       <c r="D131">
-        <v>-0.1151832837173046</v>
+        <v>-0.06997967590354115</v>
       </c>
       <c r="E131">
-        <v>0.1390134747770668</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F131" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3719,19 +3719,19 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>2.508791494774932</v>
+        <v>2.579320634087724</v>
       </c>
       <c r="C132">
-        <v>0.001983234383221288</v>
+        <v>0.002038988643547608</v>
       </c>
       <c r="D132">
-        <v>-0.07000000223089442</v>
+        <v>-0.08396954793476008</v>
       </c>
       <c r="E132">
-        <v>0.06993873610075818</v>
+        <v>0.1000001069779202</v>
       </c>
       <c r="F132" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3739,19 +3739,19 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>2.498062892032577</v>
+        <v>2.567364680663033</v>
       </c>
       <c r="C133">
-        <v>0.001974753274334053</v>
+        <v>0.002029537296966826</v>
       </c>
       <c r="D133">
-        <v>-0.09999997733786892</v>
+        <v>-0.09749304910107026</v>
       </c>
       <c r="E133">
-        <v>0.09999999150170114</v>
+        <v>0.09999999108856006</v>
       </c>
       <c r="F133" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3759,19 +3759,19 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>2.476845076474743</v>
+        <v>2.565468803238069</v>
       </c>
       <c r="C134">
-        <v>0.001957980297608492</v>
+        <v>0.002028038579634835</v>
       </c>
       <c r="D134">
-        <v>-0.06997967590354115</v>
+        <v>-0.06984474097020532</v>
       </c>
       <c r="E134">
-        <v>0.07000001271565748</v>
+        <v>0.07024788437999741</v>
       </c>
       <c r="F134" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3779,19 +3779,19 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>2.475270300387169</v>
+        <v>2.554371161859318</v>
       </c>
       <c r="C135">
-        <v>0.001956735415325827</v>
+        <v>0.00201926574060025</v>
       </c>
       <c r="D135">
-        <v>-0.06972473507949539</v>
+        <v>-0.09999997733786892</v>
       </c>
       <c r="E135">
-        <v>0.06994818895639487</v>
+        <v>0.09999999150170114</v>
       </c>
       <c r="F135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3799,19 +3799,19 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>2.456032706430684</v>
+        <v>2.546032975529465</v>
       </c>
       <c r="C136">
-        <v>0.001941527831170499</v>
+        <v>0.002012674288956097</v>
       </c>
       <c r="D136">
-        <v>-0.06990520990855775</v>
+        <v>-0.06999997592232032</v>
       </c>
       <c r="E136">
-        <v>0.07000005232670703</v>
+        <v>0.06994826894424944</v>
       </c>
       <c r="F136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3819,19 +3819,19 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>2.445739638594</v>
+        <v>2.543431153808137</v>
       </c>
       <c r="C137">
-        <v>0.001933391018651383</v>
+        <v>0.002010617512891809</v>
       </c>
       <c r="D137">
-        <v>-0.06633905194470424</v>
+        <v>-0.069462652746203</v>
       </c>
       <c r="E137">
-        <v>0.06993008581616222</v>
+        <v>0.06999996154723576</v>
       </c>
       <c r="F137" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3839,19 +3839,19 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>2.445715648418064</v>
+        <v>2.533757207781401</v>
       </c>
       <c r="C138">
-        <v>0.001933372054085427</v>
+        <v>0.00200297012472838</v>
       </c>
       <c r="D138">
-        <v>-0.069462652746203</v>
+        <v>-0.09987198462060953</v>
       </c>
       <c r="E138">
-        <v>0.06999996154723576</v>
+        <v>0.09909911742804933</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3859,19 +3859,19 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>2.440178872989273</v>
+        <v>2.525953350768558</v>
       </c>
       <c r="C139">
-        <v>0.001928995156513263</v>
+        <v>0.001996801067801233</v>
       </c>
       <c r="D139">
-        <v>-0.06994813129869171</v>
+        <v>-0.06986907208583493</v>
       </c>
       <c r="E139">
-        <v>0.0692090108753014</v>
+        <v>0.06976744878977881</v>
       </c>
       <c r="F139" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3879,19 +3879,19 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>2.421753445445604</v>
+        <v>2.521911455286874</v>
       </c>
       <c r="C140">
-        <v>0.001914429601142771</v>
+        <v>0.00199360589350741</v>
       </c>
       <c r="D140">
-        <v>-0.06963250274027122</v>
+        <v>-0.09655179331050101</v>
       </c>
       <c r="E140">
-        <v>0.06994822547715462</v>
+        <v>0.1000000505736387</v>
       </c>
       <c r="F140" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3899,19 +3899,19 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>2.405987518353195</v>
+        <v>2.513432949380127</v>
       </c>
       <c r="C141">
-        <v>0.001901966417670511</v>
+        <v>0.001986903517296541</v>
       </c>
       <c r="D141">
-        <v>-0.08465116636107473</v>
+        <v>-0.06990520990855775</v>
       </c>
       <c r="E141">
-        <v>0.15049746137451</v>
+        <v>0.07000005232670703</v>
       </c>
       <c r="F141" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3919,19 +3919,19 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>2.40404208384797</v>
+        <v>2.505028543966455</v>
       </c>
       <c r="C142">
-        <v>0.001900428524780999</v>
+        <v>0.001980259718550556</v>
       </c>
       <c r="D142">
-        <v>-0.06972115173805338</v>
+        <v>-0.06946685135807706</v>
       </c>
       <c r="E142">
-        <v>0.06984474535064189</v>
+        <v>0.06907893298560075</v>
       </c>
       <c r="F142" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3939,19 +3939,19 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2.403312884489994</v>
+        <v>2.501703360924076</v>
       </c>
       <c r="C143">
-        <v>0.001899852082600783</v>
+        <v>0.001977631115355003</v>
       </c>
       <c r="D143">
-        <v>-0.06992079729673628</v>
+        <v>-0.06994813129869171</v>
       </c>
       <c r="E143">
-        <v>0.06959710722228385</v>
+        <v>0.0692090108753014</v>
       </c>
       <c r="F143" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3959,10 +3959,10 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2.389246268379635</v>
+        <v>2.491779118399533</v>
       </c>
       <c r="C144">
-        <v>0.001888732227968091</v>
+        <v>0.001969785864347458</v>
       </c>
       <c r="D144">
         <v>-0.0698412724976426</v>
@@ -3979,19 +3979,19 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2.3710910923409</v>
+        <v>2.489896612799631</v>
       </c>
       <c r="C145">
-        <v>0.00187438031015091</v>
+        <v>0.001968297717628163</v>
       </c>
       <c r="D145">
-        <v>-0.09987198462060953</v>
+        <v>-0.06972115173805338</v>
       </c>
       <c r="E145">
-        <v>0.09909911742804933</v>
+        <v>0.06984474535064189</v>
       </c>
       <c r="F145" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3999,19 +3999,19 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2.369465986531165</v>
+        <v>2.479274339810012</v>
       </c>
       <c r="C146">
-        <v>0.00187309564152661</v>
+        <v>0.001959900663881431</v>
       </c>
       <c r="D146">
-        <v>-0.06999999284744263</v>
+        <v>-0.06992079729673628</v>
       </c>
       <c r="E146">
-        <v>0.06999998092651372</v>
+        <v>0.06959710722228385</v>
       </c>
       <c r="F146" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4019,19 +4019,19 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2.367436245701345</v>
+        <v>2.478477419200941</v>
       </c>
       <c r="C147">
-        <v>0.001871491103321223</v>
+        <v>0.001959270687115368</v>
       </c>
       <c r="D147">
-        <v>-0.06986907208583493</v>
+        <v>-0.06557378213221121</v>
       </c>
       <c r="E147">
-        <v>0.06976744878977881</v>
+        <v>0.06993008581616222</v>
       </c>
       <c r="F147" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4039,19 +4039,19 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2.360916465727584</v>
+        <v>2.476170546567818</v>
       </c>
       <c r="C148">
-        <v>0.001866337127057377</v>
+        <v>0.001957447072385624</v>
       </c>
       <c r="D148">
-        <v>-0.06999997592232032</v>
+        <v>-0.06999999284744263</v>
       </c>
       <c r="E148">
-        <v>0.06994826894424944</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F148" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4059,19 +4059,19 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2.351203616531213</v>
+        <v>2.467754827710609</v>
       </c>
       <c r="C149">
-        <v>0.001858658985400169</v>
+        <v>0.001950794330206016</v>
       </c>
       <c r="D149">
-        <v>-0.08396954793476008</v>
+        <v>-0.06963250274027122</v>
       </c>
       <c r="E149">
-        <v>0.1000001069779202</v>
+        <v>0.06994822547715462</v>
       </c>
       <c r="F149" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4079,19 +4079,19 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2.324125115761434</v>
+        <v>2.444372318490909</v>
       </c>
       <c r="C150">
-        <v>0.001837253055937893</v>
+        <v>0.001932310133194394</v>
       </c>
       <c r="D150">
-        <v>-0.07000008020039405</v>
+        <v>-0.06927714050223288</v>
       </c>
       <c r="E150">
-        <v>0.06963249407981098</v>
+        <v>0.07000002910231018</v>
       </c>
       <c r="F150" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4099,19 +4099,19 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2.319269342757885</v>
+        <v>2.442184454598007</v>
       </c>
       <c r="C151">
-        <v>0.001833414500203861</v>
+        <v>0.001930580596520161</v>
       </c>
       <c r="D151">
-        <v>-0.09655179331050101</v>
+        <v>-0.06990293725202734</v>
       </c>
       <c r="E151">
-        <v>0.1000000505736387</v>
+        <v>0.06991526455819863</v>
       </c>
       <c r="F151" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4119,19 +4119,19 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2.316381347804287</v>
+        <v>2.435730359943895</v>
       </c>
       <c r="C152">
-        <v>0.001831131500240545</v>
+        <v>0.001925478545410195</v>
       </c>
       <c r="D152">
-        <v>-0.06971424647739954</v>
+        <v>-0.07000008020039405</v>
       </c>
       <c r="E152">
-        <v>0.06999998092651372</v>
+        <v>0.06963249407981098</v>
       </c>
       <c r="F152" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4139,19 +4139,19 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2.315430095001054</v>
+        <v>2.417733344303555</v>
       </c>
       <c r="C153">
-        <v>0.001830379521739961</v>
+        <v>0.001911251655575935</v>
       </c>
       <c r="D153">
-        <v>-0.06990293725202734</v>
+        <v>-0.06987575137530111</v>
       </c>
       <c r="E153">
-        <v>0.06991526455819863</v>
+        <v>0.06984668510129555</v>
       </c>
       <c r="F153" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4159,16 +4159,16 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2.302291214301844</v>
+        <v>2.411885786622388</v>
       </c>
       <c r="C154">
-        <v>0.001819993054784065</v>
+        <v>0.001906629080333905</v>
       </c>
       <c r="D154">
-        <v>-0.06903348229865602</v>
+        <v>-0.06870229825350138</v>
       </c>
       <c r="E154">
-        <v>0.06999997075373066</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F154" t="s">
         <v>226</v>
@@ -4179,19 +4179,19 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2.302089492363598</v>
+        <v>2.409970904518604</v>
       </c>
       <c r="C155">
-        <v>0.001819833590801264</v>
+        <v>0.001905115339540401</v>
       </c>
       <c r="D155">
-        <v>-0.06997743007304569</v>
+        <v>-0.08465116636107473</v>
       </c>
       <c r="E155">
-        <v>0.06970509199332731</v>
+        <v>0.15049746137451</v>
       </c>
       <c r="F155" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4199,19 +4199,19 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2.292336763171011</v>
+        <v>2.408158704547233</v>
       </c>
       <c r="C156">
-        <v>0.001812123923455344</v>
+        <v>0.00190368277039307</v>
       </c>
       <c r="D156">
-        <v>-0.06927714050223288</v>
+        <v>-0.06997743007304569</v>
       </c>
       <c r="E156">
-        <v>0.07000002910231018</v>
+        <v>0.06970509199332731</v>
       </c>
       <c r="F156" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4219,19 +4219,19 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2.291082188729298</v>
+        <v>2.383857611876045</v>
       </c>
       <c r="C157">
-        <v>0.001811132165003399</v>
+        <v>0.00188447242045537</v>
       </c>
       <c r="D157">
-        <v>-0.0690608151727804</v>
+        <v>-0.06944444136063499</v>
       </c>
       <c r="E157">
-        <v>0.06993009546669837</v>
+        <v>0.06998162675237007</v>
       </c>
       <c r="F157" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4239,19 +4239,19 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2.286441470219085</v>
+        <v>2.382304678707296</v>
       </c>
       <c r="C158">
-        <v>0.001807463612821413</v>
+        <v>0.00188324480530221</v>
       </c>
       <c r="D158">
-        <v>-0.06987575137530111</v>
+        <v>-0.06990017574271634</v>
       </c>
       <c r="E158">
-        <v>0.06984668510129555</v>
+        <v>0.09433961924644252</v>
       </c>
       <c r="F158" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4259,10 +4259,10 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2.258225199966336</v>
+        <v>2.381459048173585</v>
       </c>
       <c r="C159">
-        <v>0.001785158260842953</v>
+        <v>0.001882576322666865</v>
       </c>
       <c r="D159">
         <v>-0.06988350176847491</v>
@@ -4279,19 +4279,19 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2.24107594131695</v>
+        <v>2.368547239682655</v>
       </c>
       <c r="C160">
-        <v>0.001771601534637905</v>
+        <v>0.001872369359432929</v>
       </c>
       <c r="D160">
-        <v>-0.06990017574271634</v>
+        <v>-0.06984127978392152</v>
       </c>
       <c r="E160">
-        <v>0.09433961924644252</v>
+        <v>0.06960556867709977</v>
       </c>
       <c r="F160" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4299,19 +4299,19 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2.183703243573475</v>
+        <v>2.366377322781318</v>
       </c>
       <c r="C161">
-        <v>0.00172624762337824</v>
+        <v>0.00187065401010381</v>
       </c>
       <c r="D161">
-        <v>-0.06984127978392152</v>
+        <v>-0.0690608151727804</v>
       </c>
       <c r="E161">
-        <v>0.06960556867709977</v>
+        <v>0.06993009546669837</v>
       </c>
       <c r="F161" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4319,19 +4319,19 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2.154341109817051</v>
+        <v>2.365398494718307</v>
       </c>
       <c r="C162">
-        <v>0.00170303645044826</v>
+        <v>0.001869880232978896</v>
       </c>
       <c r="D162">
-        <v>-0.06906902405434578</v>
+        <v>-0.06903348229865602</v>
       </c>
       <c r="E162">
-        <v>0.06989247814046018</v>
+        <v>0.06999997075373066</v>
       </c>
       <c r="F162" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4339,19 +4339,19 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2.121667402239148</v>
+        <v>2.294577614097162</v>
       </c>
       <c r="C163">
-        <v>0.001677207432600116</v>
+        <v>0.001813895347112379</v>
       </c>
       <c r="D163">
-        <v>-0.06944444136063499</v>
+        <v>-0.06906902405434578</v>
       </c>
       <c r="E163">
-        <v>0.06998162675237007</v>
+        <v>0.06989247814046018</v>
       </c>
       <c r="F163" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4359,13 +4359,13 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2.118287610612639</v>
+        <v>2.222177150692973</v>
       </c>
       <c r="C164">
-        <v>0.001674535660563355</v>
+        <v>0.001756661779203935</v>
       </c>
       <c r="D164">
-        <v>-0.09708737684291768</v>
+        <v>-0.09677420366253031</v>
       </c>
       <c r="E164">
         <v>0.09913793710206664</v>
@@ -4379,19 +4379,19 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2.080314643392332</v>
+        <v>2.212905483752379</v>
       </c>
       <c r="C165">
-        <v>0.00164451750465797</v>
+        <v>0.001749332398223225</v>
       </c>
       <c r="D165">
-        <v>-0.06984663259319479</v>
+        <v>-0.06979280195244686</v>
       </c>
       <c r="E165">
-        <v>0.07000008006928793</v>
+        <v>0.06993009596505595</v>
       </c>
       <c r="F165" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4399,19 +4399,19 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2.059500609485557</v>
+        <v>2.131062822631005</v>
       </c>
       <c r="C166">
-        <v>0.001628063722913483</v>
+        <v>0.001684634642396051</v>
       </c>
       <c r="D166">
-        <v>-0.07719292174407599</v>
+        <v>-0.1111111042149548</v>
       </c>
       <c r="E166">
-        <v>0.1352312830457774</v>
+        <v>0.1593406343488595</v>
       </c>
       <c r="F166" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4419,19 +4419,19 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2.058171683812813</v>
+        <v>2.111999006148011</v>
       </c>
       <c r="C167">
-        <v>0.001627013188784831</v>
+        <v>0.001669564431737559</v>
       </c>
       <c r="D167">
-        <v>-0.06909089280352687</v>
+        <v>-0.06936408737921229</v>
       </c>
       <c r="E167">
-        <v>0.0960698568919014</v>
+        <v>0.06979862411866566</v>
       </c>
       <c r="F167" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4439,19 +4439,19 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2.056978476284056</v>
+        <v>2.104831454628723</v>
       </c>
       <c r="C168">
-        <v>0.001626069941726525</v>
+        <v>0.00166389838310571</v>
       </c>
       <c r="D168">
-        <v>-0.06979280195244686</v>
+        <v>-0.06991872282140932</v>
       </c>
       <c r="E168">
-        <v>0.06993009596505595</v>
+        <v>0.06963475841615496</v>
       </c>
       <c r="F168" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4459,19 +4459,19 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2.051950106829797</v>
+        <v>2.098144511307812</v>
       </c>
       <c r="C169">
-        <v>0.001622094946110511</v>
+        <v>0.001658612261903407</v>
       </c>
       <c r="D169">
-        <v>-0.1111111042149548</v>
+        <v>-0.06909089280352687</v>
       </c>
       <c r="E169">
-        <v>0.1593406343488595</v>
+        <v>0.0960698568919014</v>
       </c>
       <c r="F169" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4479,19 +4479,19 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>2.014425098679332</v>
+        <v>2.095948151640311</v>
       </c>
       <c r="C170">
-        <v>0.001592430908046903</v>
+        <v>0.001656876009201826</v>
       </c>
       <c r="D170">
-        <v>-0.06991872282140932</v>
+        <v>-0.07719292174407599</v>
       </c>
       <c r="E170">
-        <v>0.06963475841615496</v>
+        <v>0.1352312830457774</v>
       </c>
       <c r="F170" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4499,19 +4499,19 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>1.970518695239095</v>
+        <v>1.985628054934576</v>
       </c>
       <c r="C171">
-        <v>0.001557722288726557</v>
+        <v>0.001569666446588597</v>
       </c>
       <c r="D171">
-        <v>-0.06936408737921229</v>
+        <v>-0.06984663259319479</v>
       </c>
       <c r="E171">
-        <v>0.06979862411866566</v>
+        <v>0.07000008006928793</v>
       </c>
       <c r="F171" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4519,19 +4519,19 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>1.909134250746238</v>
+        <v>1.969150202460746</v>
       </c>
       <c r="C172">
-        <v>0.001509197036163033</v>
+        <v>0.001556640476253552</v>
       </c>
       <c r="D172">
-        <v>-0.1150442660549275</v>
+        <v>-0.06896555323692</v>
       </c>
       <c r="E172">
-        <v>0.1366666172496895</v>
+        <v>0.0698197830537064</v>
       </c>
       <c r="F172" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4539,19 +4539,19 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>1.897279953808653</v>
+        <v>1.967218328812642</v>
       </c>
       <c r="C173">
-        <v>0.001499826050441622</v>
+        <v>0.001555113303409203</v>
       </c>
       <c r="D173">
-        <v>-0.06896555323692</v>
+        <v>-0.06976743899502935</v>
       </c>
       <c r="E173">
-        <v>0.0698197830537064</v>
+        <v>0.06997456409537439</v>
       </c>
       <c r="F173" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4559,10 +4559,10 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>1.814222612103903</v>
+        <v>1.956913649455014</v>
       </c>
       <c r="C174">
-        <v>0.00143416807280941</v>
+        <v>0.001546967311822146</v>
       </c>
       <c r="D174">
         <v>-0.2127659574468085</v>
@@ -4571,7 +4571,7 @@
         <v>0.1612903275425304</v>
       </c>
       <c r="F174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4579,19 +4579,19 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>1.809125601270966</v>
+        <v>1.952180027909109</v>
       </c>
       <c r="C175">
-        <v>0.001430138815233965</v>
+        <v>0.001543225318505225</v>
       </c>
       <c r="D175">
-        <v>-0.06947889057242518</v>
+        <v>-0.09547738013434359</v>
       </c>
       <c r="E175">
-        <v>0.06956526161967846</v>
+        <v>0.1366666172496895</v>
       </c>
       <c r="F175" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4599,19 +4599,19 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>1.788998785043077</v>
+        <v>1.875191856183886</v>
       </c>
       <c r="C176">
-        <v>0.001414228288571602</v>
+        <v>0.001482365103702677</v>
       </c>
       <c r="D176">
-        <v>-0.06962027661690495</v>
+        <v>-0.07482990068676376</v>
       </c>
       <c r="E176">
-        <v>0.07000003017804945</v>
+        <v>0.0699481742507313</v>
       </c>
       <c r="F176" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4619,19 +4619,19 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>1.748960998558861</v>
+        <v>1.844721993472982</v>
       </c>
       <c r="C177">
-        <v>0.001382577864473408</v>
+        <v>0.001458278255709867</v>
       </c>
       <c r="D177">
-        <v>-0.06976743899502935</v>
+        <v>-0.06947889057242518</v>
       </c>
       <c r="E177">
-        <v>0.06997456409537439</v>
+        <v>0.06956526161967846</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4639,19 +4639,19 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>1.715197068949988</v>
+        <v>1.832763146249315</v>
       </c>
       <c r="C178">
-        <v>0.00135588701102766</v>
+        <v>0.00144882462154096</v>
       </c>
       <c r="D178">
-        <v>-0.06964281581374276</v>
+        <v>-0.06997739339750808</v>
       </c>
       <c r="E178">
-        <v>0.06962028753701133</v>
+        <v>0.06985292519252639</v>
       </c>
       <c r="F178" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4659,19 +4659,19 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>1.696768491356355</v>
+        <v>1.832635963944594</v>
       </c>
       <c r="C179">
-        <v>0.001341318965499094</v>
+        <v>0.00144872408216964</v>
       </c>
       <c r="D179">
-        <v>-0.06904232708871627</v>
+        <v>-0.0695187053760733</v>
       </c>
       <c r="E179">
-        <v>0.06921680523124629</v>
+        <v>0.0698795925471658</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4679,16 +4679,16 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>1.683069815949959</v>
+        <v>1.823401533418815</v>
       </c>
       <c r="C180">
-        <v>0.001330489973082971</v>
+        <v>0.001441424137089971</v>
       </c>
       <c r="D180">
-        <v>-0.0695187053760733</v>
+        <v>-0.06962027661690495</v>
       </c>
       <c r="E180">
-        <v>0.0698795925471658</v>
+        <v>0.07000003017804945</v>
       </c>
       <c r="F180" t="s">
         <v>237</v>
@@ -4699,19 +4699,19 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>1.677316083622858</v>
+        <v>1.790784255307355</v>
       </c>
       <c r="C181">
-        <v>0.001325941568081311</v>
+        <v>0.001415639727515698</v>
       </c>
       <c r="D181">
-        <v>-0.07482990068676376</v>
+        <v>-0.06600663872224521</v>
       </c>
       <c r="E181">
-        <v>0.0699481742507313</v>
+        <v>0.06999997773390709</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4719,19 +4719,19 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>1.669962852667841</v>
+        <v>1.764850491095587</v>
       </c>
       <c r="C182">
-        <v>0.00132012873728683</v>
+        <v>0.001395138728138806</v>
       </c>
       <c r="D182">
-        <v>-0.07586206896551728</v>
+        <v>-0.06964281581374276</v>
       </c>
       <c r="E182">
-        <v>0.1071428571428572</v>
+        <v>0.06962028753701133</v>
       </c>
       <c r="F182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4739,19 +4739,19 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>1.638374574860745</v>
+        <v>1.748298912905265</v>
       </c>
       <c r="C183">
-        <v>0.001295157766688336</v>
+        <v>0.001382054476604952</v>
       </c>
       <c r="D183">
-        <v>-0.06997739339750808</v>
+        <v>-0.06904232708871627</v>
       </c>
       <c r="E183">
-        <v>0.06985292519252639</v>
+        <v>0.06921680523124629</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4759,19 +4759,19 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>1.630037282050162</v>
+        <v>1.716952597866596</v>
       </c>
       <c r="C184">
-        <v>0.001288567021383527</v>
+        <v>0.00135727478092221</v>
       </c>
       <c r="D184">
-        <v>-0.06981524422491381</v>
+        <v>-0.1290322479309236</v>
       </c>
       <c r="E184">
-        <v>0.06915483200771044</v>
+        <v>0.1111111191262406</v>
       </c>
       <c r="F184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4779,19 +4779,19 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>1.61372895558507</v>
+        <v>1.689283559559422</v>
       </c>
       <c r="C185">
-        <v>0.001275675063703613</v>
+        <v>0.001335402023367132</v>
       </c>
       <c r="D185">
-        <v>-0.1290322479309236</v>
+        <v>-0.07586206896551728</v>
       </c>
       <c r="E185">
-        <v>0.1111111191262406</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="F185" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4799,19 +4799,19 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>1.593249350764818</v>
+        <v>1.651199378835179</v>
       </c>
       <c r="C186">
-        <v>0.001259485652778514</v>
+        <v>0.001305295951648363</v>
       </c>
       <c r="D186">
-        <v>-0.06600663872224521</v>
+        <v>-0.1000000159853983</v>
       </c>
       <c r="E186">
-        <v>0.06999997773390709</v>
+        <v>0.1000000142726771</v>
       </c>
       <c r="F186" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4819,19 +4819,19 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>1.538352273506696</v>
+        <v>1.631011547668572</v>
       </c>
       <c r="C187">
-        <v>0.001216088753760234</v>
+        <v>0.001289337191832862</v>
       </c>
       <c r="D187">
-        <v>-0.06920418159995967</v>
+        <v>-0.06981524422491381</v>
       </c>
       <c r="E187">
-        <v>0.06936415869942159</v>
+        <v>0.06915483200771044</v>
       </c>
       <c r="F187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4839,19 +4839,19 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>1.521926886722694</v>
+        <v>1.624543911722209</v>
       </c>
       <c r="C188">
-        <v>0.00120310425827881</v>
+        <v>0.001284224436144039</v>
       </c>
       <c r="D188">
-        <v>-0.06988695709559989</v>
+        <v>-0.1359223209634383</v>
       </c>
       <c r="E188">
-        <v>0.06997078384203337</v>
+        <v>0.1481481176235944</v>
       </c>
       <c r="F188" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4859,19 +4859,19 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>1.484243908208783</v>
+        <v>1.581055971430679</v>
       </c>
       <c r="C189">
-        <v>0.001173315342457537</v>
+        <v>0.001249846617731763</v>
       </c>
       <c r="D189">
-        <v>-0.1153846689979657</v>
+        <v>-0.06988695709559989</v>
       </c>
       <c r="E189">
-        <v>0.1119403565368413</v>
+        <v>0.06997078384203337</v>
       </c>
       <c r="F189" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4879,19 +4879,19 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>1.47984631536678</v>
+        <v>1.572017530075613</v>
       </c>
       <c r="C190">
-        <v>0.001169838984479666</v>
+        <v>0.001242701604802856</v>
       </c>
       <c r="D190">
-        <v>-0.06930696622036969</v>
+        <v>-0.06920418159995967</v>
       </c>
       <c r="E190">
-        <v>0.0698027847269107</v>
+        <v>0.06936415869942159</v>
       </c>
       <c r="F190" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4899,19 +4899,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>1.462472658917511</v>
+        <v>1.570127807578676</v>
       </c>
       <c r="C191">
-        <v>0.001156104868709495</v>
+        <v>0.001241207753026622</v>
       </c>
       <c r="D191">
-        <v>-0.1000000159853983</v>
+        <v>-0.1153846689979657</v>
       </c>
       <c r="E191">
-        <v>0.1000000142726771</v>
+        <v>0.1119403565368413</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4919,19 +4919,19 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>1.448646016471024</v>
+        <v>1.550804950922618</v>
       </c>
       <c r="C192">
-        <v>0.001145174716577884</v>
+        <v>0.00122593276752776</v>
       </c>
       <c r="D192">
-        <v>-0.07000002832724772</v>
+        <v>-0.06903359353592942</v>
       </c>
       <c r="E192">
-        <v>0.06999998166089894</v>
+        <v>0.0698027847269107</v>
       </c>
       <c r="F192" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4939,19 +4939,19 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>1.443226602287761</v>
+        <v>1.432830969119015</v>
       </c>
       <c r="C193">
-        <v>0.001140890594693882</v>
+        <v>0.001132672702860882</v>
       </c>
       <c r="D193">
-        <v>-0.1359223209634383</v>
+        <v>-0.07000002832724772</v>
       </c>
       <c r="E193">
-        <v>0.1481481176235944</v>
+        <v>0.06999998166089894</v>
       </c>
       <c r="F193" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4959,19 +4959,19 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>1.371618754780676</v>
+        <v>1.398754864381863</v>
       </c>
       <c r="C194">
-        <v>0.001084283600617136</v>
+        <v>0.001105735070657599</v>
       </c>
       <c r="D194">
-        <v>-0.06771649541528946</v>
+        <v>-0.06910562732073722</v>
       </c>
       <c r="E194">
-        <v>0.06992999997499116</v>
+        <v>0.06997741154931059</v>
       </c>
       <c r="F194" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4979,10 +4979,10 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>1.357692732914005</v>
+        <v>1.37191087572145</v>
       </c>
       <c r="C195">
-        <v>0.001073274887679056</v>
+        <v>0.001084514526262016</v>
       </c>
       <c r="D195">
         <v>-0.07505523455869945</v>
@@ -4999,10 +4999,10 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>1.317630493246677</v>
+        <v>1.367625453800512</v>
       </c>
       <c r="C196">
-        <v>0.001041605133001324</v>
+        <v>0.00108112684094902</v>
       </c>
       <c r="D196">
         <v>-0.08776598364985366</v>
@@ -5011,7 +5011,7 @@
         <v>0.07205231730075634</v>
       </c>
       <c r="F196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5019,10 +5019,10 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>1.273192214228156</v>
+        <v>1.334120137288996</v>
       </c>
       <c r="C197">
-        <v>0.001006476058678384</v>
+        <v>0.001054640424734384</v>
       </c>
       <c r="D197">
         <v>-0.1026615720542988</v>
@@ -5039,10 +5039,10 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>1.232663790744505</v>
+        <v>1.294519661652472</v>
       </c>
       <c r="C198">
-        <v>0.0009744377792446677</v>
+        <v>0.001023335700911045</v>
       </c>
       <c r="D198">
         <v>-0.0694126800439423</v>
@@ -5051,7 +5051,7 @@
         <v>0.0698027288367753</v>
       </c>
       <c r="F198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5059,19 +5059,19 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>1.181117627895755</v>
+        <v>1.262368758273469</v>
       </c>
       <c r="C199">
-        <v>0.0009336898244235217</v>
+        <v>0.0009979199670146009</v>
       </c>
       <c r="D199">
-        <v>-0.06910562732073722</v>
+        <v>-0.06771649541528946</v>
       </c>
       <c r="E199">
-        <v>0.06997741154931059</v>
+        <v>0.06992999997499116</v>
       </c>
       <c r="F199" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5079,10 +5079,10 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>1.117413654425269</v>
+        <v>1.221748464310593</v>
       </c>
       <c r="C200">
-        <v>0.0008833309521148373</v>
+        <v>0.0009658090626961213</v>
       </c>
       <c r="D200">
         <v>-0.06849312549060282</v>
@@ -5099,10 +5099,10 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>1.066374948920879</v>
+        <v>1.1474968951577</v>
       </c>
       <c r="C201">
-        <v>0.0008429841493445685</v>
+        <v>0.0009071121700851382</v>
       </c>
       <c r="D201">
         <v>-0.06994330999834741</v>
@@ -5119,19 +5119,19 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>1.038997478123127</v>
+        <v>1.132965082056107</v>
       </c>
       <c r="C202">
-        <v>0.0008213418799392304</v>
+        <v>0.0008956245707953414</v>
       </c>
       <c r="D202">
-        <v>-0.06919944750899132</v>
+        <v>-0.06999998712539734</v>
       </c>
       <c r="E202">
-        <v>0.06989244448068677</v>
+        <v>0.0699880626678262</v>
       </c>
       <c r="F202" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5139,19 +5139,19 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>0.914595421270567</v>
+        <v>1.050556122575372</v>
       </c>
       <c r="C203">
-        <v>0.000723000333020211</v>
+        <v>0.0008304791482809265</v>
       </c>
       <c r="D203">
-        <v>-0.06999998712539734</v>
+        <v>-0.06919944750899132</v>
       </c>
       <c r="E203">
-        <v>0.0699880626678262</v>
+        <v>0.06989244448068677</v>
       </c>
       <c r="F203" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5159,19 +5159,19 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>0.7772194916211317</v>
+        <v>0.8656416790658884</v>
       </c>
       <c r="C204">
-        <v>0.0006144027601748077</v>
+        <v>0.0006843017225817299</v>
       </c>
       <c r="D204">
-        <v>-0.06962025639760372</v>
+        <v>-0.0972221983067777</v>
       </c>
       <c r="E204">
-        <v>0.06988248106916406</v>
+        <v>0.1428572115491726</v>
       </c>
       <c r="F204" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5179,19 +5179,19 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.7122307984038301</v>
+        <v>0.8613896054728223</v>
       </c>
       <c r="C205">
-        <v>0.0005630282991334625</v>
+        <v>0.0006809403995832587</v>
       </c>
       <c r="D205">
-        <v>-0.06957191048317279</v>
+        <v>-0.06962025639760372</v>
       </c>
       <c r="E205">
-        <v>0.06981133514980109</v>
+        <v>0.06988248106916406</v>
       </c>
       <c r="F205" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5199,10 +5199,10 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.6729232191592482</v>
+        <v>0.8407246857701912</v>
       </c>
       <c r="C206">
-        <v>0.00053195511395988</v>
+        <v>0.0006646044946799931</v>
       </c>
       <c r="D206">
         <v>-0.06948425182676632</v>
@@ -5211,7 +5211,7 @@
         <v>0.06995079725746844</v>
       </c>
       <c r="F206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5219,10 +5219,10 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.6190767478979318</v>
+        <v>0.7053159780841297</v>
       </c>
       <c r="C207">
-        <v>0.0004893887335161516</v>
+        <v>0.0005575620380111698</v>
       </c>
       <c r="D207">
         <v>-0.06984870440182311</v>
@@ -5239,19 +5239,19 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.5545030535107022</v>
+        <v>0.703625619650065</v>
       </c>
       <c r="C208">
-        <v>0.0004383423347910689</v>
+        <v>0.0005562257862846364</v>
       </c>
       <c r="D208">
-        <v>-0.06969986365866065</v>
+        <v>-0.06957191048317279</v>
       </c>
       <c r="E208">
-        <v>0.06971903224517639</v>
+        <v>0.06981133514980109</v>
       </c>
       <c r="F208" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5259,19 +5259,19 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.5227323047233202</v>
+        <v>0.656492571549953</v>
       </c>
       <c r="C209">
-        <v>0.0004132271183583559</v>
+        <v>0.000518966459723283</v>
       </c>
       <c r="D209">
-        <v>-0.1134020050953738</v>
+        <v>-0.06969986365866065</v>
       </c>
       <c r="E209">
-        <v>0.1428572115491726</v>
+        <v>0.06971903224517639</v>
       </c>
       <c r="F209" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5279,19 +5279,19 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.2361660166210567</v>
+        <v>0.5207094770997991</v>
       </c>
       <c r="C210">
-        <v>0.0001866925032577524</v>
+        <v>0.0004116280451381811</v>
       </c>
       <c r="D210">
-        <v>-0.09275364811254527</v>
+        <v>-0.05138337060327858</v>
       </c>
       <c r="E210">
         <v>0.1078431879464437</v>
       </c>
       <c r="F210" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:6">

--- a/.xlsx/performance_stock_statistic.xlsx
+++ b/.xlsx/performance_stock_statistic.xlsx
@@ -1122,7 +1122,7 @@
         <v>7.415610436536586</v>
       </c>
       <c r="C2">
-        <v>0.005862142637578331</v>
+        <v>0.005852889058039928</v>
       </c>
       <c r="D2">
         <v>-0.1428570942002891</v>
@@ -1142,7 +1142,7 @@
         <v>6.137223241829957</v>
       </c>
       <c r="C3">
-        <v>0.004851559874964393</v>
+        <v>0.004843901532620329</v>
       </c>
       <c r="D3">
         <v>-0.1428571536697765</v>
@@ -1162,7 +1162,7 @@
         <v>5.889006523340024</v>
       </c>
       <c r="C4">
-        <v>0.004655341125169977</v>
+        <v>0.00464799252039465</v>
       </c>
       <c r="D4">
         <v>-0.06984121906088969</v>
@@ -1182,7 +1182,7 @@
         <v>5.872028819356641</v>
       </c>
       <c r="C5">
-        <v>0.004641920015301687</v>
+        <v>0.004634592596177297</v>
       </c>
       <c r="D5">
         <v>-0.1000000133849027</v>
@@ -1202,7 +1202,7 @@
         <v>5.782565372806189</v>
       </c>
       <c r="C6">
-        <v>0.004571197923166944</v>
+        <v>0.004563982141125638</v>
       </c>
       <c r="D6">
         <v>-0.09090913746128004</v>
@@ -1222,7 +1222,7 @@
         <v>5.666728096697503</v>
       </c>
       <c r="C7">
-        <v>0.004479626953911068</v>
+        <v>0.004472555719571824</v>
       </c>
       <c r="D7">
         <v>-0.06998654009966343</v>
@@ -1242,7 +1242,7 @@
         <v>5.590189579298201</v>
       </c>
       <c r="C8">
-        <v>0.004419122197073667</v>
+        <v>0.004412146471427142</v>
       </c>
       <c r="D8">
         <v>-0.07722004832454432</v>
@@ -1262,7 +1262,7 @@
         <v>5.526172921559544</v>
       </c>
       <c r="C9">
-        <v>0.004368516143525332</v>
+        <v>0.004361620301151969</v>
       </c>
       <c r="D9">
         <v>-0.09836071819597147</v>
@@ -1282,7 +1282,7 @@
         <v>5.462787088932446</v>
       </c>
       <c r="C10">
-        <v>0.004318408765954503</v>
+        <v>0.004311592019678331</v>
       </c>
       <c r="D10">
         <v>-0.06990884476887027</v>
@@ -1299,16 +1299,16 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5.395410169482664</v>
+        <v>5.395410098243138</v>
       </c>
       <c r="C11">
-        <v>0.004265146379037678</v>
+        <v>0.004258413652914868</v>
       </c>
       <c r="D11">
-        <v>-0.09747294299636589</v>
+        <v>-0.09747290722395174</v>
       </c>
       <c r="E11">
-        <v>0.09944749996239799</v>
+        <v>0.09944759565163031</v>
       </c>
       <c r="F11" t="s">
         <v>217</v>
@@ -1322,7 +1322,7 @@
         <v>5.27459006572319</v>
       </c>
       <c r="C12">
-        <v>0.004169636415591467</v>
+        <v>0.004163054511225893</v>
       </c>
       <c r="D12">
         <v>-0.1000000238418579</v>
@@ -1342,7 +1342,7 @@
         <v>5.263810209054501</v>
       </c>
       <c r="C13">
-        <v>0.004161114789766399</v>
+        <v>0.004154546337059586</v>
       </c>
       <c r="D13">
         <v>-0.0699588772113936</v>
@@ -1362,7 +1362,7 @@
         <v>5.125887243085601</v>
       </c>
       <c r="C14">
-        <v>0.004052084777142765</v>
+        <v>0.004045688431796053</v>
       </c>
       <c r="D14">
         <v>-0.06996588428668826</v>
@@ -1382,7 +1382,7 @@
         <v>5.036793938452599</v>
       </c>
       <c r="C15">
-        <v>0.003981655287314309</v>
+        <v>0.003975370117168588</v>
       </c>
       <c r="D15">
         <v>-0.09947640057477158</v>
@@ -1402,7 +1402,7 @@
         <v>5.022984070408222</v>
       </c>
       <c r="C16">
-        <v>0.003970738395579616</v>
+        <v>0.003964470458096459</v>
       </c>
       <c r="D16">
         <v>-0.09839352984437644</v>
@@ -1422,7 +1422,7 @@
         <v>5.00602772817991</v>
       </c>
       <c r="C17">
-        <v>0.003957334172474238</v>
+        <v>0.003951087393985722</v>
       </c>
       <c r="D17">
         <v>-0.06976745184959177</v>
@@ -1442,7 +1442,7 @@
         <v>4.998825307124659</v>
       </c>
       <c r="C18">
-        <v>0.00395164055899183</v>
+        <v>0.003945402768054196</v>
       </c>
       <c r="D18">
         <v>-0.06923077372505004</v>
@@ -1462,7 +1462,7 @@
         <v>4.975199976119383</v>
       </c>
       <c r="C19">
-        <v>0.003932964407999511</v>
+        <v>0.003926756097963205</v>
       </c>
       <c r="D19">
         <v>-0.06999998347270431</v>
@@ -1482,7 +1482,7 @@
         <v>4.939034427777061</v>
       </c>
       <c r="C20">
-        <v>0.003904375041720998</v>
+        <v>0.00389821186091323</v>
       </c>
       <c r="D20">
         <v>-0.06999997141156844</v>
@@ -1502,7 +1502,7 @@
         <v>4.920171725021122</v>
       </c>
       <c r="C21">
-        <v>0.003889463814245947</v>
+        <v>0.00388332417128739</v>
       </c>
       <c r="D21">
         <v>-0.100000045741464</v>
@@ -1522,7 +1522,7 @@
         <v>4.864921415361494</v>
       </c>
       <c r="C22">
-        <v>0.003845787680127666</v>
+        <v>0.003839716981342934</v>
       </c>
       <c r="D22">
         <v>-0.07000000122420647</v>
@@ -1542,7 +1542,7 @@
         <v>4.834374248164919</v>
       </c>
       <c r="C23">
-        <v>0.003821639721869498</v>
+        <v>0.003815607141408773</v>
       </c>
       <c r="D23">
         <v>-0.09999996993865379</v>
@@ -1562,7 +1562,7 @@
         <v>4.815363164778216</v>
       </c>
       <c r="C24">
-        <v>0.003806611197453129</v>
+        <v>0.003800602339998586</v>
       </c>
       <c r="D24">
         <v>-0.06981125912528596</v>
@@ -1582,7 +1582,7 @@
         <v>4.797794557639607</v>
       </c>
       <c r="C25">
-        <v>0.003792722970466093</v>
+        <v>0.003786736036021789</v>
       </c>
       <c r="D25">
         <v>-0.09900989979139119</v>
@@ -1602,7 +1602,7 @@
         <v>4.748866832481329</v>
       </c>
       <c r="C26">
-        <v>0.003754044926862714</v>
+        <v>0.003748119046946593</v>
       </c>
       <c r="D26">
         <v>-0.08070176242893345</v>
@@ -1622,7 +1622,7 @@
         <v>4.709630607258978</v>
       </c>
       <c r="C27">
-        <v>0.003723028148030814</v>
+        <v>0.003717151229091539</v>
       </c>
       <c r="D27">
         <v>-0.1548386904216962</v>
@@ -1642,7 +1642,7 @@
         <v>4.684602128205011</v>
       </c>
       <c r="C28">
-        <v>0.003703242789094869</v>
+        <v>0.003697397101977118</v>
       </c>
       <c r="D28">
         <v>-0.1300000406889452</v>
@@ -1662,7 +1662,7 @@
         <v>4.606357818612006</v>
       </c>
       <c r="C29">
-        <v>0.003641389579930441</v>
+        <v>0.003635641530080512</v>
       </c>
       <c r="D29">
         <v>-0.09795912517683469</v>
@@ -1682,7 +1682,7 @@
         <v>4.553466572345448</v>
       </c>
       <c r="C30">
-        <v>0.003599578318059642</v>
+        <v>0.003593896268623084</v>
       </c>
       <c r="D30">
         <v>-0.1168831085814298</v>
@@ -1702,7 +1702,7 @@
         <v>4.535057603878634</v>
       </c>
       <c r="C31">
-        <v>0.003585025773817105</v>
+        <v>0.00357936669603681</v>
       </c>
       <c r="D31">
         <v>-0.07000002387813875</v>
@@ -1722,7 +1722,7 @@
         <v>4.477200787867845</v>
       </c>
       <c r="C32">
-        <v>0.003539289160369833</v>
+        <v>0.003533702279295848</v>
       </c>
       <c r="D32">
         <v>-0.06993005943680752</v>
@@ -1742,7 +1742,7 @@
         <v>4.450070472289742</v>
       </c>
       <c r="C33">
-        <v>0.003517842270584778</v>
+        <v>0.003512289244111874</v>
       </c>
       <c r="D33">
         <v>-0.07000007186491586</v>
@@ -1762,7 +1762,7 @@
         <v>4.431616244283228</v>
       </c>
       <c r="C34">
-        <v>0.003503253948049988</v>
+        <v>0.003497723949710525</v>
       </c>
       <c r="D34">
         <v>-0.1428571323095533</v>
@@ -1782,7 +1782,7 @@
         <v>4.419596892173348</v>
       </c>
       <c r="C35">
-        <v>0.003493752483931507</v>
+        <v>0.003488237483956871</v>
       </c>
       <c r="D35">
         <v>-0.1285714505174543</v>
@@ -1802,7 +1802,7 @@
         <v>4.393521132614735</v>
       </c>
       <c r="C36">
-        <v>0.00347313923526857</v>
+        <v>0.003467656773965857</v>
       </c>
       <c r="D36">
         <v>-0.06956522257975384</v>
@@ -1822,7 +1822,7 @@
         <v>4.378879670625476</v>
       </c>
       <c r="C37">
-        <v>0.003461564957016184</v>
+        <v>0.003456100766081667</v>
       </c>
       <c r="D37">
         <v>-0.174603154922072</v>
@@ -1842,7 +1842,7 @@
         <v>4.339636426006847</v>
       </c>
       <c r="C38">
-        <v>0.003430542629254428</v>
+        <v>0.00342512740805592</v>
       </c>
       <c r="D38">
         <v>-0.06979283947633397</v>
@@ -1862,7 +1862,7 @@
         <v>4.319662834026766</v>
       </c>
       <c r="C39">
-        <v>0.003414753228479656</v>
+        <v>0.003409362931354984</v>
       </c>
       <c r="D39">
         <v>-0.07000005297929035</v>
@@ -1882,7 +1882,7 @@
         <v>4.312327017400797</v>
       </c>
       <c r="C40">
-        <v>0.003408954163953206</v>
+        <v>0.003403573020837257</v>
       </c>
       <c r="D40">
         <v>-0.06980273558359951</v>
@@ -1902,7 +1902,7 @@
         <v>4.299933297566477</v>
       </c>
       <c r="C41">
-        <v>0.003399156756969546</v>
+        <v>0.003393791079373698</v>
       </c>
       <c r="D41">
         <v>-0.1782608635086822</v>
@@ -1922,7 +1922,7 @@
         <v>4.29120651081837</v>
       </c>
       <c r="C42">
-        <v>0.003392258111318871</v>
+        <v>0.0033869033234557</v>
       </c>
       <c r="D42">
         <v>-0.1000000203758433</v>
@@ -1942,7 +1942,7 @@
         <v>4.286623394875775</v>
       </c>
       <c r="C43">
-        <v>0.003388635094763461</v>
+        <v>0.003383286025947734</v>
       </c>
       <c r="D43">
         <v>-0.06986303623547474</v>
@@ -1962,7 +1962,7 @@
         <v>4.251236192175181</v>
       </c>
       <c r="C44">
-        <v>0.003360661021482358</v>
+        <v>0.003355356110635504</v>
       </c>
       <c r="D44">
         <v>-0.06986893016480245</v>
@@ -1982,7 +1982,7 @@
         <v>4.217639235640426</v>
       </c>
       <c r="C45">
-        <v>0.003334102162561601</v>
+        <v>0.003328839175722513</v>
       </c>
       <c r="D45">
         <v>-0.06980904794106668</v>
@@ -2002,7 +2002,7 @@
         <v>4.214409782182872</v>
       </c>
       <c r="C46">
-        <v>0.003331549234927173</v>
+        <v>0.003326290277965962</v>
       </c>
       <c r="D46">
         <v>-0.07000000604434009</v>
@@ -2022,7 +2022,7 @@
         <v>4.194133984581884</v>
       </c>
       <c r="C47">
-        <v>0.003315520936428368</v>
+        <v>0.003310287280648686</v>
       </c>
       <c r="D47">
         <v>-0.06971154660868206</v>
@@ -2042,7 +2042,7 @@
         <v>4.189808499655812</v>
       </c>
       <c r="C48">
-        <v>0.003312101580755588</v>
+        <v>0.003306873322538136</v>
       </c>
       <c r="D48">
         <v>-0.06990878493263875</v>
@@ -2062,7 +2062,7 @@
         <v>4.155960326037494</v>
       </c>
       <c r="C49">
-        <v>0.003285344131254938</v>
+        <v>0.003280158110526833</v>
       </c>
       <c r="D49">
         <v>-0.06999992769970076</v>
@@ -2082,7 +2082,7 @@
         <v>4.133862393500197</v>
       </c>
       <c r="C50">
-        <v>0.003267875409881577</v>
+        <v>0.003262716964088552</v>
       </c>
       <c r="D50">
         <v>-0.06990877728589806</v>
@@ -2102,7 +2102,7 @@
         <v>4.12748662862942</v>
       </c>
       <c r="C51">
-        <v>0.003262835279548946</v>
+        <v>0.003257684789762759</v>
       </c>
       <c r="D51">
         <v>-0.06980057198010614</v>
@@ -2122,7 +2122,7 @@
         <v>4.125291545883119</v>
       </c>
       <c r="C52">
-        <v>0.003261100036271238</v>
+        <v>0.003255952285622033</v>
       </c>
       <c r="D52">
         <v>-0.06960785968576966</v>
@@ -2142,7 +2142,7 @@
         <v>4.121816747803677</v>
       </c>
       <c r="C53">
-        <v>0.003258353160319109</v>
+        <v>0.003253209745701399</v>
       </c>
       <c r="D53">
         <v>-0.06983240372284627</v>
@@ -2162,7 +2162,7 @@
         <v>4.105436751493819</v>
       </c>
       <c r="C54">
-        <v>0.003245404546635429</v>
+        <v>0.003240281571818325</v>
       </c>
       <c r="D54">
         <v>-0.06966616699816708</v>
@@ -2182,7 +2182,7 @@
         <v>4.102348834937428</v>
       </c>
       <c r="C55">
-        <v>0.003242963505879392</v>
+        <v>0.003237844384323149</v>
       </c>
       <c r="D55">
         <v>-0.09836066845665214</v>
@@ -2202,7 +2202,7 @@
         <v>4.060527325943578</v>
       </c>
       <c r="C56">
-        <v>0.003209903024461325</v>
+        <v>0.003204836089931789</v>
       </c>
       <c r="D56">
         <v>-0.0694443920108192</v>
@@ -2222,7 +2222,7 @@
         <v>4.002475347049177</v>
       </c>
       <c r="C57">
-        <v>0.00316401213205469</v>
+        <v>0.003159017637765732</v>
       </c>
       <c r="D57">
         <v>-0.06906909280127882</v>
@@ -2242,7 +2242,7 @@
         <v>3.97611596916235</v>
       </c>
       <c r="C58">
-        <v>0.003143174679179721</v>
+        <v>0.003138213077476202</v>
       </c>
       <c r="D58">
         <v>-0.06942392201604652</v>
@@ -2262,7 +2262,7 @@
         <v>3.971953318948048</v>
       </c>
       <c r="C59">
-        <v>0.003139884046599248</v>
+        <v>0.003134927639264442</v>
       </c>
       <c r="D59">
         <v>-0.06999996730259483</v>
@@ -2282,7 +2282,7 @@
         <v>3.966462339964118</v>
       </c>
       <c r="C60">
-        <v>0.003135543351750291</v>
+        <v>0.003130593796341055</v>
       </c>
       <c r="D60">
         <v>-0.1000000238418579</v>
@@ -2302,7 +2302,7 @@
         <v>3.961260788603776</v>
       </c>
       <c r="C61">
-        <v>0.00313143145344172</v>
+        <v>0.003126488388795403</v>
       </c>
       <c r="D61">
         <v>-0.1000000238418579</v>
@@ -2322,7 +2322,7 @@
         <v>3.954706275298112</v>
       </c>
       <c r="C62">
-        <v>0.00312625001999851</v>
+        <v>0.00312131513441051</v>
       </c>
       <c r="D62">
         <v>-0.09890105974528718</v>
@@ -2342,7 +2342,7 @@
         <v>3.933687568700902</v>
       </c>
       <c r="C63">
-        <v>0.003109634441660787</v>
+        <v>0.003104725784294314</v>
       </c>
       <c r="D63">
         <v>-0.06964520540023522</v>
@@ -2359,16 +2359,16 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>3.908436985135312</v>
+        <v>3.908437238862702</v>
       </c>
       <c r="C64">
-        <v>0.00308967350603582</v>
+        <v>0.003084796557902685</v>
       </c>
       <c r="D64">
-        <v>-0.06976742685600146</v>
+        <v>-0.06976746288382907</v>
       </c>
       <c r="E64">
-        <v>0.06991526597649589</v>
+        <v>0.06991527865032121</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -2382,7 +2382,7 @@
         <v>3.906150614785132</v>
       </c>
       <c r="C65">
-        <v>0.003087866098644377</v>
+        <v>0.003082991803303186</v>
       </c>
       <c r="D65">
         <v>-0.07000006962664551</v>
@@ -2402,7 +2402,7 @@
         <v>3.905557071877862</v>
       </c>
       <c r="C66">
-        <v>0.00308739689476511</v>
+        <v>0.003082523340077241</v>
       </c>
       <c r="D66">
         <v>-0.09917355004225092</v>
@@ -2422,7 +2422,7 @@
         <v>3.883256570086616</v>
       </c>
       <c r="C67">
-        <v>0.003069768039594163</v>
+        <v>0.003064922312617692</v>
       </c>
       <c r="D67">
         <v>-0.06994817871151149</v>
@@ -2442,7 +2442,7 @@
         <v>3.86303314579215</v>
       </c>
       <c r="C68">
-        <v>0.003053781142918696</v>
+        <v>0.003048960651769653</v>
       </c>
       <c r="D68">
         <v>-0.06990011538817997</v>
@@ -2462,7 +2462,7 @@
         <v>3.825503947809917</v>
       </c>
       <c r="C69">
-        <v>0.003024113792735113</v>
+        <v>0.00301934013244666</v>
       </c>
       <c r="D69">
         <v>-0.06991265962733595</v>
@@ -2482,7 +2482,7 @@
         <v>3.824489632523474</v>
       </c>
       <c r="C70">
-        <v>0.003023311962469148</v>
+        <v>0.003018539567895401</v>
       </c>
       <c r="D70">
         <v>-0.09811326747023519</v>
@@ -2502,7 +2502,7 @@
         <v>3.773054421350469</v>
       </c>
       <c r="C71">
-        <v>0.002982651716482582</v>
+        <v>0.00297794350540684</v>
       </c>
       <c r="D71">
         <v>-0.127451009167775</v>
@@ -2522,7 +2522,7 @@
         <v>3.75739641972219</v>
       </c>
       <c r="C72">
-        <v>0.002970273849582757</v>
+        <v>0.002965585177365578</v>
       </c>
       <c r="D72">
         <v>-0.06999998367419469</v>
@@ -2542,7 +2542,7 @@
         <v>3.75525139897367</v>
       </c>
       <c r="C73">
-        <v>0.002968578181006853</v>
+        <v>0.002963892185456723</v>
       </c>
       <c r="D73">
         <v>-0.06991524118111359</v>
@@ -2562,7 +2562,7 @@
         <v>3.738327919191449</v>
       </c>
       <c r="C74">
-        <v>0.002955199936119719</v>
+        <v>0.002950535058556783</v>
       </c>
       <c r="D74">
         <v>-0.09999997364919866</v>
@@ -2582,7 +2582,7 @@
         <v>3.736610552581556</v>
       </c>
       <c r="C75">
-        <v>0.002953842334056562</v>
+        <v>0.002949179599511879</v>
       </c>
       <c r="D75">
         <v>-0.06981138606913972</v>
@@ -2602,7 +2602,7 @@
         <v>3.723433581893243</v>
       </c>
       <c r="C76">
-        <v>0.002943425756437346</v>
+        <v>0.002938779464793404</v>
       </c>
       <c r="D76">
         <v>-0.06967219227293242</v>
@@ -2622,7 +2622,7 @@
         <v>3.723181125758361</v>
       </c>
       <c r="C77">
-        <v>0.002943226186370244</v>
+        <v>0.002938580209754032</v>
       </c>
       <c r="D77">
         <v>-0.1000000062450395</v>
@@ -2642,7 +2642,7 @@
         <v>3.684263348701632</v>
       </c>
       <c r="C78">
-        <v>0.002912461145218683</v>
+        <v>0.002907863732203342</v>
       </c>
       <c r="D78">
         <v>-0.06926410457269527</v>
@@ -2662,7 +2662,7 @@
         <v>3.651760188745937</v>
       </c>
       <c r="C79">
-        <v>0.002886766947625245</v>
+        <v>0.002882210093722126</v>
       </c>
       <c r="D79">
         <v>-0.06995077797894378</v>
@@ -2682,7 +2682,7 @@
         <v>3.60035049157064</v>
       </c>
       <c r="C80">
-        <v>0.002846126870806831</v>
+        <v>0.002841634168564042</v>
       </c>
       <c r="D80">
         <v>-0.06983238556819427</v>
@@ -2702,7 +2702,7 @@
         <v>3.555380117044352</v>
       </c>
       <c r="C81">
-        <v>0.002810577167623992</v>
+        <v>0.002806140581724033</v>
       </c>
       <c r="D81">
         <v>-0.0699999904580566</v>
@@ -2722,7 +2722,7 @@
         <v>3.552320997208955</v>
       </c>
       <c r="C82">
-        <v>0.00280815889107427</v>
+        <v>0.002803726122501146</v>
       </c>
       <c r="D82">
         <v>-0.06965173034081296</v>
@@ -2742,7 +2742,7 @@
         <v>3.533483535820529</v>
       </c>
       <c r="C83">
-        <v>0.002793267617249429</v>
+        <v>0.002788858355028041</v>
       </c>
       <c r="D83">
         <v>-0.06997743214725527</v>
@@ -2762,7 +2762,7 @@
         <v>3.526105425269673</v>
       </c>
       <c r="C84">
-        <v>0.002787435118790258</v>
+        <v>0.002783035063354125</v>
       </c>
       <c r="D84">
         <v>-0.1304348202859832</v>
@@ -2782,7 +2782,7 @@
         <v>3.517620915976751</v>
       </c>
       <c r="C85">
-        <v>0.002780727996819566</v>
+        <v>0.002776338528789859</v>
       </c>
       <c r="D85">
         <v>-0.06981745731711786</v>
@@ -2802,7 +2802,7 @@
         <v>3.501065411295452</v>
       </c>
       <c r="C86">
-        <v>0.00276764064134028</v>
+        <v>0.002763271832119537</v>
       </c>
       <c r="D86">
         <v>-0.06952965617498708</v>
@@ -2822,7 +2822,7 @@
         <v>3.473564521395117</v>
       </c>
       <c r="C87">
-        <v>0.002745900807426966</v>
+        <v>0.002741566315228975</v>
       </c>
       <c r="D87">
         <v>-0.1304761545089799</v>
@@ -2842,7 +2842,7 @@
         <v>3.415050402606505</v>
       </c>
       <c r="C88">
-        <v>0.002699644587040712</v>
+        <v>0.002695383111765194</v>
       </c>
       <c r="D88">
         <v>-0.1272727478903398</v>
@@ -2862,7 +2862,7 @@
         <v>3.404554257167515</v>
       </c>
       <c r="C89">
-        <v>0.002691347238867602</v>
+        <v>0.002687098861221402</v>
       </c>
       <c r="D89">
         <v>-0.127249362867722</v>
@@ -2882,7 +2882,7 @@
         <v>3.403653710079162</v>
       </c>
       <c r="C90">
-        <v>0.002690635343936099</v>
+        <v>0.002686388090038804</v>
       </c>
       <c r="D90">
         <v>-0.06923073797167179</v>
@@ -2902,7 +2902,7 @@
         <v>3.38184929588404</v>
       </c>
       <c r="C91">
-        <v>0.002673398652872761</v>
+        <v>0.002669178607643286</v>
       </c>
       <c r="D91">
         <v>-0.1242236130028669</v>
@@ -2922,7 +2922,7 @@
         <v>3.37572720653366</v>
       </c>
       <c r="C92">
-        <v>0.002668559056548346</v>
+        <v>0.002664346650776368</v>
       </c>
       <c r="D92">
         <v>-0.06956519501810421</v>
@@ -2942,7 +2942,7 @@
         <v>3.372463312826955</v>
       </c>
       <c r="C93">
-        <v>0.002665978903420521</v>
+        <v>0.00266177057050273</v>
       </c>
       <c r="D93">
         <v>-0.06949812250967613</v>
@@ -2962,7 +2962,7 @@
         <v>3.332425436306338</v>
       </c>
       <c r="C94">
-        <v>0.002634328408147304</v>
+        <v>0.002630170036548019</v>
       </c>
       <c r="D94">
         <v>-0.06938775819398191</v>
@@ -2982,7 +2982,7 @@
         <v>3.326866648366078</v>
       </c>
       <c r="C95">
-        <v>0.002629934109380297</v>
+        <v>0.00262578267432208</v>
       </c>
       <c r="D95">
         <v>-0.06999997782026035</v>
@@ -3002,7 +3002,7 @@
         <v>3.323720087742411</v>
       </c>
       <c r="C96">
-        <v>0.002627446709677792</v>
+        <v>0.002623299201059516</v>
       </c>
       <c r="D96">
         <v>-0.07000001271565759</v>
@@ -3022,7 +3022,7 @@
         <v>3.294694634556309</v>
       </c>
       <c r="C97">
-        <v>0.002604501687396289</v>
+        <v>0.002600390398229128</v>
       </c>
       <c r="D97">
         <v>-0.06944447396069475</v>
@@ -3042,7 +3042,7 @@
         <v>3.26576743220035</v>
       </c>
       <c r="C98">
-        <v>0.002581634333755216</v>
+        <v>0.002577559141436739</v>
       </c>
       <c r="D98">
         <v>-0.09957621472559686</v>
@@ -3062,7 +3062,7 @@
         <v>3.261981963473591</v>
       </c>
       <c r="C99">
-        <v>0.002578641868358572</v>
+        <v>0.002574571399742378</v>
       </c>
       <c r="D99">
         <v>-0.06983654776828885</v>
@@ -3082,7 +3082,7 @@
         <v>3.252409548324585</v>
       </c>
       <c r="C100">
-        <v>0.002571074741758567</v>
+        <v>0.002567016218093597</v>
       </c>
       <c r="D100">
         <v>-0.1330471491685843</v>
@@ -3102,7 +3102,7 @@
         <v>3.192273299853234</v>
       </c>
       <c r="C101">
-        <v>0.002523536205417579</v>
+        <v>0.002519552722851806</v>
       </c>
       <c r="D101">
         <v>-0.06995074530355316</v>
@@ -3122,7 +3122,7 @@
         <v>3.157768840391332</v>
       </c>
       <c r="C102">
-        <v>0.002496259952878524</v>
+        <v>0.002492319526749276</v>
       </c>
       <c r="D102">
         <v>-0.06993004618460641</v>
@@ -3142,7 +3142,7 @@
         <v>3.128152260946405</v>
       </c>
       <c r="C103">
-        <v>0.002472847637111785</v>
+        <v>0.002468944168071356</v>
       </c>
       <c r="D103">
         <v>-0.06976751350713783</v>
@@ -3162,7 +3162,7 @@
         <v>3.116288149621204</v>
       </c>
       <c r="C104">
-        <v>0.002463468892981189</v>
+        <v>0.002459580228588164</v>
       </c>
       <c r="D104">
         <v>-0.0697248316574185</v>
@@ -3182,7 +3182,7 @@
         <v>3.112464613555314</v>
       </c>
       <c r="C105">
-        <v>0.002460446334826334</v>
+        <v>0.002456562441637973</v>
       </c>
       <c r="D105">
         <v>-0.06931824967388134</v>
@@ -3202,7 +3202,7 @@
         <v>3.109321992825664</v>
       </c>
       <c r="C106">
-        <v>0.00245796204966456</v>
+        <v>0.002454082077999738</v>
       </c>
       <c r="D106">
         <v>-0.11</v>
@@ -3222,7 +3222,7 @@
         <v>3.07363085694844</v>
       </c>
       <c r="C107">
-        <v>0.002429747713002717</v>
+        <v>0.002425912278570195</v>
       </c>
       <c r="D107">
         <v>-0.06994532630501693</v>
@@ -3242,7 +3242,7 @@
         <v>3.049388515657014</v>
       </c>
       <c r="C108">
-        <v>0.002410583806843484</v>
+        <v>0.002406778623249414</v>
       </c>
       <c r="D108">
         <v>-0.07000002897064406</v>
@@ -3262,7 +3262,7 @@
         <v>3.033880557446153</v>
       </c>
       <c r="C109">
-        <v>0.002398324551340828</v>
+        <v>0.00239453871937344</v>
       </c>
       <c r="D109">
         <v>-0.0696629239211296</v>
@@ -3282,7 +3282,7 @@
         <v>2.967752498400769</v>
       </c>
       <c r="C110">
-        <v>0.002346049405850412</v>
+        <v>0.002342346091871169</v>
       </c>
       <c r="D110">
         <v>-0.06967741573181419</v>
@@ -3302,7 +3302,7 @@
         <v>2.936694315439018</v>
       </c>
       <c r="C111">
-        <v>0.002321497482560491</v>
+        <v>0.00231783292457697</v>
       </c>
       <c r="D111">
         <v>-0.1499999939813762</v>
@@ -3322,7 +3322,7 @@
         <v>2.894101485117289</v>
       </c>
       <c r="C112">
-        <v>0.002287827260962285</v>
+        <v>0.002284215852499835</v>
       </c>
       <c r="D112">
         <v>-0.06957929823877562</v>
@@ -3342,7 +3342,7 @@
         <v>2.884545528394606</v>
       </c>
       <c r="C113">
-        <v>0.002280273144975977</v>
+        <v>0.002276673660927081</v>
       </c>
       <c r="D113">
         <v>-0.0697674143522814</v>
@@ -3362,7 +3362,7 @@
         <v>2.881967359495861</v>
       </c>
       <c r="C114">
-        <v>0.002278235066795148</v>
+        <v>0.002274638799917808</v>
       </c>
       <c r="D114">
         <v>-0.06956526161967846</v>
@@ -3382,7 +3382,7 @@
         <v>2.852591799036629</v>
       </c>
       <c r="C115">
-        <v>0.002255013279870853</v>
+        <v>0.002251453669326463</v>
       </c>
       <c r="D115">
         <v>-0.06998447125522034</v>
@@ -3402,7 +3402,7 @@
         <v>2.839657500052028</v>
       </c>
       <c r="C116">
-        <v>0.002244788537590535</v>
+        <v>0.002241245067128671</v>
       </c>
       <c r="D116">
         <v>-0.07000003881454508</v>
@@ -3422,7 +3422,7 @@
         <v>2.816608645922832</v>
       </c>
       <c r="C117">
-        <v>0.002226568099543743</v>
+        <v>0.002223053390625758</v>
       </c>
       <c r="D117">
         <v>-0.08201897144182857</v>
@@ -3442,7 +3442,7 @@
         <v>2.803537172965926</v>
       </c>
       <c r="C118">
-        <v>0.002216234919340648</v>
+        <v>0.002212736521677916</v>
       </c>
       <c r="D118">
         <v>-0.06992082043113557</v>
@@ -3462,7 +3462,7 @@
         <v>2.799603643075968</v>
       </c>
       <c r="C119">
-        <v>0.002213125409546222</v>
+        <v>0.002209631920344097</v>
       </c>
       <c r="D119">
         <v>-0.06865670695458925</v>
@@ -3482,7 +3482,7 @@
         <v>2.78481185597491</v>
       </c>
       <c r="C120">
-        <v>0.002201432297213366</v>
+        <v>0.002197957265962832</v>
       </c>
       <c r="D120">
         <v>-0.06962963901845465</v>
@@ -3502,7 +3502,7 @@
         <v>2.741427243480079</v>
       </c>
       <c r="C121">
-        <v>0.002167136160853815</v>
+        <v>0.00216371526715081</v>
       </c>
       <c r="D121">
         <v>-0.06969699217213376</v>
@@ -3522,7 +3522,7 @@
         <v>2.72473208514697</v>
       </c>
       <c r="C122">
-        <v>0.002153938407230804</v>
+        <v>0.002150538346603762</v>
       </c>
       <c r="D122">
         <v>-0.06896546456051744</v>
@@ -3542,7 +3542,7 @@
         <v>2.718722377055677</v>
       </c>
       <c r="C123">
-        <v>0.002149187649846384</v>
+        <v>0.002145795088441734</v>
       </c>
       <c r="D123">
         <v>-0.06972473234968801</v>
@@ -3562,7 +3562,7 @@
         <v>2.692170564687485</v>
       </c>
       <c r="C124">
-        <v>0.002128198074851765</v>
+        <v>0.00212483864616218</v>
       </c>
       <c r="D124">
         <v>-0.07000000223089442</v>
@@ -3582,7 +3582,7 @@
         <v>2.667000169614315</v>
       </c>
       <c r="C125">
-        <v>0.002108300529339381</v>
+        <v>0.002104972509561417</v>
       </c>
       <c r="D125">
         <v>-0.1151832837173046</v>
@@ -3602,7 +3602,7 @@
         <v>2.665836940550078</v>
       </c>
       <c r="C126">
-        <v>0.002107380980671998</v>
+        <v>0.002104054412431001</v>
       </c>
       <c r="D126">
         <v>-0.06875001784113677</v>
@@ -3622,7 +3622,7 @@
         <v>2.661791882280355</v>
       </c>
       <c r="C127">
-        <v>0.002104183306150479</v>
+        <v>0.002100861785540928</v>
       </c>
       <c r="D127">
         <v>-0.06986440309375563</v>
@@ -3642,7 +3642,7 @@
         <v>2.641719863097624</v>
       </c>
       <c r="C128">
-        <v>0.002088316097310376</v>
+        <v>0.002085019623597178</v>
       </c>
       <c r="D128">
         <v>-0.06906908533350598</v>
@@ -3662,7 +3662,7 @@
         <v>2.632372954585308</v>
       </c>
       <c r="C129">
-        <v>0.002080927236826333</v>
+        <v>0.002077642426665596</v>
       </c>
       <c r="D129">
         <v>-0.06972473507949539</v>
@@ -3682,7 +3682,7 @@
         <v>2.62258913178207</v>
       </c>
       <c r="C130">
-        <v>0.002073192989551042</v>
+        <v>0.002069920388146857</v>
       </c>
       <c r="D130">
         <v>-0.06994534890679716</v>
@@ -3702,7 +3702,7 @@
         <v>2.62168064759221</v>
       </c>
       <c r="C131">
-        <v>0.002072474820230995</v>
+        <v>0.002069203352480039</v>
       </c>
       <c r="D131">
         <v>-0.06997967590354115</v>
@@ -3722,7 +3722,7 @@
         <v>2.579320634087724</v>
       </c>
       <c r="C132">
-        <v>0.002038988643547608</v>
+        <v>0.002035770034796941</v>
       </c>
       <c r="D132">
         <v>-0.08396954793476008</v>
@@ -3742,7 +3742,7 @@
         <v>2.567364680663033</v>
       </c>
       <c r="C133">
-        <v>0.002029537296966826</v>
+        <v>0.002026333607468851</v>
       </c>
       <c r="D133">
         <v>-0.09749304910107026</v>
@@ -3762,7 +3762,7 @@
         <v>2.565468803238069</v>
       </c>
       <c r="C134">
-        <v>0.002028038579634835</v>
+        <v>0.002024837255910076</v>
       </c>
       <c r="D134">
         <v>-0.06984474097020532</v>
@@ -3782,7 +3782,7 @@
         <v>2.554371161859318</v>
       </c>
       <c r="C135">
-        <v>0.00201926574060025</v>
+        <v>0.002016078265082333</v>
       </c>
       <c r="D135">
         <v>-0.09999997733786892</v>
@@ -3802,7 +3802,7 @@
         <v>2.546032975529465</v>
       </c>
       <c r="C136">
-        <v>0.002012674288956097</v>
+        <v>0.002009497218255298</v>
       </c>
       <c r="D136">
         <v>-0.06999997592232032</v>
@@ -3822,7 +3822,7 @@
         <v>2.543431153808137</v>
       </c>
       <c r="C137">
-        <v>0.002010617512891809</v>
+        <v>0.002007443688877772</v>
       </c>
       <c r="D137">
         <v>-0.069462652746203</v>
@@ -3842,7 +3842,7 @@
         <v>2.533757207781401</v>
       </c>
       <c r="C138">
-        <v>0.00200297012472838</v>
+        <v>0.001999808372361011</v>
       </c>
       <c r="D138">
         <v>-0.09987198462060953</v>
@@ -3862,7 +3862,7 @@
         <v>2.525953350768558</v>
       </c>
       <c r="C139">
-        <v>0.001996801067801233</v>
+        <v>0.001993649053487419</v>
       </c>
       <c r="D139">
         <v>-0.06986907208583493</v>
@@ -3882,7 +3882,7 @@
         <v>2.521911455286874</v>
       </c>
       <c r="C140">
-        <v>0.00199360589350741</v>
+        <v>0.001990458922878354</v>
       </c>
       <c r="D140">
         <v>-0.09655179331050101</v>
@@ -3902,7 +3902,7 @@
         <v>2.513432949380127</v>
       </c>
       <c r="C141">
-        <v>0.001986903517296541</v>
+        <v>0.001983767126582576</v>
       </c>
       <c r="D141">
         <v>-0.06990520990855775</v>
@@ -3922,7 +3922,7 @@
         <v>2.505028543966455</v>
       </c>
       <c r="C142">
-        <v>0.001980259718550556</v>
+        <v>0.001977133815285283</v>
       </c>
       <c r="D142">
         <v>-0.06946685135807706</v>
@@ -3942,7 +3942,7 @@
         <v>2.501703360924076</v>
       </c>
       <c r="C143">
-        <v>0.001977631115355003</v>
+        <v>0.001974509361423898</v>
       </c>
       <c r="D143">
         <v>-0.06994813129869171</v>
@@ -3962,7 +3962,7 @@
         <v>2.491779118399533</v>
       </c>
       <c r="C144">
-        <v>0.001969785864347458</v>
+        <v>0.001966676494395844</v>
       </c>
       <c r="D144">
         <v>-0.0698412724976426</v>
@@ -3982,7 +3982,7 @@
         <v>2.489896612799631</v>
       </c>
       <c r="C145">
-        <v>0.001968297717628163</v>
+        <v>0.001965190696763714</v>
       </c>
       <c r="D145">
         <v>-0.06972115173805338</v>
@@ -4002,7 +4002,7 @@
         <v>2.479274339810012</v>
       </c>
       <c r="C146">
-        <v>0.001959900663881431</v>
+        <v>0.001956806898034736</v>
       </c>
       <c r="D146">
         <v>-0.06992079729673628</v>
@@ -4022,7 +4022,7 @@
         <v>2.478477419200941</v>
       </c>
       <c r="C147">
-        <v>0.001959270687115368</v>
+        <v>0.001956177915707136</v>
       </c>
       <c r="D147">
         <v>-0.06557378213221121</v>
@@ -4042,7 +4042,7 @@
         <v>2.476170546567818</v>
       </c>
       <c r="C148">
-        <v>0.001957447072385624</v>
+        <v>0.001954357179611535</v>
       </c>
       <c r="D148">
         <v>-0.06999999284744263</v>
@@ -4062,7 +4062,7 @@
         <v>2.467754827710609</v>
       </c>
       <c r="C149">
-        <v>0.001950794330206016</v>
+        <v>0.001947714938998114</v>
       </c>
       <c r="D149">
         <v>-0.06963250274027122</v>
@@ -4082,7 +4082,7 @@
         <v>2.444372318490909</v>
       </c>
       <c r="C150">
-        <v>0.001932310133194394</v>
+        <v>0.001929259919882327</v>
       </c>
       <c r="D150">
         <v>-0.06927714050223288</v>
@@ -4102,7 +4102,7 @@
         <v>2.442184454598007</v>
       </c>
       <c r="C151">
-        <v>0.001930580596520161</v>
+        <v>0.001927533113337019</v>
       </c>
       <c r="D151">
         <v>-0.06990293725202734</v>
@@ -4122,7 +4122,7 @@
         <v>2.435730359943895</v>
       </c>
       <c r="C152">
-        <v>0.001925478545410195</v>
+        <v>0.001922439115977819</v>
       </c>
       <c r="D152">
         <v>-0.07000008020039405</v>
@@ -4142,7 +4142,7 @@
         <v>2.417733344303555</v>
       </c>
       <c r="C153">
-        <v>0.001911251655575935</v>
+        <v>0.001908234683743929</v>
       </c>
       <c r="D153">
         <v>-0.06987575137530111</v>
@@ -4162,7 +4162,7 @@
         <v>2.411885786622388</v>
       </c>
       <c r="C154">
-        <v>0.001906629080333905</v>
+        <v>0.00190361940538468</v>
       </c>
       <c r="D154">
         <v>-0.06870229825350138</v>
@@ -4179,16 +4179,16 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2.409970904518604</v>
+        <v>2.409970891809614</v>
       </c>
       <c r="C155">
-        <v>0.001905115339540401</v>
+        <v>0.001902108044048631</v>
       </c>
       <c r="D155">
-        <v>-0.08465116636107473</v>
+        <v>-0.08465110276415677</v>
       </c>
       <c r="E155">
-        <v>0.15049746137451</v>
+        <v>0.1504974794474754</v>
       </c>
       <c r="F155" t="s">
         <v>230</v>
@@ -4202,7 +4202,7 @@
         <v>2.408158704547233</v>
       </c>
       <c r="C156">
-        <v>0.00190368277039307</v>
+        <v>0.001900677746288267</v>
       </c>
       <c r="D156">
         <v>-0.06997743007304569</v>
@@ -4222,7 +4222,7 @@
         <v>2.383857611876045</v>
       </c>
       <c r="C157">
-        <v>0.00188447242045537</v>
+        <v>0.001881497720502007</v>
       </c>
       <c r="D157">
         <v>-0.06944444136063499</v>
@@ -4242,7 +4242,7 @@
         <v>2.382304678707296</v>
       </c>
       <c r="C158">
-        <v>0.00188324480530221</v>
+        <v>0.001880272043178608</v>
       </c>
       <c r="D158">
         <v>-0.06990017574271634</v>
@@ -4262,7 +4262,7 @@
         <v>2.381459048173585</v>
       </c>
       <c r="C159">
-        <v>0.001882576322666865</v>
+        <v>0.00187960461576447</v>
       </c>
       <c r="D159">
         <v>-0.06988350176847491</v>
@@ -4282,7 +4282,7 @@
         <v>2.368547239682655</v>
       </c>
       <c r="C160">
-        <v>0.001872369359432929</v>
+        <v>0.001869413764548267</v>
       </c>
       <c r="D160">
         <v>-0.06984127978392152</v>
@@ -4302,7 +4302,7 @@
         <v>2.366377322781318</v>
       </c>
       <c r="C161">
-        <v>0.00187065401010381</v>
+        <v>0.001867701122952896</v>
       </c>
       <c r="D161">
         <v>-0.0690608151727804</v>
@@ -4322,7 +4322,7 @@
         <v>2.365398494718307</v>
       </c>
       <c r="C162">
-        <v>0.001869880232978896</v>
+        <v>0.001866928567259908</v>
       </c>
       <c r="D162">
         <v>-0.06903348229865602</v>
@@ -4342,7 +4342,7 @@
         <v>2.294577614097162</v>
       </c>
       <c r="C163">
-        <v>0.001813895347112379</v>
+        <v>0.001811032055325303</v>
       </c>
       <c r="D163">
         <v>-0.06906902405434578</v>
@@ -4362,7 +4362,7 @@
         <v>2.222177150692973</v>
       </c>
       <c r="C164">
-        <v>0.001756661779203935</v>
+        <v>0.001753888832433289</v>
       </c>
       <c r="D164">
         <v>-0.09677420366253031</v>
@@ -4382,7 +4382,7 @@
         <v>2.212905483752379</v>
       </c>
       <c r="C165">
-        <v>0.001749332398223225</v>
+        <v>0.001746571021114743</v>
       </c>
       <c r="D165">
         <v>-0.06979280195244686</v>
@@ -4402,7 +4402,7 @@
         <v>2.131062822631005</v>
       </c>
       <c r="C166">
-        <v>0.001684634642396051</v>
+        <v>0.001681975392763223</v>
       </c>
       <c r="D166">
         <v>-0.1111111042149548</v>
@@ -4422,7 +4422,7 @@
         <v>2.111999006148011</v>
       </c>
       <c r="C167">
-        <v>0.001669564431737559</v>
+        <v>0.00166692897091398</v>
       </c>
       <c r="D167">
         <v>-0.06936408737921229</v>
@@ -4442,7 +4442,7 @@
         <v>2.104831454628723</v>
       </c>
       <c r="C168">
-        <v>0.00166389838310571</v>
+        <v>0.001661271866321013</v>
       </c>
       <c r="D168">
         <v>-0.06991872282140932</v>
@@ -4462,7 +4462,7 @@
         <v>2.098144511307812</v>
       </c>
       <c r="C169">
-        <v>0.001658612261903407</v>
+        <v>0.001655994089429999</v>
       </c>
       <c r="D169">
         <v>-0.06909089280352687</v>
@@ -4482,7 +4482,7 @@
         <v>2.095948151640311</v>
       </c>
       <c r="C170">
-        <v>0.001656876009201826</v>
+        <v>0.001654260577458808</v>
       </c>
       <c r="D170">
         <v>-0.07719292174407599</v>
@@ -4502,7 +4502,7 @@
         <v>1.985628054934576</v>
       </c>
       <c r="C171">
-        <v>0.001569666446588597</v>
+        <v>0.001567188677927842</v>
       </c>
       <c r="D171">
         <v>-0.06984663259319479</v>
@@ -4522,7 +4522,7 @@
         <v>1.969150202460746</v>
       </c>
       <c r="C172">
-        <v>0.001556640476253552</v>
+        <v>0.00155418326950335</v>
       </c>
       <c r="D172">
         <v>-0.06896555323692</v>
@@ -4542,7 +4542,7 @@
         <v>1.967218328812642</v>
       </c>
       <c r="C173">
-        <v>0.001555113303409203</v>
+        <v>0.001552658507350152</v>
       </c>
       <c r="D173">
         <v>-0.06976743899502935</v>
@@ -4562,7 +4562,7 @@
         <v>1.956913649455014</v>
       </c>
       <c r="C174">
-        <v>0.001546967311822146</v>
+        <v>0.001544525374471203</v>
       </c>
       <c r="D174">
         <v>-0.2127659574468085</v>
@@ -4582,7 +4582,7 @@
         <v>1.952180027909109</v>
       </c>
       <c r="C175">
-        <v>0.001543225318505225</v>
+        <v>0.001540789288010347</v>
       </c>
       <c r="D175">
         <v>-0.09547738013434359</v>
@@ -4602,7 +4602,7 @@
         <v>1.875191856183886</v>
       </c>
       <c r="C176">
-        <v>0.001482365103702677</v>
+        <v>0.001480025143002278</v>
       </c>
       <c r="D176">
         <v>-0.07482990068676376</v>
@@ -4622,7 +4622,7 @@
         <v>1.844721993472982</v>
       </c>
       <c r="C177">
-        <v>0.001458278255709867</v>
+        <v>0.001455976316868968</v>
       </c>
       <c r="D177">
         <v>-0.06947889057242518</v>
@@ -4642,7 +4642,7 @@
         <v>1.832763146249315</v>
       </c>
       <c r="C178">
-        <v>0.00144882462154096</v>
+        <v>0.001446537605563784</v>
       </c>
       <c r="D178">
         <v>-0.06997739339750808</v>
@@ -4662,7 +4662,7 @@
         <v>1.832635963944594</v>
       </c>
       <c r="C179">
-        <v>0.00144872408216964</v>
+        <v>0.001446437224897075</v>
       </c>
       <c r="D179">
         <v>-0.0695187053760733</v>
@@ -4682,7 +4682,7 @@
         <v>1.823401533418815</v>
       </c>
       <c r="C180">
-        <v>0.001441424137089971</v>
+        <v>0.001439148803014059</v>
       </c>
       <c r="D180">
         <v>-0.06962027661690495</v>
@@ -4702,7 +4702,7 @@
         <v>1.790784255307355</v>
       </c>
       <c r="C181">
-        <v>0.001415639727515698</v>
+        <v>0.001413405094954505</v>
       </c>
       <c r="D181">
         <v>-0.06600663872224521</v>
@@ -4722,7 +4722,7 @@
         <v>1.764850491095587</v>
       </c>
       <c r="C182">
-        <v>0.001395138728138806</v>
+        <v>0.001392936457060449</v>
       </c>
       <c r="D182">
         <v>-0.06964281581374276</v>
@@ -4742,7 +4742,7 @@
         <v>1.748298912905265</v>
       </c>
       <c r="C183">
-        <v>0.001382054476604952</v>
+        <v>0.001379872859435883</v>
       </c>
       <c r="D183">
         <v>-0.06904232708871627</v>
@@ -4762,7 +4762,7 @@
         <v>1.716952597866596</v>
       </c>
       <c r="C184">
-        <v>0.00135727478092221</v>
+        <v>0.001355132279294867</v>
       </c>
       <c r="D184">
         <v>-0.1290322479309236</v>
@@ -4782,7 +4782,7 @@
         <v>1.689283559559422</v>
       </c>
       <c r="C185">
-        <v>0.001335402023367132</v>
+        <v>0.001333294048586758</v>
       </c>
       <c r="D185">
         <v>-0.07586206896551728</v>
@@ -4802,7 +4802,7 @@
         <v>1.651199378835179</v>
       </c>
       <c r="C186">
-        <v>0.001305295951648363</v>
+        <v>0.001303235500264546</v>
       </c>
       <c r="D186">
         <v>-0.1000000159853983</v>
@@ -4822,7 +4822,7 @@
         <v>1.631011547668572</v>
       </c>
       <c r="C187">
-        <v>0.001289337191832862</v>
+        <v>0.00128730193186154</v>
       </c>
       <c r="D187">
         <v>-0.06981524422491381</v>
@@ -4842,7 +4842,7 @@
         <v>1.624543911722209</v>
       </c>
       <c r="C188">
-        <v>0.001284224436144039</v>
+        <v>0.001282197246821002</v>
       </c>
       <c r="D188">
         <v>-0.1359223209634383</v>
@@ -4862,7 +4862,7 @@
         <v>1.581055971430679</v>
       </c>
       <c r="C189">
-        <v>0.001249846617731763</v>
+        <v>0.001247873694893986</v>
       </c>
       <c r="D189">
         <v>-0.06988695709559989</v>
@@ -4882,7 +4882,7 @@
         <v>1.572017530075613</v>
       </c>
       <c r="C190">
-        <v>0.001242701604802856</v>
+        <v>0.00124073996059638</v>
       </c>
       <c r="D190">
         <v>-0.06920418159995967</v>
@@ -4902,7 +4902,7 @@
         <v>1.570127807578676</v>
       </c>
       <c r="C191">
-        <v>0.001241207753026622</v>
+        <v>0.001239248466912926</v>
       </c>
       <c r="D191">
         <v>-0.1153846689979657</v>
@@ -4922,7 +4922,7 @@
         <v>1.550804950922618</v>
       </c>
       <c r="C192">
-        <v>0.00122593276752776</v>
+        <v>0.001223997593466943</v>
       </c>
       <c r="D192">
         <v>-0.06903359353592942</v>
@@ -4942,7 +4942,7 @@
         <v>1.432830969119015</v>
       </c>
       <c r="C193">
-        <v>0.001132672702860882</v>
+        <v>0.001130884742793225</v>
       </c>
       <c r="D193">
         <v>-0.07000002832724772</v>
@@ -4962,7 +4962,7 @@
         <v>1.398754864381863</v>
       </c>
       <c r="C194">
-        <v>0.001105735070657599</v>
+        <v>0.001103989632503443</v>
       </c>
       <c r="D194">
         <v>-0.06910562732073722</v>
@@ -4982,7 +4982,7 @@
         <v>1.37191087572145</v>
       </c>
       <c r="C195">
-        <v>0.001084514526262016</v>
+        <v>0.001082802585415509</v>
       </c>
       <c r="D195">
         <v>-0.07505523455869945</v>
@@ -5002,7 +5002,7 @@
         <v>1.367625453800512</v>
       </c>
       <c r="C196">
-        <v>0.00108112684094902</v>
+        <v>0.001079420247672068</v>
       </c>
       <c r="D196">
         <v>-0.08776598364985366</v>
@@ -5022,7 +5022,7 @@
         <v>1.334120137288996</v>
       </c>
       <c r="C197">
-        <v>0.001054640424734384</v>
+        <v>0.001052975641112072</v>
       </c>
       <c r="D197">
         <v>-0.1026615720542988</v>
@@ -5042,7 +5042,7 @@
         <v>1.294519661652472</v>
       </c>
       <c r="C198">
-        <v>0.001023335700911045</v>
+        <v>0.001021720332795952</v>
       </c>
       <c r="D198">
         <v>-0.0694126800439423</v>
@@ -5062,7 +5062,7 @@
         <v>1.262368758273469</v>
       </c>
       <c r="C199">
-        <v>0.0009979199670146009</v>
+        <v>0.0009963447184478849</v>
       </c>
       <c r="D199">
         <v>-0.06771649541528946</v>
@@ -5082,7 +5082,7 @@
         <v>1.221748464310593</v>
       </c>
       <c r="C200">
-        <v>0.0009658090626961213</v>
+        <v>0.0009642845022183057</v>
       </c>
       <c r="D200">
         <v>-0.06849312549060282</v>
@@ -5102,7 +5102,7 @@
         <v>1.1474968951577</v>
       </c>
       <c r="C201">
-        <v>0.0009071121700851382</v>
+        <v>0.0009056802645285713</v>
       </c>
       <c r="D201">
         <v>-0.06994330999834741</v>
@@ -5122,7 +5122,7 @@
         <v>1.132965082056107</v>
       </c>
       <c r="C202">
-        <v>0.0008956245707953414</v>
+        <v>0.0008942107987814576</v>
       </c>
       <c r="D202">
         <v>-0.06999998712539734</v>
@@ -5142,7 +5142,7 @@
         <v>1.050556122575372</v>
       </c>
       <c r="C203">
-        <v>0.0008304791482809265</v>
+        <v>0.0008291682103988728</v>
       </c>
       <c r="D203">
         <v>-0.06919944750899132</v>
@@ -5162,7 +5162,7 @@
         <v>0.8656416790658884</v>
       </c>
       <c r="C204">
-        <v>0.0006843017225817299</v>
+        <v>0.0006832215304387438</v>
       </c>
       <c r="D204">
         <v>-0.0972221983067777</v>
@@ -5182,7 +5182,7 @@
         <v>0.8613896054728223</v>
       </c>
       <c r="C205">
-        <v>0.0006809403995832587</v>
+        <v>0.0006798655133960713</v>
       </c>
       <c r="D205">
         <v>-0.06962025639760372</v>
@@ -5202,7 +5202,7 @@
         <v>0.8407246857701912</v>
       </c>
       <c r="C206">
-        <v>0.0006646044946799931</v>
+        <v>0.0006635553952408771</v>
       </c>
       <c r="D206">
         <v>-0.06948425182676632</v>
@@ -5222,7 +5222,7 @@
         <v>0.7053159780841297</v>
       </c>
       <c r="C207">
-        <v>0.0005575620380111698</v>
+        <v>0.0005566819085115468</v>
       </c>
       <c r="D207">
         <v>-0.06984870440182311</v>
@@ -5242,7 +5242,7 @@
         <v>0.703625619650065</v>
       </c>
       <c r="C208">
-        <v>0.0005562257862846364</v>
+        <v>0.0005553477661010773</v>
       </c>
       <c r="D208">
         <v>-0.06957191048317279</v>
@@ -5262,7 +5262,7 @@
         <v>0.656492571549953</v>
       </c>
       <c r="C209">
-        <v>0.000518966459723283</v>
+        <v>0.0005181472545777056</v>
       </c>
       <c r="D209">
         <v>-0.06969986365866065</v>
@@ -5282,7 +5282,7 @@
         <v>0.5207094770997991</v>
       </c>
       <c r="C210">
-        <v>0.0004116280451381811</v>
+        <v>0.0004109782771111279</v>
       </c>
       <c r="D210">
         <v>-0.05138337060327858</v>
@@ -5302,7 +5302,7 @@
         <v>0.1704313290524826</v>
       </c>
       <c r="C211">
-        <v>0.0001347283233616463</v>
+        <v>0.0001345156503965924</v>
       </c>
       <c r="D211">
         <v>-0.04887222277315439</v>
@@ -5322,7 +5322,7 @@
         <v>0.1151020417389471</v>
       </c>
       <c r="C212">
-        <v>9.098975631537321E-05</v>
+        <v>9.084612607651706E-05</v>
       </c>
       <c r="D212">
         <v>-0.1435185289428612</v>

--- a/.xlsx/performance_stock_statistic.xlsx
+++ b/.xlsx/performance_stock_statistic.xlsx
@@ -40,15 +40,15 @@
     <t>SBS</t>
   </si>
   <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>NHA</t>
+  </si>
+  <si>
     <t>CTS</t>
   </si>
   <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>NHA</t>
-  </si>
-  <si>
     <t>VOS</t>
   </si>
   <si>
@@ -64,210 +64,213 @@
     <t>SHS</t>
   </si>
   <si>
+    <t>HQC</t>
+  </si>
+  <si>
     <t>PSI</t>
   </si>
   <si>
-    <t>HQC</t>
-  </si>
-  <si>
     <t>FTS</t>
   </si>
   <si>
     <t>PVC</t>
   </si>
   <si>
+    <t>SCI</t>
+  </si>
+  <si>
     <t>HUT</t>
   </si>
   <si>
+    <t>VCI</t>
+  </si>
+  <si>
+    <t>VDS</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>NKG</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>MBS</t>
+  </si>
+  <si>
     <t>IDI</t>
   </si>
   <si>
-    <t>VDS</t>
-  </si>
-  <si>
-    <t>VCI</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>NKG</t>
-  </si>
-  <si>
-    <t>MBS</t>
-  </si>
-  <si>
     <t>PET</t>
   </si>
   <si>
-    <t>BSI</t>
+    <t>SGP</t>
   </si>
   <si>
     <t>VND</t>
   </si>
   <si>
-    <t>SGP</t>
-  </si>
-  <si>
     <t>C4G</t>
   </si>
   <si>
+    <t>IPA</t>
+  </si>
+  <si>
     <t>BVS</t>
   </si>
   <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>VPH</t>
+  </si>
+  <si>
     <t>DRI</t>
   </si>
   <si>
+    <t>DDV</t>
+  </si>
+  <si>
+    <t>ORS</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
     <t>DGW</t>
   </si>
   <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>VPH</t>
-  </si>
-  <si>
-    <t>ORS</t>
-  </si>
-  <si>
-    <t>G36</t>
-  </si>
-  <si>
-    <t>ASM</t>
-  </si>
-  <si>
-    <t>DDV</t>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>DPG</t>
+  </si>
+  <si>
+    <t>HSG</t>
+  </si>
+  <si>
+    <t>DXG</t>
+  </si>
+  <si>
+    <t>PVD</t>
+  </si>
+  <si>
+    <t>BFC</t>
   </si>
   <si>
     <t>OGC</t>
   </si>
   <si>
-    <t>DBC</t>
-  </si>
-  <si>
-    <t>JVC</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>DXG</t>
-  </si>
-  <si>
-    <t>SCR</t>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>HTN</t>
   </si>
   <si>
     <t>DGC</t>
   </si>
   <si>
-    <t>HSG</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>BFC</t>
-  </si>
-  <si>
-    <t>DPG</t>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>LGL</t>
   </si>
   <si>
     <t>IJC</t>
   </si>
   <si>
-    <t>DCM</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>HTN</t>
-  </si>
-  <si>
-    <t>HHS</t>
-  </si>
-  <si>
-    <t>TIG</t>
-  </si>
-  <si>
     <t>SSI</t>
   </si>
   <si>
+    <t>IDJ</t>
+  </si>
+  <si>
     <t>HCM</t>
   </si>
   <si>
     <t>HAH</t>
   </si>
   <si>
-    <t>LGL</t>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>PVB</t>
   </si>
   <si>
     <t>IVS</t>
   </si>
   <si>
-    <t>IDJ</t>
-  </si>
-  <si>
-    <t>PVB</t>
-  </si>
-  <si>
-    <t>BCG</t>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>HAG</t>
   </si>
   <si>
     <t>GEX</t>
   </si>
   <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>LCG</t>
+  </si>
+  <si>
     <t>FRT</t>
   </si>
   <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>LCG</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>HAG</t>
-  </si>
-  <si>
-    <t>S99</t>
-  </si>
-  <si>
     <t>BSR</t>
   </si>
   <si>
+    <t>GVR</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>LDG</t>
+  </si>
+  <si>
     <t>CSV</t>
   </si>
   <si>
-    <t>LDG</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>GVR</t>
+    <t>ANV</t>
   </si>
   <si>
     <t>PVS</t>
   </si>
   <si>
-    <t>ANV</t>
-  </si>
-  <si>
     <t>FCN</t>
   </si>
   <si>
+    <t>GIL</t>
+  </si>
+  <si>
     <t>SZC</t>
   </si>
   <si>
@@ -277,148 +280,190 @@
     <t>DPM</t>
   </si>
   <si>
+    <t>VGC</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>EVF</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>LPB</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>APG</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>HAX</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>CKG</t>
+  </si>
+  <si>
+    <t>HDG</t>
+  </si>
+  <si>
+    <t>CII</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
     <t>VPG</t>
   </si>
   <si>
-    <t>EVF</t>
-  </si>
-  <si>
-    <t>VGC</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>TTN</t>
-  </si>
-  <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>TV2</t>
-  </si>
-  <si>
-    <t>VGT</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>LPB</t>
-  </si>
-  <si>
-    <t>HAX</t>
-  </si>
-  <si>
-    <t>CKG</t>
-  </si>
-  <si>
-    <t>KBC</t>
-  </si>
-  <si>
-    <t>CII</t>
-  </si>
-  <si>
     <t>IDC</t>
   </si>
   <si>
-    <t>HDG</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>APG</t>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>CMX</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>VIB</t>
+  </si>
+  <si>
+    <t>HVH</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>MWG</t>
   </si>
   <si>
     <t>PDR</t>
   </si>
   <si>
-    <t>VIB</t>
-  </si>
-  <si>
-    <t>TCM</t>
-  </si>
-  <si>
-    <t>CMX</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>HVH</t>
-  </si>
-  <si>
-    <t>MWG</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
     <t>HHV</t>
   </si>
   <si>
-    <t>FMC</t>
-  </si>
-  <si>
     <t>ASP</t>
   </si>
   <si>
-    <t>STB</t>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>TCB</t>
+  </si>
+  <si>
+    <t>PTB</t>
+  </si>
+  <si>
+    <t>LHG</t>
+  </si>
+  <si>
+    <t>PAN</t>
   </si>
   <si>
     <t>VHC</t>
   </si>
   <si>
-    <t>HPG</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>TCB</t>
-  </si>
-  <si>
-    <t>PTB</t>
-  </si>
-  <si>
-    <t>LHG</t>
+    <t>VGI</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>NTL</t>
   </si>
   <si>
     <t>BCM</t>
   </si>
   <si>
-    <t>HDB</t>
-  </si>
-  <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>VGI</t>
-  </si>
-  <si>
     <t>MBB</t>
   </si>
   <si>
+    <t>VTO</t>
+  </si>
+  <si>
     <t>MSH</t>
   </si>
   <si>
+    <t>HVN</t>
+  </si>
+  <si>
+    <t>NLG</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
     <t>DPR</t>
   </si>
   <si>
-    <t>HVN</t>
-  </si>
-  <si>
-    <t>VTO</t>
+    <t>SHB</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>NBB</t>
+  </si>
+  <si>
+    <t>SKG</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>FPT</t>
   </si>
   <si>
     <t>TNI</t>
@@ -427,210 +472,165 @@
     <t>VCG</t>
   </si>
   <si>
-    <t>NTP</t>
-  </si>
-  <si>
-    <t>NBB</t>
-  </si>
-  <si>
-    <t>SHB</t>
-  </si>
-  <si>
-    <t>SKG</t>
-  </si>
-  <si>
-    <t>NLG</t>
-  </si>
-  <si>
-    <t>VCS</t>
-  </si>
-  <si>
-    <t>BMI</t>
+    <t>SAM</t>
   </si>
   <si>
     <t>NVB</t>
   </si>
   <si>
-    <t>TCL</t>
-  </si>
-  <si>
-    <t>GMD</t>
-  </si>
-  <si>
-    <t>CTG</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t>DRC</t>
-  </si>
-  <si>
     <t>THG</t>
   </si>
   <si>
+    <t>VSC</t>
+  </si>
+  <si>
+    <t>PHR</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>HNG</t>
+  </si>
+  <si>
+    <t>D2D</t>
+  </si>
+  <si>
     <t>DAH</t>
   </si>
   <si>
-    <t>SBT</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>D2D</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>VPB</t>
+  </si>
+  <si>
+    <t>DQC</t>
   </si>
   <si>
     <t>FOX</t>
   </si>
   <si>
-    <t>VPB</t>
-  </si>
-  <si>
-    <t>DQC</t>
-  </si>
-  <si>
-    <t>HNG</t>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>EIB</t>
+  </si>
+  <si>
+    <t>NDN</t>
   </si>
   <si>
     <t>KDH</t>
   </si>
   <si>
-    <t>HT1</t>
-  </si>
-  <si>
-    <t>EIB</t>
-  </si>
-  <si>
-    <t>PHR</t>
-  </si>
-  <si>
     <t>CMG</t>
   </si>
   <si>
-    <t>NDN</t>
+    <t>DVN</t>
   </si>
   <si>
     <t>MSN</t>
   </si>
   <si>
-    <t>DVN</t>
+    <t>ACB</t>
   </si>
   <si>
     <t>REE</t>
   </si>
   <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>VTP</t>
+  </si>
+  <si>
+    <t>DXS</t>
+  </si>
+  <si>
     <t>BMP</t>
   </si>
   <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>MPC</t>
+    <t>BVH</t>
   </si>
   <si>
     <t>YEG</t>
   </si>
   <si>
-    <t>BVH</t>
-  </si>
-  <si>
-    <t>DXS</t>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>BWE</t>
+  </si>
+  <si>
+    <t>GEG</t>
+  </si>
+  <si>
+    <t>ACV</t>
+  </si>
+  <si>
+    <t>GDT</t>
+  </si>
+  <si>
+    <t>KHG</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>DVP</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>ABB</t>
   </si>
   <si>
     <t>BOT</t>
   </si>
   <si>
-    <t>VTP</t>
-  </si>
-  <si>
-    <t>KHG</t>
-  </si>
-  <si>
-    <t>POW</t>
+    <t>VTD</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>PLX</t>
   </si>
   <si>
     <t>NVL</t>
   </si>
   <si>
-    <t>GEG</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>GDT</t>
-  </si>
-  <si>
-    <t>BWE</t>
-  </si>
-  <si>
-    <t>DVP</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ACV</t>
-  </si>
-  <si>
-    <t>DL1</t>
-  </si>
-  <si>
     <t>VCB</t>
   </si>
   <si>
-    <t>VTD</t>
-  </si>
-  <si>
-    <t>BID</t>
-  </si>
-  <si>
     <t>MSB</t>
   </si>
   <si>
     <t>QTP</t>
   </si>
   <si>
-    <t>PLX</t>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>FOC</t>
+  </si>
+  <si>
+    <t>NT2</t>
   </si>
   <si>
     <t>ICT</t>
   </si>
   <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>VEA</t>
-  </si>
-  <si>
-    <t>QNS</t>
-  </si>
-  <si>
-    <t>FOC</t>
+    <t>OCB</t>
   </si>
   <si>
     <t>SCS</t>
   </si>
   <si>
-    <t>OCB</t>
-  </si>
-  <si>
-    <t>NT2</t>
-  </si>
-  <si>
     <t>PPC</t>
   </si>
   <si>
@@ -640,24 +640,24 @@
     <t>BAF</t>
   </si>
   <si>
+    <t>SAB</t>
+  </si>
+  <si>
     <t>ABW</t>
   </si>
   <si>
-    <t>SAB</t>
-  </si>
-  <si>
     <t>DHG</t>
   </si>
   <si>
     <t>APH</t>
   </si>
   <si>
+    <t>VNM</t>
+  </si>
+  <si>
     <t>VJC</t>
   </si>
   <si>
-    <t>VNM</t>
-  </si>
-  <si>
     <t>GDA</t>
   </si>
   <si>
@@ -694,16 +694,16 @@
     <t>cong_nghiep</t>
   </si>
   <si>
+    <t>tai_chinh</t>
+  </si>
+  <si>
     <t>hoa_chat</t>
   </si>
   <si>
+    <t>y_te</t>
+  </si>
+  <si>
     <t>thuc_pham</t>
-  </si>
-  <si>
-    <t>y_te</t>
-  </si>
-  <si>
-    <t>tai_chinh</t>
   </si>
   <si>
     <t>cong_nghe</t>
@@ -1119,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.415610436536586</v>
+        <v>7.43484429869511</v>
       </c>
       <c r="C2">
-        <v>0.005852889058039928</v>
+        <v>0.005863441875942517</v>
       </c>
       <c r="D2">
         <v>-0.1428570942002891</v>
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6.137223241829957</v>
+        <v>6.265389583056377</v>
       </c>
       <c r="C3">
-        <v>0.004843901532620329</v>
+        <v>0.0049411589771738</v>
       </c>
       <c r="D3">
         <v>-0.1428571536697765</v>
@@ -1159,19 +1159,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.889006523340024</v>
+        <v>6.069218264213518</v>
       </c>
       <c r="C4">
-        <v>0.00464799252039465</v>
+        <v>0.004786449735184157</v>
       </c>
       <c r="D4">
-        <v>-0.06984121906088969</v>
+        <v>-0.1000000133849027</v>
       </c>
       <c r="E4">
-        <v>0.07000001271565748</v>
+        <v>0.1000000356930739</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1179,16 +1179,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5.872028819356641</v>
+        <v>5.957057040513123</v>
       </c>
       <c r="C5">
-        <v>0.004634592596177297</v>
+        <v>0.004697994511445678</v>
       </c>
       <c r="D5">
-        <v>-0.1000000133849027</v>
+        <v>-0.09090913746128004</v>
       </c>
       <c r="E5">
-        <v>0.1000000356930739</v>
+        <v>0.09999998081128969</v>
       </c>
       <c r="F5" t="s">
         <v>218</v>
@@ -1199,19 +1199,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.782565372806189</v>
+        <v>5.831617880447604</v>
       </c>
       <c r="C6">
-        <v>0.004563982141125638</v>
+        <v>0.004599067729059623</v>
       </c>
       <c r="D6">
-        <v>-0.09090913746128004</v>
+        <v>-0.06984121906088969</v>
       </c>
       <c r="E6">
-        <v>0.09999998081128969</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1219,16 +1219,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5.666728096697503</v>
+        <v>5.676960000119491</v>
       </c>
       <c r="C7">
-        <v>0.004472555719571824</v>
+        <v>0.004477097791892342</v>
       </c>
       <c r="D7">
         <v>-0.06998654009966343</v>
       </c>
       <c r="E7">
-        <v>0.06998449426375264</v>
+        <v>0.06999996730259483</v>
       </c>
       <c r="F7" t="s">
         <v>219</v>
@@ -1239,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5.590189579298201</v>
+        <v>5.663486331979134</v>
       </c>
       <c r="C8">
-        <v>0.004412146471427142</v>
+        <v>0.004466471870645997</v>
       </c>
       <c r="D8">
         <v>-0.07722004832454432</v>
@@ -1259,10 +1259,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>5.526172921559544</v>
+        <v>5.61163652443797</v>
       </c>
       <c r="C9">
-        <v>0.004361620301151969</v>
+        <v>0.004425580855234993</v>
       </c>
       <c r="D9">
         <v>-0.09836071819597147</v>
@@ -1279,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>5.462787088932446</v>
+        <v>5.466940739195284</v>
       </c>
       <c r="C10">
-        <v>0.004311592019678331</v>
+        <v>0.004311467459933189</v>
       </c>
       <c r="D10">
         <v>-0.06990884476887027</v>
@@ -1299,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>5.395410098243138</v>
+        <v>5.436417561317402</v>
       </c>
       <c r="C11">
-        <v>0.004258413652914868</v>
+        <v>0.004287395553089434</v>
       </c>
       <c r="D11">
         <v>-0.09747290722395174</v>
@@ -1319,19 +1319,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>5.27459006572319</v>
+        <v>5.31664948868529</v>
       </c>
       <c r="C12">
-        <v>0.004163054511225893</v>
+        <v>0.004192941237133505</v>
       </c>
       <c r="D12">
-        <v>-0.1000000238418579</v>
+        <v>-0.0699588772113936</v>
       </c>
       <c r="E12">
-        <v>0.1000000238418579</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1339,19 +1339,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>5.263810209054501</v>
+        <v>5.241562993217894</v>
       </c>
       <c r="C13">
-        <v>0.004154546337059586</v>
+        <v>0.004133724758058288</v>
       </c>
       <c r="D13">
-        <v>-0.0699588772113936</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E13">
-        <v>0.06999998092651372</v>
+        <v>0.1000000238418579</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1359,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5.125887243085601</v>
+        <v>5.107179998510881</v>
       </c>
       <c r="C14">
-        <v>0.004045688431796053</v>
+        <v>0.004027744478320883</v>
       </c>
       <c r="D14">
         <v>-0.06996588428668826</v>
@@ -1379,10 +1379,10 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5.036793938452599</v>
+        <v>5.086506782454565</v>
       </c>
       <c r="C15">
-        <v>0.003975370117168588</v>
+        <v>0.004011440680169218</v>
       </c>
       <c r="D15">
         <v>-0.09947640057477158</v>
@@ -1399,16 +1399,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>5.022984070408222</v>
+        <v>5.080324613695847</v>
       </c>
       <c r="C16">
-        <v>0.003964470458096459</v>
+        <v>0.004006565152756976</v>
       </c>
       <c r="D16">
-        <v>-0.09839352984437644</v>
+        <v>-0.100000045741464</v>
       </c>
       <c r="E16">
-        <v>0.1000000238418579</v>
+        <v>0.1000000934302641</v>
       </c>
       <c r="F16" t="s">
         <v>222</v>
@@ -1419,19 +1419,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>5.00602772817991</v>
+        <v>5.064790619812213</v>
       </c>
       <c r="C17">
-        <v>0.003951087393985722</v>
+        <v>0.003994314368937072</v>
       </c>
       <c r="D17">
-        <v>-0.06976745184959177</v>
+        <v>-0.09839352984437644</v>
       </c>
       <c r="E17">
-        <v>0.06989253433580078</v>
+        <v>0.1000000238418579</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1439,16 +1439,16 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>4.998825307124659</v>
+        <v>5.054828187345666</v>
       </c>
       <c r="C18">
-        <v>0.003945402768054196</v>
+        <v>0.003986457560998159</v>
       </c>
       <c r="D18">
-        <v>-0.06923077372505004</v>
+        <v>-0.06999998347270431</v>
       </c>
       <c r="E18">
-        <v>0.07000004083252076</v>
+        <v>0.06998659929211004</v>
       </c>
       <c r="F18" t="s">
         <v>217</v>
@@ -1459,16 +1459,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>4.975199976119383</v>
+        <v>5.007374592439967</v>
       </c>
       <c r="C19">
-        <v>0.003926756097963205</v>
+        <v>0.003949033590252345</v>
       </c>
       <c r="D19">
-        <v>-0.06999998347270431</v>
+        <v>-0.06923077372505004</v>
       </c>
       <c r="E19">
-        <v>0.06998659929211004</v>
+        <v>0.07000004083252076</v>
       </c>
       <c r="F19" t="s">
         <v>217</v>
@@ -1479,10 +1479,10 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>4.939034427777061</v>
+        <v>4.965164848603589</v>
       </c>
       <c r="C20">
-        <v>0.00389821186091323</v>
+        <v>0.003915745148741002</v>
       </c>
       <c r="D20">
         <v>-0.06999997141156844</v>
@@ -1499,19 +1499,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>4.920171725021122</v>
+        <v>4.920545231398448</v>
       </c>
       <c r="C21">
-        <v>0.00388332417128739</v>
+        <v>0.003880556176181744</v>
       </c>
       <c r="D21">
-        <v>-0.100000045741464</v>
+        <v>-0.07000000122420647</v>
       </c>
       <c r="E21">
-        <v>0.1000000934302641</v>
+        <v>0.0700000547880828</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1519,19 +1519,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>4.864921415361494</v>
+        <v>4.905602299573568</v>
       </c>
       <c r="C22">
-        <v>0.003839716981342934</v>
+        <v>0.003868771529632153</v>
       </c>
       <c r="D22">
-        <v>-0.07000000122420647</v>
+        <v>-0.09900989979139119</v>
       </c>
       <c r="E22">
-        <v>0.0700000547880828</v>
+        <v>0.1000000489120731</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1539,10 +1539,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>4.834374248164919</v>
+        <v>4.872399106040685</v>
       </c>
       <c r="C23">
-        <v>0.003815607141408773</v>
+        <v>0.003842586045773408</v>
       </c>
       <c r="D23">
         <v>-0.09999996993865379</v>
@@ -1559,19 +1559,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>4.815363164778216</v>
+        <v>4.87159736651246</v>
       </c>
       <c r="C24">
-        <v>0.003800602339998586</v>
+        <v>0.003841953759079227</v>
       </c>
       <c r="D24">
-        <v>-0.06981125912528596</v>
+        <v>-0.06976745184959177</v>
       </c>
       <c r="E24">
-        <v>0.07000002114868153</v>
+        <v>0.06989253433580078</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1579,19 +1579,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>4.797794557639607</v>
+        <v>4.781789212110325</v>
       </c>
       <c r="C25">
-        <v>0.003786736036021789</v>
+        <v>0.003771127138888264</v>
       </c>
       <c r="D25">
-        <v>-0.09900989979139119</v>
+        <v>-0.06981125912528596</v>
       </c>
       <c r="E25">
-        <v>0.1000000489120731</v>
+        <v>0.07000002114868153</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1599,19 +1599,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>4.748866832481329</v>
+        <v>4.722608287906089</v>
       </c>
       <c r="C26">
-        <v>0.003748119046946593</v>
+        <v>0.003724454485730356</v>
       </c>
       <c r="D26">
-        <v>-0.08070176242893345</v>
+        <v>-0.1548386904216962</v>
       </c>
       <c r="E26">
-        <v>0.099337732812941</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1619,19 +1619,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.709630607258978</v>
+        <v>4.714818159881639</v>
       </c>
       <c r="C27">
-        <v>0.003717151229091539</v>
+        <v>0.003718310851641676</v>
       </c>
       <c r="D27">
-        <v>-0.1548386904216962</v>
+        <v>-0.08070176242893345</v>
       </c>
       <c r="E27">
-        <v>0.1451612903225807</v>
+        <v>0.099337732812941</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1639,10 +1639,10 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>4.684602128205011</v>
+        <v>4.687727043732729</v>
       </c>
       <c r="C28">
-        <v>0.003697397101977118</v>
+        <v>0.003696945618085748</v>
       </c>
       <c r="D28">
         <v>-0.1300000406889452</v>
@@ -1659,19 +1659,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>4.606357818612006</v>
+        <v>4.653556231637928</v>
       </c>
       <c r="C29">
-        <v>0.003635641530080512</v>
+        <v>0.00366999702810562</v>
       </c>
       <c r="D29">
-        <v>-0.09795912517683469</v>
+        <v>-0.1782608635086822</v>
       </c>
       <c r="E29">
-        <v>0.1000000134083143</v>
+        <v>0.2704918278796569</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1679,19 +1679,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>4.553466572345448</v>
+        <v>4.645465161341817</v>
       </c>
       <c r="C30">
-        <v>0.003593896268623084</v>
+        <v>0.003663616057840552</v>
       </c>
       <c r="D30">
-        <v>-0.1168831085814298</v>
+        <v>-0.09795912517683469</v>
       </c>
       <c r="E30">
-        <v>0.149999989745687</v>
+        <v>0.1000000134083143</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1699,19 +1699,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4.535057603878634</v>
+        <v>4.607612639516239</v>
       </c>
       <c r="C31">
-        <v>0.00357936669603681</v>
+        <v>0.003633763911290415</v>
       </c>
       <c r="D31">
-        <v>-0.07000002387813875</v>
+        <v>-0.1285714505174543</v>
       </c>
       <c r="E31">
-        <v>0.06994810878000934</v>
+        <v>0.1506849534158108</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1719,10 +1719,10 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>4.477200787867845</v>
+        <v>4.532716082433676</v>
       </c>
       <c r="C32">
-        <v>0.003533702279295848</v>
+        <v>0.003574697225894061</v>
       </c>
       <c r="D32">
         <v>-0.06993005943680752</v>
@@ -1731,7 +1731,7 @@
         <v>0.0699658239594414</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1739,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>4.450070472289742</v>
+        <v>4.508844275763886</v>
       </c>
       <c r="C33">
-        <v>0.003512289244111874</v>
+        <v>0.003555870879939976</v>
       </c>
       <c r="D33">
         <v>-0.07000007186491586</v>
@@ -1759,19 +1759,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>4.431616244283228</v>
+        <v>4.474398798539323</v>
       </c>
       <c r="C34">
-        <v>0.003497723949710525</v>
+        <v>0.003528705677081486</v>
       </c>
       <c r="D34">
-        <v>-0.1428571323095533</v>
+        <v>-0.1168831085814298</v>
       </c>
       <c r="E34">
-        <v>0.1478260775459737</v>
+        <v>0.149999989745687</v>
       </c>
       <c r="F34" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1779,19 +1779,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>4.419596892173348</v>
+        <v>4.465388345708575</v>
       </c>
       <c r="C35">
-        <v>0.003488237483956871</v>
+        <v>0.003521599641726003</v>
       </c>
       <c r="D35">
-        <v>-0.1285714505174543</v>
+        <v>-0.174603154922072</v>
       </c>
       <c r="E35">
-        <v>0.1506849534158108</v>
+        <v>0.1774193689505823</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1799,19 +1799,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>4.393521132614735</v>
+        <v>4.412466370004266</v>
       </c>
       <c r="C36">
-        <v>0.003467656773965857</v>
+        <v>0.003479863067826712</v>
       </c>
       <c r="D36">
-        <v>-0.06956522257975384</v>
+        <v>-0.1428571323095533</v>
       </c>
       <c r="E36">
-        <v>0.06979873093402555</v>
+        <v>0.1478260775459737</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1819,19 +1819,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>4.378879670625476</v>
+        <v>4.394984294277669</v>
       </c>
       <c r="C37">
-        <v>0.003456100766081667</v>
+        <v>0.003466075941859365</v>
       </c>
       <c r="D37">
-        <v>-0.174603154922072</v>
+        <v>-0.06980273558359951</v>
       </c>
       <c r="E37">
-        <v>0.1774193689505823</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1839,16 +1839,16 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>4.339636426006847</v>
+        <v>4.350595154469273</v>
       </c>
       <c r="C38">
-        <v>0.00342512740805592</v>
+        <v>0.003431068733808577</v>
       </c>
       <c r="D38">
-        <v>-0.06979283947633397</v>
+        <v>-0.06956522257975384</v>
       </c>
       <c r="E38">
-        <v>0.06999998092651372</v>
+        <v>0.06979873093402555</v>
       </c>
       <c r="F38" t="s">
         <v>218</v>
@@ -1859,16 +1859,16 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>4.319662834026766</v>
+        <v>4.342489869778852</v>
       </c>
       <c r="C39">
-        <v>0.003409362931354984</v>
+        <v>0.003424676553453355</v>
       </c>
       <c r="D39">
-        <v>-0.07000005297929035</v>
+        <v>-0.1000000203758433</v>
       </c>
       <c r="E39">
-        <v>0.06988348582748261</v>
+        <v>0.1000000181118603</v>
       </c>
       <c r="F39" t="s">
         <v>227</v>
@@ -1879,19 +1879,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>4.312327017400797</v>
+        <v>4.313446426823498</v>
       </c>
       <c r="C40">
-        <v>0.003403573020837257</v>
+        <v>0.00340177162998699</v>
       </c>
       <c r="D40">
-        <v>-0.06980273558359951</v>
+        <v>-0.07000002387813875</v>
       </c>
       <c r="E40">
-        <v>0.0700000524520874</v>
+        <v>0.06994810878000934</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1899,16 +1899,16 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>4.299933297566477</v>
+        <v>4.291314499462241</v>
       </c>
       <c r="C41">
-        <v>0.003393791079373698</v>
+        <v>0.003384317428597981</v>
       </c>
       <c r="D41">
-        <v>-0.1782608635086822</v>
+        <v>-0.07000005297929035</v>
       </c>
       <c r="E41">
-        <v>0.2704918278796569</v>
+        <v>0.06988348582748261</v>
       </c>
       <c r="F41" t="s">
         <v>229</v>
@@ -1919,19 +1919,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>4.29120651081837</v>
+        <v>4.288329155742402</v>
       </c>
       <c r="C42">
-        <v>0.0033869033234557</v>
+        <v>0.003381963056579184</v>
       </c>
       <c r="D42">
-        <v>-0.1000000203758433</v>
+        <v>-0.06986893016480245</v>
       </c>
       <c r="E42">
-        <v>0.1000000181118603</v>
+        <v>0.06997738905893836</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1939,19 +1939,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>4.286623394875775</v>
+        <v>4.2872059823003</v>
       </c>
       <c r="C43">
-        <v>0.003383286025947734</v>
+        <v>0.003381077273107494</v>
       </c>
       <c r="D43">
-        <v>-0.06986303623547474</v>
+        <v>-0.06999992769970076</v>
       </c>
       <c r="E43">
-        <v>0.06999997102510291</v>
+        <v>0.06997457977664978</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1959,19 +1959,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>4.251236192175181</v>
+        <v>4.248612226719237</v>
       </c>
       <c r="C44">
-        <v>0.003355356110635504</v>
+        <v>0.003350640557349559</v>
       </c>
       <c r="D44">
-        <v>-0.06986893016480245</v>
+        <v>-0.07000000604434009</v>
       </c>
       <c r="E44">
-        <v>0.06997738905893836</v>
+        <v>0.06997975604758744</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1979,19 +1979,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>4.217639235640426</v>
+        <v>4.220256860064538</v>
       </c>
       <c r="C45">
-        <v>0.003328839175722513</v>
+        <v>0.003328278280807998</v>
       </c>
       <c r="D45">
-        <v>-0.06980904794106668</v>
+        <v>-0.06986303623547474</v>
       </c>
       <c r="E45">
-        <v>0.07537685316252496</v>
+        <v>0.06999997102510291</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1999,19 +1999,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.214409782182872</v>
+        <v>4.212196288826919</v>
       </c>
       <c r="C46">
-        <v>0.003326290277965962</v>
+        <v>0.003321921363428169</v>
       </c>
       <c r="D46">
-        <v>-0.07000000604434009</v>
+        <v>-0.06971154660868206</v>
       </c>
       <c r="E46">
-        <v>0.06997975604758744</v>
+        <v>0.06993006899733545</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2019,19 +2019,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>4.194133984581884</v>
+        <v>4.211071479231061</v>
       </c>
       <c r="C47">
-        <v>0.003310287280648686</v>
+        <v>0.003321034289614407</v>
       </c>
       <c r="D47">
-        <v>-0.06971154660868206</v>
+        <v>-0.06990878493263875</v>
       </c>
       <c r="E47">
-        <v>0.06993006899733545</v>
+        <v>0.0698630229531596</v>
       </c>
       <c r="F47" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2039,19 +2039,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>4.189808499655812</v>
+        <v>4.194470627866628</v>
       </c>
       <c r="C48">
-        <v>0.003306873322538136</v>
+        <v>0.003307942135541508</v>
       </c>
       <c r="D48">
-        <v>-0.06990878493263875</v>
+        <v>-0.06999996730259483</v>
       </c>
       <c r="E48">
-        <v>0.0698630229531596</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2059,19 +2059,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>4.155960326037494</v>
+        <v>4.183584506424255</v>
       </c>
       <c r="C49">
-        <v>0.003280158110526833</v>
+        <v>0.003299356866265184</v>
       </c>
       <c r="D49">
-        <v>-0.06999992769970076</v>
+        <v>-0.06960785968576966</v>
       </c>
       <c r="E49">
-        <v>0.06997457977664978</v>
+        <v>0.06986899154603265</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2079,16 +2079,16 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>4.133862393500197</v>
+        <v>4.172795234952079</v>
       </c>
       <c r="C50">
-        <v>0.003262716964088552</v>
+        <v>0.00329084797709154</v>
       </c>
       <c r="D50">
-        <v>-0.06990877728589806</v>
+        <v>-0.06966616699816708</v>
       </c>
       <c r="E50">
-        <v>0.06999999775677934</v>
+        <v>0.0699815781617823</v>
       </c>
       <c r="F50" t="s">
         <v>218</v>
@@ -2099,10 +2099,10 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>4.12748662862942</v>
+        <v>4.17141600330674</v>
       </c>
       <c r="C51">
-        <v>0.003257684789762759</v>
+        <v>0.003289760254973769</v>
       </c>
       <c r="D51">
         <v>-0.06980057198010614</v>
@@ -2111,7 +2111,7 @@
         <v>0.06987580375933811</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2119,19 +2119,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>4.125291545883119</v>
+        <v>4.170987413297865</v>
       </c>
       <c r="C52">
-        <v>0.003255952285622033</v>
+        <v>0.003289422250234906</v>
       </c>
       <c r="D52">
-        <v>-0.06960785968576966</v>
+        <v>-0.06983240372284627</v>
       </c>
       <c r="E52">
-        <v>0.06986899154603265</v>
+        <v>0.0699999402767284</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2139,19 +2139,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>4.121816747803677</v>
+        <v>4.137838851914156</v>
       </c>
       <c r="C53">
-        <v>0.003253209745701399</v>
+        <v>0.003263279851667315</v>
       </c>
       <c r="D53">
-        <v>-0.06983240372284627</v>
+        <v>-0.06980904794106668</v>
       </c>
       <c r="E53">
-        <v>0.0699999402767284</v>
+        <v>0.07537685316252496</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2159,16 +2159,16 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4.105436751493819</v>
+        <v>4.13452727482703</v>
       </c>
       <c r="C54">
-        <v>0.003240281571818325</v>
+        <v>0.003260668197813117</v>
       </c>
       <c r="D54">
-        <v>-0.06966616699816708</v>
+        <v>-0.09836066845665214</v>
       </c>
       <c r="E54">
-        <v>0.0699815781617823</v>
+        <v>0.10000003972919</v>
       </c>
       <c r="F54" t="s">
         <v>218</v>
@@ -2179,16 +2179,16 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>4.102348834937428</v>
+        <v>4.121028461557891</v>
       </c>
       <c r="C55">
-        <v>0.003237844384323149</v>
+        <v>0.003250022446023575</v>
       </c>
       <c r="D55">
-        <v>-0.09836066845665214</v>
+        <v>-0.06999996730259483</v>
       </c>
       <c r="E55">
-        <v>0.10000003972919</v>
+        <v>0.06985296147865805</v>
       </c>
       <c r="F55" t="s">
         <v>218</v>
@@ -2199,19 +2199,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>4.060527325943578</v>
+        <v>4.114533526943404</v>
       </c>
       <c r="C56">
-        <v>0.003204836089931789</v>
+        <v>0.003244900257841801</v>
       </c>
       <c r="D56">
-        <v>-0.0694443920108192</v>
+        <v>-0.06990877728589806</v>
       </c>
       <c r="E56">
-        <v>0.06995885344862196</v>
+        <v>0.06999999775677934</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2219,16 +2219,16 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>4.002475347049177</v>
+        <v>4.092952589757429</v>
       </c>
       <c r="C57">
-        <v>0.003159017637765732</v>
+        <v>0.003227880591291347</v>
       </c>
       <c r="D57">
-        <v>-0.06906909280127882</v>
+        <v>-0.0694443920108192</v>
       </c>
       <c r="E57">
-        <v>0.07000000531313377</v>
+        <v>0.06995885344862196</v>
       </c>
       <c r="F57" t="s">
         <v>217</v>
@@ -2239,19 +2239,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>3.97611596916235</v>
+        <v>4.089194096990286</v>
       </c>
       <c r="C58">
-        <v>0.003138213077476202</v>
+        <v>0.003224916480276251</v>
       </c>
       <c r="D58">
-        <v>-0.06942392201604652</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E58">
-        <v>0.07000005506630558</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2259,19 +2259,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>3.971953318948048</v>
+        <v>4.070694015644469</v>
       </c>
       <c r="C59">
-        <v>0.003134927639264442</v>
+        <v>0.003210326510760625</v>
       </c>
       <c r="D59">
-        <v>-0.06999996730259483</v>
+        <v>-0.06906909280127882</v>
       </c>
       <c r="E59">
-        <v>0.06985296147865805</v>
+        <v>0.07000000531313377</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2279,19 +2279,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3.966462339964118</v>
+        <v>4.063468653266933</v>
       </c>
       <c r="C60">
-        <v>0.003130593796341055</v>
+        <v>0.003204628275447108</v>
       </c>
       <c r="D60">
-        <v>-0.1000000238418579</v>
+        <v>-0.06942392201604652</v>
       </c>
       <c r="E60">
-        <v>0.09999997275216232</v>
+        <v>0.07000005506630558</v>
       </c>
       <c r="F60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2299,19 +2299,19 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>3.961260788603776</v>
+        <v>4.061524061658151</v>
       </c>
       <c r="C61">
-        <v>0.003126488388795403</v>
+        <v>0.003203094685850271</v>
       </c>
       <c r="D61">
-        <v>-0.1000000238418579</v>
+        <v>-0.06964520540023522</v>
       </c>
       <c r="E61">
-        <v>0.1000000000000001</v>
+        <v>0.06993000152954676</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2319,10 +2319,10 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>3.954706275298112</v>
+        <v>3.984810818663538</v>
       </c>
       <c r="C62">
-        <v>0.00312131513441051</v>
+        <v>0.003142595282857682</v>
       </c>
       <c r="D62">
         <v>-0.09890105974528718</v>
@@ -2339,19 +2339,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>3.933687568700902</v>
+        <v>3.976330674921496</v>
       </c>
       <c r="C63">
-        <v>0.003104725784294314</v>
+        <v>0.003135907472335564</v>
       </c>
       <c r="D63">
-        <v>-0.06964520540023522</v>
+        <v>-0.1000000238418579</v>
       </c>
       <c r="E63">
-        <v>0.06993000152954676</v>
+        <v>0.09999997275216232</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2359,19 +2359,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>3.908437238862702</v>
+        <v>3.965814995793461</v>
       </c>
       <c r="C64">
-        <v>0.003084796557902685</v>
+        <v>0.003127614349994846</v>
       </c>
       <c r="D64">
-        <v>-0.06976746288382907</v>
+        <v>-0.09917355004225092</v>
       </c>
       <c r="E64">
-        <v>0.06991527865032121</v>
+        <v>0.1000000338011144</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2379,19 +2379,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>3.906150614785132</v>
+        <v>3.951130481273469</v>
       </c>
       <c r="C65">
-        <v>0.003082991803303186</v>
+        <v>0.003116033502581596</v>
       </c>
       <c r="D65">
-        <v>-0.07000006962664551</v>
+        <v>-0.09999997364919866</v>
       </c>
       <c r="E65">
-        <v>0.06999996599443681</v>
+        <v>0.1000000376661454</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2399,19 +2399,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>3.905557071877862</v>
+        <v>3.942047540692701</v>
       </c>
       <c r="C66">
-        <v>0.003082523340077241</v>
+        <v>0.003108870300230837</v>
       </c>
       <c r="D66">
-        <v>-0.09917355004225092</v>
+        <v>-0.06991265962733595</v>
       </c>
       <c r="E66">
-        <v>0.1000000338011144</v>
+        <v>0.0699745171189694</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2419,19 +2419,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>3.883256570086616</v>
+        <v>3.879387167227797</v>
       </c>
       <c r="C67">
-        <v>0.003064922312617692</v>
+        <v>0.003059453601914667</v>
       </c>
       <c r="D67">
-        <v>-0.06994817871151149</v>
+        <v>-0.06976746288382907</v>
       </c>
       <c r="E67">
-        <v>0.06987955396140721</v>
+        <v>0.06991527865032121</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2439,19 +2439,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>3.86303314579215</v>
+        <v>3.857232392711714</v>
       </c>
       <c r="C68">
-        <v>0.003048960651769653</v>
+        <v>0.003041981382264758</v>
       </c>
       <c r="D68">
-        <v>-0.06990011538817997</v>
+        <v>-0.09811326747023519</v>
       </c>
       <c r="E68">
-        <v>0.07000007521759044</v>
+        <v>0.1000000531325442</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2459,19 +2459,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>3.825503947809917</v>
+        <v>3.849625289642682</v>
       </c>
       <c r="C69">
-        <v>0.00301934013244666</v>
+        <v>0.003035982089623566</v>
       </c>
       <c r="D69">
-        <v>-0.06991265962733595</v>
+        <v>-0.06990011538817997</v>
       </c>
       <c r="E69">
-        <v>0.0699745171189694</v>
+        <v>0.07000007521759044</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2479,16 +2479,16 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>3.824489632523474</v>
+        <v>3.844036757129982</v>
       </c>
       <c r="C70">
-        <v>0.003018539567895401</v>
+        <v>0.003031574729597778</v>
       </c>
       <c r="D70">
-        <v>-0.09811326747023519</v>
+        <v>-0.06994817871151149</v>
       </c>
       <c r="E70">
-        <v>0.1000000531325442</v>
+        <v>0.06987955396140721</v>
       </c>
       <c r="F70" t="s">
         <v>222</v>
@@ -2499,19 +2499,19 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>3.773054421350469</v>
+        <v>3.839154109066161</v>
       </c>
       <c r="C71">
-        <v>0.00297794350540684</v>
+        <v>0.003027724060777733</v>
       </c>
       <c r="D71">
-        <v>-0.127451009167775</v>
+        <v>-0.07000006962664551</v>
       </c>
       <c r="E71">
-        <v>0.1300813240134215</v>
+        <v>0.06999996599443681</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2519,19 +2519,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>3.75739641972219</v>
+        <v>3.829103227280523</v>
       </c>
       <c r="C72">
-        <v>0.002965585177365578</v>
+        <v>0.003019797497855299</v>
       </c>
       <c r="D72">
-        <v>-0.06999998367419469</v>
+        <v>-0.127451009167775</v>
       </c>
       <c r="E72">
-        <v>0.07000000515551741</v>
+        <v>0.1300813240134215</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2539,19 +2539,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>3.75525139897367</v>
+        <v>3.782357385011872</v>
       </c>
       <c r="C73">
-        <v>0.002963892185456723</v>
+        <v>0.00298293169164974</v>
       </c>
       <c r="D73">
-        <v>-0.06991524118111359</v>
+        <v>-0.06967219227293242</v>
       </c>
       <c r="E73">
-        <v>0.0700000524520874</v>
+        <v>0.06995890149916018</v>
       </c>
       <c r="F73" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2559,19 +2559,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>3.738327919191449</v>
+        <v>3.780668738209161</v>
       </c>
       <c r="C74">
-        <v>0.002950535058556783</v>
+        <v>0.002981599951269049</v>
       </c>
       <c r="D74">
-        <v>-0.09999997364919866</v>
+        <v>-0.06981138606913972</v>
       </c>
       <c r="E74">
-        <v>0.1000000376661454</v>
+        <v>0.06999994198437531</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2579,19 +2579,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>3.736610552581556</v>
+        <v>3.780481972908124</v>
       </c>
       <c r="C75">
-        <v>0.002949179599511879</v>
+        <v>0.00298145266002218</v>
       </c>
       <c r="D75">
-        <v>-0.06981138606913972</v>
+        <v>-0.06991524118111359</v>
       </c>
       <c r="E75">
-        <v>0.06999994198437531</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2599,19 +2599,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>3.723433581893243</v>
+        <v>3.771427462164775</v>
       </c>
       <c r="C76">
-        <v>0.002938779464793404</v>
+        <v>0.002974311878678843</v>
       </c>
       <c r="D76">
-        <v>-0.06967219227293242</v>
+        <v>-0.06999998367419469</v>
       </c>
       <c r="E76">
-        <v>0.06988568858560917</v>
+        <v>0.07000000515551741</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2619,19 +2619,19 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>3.723181125758361</v>
+        <v>3.735408171929233</v>
       </c>
       <c r="C77">
-        <v>0.002938580209754032</v>
+        <v>0.002945905498366904</v>
       </c>
       <c r="D77">
-        <v>-0.1000000062450395</v>
+        <v>-0.06926410457269527</v>
       </c>
       <c r="E77">
-        <v>0.1000000393206184</v>
+        <v>0.07000000767308356</v>
       </c>
       <c r="F77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2639,19 +2639,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>3.684263348701632</v>
+        <v>3.727995077197968</v>
       </c>
       <c r="C78">
-        <v>0.002907863732203342</v>
+        <v>0.002940059209146661</v>
       </c>
       <c r="D78">
-        <v>-0.06926410457269527</v>
+        <v>-0.1000000062450395</v>
       </c>
       <c r="E78">
-        <v>0.07000000767308356</v>
+        <v>0.1000000393206184</v>
       </c>
       <c r="F78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2659,10 +2659,10 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>3.651760188745937</v>
+        <v>3.689875314349507</v>
       </c>
       <c r="C79">
-        <v>0.002882210093722126</v>
+        <v>0.002909996304692038</v>
       </c>
       <c r="D79">
         <v>-0.06995077797894378</v>
@@ -2679,19 +2679,19 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>3.60035049157064</v>
+        <v>3.679322736634402</v>
       </c>
       <c r="C80">
-        <v>0.002841634168564042</v>
+        <v>0.002901674082519245</v>
       </c>
       <c r="D80">
-        <v>-0.06983238556819427</v>
+        <v>-0.06952965617498708</v>
       </c>
       <c r="E80">
-        <v>0.07000003818977119</v>
+        <v>0.07000001297327585</v>
       </c>
       <c r="F80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2699,19 +2699,19 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>3.555380117044352</v>
+        <v>3.624737246199602</v>
       </c>
       <c r="C81">
-        <v>0.002806140581724033</v>
+        <v>0.002858625588485491</v>
       </c>
       <c r="D81">
-        <v>-0.0699999904580566</v>
+        <v>-0.06983238556819427</v>
       </c>
       <c r="E81">
-        <v>0.07000001605615425</v>
+        <v>0.07000003818977119</v>
       </c>
       <c r="F81" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2719,19 +2719,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>3.552320997208955</v>
+        <v>3.569373995975876</v>
       </c>
       <c r="C82">
-        <v>0.002803726122501146</v>
+        <v>0.002814963719223875</v>
       </c>
       <c r="D82">
-        <v>-0.06965173034081296</v>
+        <v>-0.0699999904580566</v>
       </c>
       <c r="E82">
-        <v>0.06965174430128407</v>
+        <v>0.07000001605615425</v>
       </c>
       <c r="F82" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2739,19 +2739,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>3.533483535820529</v>
+        <v>3.558602937753168</v>
       </c>
       <c r="C83">
-        <v>0.002788858355028041</v>
+        <v>0.002806469193811644</v>
       </c>
       <c r="D83">
-        <v>-0.06997743214725527</v>
+        <v>-0.06965173034081296</v>
       </c>
       <c r="E83">
-        <v>0.07000002671115535</v>
+        <v>0.06965174430128407</v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2759,19 +2759,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>3.526105425269673</v>
+        <v>3.538178269041137</v>
       </c>
       <c r="C84">
-        <v>0.002783035063354125</v>
+        <v>0.002790361410915724</v>
       </c>
       <c r="D84">
-        <v>-0.1304348202859832</v>
+        <v>-0.06981745731711786</v>
       </c>
       <c r="E84">
-        <v>0.1250000377486467</v>
+        <v>0.06998441731509875</v>
       </c>
       <c r="F84" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2779,16 +2779,16 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>3.517620915976751</v>
+        <v>3.526741085805797</v>
       </c>
       <c r="C85">
-        <v>0.002776338528789859</v>
+        <v>0.002781341550320024</v>
       </c>
       <c r="D85">
-        <v>-0.06981745731711786</v>
+        <v>-0.1304761545089799</v>
       </c>
       <c r="E85">
-        <v>0.06998441731509875</v>
+        <v>0.1604599842452998</v>
       </c>
       <c r="F85" t="s">
         <v>232</v>
@@ -2799,19 +2799,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>3.501065411295452</v>
+        <v>3.515934833249879</v>
       </c>
       <c r="C86">
-        <v>0.002763271832119537</v>
+        <v>0.002772819269124513</v>
       </c>
       <c r="D86">
-        <v>-0.06952965617498708</v>
+        <v>-0.1304348202859832</v>
       </c>
       <c r="E86">
-        <v>0.07000001297327585</v>
+        <v>0.1250000377486467</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2819,19 +2819,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>3.473564521395117</v>
+        <v>3.509824298729046</v>
       </c>
       <c r="C87">
-        <v>0.002741566315228975</v>
+        <v>0.002768000235590732</v>
       </c>
       <c r="D87">
-        <v>-0.1304761545089799</v>
+        <v>-0.127249362867722</v>
       </c>
       <c r="E87">
-        <v>0.1604599842452998</v>
+        <v>0.1605301935977024</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2839,19 +2839,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>3.415050402606505</v>
+        <v>3.436832752932841</v>
       </c>
       <c r="C88">
-        <v>0.002695383111765194</v>
+        <v>0.002710435925025899</v>
       </c>
       <c r="D88">
-        <v>-0.1272727478903398</v>
+        <v>-0.06956519501810421</v>
       </c>
       <c r="E88">
-        <v>0.137085780795716</v>
+        <v>0.06976746696236935</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2859,19 +2859,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>3.404554257167515</v>
+        <v>3.424889623244722</v>
       </c>
       <c r="C89">
-        <v>0.002687098861221402</v>
+        <v>0.002701017053032117</v>
       </c>
       <c r="D89">
-        <v>-0.127249362867722</v>
+        <v>-0.06949812250967613</v>
       </c>
       <c r="E89">
-        <v>0.1605301935977024</v>
+        <v>0.09230772155477718</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2879,19 +2879,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>3.403653710079162</v>
+        <v>3.421412258456487</v>
       </c>
       <c r="C90">
-        <v>0.002686388090038804</v>
+        <v>0.002698274651779566</v>
       </c>
       <c r="D90">
-        <v>-0.06923073797167179</v>
+        <v>-0.1242236130028669</v>
       </c>
       <c r="E90">
-        <v>0.06979863080000803</v>
+        <v>0.14857145391008</v>
       </c>
       <c r="F90" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2899,19 +2899,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>3.38184929588404</v>
+        <v>3.40156420965831</v>
       </c>
       <c r="C91">
-        <v>0.002669178607643286</v>
+        <v>0.002682621616449773</v>
       </c>
       <c r="D91">
-        <v>-0.1242236130028669</v>
+        <v>-0.06923073797167179</v>
       </c>
       <c r="E91">
-        <v>0.14857145391008</v>
+        <v>0.06979863080000803</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2919,19 +2919,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>3.37572720653366</v>
+        <v>3.393832590198907</v>
       </c>
       <c r="C92">
-        <v>0.002664346650776368</v>
+        <v>0.002676524124762548</v>
       </c>
       <c r="D92">
-        <v>-0.06956519501810421</v>
+        <v>-0.06995074530355316</v>
       </c>
       <c r="E92">
-        <v>0.06976746696236935</v>
+        <v>0.0700000524520874</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2939,19 +2939,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>3.372463312826955</v>
+        <v>3.392721772370052</v>
       </c>
       <c r="C93">
-        <v>0.00266177057050273</v>
+        <v>0.002675648085465337</v>
       </c>
       <c r="D93">
-        <v>-0.06949812250967613</v>
+        <v>-0.1272727478903398</v>
       </c>
       <c r="E93">
-        <v>0.09230772155477718</v>
+        <v>0.137085780795716</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2959,10 +2959,10 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>3.332425436306338</v>
+        <v>3.375723884745423</v>
       </c>
       <c r="C94">
-        <v>0.002630170036548019</v>
+        <v>0.002662242811313426</v>
       </c>
       <c r="D94">
         <v>-0.06938775819398191</v>
@@ -2979,19 +2979,19 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>3.326866648366078</v>
+        <v>3.361233089245705</v>
       </c>
       <c r="C95">
-        <v>0.00262578267432208</v>
+        <v>0.002650814739152761</v>
       </c>
       <c r="D95">
-        <v>-0.06999997782026035</v>
+        <v>-0.07000001271565759</v>
       </c>
       <c r="E95">
-        <v>0.06989243066659689</v>
+        <v>0.06997081478595923</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2999,19 +2999,19 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>3.323720087742411</v>
+        <v>3.329851820943301</v>
       </c>
       <c r="C96">
-        <v>0.002623299201059516</v>
+        <v>0.002626066104844877</v>
       </c>
       <c r="D96">
-        <v>-0.07000001271565759</v>
+        <v>-0.1330471491685843</v>
       </c>
       <c r="E96">
-        <v>0.06997081478595923</v>
+        <v>0.1658292064154774</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3019,19 +3019,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>3.294694634556309</v>
+        <v>3.312730282304332</v>
       </c>
       <c r="C97">
-        <v>0.002600390398229128</v>
+        <v>0.002612563314120133</v>
       </c>
       <c r="D97">
-        <v>-0.06944447396069475</v>
+        <v>-0.06999997782026035</v>
       </c>
       <c r="E97">
-        <v>0.06976748588725368</v>
+        <v>0.06989243066659689</v>
       </c>
       <c r="F97" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3039,19 +3039,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3.26576743220035</v>
+        <v>3.307273947625716</v>
       </c>
       <c r="C98">
-        <v>0.002577559141436739</v>
+        <v>0.002608260211061292</v>
       </c>
       <c r="D98">
-        <v>-0.09957621472559686</v>
+        <v>-0.06983654776828885</v>
       </c>
       <c r="E98">
-        <v>0.09999999145477423</v>
+        <v>0.06998442664013571</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3059,19 +3059,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>3.261981963473591</v>
+        <v>3.299130386748982</v>
       </c>
       <c r="C99">
-        <v>0.002574571399742378</v>
+        <v>0.002601837844439257</v>
       </c>
       <c r="D99">
-        <v>-0.06983654776828885</v>
+        <v>-0.06944447396069475</v>
       </c>
       <c r="E99">
-        <v>0.06998442664013571</v>
+        <v>0.06976748588725368</v>
       </c>
       <c r="F99" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3079,19 +3079,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>3.252409548324585</v>
+        <v>3.243312517317753</v>
       </c>
       <c r="C100">
-        <v>0.002567016218093597</v>
+        <v>0.002557817442679614</v>
       </c>
       <c r="D100">
-        <v>-0.1330471491685843</v>
+        <v>-0.06994532630501693</v>
       </c>
       <c r="E100">
-        <v>0.1658292064154774</v>
+        <v>0.07000004036554519</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>3.192273299853234</v>
+        <v>3.241486910666116</v>
       </c>
       <c r="C101">
-        <v>0.002519552722851806</v>
+        <v>0.002556377689799776</v>
       </c>
       <c r="D101">
-        <v>-0.06995074530355316</v>
+        <v>-0.06997743214725527</v>
       </c>
       <c r="E101">
-        <v>0.0700000524520874</v>
+        <v>0.07000002671115535</v>
       </c>
       <c r="F101" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3119,19 +3119,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>3.157768840391332</v>
+        <v>3.199967355555586</v>
       </c>
       <c r="C102">
-        <v>0.002492319526749276</v>
+        <v>0.00252363356116371</v>
       </c>
       <c r="D102">
-        <v>-0.06993004618460641</v>
+        <v>-0.09957621472559686</v>
       </c>
       <c r="E102">
-        <v>0.06986026275022938</v>
+        <v>0.09999999145477423</v>
       </c>
       <c r="F102" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3139,19 +3139,19 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>3.128152260946405</v>
+        <v>3.181649930344424</v>
       </c>
       <c r="C103">
-        <v>0.002468944168071356</v>
+        <v>0.002509187642227463</v>
       </c>
       <c r="D103">
-        <v>-0.06976751350713783</v>
+        <v>-0.0697248316574185</v>
       </c>
       <c r="E103">
-        <v>0.1085526280956379</v>
+        <v>0.06999995493381395</v>
       </c>
       <c r="F103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3159,19 +3159,19 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>3.116288149621204</v>
+        <v>3.142599169843299</v>
       </c>
       <c r="C104">
-        <v>0.002459580228588164</v>
+        <v>0.002478390512494713</v>
       </c>
       <c r="D104">
-        <v>-0.0697248316574185</v>
+        <v>-0.06931824967388134</v>
       </c>
       <c r="E104">
-        <v>0.06999995493381395</v>
+        <v>0.06993002893379119</v>
       </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3179,19 +3179,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>3.112464613555314</v>
+        <v>3.141628424334598</v>
       </c>
       <c r="C105">
-        <v>0.002456562441637973</v>
+        <v>0.002477624940326973</v>
       </c>
       <c r="D105">
-        <v>-0.06931824967388134</v>
+        <v>-0.11</v>
       </c>
       <c r="E105">
-        <v>0.06993002893379119</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="F105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3199,19 +3199,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>3.109321992825664</v>
+        <v>3.137451622314118</v>
       </c>
       <c r="C106">
-        <v>0.002454082077999738</v>
+        <v>0.002474330932424385</v>
       </c>
       <c r="D106">
-        <v>-0.11</v>
+        <v>-0.06976751350713783</v>
       </c>
       <c r="E106">
-        <v>0.1451612903225807</v>
+        <v>0.1085526280956379</v>
       </c>
       <c r="F106" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3219,19 +3219,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>3.07363085694844</v>
+        <v>3.122347836004236</v>
       </c>
       <c r="C107">
-        <v>0.002425912278570195</v>
+        <v>0.002462419429025418</v>
       </c>
       <c r="D107">
-        <v>-0.06994532630501693</v>
+        <v>-0.07000002897064406</v>
       </c>
       <c r="E107">
-        <v>0.07000004036554519</v>
+        <v>0.06999995355794231</v>
       </c>
       <c r="F107" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3239,19 +3239,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>3.049388515657014</v>
+        <v>3.075951800250902</v>
       </c>
       <c r="C108">
-        <v>0.002406778623249414</v>
+        <v>0.002425829495466014</v>
       </c>
       <c r="D108">
-        <v>-0.07000002897064406</v>
+        <v>-0.06967741573181419</v>
       </c>
       <c r="E108">
-        <v>0.06999995355794231</v>
+        <v>0.06995881283881245</v>
       </c>
       <c r="F108" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3259,19 +3259,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>3.033880557446153</v>
+        <v>2.994317617936214</v>
       </c>
       <c r="C109">
-        <v>0.00239453871937344</v>
+        <v>0.002361449225501747</v>
       </c>
       <c r="D109">
-        <v>-0.0696629239211296</v>
+        <v>-0.06956526161967846</v>
       </c>
       <c r="E109">
-        <v>0.06924643922666429</v>
+        <v>0.06976744186046502</v>
       </c>
       <c r="F109" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>2.967752498400769</v>
+        <v>2.957177396489162</v>
       </c>
       <c r="C110">
-        <v>0.002342346091871169</v>
+        <v>0.002332158830038772</v>
       </c>
       <c r="D110">
-        <v>-0.06967741573181419</v>
+        <v>-0.06957929823877562</v>
       </c>
       <c r="E110">
-        <v>0.06995881283881245</v>
+        <v>0.06987577890517138</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3299,19 +3299,19 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>2.936694315439018</v>
+        <v>2.95539399687585</v>
       </c>
       <c r="C111">
-        <v>0.00231783292457697</v>
+        <v>0.002330752363466755</v>
       </c>
       <c r="D111">
-        <v>-0.1499999939813762</v>
+        <v>-0.0696629239211296</v>
       </c>
       <c r="E111">
-        <v>0.1500000085980338</v>
+        <v>0.06924643922666429</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3319,19 +3319,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>2.894101485117289</v>
+        <v>2.896565562987771</v>
       </c>
       <c r="C112">
-        <v>0.002284215852499835</v>
+        <v>0.002284357699517169</v>
       </c>
       <c r="D112">
-        <v>-0.06957929823877562</v>
+        <v>-0.06993004618460641</v>
       </c>
       <c r="E112">
-        <v>0.06987577890517138</v>
+        <v>0.06986026275022938</v>
       </c>
       <c r="F112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3339,19 +3339,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>2.884545528394606</v>
+        <v>2.888255752845824</v>
       </c>
       <c r="C113">
-        <v>0.002276673660927081</v>
+        <v>0.002277804221487245</v>
       </c>
       <c r="D113">
-        <v>-0.0697674143522814</v>
+        <v>-0.1499999939813762</v>
       </c>
       <c r="E113">
-        <v>0.06999994136573751</v>
+        <v>0.1500000085980338</v>
       </c>
       <c r="F113" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3359,19 +3359,19 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>2.881967359495861</v>
+        <v>2.873114364007779</v>
       </c>
       <c r="C114">
-        <v>0.002274638799917808</v>
+        <v>0.002265863063097622</v>
       </c>
       <c r="D114">
-        <v>-0.06956526161967846</v>
+        <v>-0.0697674143522814</v>
       </c>
       <c r="E114">
-        <v>0.06976744186046502</v>
+        <v>0.06999994136573751</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3379,19 +3379,19 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>2.852591799036629</v>
+        <v>2.810472483859382</v>
       </c>
       <c r="C115">
-        <v>0.002251453669326463</v>
+        <v>0.002216460949415911</v>
       </c>
       <c r="D115">
-        <v>-0.06998447125522034</v>
+        <v>-0.06992082043113557</v>
       </c>
       <c r="E115">
-        <v>0.06999995790763691</v>
+        <v>0.06997458880656726</v>
       </c>
       <c r="F115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3399,10 +3399,10 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>2.839657500052028</v>
+        <v>2.810260507455434</v>
       </c>
       <c r="C116">
-        <v>0.002241245067128671</v>
+        <v>0.002216293775595767</v>
       </c>
       <c r="D116">
         <v>-0.07000003881454508</v>
@@ -3419,19 +3419,19 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>2.816608645922832</v>
+        <v>2.792732217383012</v>
       </c>
       <c r="C117">
-        <v>0.002223053390625758</v>
+        <v>0.00220247020298345</v>
       </c>
       <c r="D117">
-        <v>-0.08201897144182857</v>
+        <v>-0.06865670695458925</v>
       </c>
       <c r="E117">
-        <v>0.07480314507795027</v>
+        <v>0.06956520921218723</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3439,16 +3439,16 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>2.803537172965926</v>
+        <v>2.782709149038499</v>
       </c>
       <c r="C118">
-        <v>0.002212736521677916</v>
+        <v>0.002194565574951496</v>
       </c>
       <c r="D118">
-        <v>-0.06992082043113557</v>
+        <v>-0.06962963901845465</v>
       </c>
       <c r="E118">
-        <v>0.06997458880656726</v>
+        <v>0.0700000172183497</v>
       </c>
       <c r="F118" t="s">
         <v>222</v>
@@ -3459,19 +3459,19 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>2.799603643075968</v>
+        <v>2.776830967182891</v>
       </c>
       <c r="C119">
-        <v>0.002209631920344097</v>
+        <v>0.002189929784844548</v>
       </c>
       <c r="D119">
-        <v>-0.06865670695458925</v>
+        <v>-0.06969699217213376</v>
       </c>
       <c r="E119">
-        <v>0.06956520921218723</v>
+        <v>0.06999998731872803</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3479,19 +3479,19 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>2.78481185597491</v>
+        <v>2.775717224612862</v>
       </c>
       <c r="C120">
-        <v>0.002197957265962832</v>
+        <v>0.002189051438969136</v>
       </c>
       <c r="D120">
-        <v>-0.06962963901845465</v>
+        <v>-0.08201897144182857</v>
       </c>
       <c r="E120">
-        <v>0.0700000172183497</v>
+        <v>0.07480314507795027</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3499,19 +3499,19 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>2.741427243480079</v>
+        <v>2.760460355322758</v>
       </c>
       <c r="C121">
-        <v>0.00216371526715081</v>
+        <v>0.00217701920766779</v>
       </c>
       <c r="D121">
-        <v>-0.06969699217213376</v>
+        <v>-0.06998447125522034</v>
       </c>
       <c r="E121">
-        <v>0.06999998731872803</v>
+        <v>0.06999995790763691</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3519,19 +3519,19 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>2.72473208514697</v>
+        <v>2.729909087409377</v>
       </c>
       <c r="C122">
-        <v>0.002150538346603762</v>
+        <v>0.002152925147799193</v>
       </c>
       <c r="D122">
-        <v>-0.06896546456051744</v>
+        <v>-0.1151832837173046</v>
       </c>
       <c r="E122">
-        <v>0.1256544614200634</v>
+        <v>0.1390134747770668</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3539,10 +3539,10 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>2.718722377055677</v>
+        <v>2.719180678226272</v>
       </c>
       <c r="C123">
-        <v>0.002145795088441734</v>
+        <v>0.002144464257276239</v>
       </c>
       <c r="D123">
         <v>-0.06972473234968801</v>
@@ -3559,10 +3559,10 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>2.692170564687485</v>
+        <v>2.700974508251559</v>
       </c>
       <c r="C124">
-        <v>0.00212483864616218</v>
+        <v>0.002130106079062742</v>
       </c>
       <c r="D124">
         <v>-0.07000000223089442</v>
@@ -3579,19 +3579,19 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>2.667000169614315</v>
+        <v>2.700584061868208</v>
       </c>
       <c r="C125">
-        <v>0.002104972509561417</v>
+        <v>0.002129798156047481</v>
       </c>
       <c r="D125">
-        <v>-0.1151832837173046</v>
+        <v>-0.06896546456051744</v>
       </c>
       <c r="E125">
-        <v>0.1390134747770668</v>
+        <v>0.1256544614200634</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3599,10 +3599,10 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>2.665836940550078</v>
+        <v>2.689955174247623</v>
       </c>
       <c r="C126">
-        <v>0.002104054412431001</v>
+        <v>0.002121415752561217</v>
       </c>
       <c r="D126">
         <v>-0.06875001784113677</v>
@@ -3619,19 +3619,19 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>2.661791882280355</v>
+        <v>2.670094738895914</v>
       </c>
       <c r="C127">
-        <v>0.002100861785540928</v>
+        <v>0.002105752948656083</v>
       </c>
       <c r="D127">
-        <v>-0.06986440309375563</v>
+        <v>-0.06994534890679716</v>
       </c>
       <c r="E127">
-        <v>0.06976744886443242</v>
+        <v>0.07000004790569681</v>
       </c>
       <c r="F127" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3639,19 +3639,19 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>2.641719863097624</v>
+        <v>2.658552434700341</v>
       </c>
       <c r="C128">
-        <v>0.002085019623597178</v>
+        <v>0.002096650185094905</v>
       </c>
       <c r="D128">
-        <v>-0.06906908533350598</v>
+        <v>-0.06986440309375563</v>
       </c>
       <c r="E128">
-        <v>0.06993864382065795</v>
+        <v>0.06976744886443242</v>
       </c>
       <c r="F128" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3659,10 +3659,10 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>2.632372954585308</v>
+        <v>2.649020213263785</v>
       </c>
       <c r="C129">
-        <v>0.002077642426665596</v>
+        <v>0.002089132660302671</v>
       </c>
       <c r="D129">
         <v>-0.06972473507949539</v>
@@ -3679,19 +3679,19 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>2.62258913178207</v>
+        <v>2.613063145793838</v>
       </c>
       <c r="C130">
-        <v>0.002069920388146857</v>
+        <v>0.002060775351572429</v>
       </c>
       <c r="D130">
-        <v>-0.06994534890679716</v>
+        <v>-0.069462652746203</v>
       </c>
       <c r="E130">
-        <v>0.07000004790569681</v>
+        <v>0.06999996154723576</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3699,19 +3699,19 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>2.62168064759221</v>
+        <v>2.605557369868659</v>
       </c>
       <c r="C131">
-        <v>0.002069203352480039</v>
+        <v>0.002054855969927966</v>
       </c>
       <c r="D131">
-        <v>-0.06997967590354115</v>
+        <v>-0.06986907208583493</v>
       </c>
       <c r="E131">
-        <v>0.07000001271565748</v>
+        <v>0.06976744878977881</v>
       </c>
       <c r="F131" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3719,19 +3719,19 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>2.579320634087724</v>
+        <v>2.601341684321905</v>
       </c>
       <c r="C132">
-        <v>0.002035770034796941</v>
+        <v>0.002051531296783835</v>
       </c>
       <c r="D132">
-        <v>-0.08396954793476008</v>
+        <v>-0.06946685135807706</v>
       </c>
       <c r="E132">
-        <v>0.1000001069779202</v>
+        <v>0.06907893298560075</v>
       </c>
       <c r="F132" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3739,19 +3739,19 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>2.567364680663033</v>
+        <v>2.58911498314035</v>
       </c>
       <c r="C133">
-        <v>0.002026333607468851</v>
+        <v>0.002041888787965577</v>
       </c>
       <c r="D133">
-        <v>-0.09749304910107026</v>
+        <v>-0.06906908533350598</v>
       </c>
       <c r="E133">
-        <v>0.09999999108856006</v>
+        <v>0.06993864382065795</v>
       </c>
       <c r="F133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3759,19 +3759,19 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>2.565468803238069</v>
+        <v>2.580337780407778</v>
       </c>
       <c r="C134">
-        <v>0.002024837255910076</v>
+        <v>0.002034966703791621</v>
       </c>
       <c r="D134">
-        <v>-0.06984474097020532</v>
+        <v>-0.09999997733786892</v>
       </c>
       <c r="E134">
-        <v>0.07024788437999741</v>
+        <v>0.09999999150170114</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3779,19 +3779,19 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>2.554371161859318</v>
+        <v>2.579388289723134</v>
       </c>
       <c r="C135">
-        <v>0.002016078265082333</v>
+        <v>0.002034217894103417</v>
       </c>
       <c r="D135">
-        <v>-0.09999997733786892</v>
+        <v>-0.06990520990855775</v>
       </c>
       <c r="E135">
-        <v>0.09999999150170114</v>
+        <v>0.07000005232670703</v>
       </c>
       <c r="F135" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3799,19 +3799,19 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>2.546032975529465</v>
+        <v>2.564114422097512</v>
       </c>
       <c r="C136">
-        <v>0.002009497218255298</v>
+        <v>0.002022172257174694</v>
       </c>
       <c r="D136">
-        <v>-0.06999997592232032</v>
+        <v>-0.09749304910107026</v>
       </c>
       <c r="E136">
-        <v>0.06994826894424944</v>
+        <v>0.09999999108856006</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3819,19 +3819,19 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>2.543431153808137</v>
+        <v>2.550383757177049</v>
       </c>
       <c r="C137">
-        <v>0.002007443688877772</v>
+        <v>0.002011343657079692</v>
       </c>
       <c r="D137">
-        <v>-0.069462652746203</v>
+        <v>-0.09987198462060953</v>
       </c>
       <c r="E137">
-        <v>0.06999996154723576</v>
+        <v>0.09909911742804933</v>
       </c>
       <c r="F137" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3839,19 +3839,19 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>2.533757207781401</v>
+        <v>2.549669463250914</v>
       </c>
       <c r="C138">
-        <v>0.001999808372361011</v>
+        <v>0.002010780333794099</v>
       </c>
       <c r="D138">
-        <v>-0.09987198462060953</v>
+        <v>-0.06994813129869171</v>
       </c>
       <c r="E138">
-        <v>0.09909911742804933</v>
+        <v>0.0692090108753014</v>
       </c>
       <c r="F138" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3859,19 +3859,19 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>2.525953350768558</v>
+        <v>2.543142425380969</v>
       </c>
       <c r="C139">
-        <v>0.001993649053487419</v>
+        <v>0.002005632827587512</v>
       </c>
       <c r="D139">
-        <v>-0.06986907208583493</v>
+        <v>-0.06984474097020532</v>
       </c>
       <c r="E139">
-        <v>0.06976744878977881</v>
+        <v>0.07024788437999741</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3879,19 +3879,19 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>2.521911455286874</v>
+        <v>2.541429477400473</v>
       </c>
       <c r="C140">
-        <v>0.001990458922878354</v>
+        <v>0.00200428192224012</v>
       </c>
       <c r="D140">
-        <v>-0.09655179331050101</v>
+        <v>-0.06999997592232032</v>
       </c>
       <c r="E140">
-        <v>0.1000000505736387</v>
+        <v>0.06994826894424944</v>
       </c>
       <c r="F140" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3899,19 +3899,19 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>2.513432949380127</v>
+        <v>2.529569955068673</v>
       </c>
       <c r="C141">
-        <v>0.001983767126582576</v>
+        <v>0.001994928986647219</v>
       </c>
       <c r="D141">
-        <v>-0.06990520990855775</v>
+        <v>-0.06963250274027122</v>
       </c>
       <c r="E141">
-        <v>0.07000005232670703</v>
+        <v>0.06994822547715462</v>
       </c>
       <c r="F141" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3919,19 +3919,19 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>2.505028543966455</v>
+        <v>2.514084731686859</v>
       </c>
       <c r="C142">
-        <v>0.001977133815285283</v>
+        <v>0.001982716665368184</v>
       </c>
       <c r="D142">
-        <v>-0.06946685135807706</v>
+        <v>-0.06992079729673628</v>
       </c>
       <c r="E142">
-        <v>0.06907893298560075</v>
+        <v>0.06959710722228385</v>
       </c>
       <c r="F142" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3939,16 +3939,16 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2.501703360924076</v>
+        <v>2.506744755570371</v>
       </c>
       <c r="C143">
-        <v>0.001974509361423898</v>
+        <v>0.001976928040670635</v>
       </c>
       <c r="D143">
-        <v>-0.06994813129869171</v>
+        <v>-0.06972115173805338</v>
       </c>
       <c r="E143">
-        <v>0.0692090108753014</v>
+        <v>0.06984474535064189</v>
       </c>
       <c r="F143" t="s">
         <v>234</v>
@@ -3959,19 +3959,19 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2.491779118399533</v>
+        <v>2.496685111070693</v>
       </c>
       <c r="C144">
-        <v>0.001966676494395844</v>
+        <v>0.00196899456709045</v>
       </c>
       <c r="D144">
-        <v>-0.0698412724976426</v>
+        <v>-0.06990293725202734</v>
       </c>
       <c r="E144">
-        <v>0.06996591405834485</v>
+        <v>0.06991526455819863</v>
       </c>
       <c r="F144" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3979,19 +3979,19 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2.489896612799631</v>
+        <v>2.483153567210428</v>
       </c>
       <c r="C145">
-        <v>0.001965190696763714</v>
+        <v>0.001958323002531884</v>
       </c>
       <c r="D145">
-        <v>-0.06972115173805338</v>
+        <v>-0.0698412724976426</v>
       </c>
       <c r="E145">
-        <v>0.06984474535064189</v>
+        <v>0.06996591405834485</v>
       </c>
       <c r="F145" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3999,19 +3999,19 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2.479274339810012</v>
+        <v>2.482454539792216</v>
       </c>
       <c r="C146">
-        <v>0.001956806898034736</v>
+        <v>0.001957771719079033</v>
       </c>
       <c r="D146">
-        <v>-0.06992079729673628</v>
+        <v>-0.06997967590354115</v>
       </c>
       <c r="E146">
-        <v>0.06959710722228385</v>
+        <v>0.07000001271565748</v>
       </c>
       <c r="F146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4019,16 +4019,16 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2.478477419200941</v>
+        <v>2.480214329236524</v>
       </c>
       <c r="C147">
-        <v>0.001956177915707136</v>
+        <v>0.001956004991511454</v>
       </c>
       <c r="D147">
-        <v>-0.06557378213221121</v>
+        <v>-0.08396954793476008</v>
       </c>
       <c r="E147">
-        <v>0.06993008581616222</v>
+        <v>0.1000001069779202</v>
       </c>
       <c r="F147" t="s">
         <v>222</v>
@@ -4039,19 +4039,19 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2.476170546567818</v>
+        <v>2.458763319371637</v>
       </c>
       <c r="C148">
-        <v>0.001954357179611535</v>
+        <v>0.001939087791302554</v>
       </c>
       <c r="D148">
-        <v>-0.06999999284744263</v>
+        <v>-0.07000008020039405</v>
       </c>
       <c r="E148">
-        <v>0.06999998092651372</v>
+        <v>0.06963249407981098</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4059,19 +4059,19 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2.467754827710609</v>
+        <v>2.458420312274646</v>
       </c>
       <c r="C149">
-        <v>0.001947714938998114</v>
+        <v>0.001938817280973696</v>
       </c>
       <c r="D149">
-        <v>-0.06963250274027122</v>
+        <v>-0.09655179331050101</v>
       </c>
       <c r="E149">
-        <v>0.06994822547715462</v>
+        <v>0.1000000505736387</v>
       </c>
       <c r="F149" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4079,19 +4079,19 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2.444372318490909</v>
+        <v>2.452334125607734</v>
       </c>
       <c r="C150">
-        <v>0.001929259919882327</v>
+        <v>0.001934017449217457</v>
       </c>
       <c r="D150">
-        <v>-0.06927714050223288</v>
+        <v>-0.06557378213221121</v>
       </c>
       <c r="E150">
-        <v>0.07000002910231018</v>
+        <v>0.06993008581616222</v>
       </c>
       <c r="F150" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4099,19 +4099,19 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2.442184454598007</v>
+        <v>2.448990820940162</v>
       </c>
       <c r="C151">
-        <v>0.001927533113337019</v>
+        <v>0.001931380773612115</v>
       </c>
       <c r="D151">
-        <v>-0.06990293725202734</v>
+        <v>-0.06927714050223288</v>
       </c>
       <c r="E151">
-        <v>0.06991526455819863</v>
+        <v>0.07000002910231018</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4119,19 +4119,19 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2.435730359943895</v>
+        <v>2.4379503558182</v>
       </c>
       <c r="C152">
-        <v>0.001922439115977819</v>
+        <v>0.001922673782191005</v>
       </c>
       <c r="D152">
-        <v>-0.07000008020039405</v>
+        <v>-0.06903348229865602</v>
       </c>
       <c r="E152">
-        <v>0.06963249407981098</v>
+        <v>0.06999997075373066</v>
       </c>
       <c r="F152" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4139,19 +4139,19 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2.417733344303555</v>
+        <v>2.433530622757945</v>
       </c>
       <c r="C153">
-        <v>0.001908234683743929</v>
+        <v>0.001919188188294909</v>
       </c>
       <c r="D153">
-        <v>-0.06987575137530111</v>
+        <v>-0.06870229825350138</v>
       </c>
       <c r="E153">
-        <v>0.06984668510129555</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F153" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4159,19 +4159,19 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2.411885786622388</v>
+        <v>2.424034759621833</v>
       </c>
       <c r="C154">
-        <v>0.00190361940538468</v>
+        <v>0.001911699337241193</v>
       </c>
       <c r="D154">
-        <v>-0.06870229825350138</v>
+        <v>-0.06990017574271634</v>
       </c>
       <c r="E154">
-        <v>0.06999998092651372</v>
+        <v>0.09433961924644252</v>
       </c>
       <c r="F154" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4179,19 +4179,19 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2.409970891809614</v>
+        <v>2.417997532200402</v>
       </c>
       <c r="C155">
-        <v>0.001902108044048631</v>
+        <v>0.001906938116877291</v>
       </c>
       <c r="D155">
-        <v>-0.08465110276415677</v>
+        <v>-0.06987575137530111</v>
       </c>
       <c r="E155">
-        <v>0.1504974794474754</v>
+        <v>0.06984668510129555</v>
       </c>
       <c r="F155" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4199,19 +4199,19 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2.408158704547233</v>
+        <v>2.414034588168009</v>
       </c>
       <c r="C156">
-        <v>0.001900677746288267</v>
+        <v>0.001903812766694011</v>
       </c>
       <c r="D156">
-        <v>-0.06997743007304569</v>
+        <v>-0.06999999284744263</v>
       </c>
       <c r="E156">
-        <v>0.06970509199332731</v>
+        <v>0.06999998092651372</v>
       </c>
       <c r="F156" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4219,19 +4219,19 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2.383857611876045</v>
+        <v>2.413923123729457</v>
       </c>
       <c r="C157">
-        <v>0.001881497720502007</v>
+        <v>0.001903724860985376</v>
       </c>
       <c r="D157">
-        <v>-0.06944444136063499</v>
+        <v>-0.06997743007304569</v>
       </c>
       <c r="E157">
-        <v>0.06998162675237007</v>
+        <v>0.06970509199332731</v>
       </c>
       <c r="F157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4239,19 +4239,19 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2.382304678707296</v>
+        <v>2.409312945038919</v>
       </c>
       <c r="C158">
-        <v>0.001880272043178608</v>
+        <v>0.001900089073374541</v>
       </c>
       <c r="D158">
-        <v>-0.06990017574271634</v>
+        <v>-0.06944444136063499</v>
       </c>
       <c r="E158">
-        <v>0.09433961924644252</v>
+        <v>0.06998162675237007</v>
       </c>
       <c r="F158" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4259,19 +4259,19 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2.381459048173585</v>
+        <v>2.384303173356891</v>
       </c>
       <c r="C159">
-        <v>0.00187960461576447</v>
+        <v>0.001880365278672629</v>
       </c>
       <c r="D159">
-        <v>-0.06988350176847491</v>
+        <v>-0.08465110276415677</v>
       </c>
       <c r="E159">
-        <v>0.06985292620312444</v>
+        <v>0.1504974794474754</v>
       </c>
       <c r="F159" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4279,10 +4279,10 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2.368547239682655</v>
+        <v>2.376020422397272</v>
       </c>
       <c r="C160">
-        <v>0.001869413764548267</v>
+        <v>0.001873833140691855</v>
       </c>
       <c r="D160">
         <v>-0.06984127978392152</v>
@@ -4299,13 +4299,13 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2.366377322781318</v>
+        <v>2.352626873629426</v>
       </c>
       <c r="C161">
-        <v>0.001867701122952896</v>
+        <v>0.001855383969739295</v>
       </c>
       <c r="D161">
-        <v>-0.0690608151727804</v>
+        <v>-0.06958758008677346</v>
       </c>
       <c r="E161">
         <v>0.06993009546669837</v>
@@ -4319,19 +4319,19 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2.365398494718307</v>
+        <v>2.335515250954249</v>
       </c>
       <c r="C162">
-        <v>0.001866928567259908</v>
+        <v>0.001841888999175279</v>
       </c>
       <c r="D162">
-        <v>-0.06903348229865602</v>
+        <v>-0.09677420366253031</v>
       </c>
       <c r="E162">
-        <v>0.06999997075373066</v>
+        <v>0.09999998410542799</v>
       </c>
       <c r="F162" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4339,19 +4339,19 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2.294577614097162</v>
+        <v>2.313285992060642</v>
       </c>
       <c r="C163">
-        <v>0.001811032055325303</v>
+        <v>0.001824358037902713</v>
       </c>
       <c r="D163">
-        <v>-0.06906902405434578</v>
+        <v>-0.06988350176847491</v>
       </c>
       <c r="E163">
-        <v>0.06989247814046018</v>
+        <v>0.06985292620312444</v>
       </c>
       <c r="F163" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4359,19 +4359,19 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2.222177150692973</v>
+        <v>2.274528492578906</v>
       </c>
       <c r="C164">
-        <v>0.001753888832433289</v>
+        <v>0.001793792186576422</v>
       </c>
       <c r="D164">
-        <v>-0.09677420366253031</v>
+        <v>-0.06906902405434578</v>
       </c>
       <c r="E164">
-        <v>0.09913793710206664</v>
+        <v>0.06989247814046018</v>
       </c>
       <c r="F164" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4379,19 +4379,19 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2.212905483752379</v>
+        <v>2.187716194381274</v>
       </c>
       <c r="C165">
-        <v>0.001746571021114743</v>
+        <v>0.001725328229007312</v>
       </c>
       <c r="D165">
-        <v>-0.06979280195244686</v>
+        <v>-0.1111111042149548</v>
       </c>
       <c r="E165">
-        <v>0.06993009596505595</v>
+        <v>0.1593406343488595</v>
       </c>
       <c r="F165" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4399,19 +4399,19 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2.131062822631005</v>
+        <v>2.151797585192705</v>
       </c>
       <c r="C166">
-        <v>0.001681975392763223</v>
+        <v>0.001697001250151976</v>
       </c>
       <c r="D166">
-        <v>-0.1111111042149548</v>
+        <v>-0.06979280195244686</v>
       </c>
       <c r="E166">
-        <v>0.1593406343488595</v>
+        <v>0.06993009596505595</v>
       </c>
       <c r="F166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4419,19 +4419,19 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2.111999006148011</v>
+        <v>2.132550173833204</v>
       </c>
       <c r="C167">
-        <v>0.00166692897091398</v>
+        <v>0.001681821903653944</v>
       </c>
       <c r="D167">
-        <v>-0.06936408737921229</v>
+        <v>-0.06909089280352687</v>
       </c>
       <c r="E167">
-        <v>0.06979862411866566</v>
+        <v>0.0960698568919014</v>
       </c>
       <c r="F167" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4439,19 +4439,19 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2.104831454628723</v>
+        <v>2.11860211086693</v>
       </c>
       <c r="C168">
-        <v>0.001661271866321013</v>
+        <v>0.001670821853996002</v>
       </c>
       <c r="D168">
-        <v>-0.06991872282140932</v>
+        <v>-0.06936408737921229</v>
       </c>
       <c r="E168">
-        <v>0.06963475841615496</v>
+        <v>0.06979862411866566</v>
       </c>
       <c r="F168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4459,19 +4459,19 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2.098144511307812</v>
+        <v>2.107912715266197</v>
       </c>
       <c r="C169">
-        <v>0.001655994089429999</v>
+        <v>0.001662391731282488</v>
       </c>
       <c r="D169">
-        <v>-0.06909089280352687</v>
+        <v>-0.07719292174407599</v>
       </c>
       <c r="E169">
-        <v>0.0960698568919014</v>
+        <v>0.1352312830457774</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4479,19 +4479,19 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>2.095948151640311</v>
+        <v>2.056205579024891</v>
       </c>
       <c r="C170">
-        <v>0.001654260577458808</v>
+        <v>0.001621613232669473</v>
       </c>
       <c r="D170">
-        <v>-0.07719292174407599</v>
+        <v>-0.09547738013434359</v>
       </c>
       <c r="E170">
-        <v>0.1352312830457774</v>
+        <v>0.1366666172496895</v>
       </c>
       <c r="F170" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4499,19 +4499,19 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>1.985628054934576</v>
+        <v>2.044331452028036</v>
       </c>
       <c r="C171">
-        <v>0.001567188677927842</v>
+        <v>0.001612248779201921</v>
       </c>
       <c r="D171">
-        <v>-0.06984663259319479</v>
+        <v>-0.06976743899502935</v>
       </c>
       <c r="E171">
-        <v>0.07000008006928793</v>
+        <v>0.06997456409537439</v>
       </c>
       <c r="F171" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4519,19 +4519,19 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>1.969150202460746</v>
+        <v>2.034350879001371</v>
       </c>
       <c r="C172">
-        <v>0.00155418326950335</v>
+        <v>0.001604377664827581</v>
       </c>
       <c r="D172">
-        <v>-0.06896555323692</v>
+        <v>-0.06991872282140932</v>
       </c>
       <c r="E172">
-        <v>0.0698197830537064</v>
+        <v>0.06963475841615496</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4539,19 +4539,19 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>1.967218328812642</v>
+        <v>1.990412506188254</v>
       </c>
       <c r="C173">
-        <v>0.001552658507350152</v>
+        <v>0.001569725951252565</v>
       </c>
       <c r="D173">
-        <v>-0.06976743899502935</v>
+        <v>-0.06896555323692</v>
       </c>
       <c r="E173">
-        <v>0.06997456409537439</v>
+        <v>0.0698197830537064</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4559,19 +4559,19 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>1.956913649455014</v>
+        <v>1.983323771362544</v>
       </c>
       <c r="C174">
-        <v>0.001544525374471203</v>
+        <v>0.001564135466374246</v>
       </c>
       <c r="D174">
-        <v>-0.2127659574468085</v>
+        <v>-0.06984663259319479</v>
       </c>
       <c r="E174">
-        <v>0.1612903275425304</v>
+        <v>0.07000008006928793</v>
       </c>
       <c r="F174" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4579,19 +4579,19 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>1.952180027909109</v>
+        <v>1.900831865444647</v>
       </c>
       <c r="C175">
-        <v>0.001540789288010347</v>
+        <v>0.001499078758237104</v>
       </c>
       <c r="D175">
-        <v>-0.09547738013434359</v>
+        <v>-0.06947889057242518</v>
       </c>
       <c r="E175">
-        <v>0.1366666172496895</v>
+        <v>0.06956526161967846</v>
       </c>
       <c r="F175" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4599,19 +4599,19 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>1.875191856183886</v>
+        <v>1.842086610261066</v>
       </c>
       <c r="C176">
-        <v>0.001480025143002278</v>
+        <v>0.001452749692634911</v>
       </c>
       <c r="D176">
-        <v>-0.07482990068676376</v>
+        <v>-0.06964281581374276</v>
       </c>
       <c r="E176">
-        <v>0.0699481742507313</v>
+        <v>0.06962028753701133</v>
       </c>
       <c r="F176" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4619,16 +4619,16 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>1.844721993472982</v>
+        <v>1.816889965032835</v>
       </c>
       <c r="C177">
-        <v>0.001455976316868968</v>
+        <v>0.00143287852131927</v>
       </c>
       <c r="D177">
-        <v>-0.06947889057242518</v>
+        <v>-0.0695187053760733</v>
       </c>
       <c r="E177">
-        <v>0.06956526161967846</v>
+        <v>0.0698795925471658</v>
       </c>
       <c r="F177" t="s">
         <v>237</v>
@@ -4639,19 +4639,19 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>1.832763146249315</v>
+        <v>1.800704581982894</v>
       </c>
       <c r="C178">
-        <v>0.001446537605563784</v>
+        <v>0.001420114023645816</v>
       </c>
       <c r="D178">
-        <v>-0.06997739339750808</v>
+        <v>-0.07586206896551728</v>
       </c>
       <c r="E178">
-        <v>0.06985292519252639</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="F178" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4659,19 +4659,19 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>1.832635963944594</v>
+        <v>1.795784341022256</v>
       </c>
       <c r="C179">
-        <v>0.001446437224897075</v>
+        <v>0.001416233707430803</v>
       </c>
       <c r="D179">
-        <v>-0.0695187053760733</v>
+        <v>-0.06600663872224521</v>
       </c>
       <c r="E179">
-        <v>0.0698795925471658</v>
+        <v>0.06999997773390709</v>
       </c>
       <c r="F179" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4679,19 +4679,19 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>1.823401533418815</v>
+        <v>1.789427979262994</v>
       </c>
       <c r="C180">
-        <v>0.001439148803014059</v>
+        <v>0.001411220803835169</v>
       </c>
       <c r="D180">
-        <v>-0.06962027661690495</v>
+        <v>-0.07482990068676376</v>
       </c>
       <c r="E180">
-        <v>0.07000003017804945</v>
+        <v>0.0699481742507313</v>
       </c>
       <c r="F180" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4699,19 +4699,19 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>1.790784255307355</v>
+        <v>1.782016904634006</v>
       </c>
       <c r="C181">
-        <v>0.001413405094954505</v>
+        <v>0.001405376107755524</v>
       </c>
       <c r="D181">
-        <v>-0.06600663872224521</v>
+        <v>-0.06962027661690495</v>
       </c>
       <c r="E181">
-        <v>0.06999997773390709</v>
+        <v>0.07000003017804945</v>
       </c>
       <c r="F181" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4719,19 +4719,19 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>1.764850491095587</v>
+        <v>1.772888283635934</v>
       </c>
       <c r="C182">
-        <v>0.001392936457060449</v>
+        <v>0.001398176879839064</v>
       </c>
       <c r="D182">
-        <v>-0.06964281581374276</v>
+        <v>-0.06904232708871627</v>
       </c>
       <c r="E182">
-        <v>0.06962028753701133</v>
+        <v>0.06921680523124629</v>
       </c>
       <c r="F182" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4739,16 +4739,16 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>1.748298912905265</v>
+        <v>1.744874349895682</v>
       </c>
       <c r="C183">
-        <v>0.001379872859435883</v>
+        <v>0.001376083872157478</v>
       </c>
       <c r="D183">
-        <v>-0.06904232708871627</v>
+        <v>-0.1000000159853983</v>
       </c>
       <c r="E183">
-        <v>0.06921680523124629</v>
+        <v>0.1000000142726771</v>
       </c>
       <c r="F183" t="s">
         <v>219</v>
@@ -4759,10 +4759,10 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>1.716952597866596</v>
+        <v>1.719411773999019</v>
       </c>
       <c r="C184">
-        <v>0.001355132279294867</v>
+        <v>0.00135600297633992</v>
       </c>
       <c r="D184">
         <v>-0.1290322479309236</v>
@@ -4779,19 +4779,19 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>1.689283559559422</v>
+        <v>1.672753077976194</v>
       </c>
       <c r="C185">
-        <v>0.001333294048586758</v>
+        <v>0.001319205897457566</v>
       </c>
       <c r="D185">
-        <v>-0.07586206896551728</v>
+        <v>-0.2127659574468085</v>
       </c>
       <c r="E185">
-        <v>0.1071428571428572</v>
+        <v>0.1612903275425304</v>
       </c>
       <c r="F185" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4799,19 +4799,19 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>1.651199378835179</v>
+        <v>1.666645173805121</v>
       </c>
       <c r="C186">
-        <v>0.001303235500264546</v>
+        <v>0.001314388938332114</v>
       </c>
       <c r="D186">
-        <v>-0.1000000159853983</v>
+        <v>-0.1359223209634383</v>
       </c>
       <c r="E186">
-        <v>0.1000000142726771</v>
+        <v>0.1481481176235944</v>
       </c>
       <c r="F186" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4819,16 +4819,16 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>1.631011547668572</v>
+        <v>1.661360592712129</v>
       </c>
       <c r="C187">
-        <v>0.00128730193186154</v>
+        <v>0.001310221287627862</v>
       </c>
       <c r="D187">
-        <v>-0.06981524422491381</v>
+        <v>-0.06988695709559989</v>
       </c>
       <c r="E187">
-        <v>0.06915483200771044</v>
+        <v>0.06997078384203337</v>
       </c>
       <c r="F187" t="s">
         <v>234</v>
@@ -4839,19 +4839,19 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>1.624543911722209</v>
+        <v>1.642226477886887</v>
       </c>
       <c r="C188">
-        <v>0.001282197246821002</v>
+        <v>0.001295131291708901</v>
       </c>
       <c r="D188">
-        <v>-0.1359223209634383</v>
+        <v>-0.06903359353592942</v>
       </c>
       <c r="E188">
-        <v>0.1481481176235944</v>
+        <v>0.0698027847269107</v>
       </c>
       <c r="F188" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4859,19 +4859,19 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>1.581055971430679</v>
+        <v>1.641431316516581</v>
       </c>
       <c r="C189">
-        <v>0.001247873694893986</v>
+        <v>0.00129450419283642</v>
       </c>
       <c r="D189">
-        <v>-0.06988695709559989</v>
+        <v>-0.06997739339750808</v>
       </c>
       <c r="E189">
-        <v>0.06997078384203337</v>
+        <v>0.06985292519252639</v>
       </c>
       <c r="F189" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4879,16 +4879,16 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>1.572017530075613</v>
+        <v>1.584631376827364</v>
       </c>
       <c r="C190">
-        <v>0.00124073996059638</v>
+        <v>0.00124970928771874</v>
       </c>
       <c r="D190">
-        <v>-0.06920418159995967</v>
+        <v>-0.06981524422491381</v>
       </c>
       <c r="E190">
-        <v>0.06936415869942159</v>
+        <v>0.06915483200771044</v>
       </c>
       <c r="F190" t="s">
         <v>234</v>
@@ -4899,19 +4899,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>1.570127807578676</v>
+        <v>1.563514102315636</v>
       </c>
       <c r="C191">
-        <v>0.001239248466912926</v>
+        <v>0.001233055285737883</v>
       </c>
       <c r="D191">
-        <v>-0.1153846689979657</v>
+        <v>-0.06920418159995967</v>
       </c>
       <c r="E191">
-        <v>0.1119403565368413</v>
+        <v>0.06936415869942159</v>
       </c>
       <c r="F191" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4919,19 +4919,19 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>1.550804950922618</v>
+        <v>1.51382479704566</v>
       </c>
       <c r="C192">
-        <v>0.001223997593466943</v>
+        <v>0.001193868136471341</v>
       </c>
       <c r="D192">
-        <v>-0.06903359353592942</v>
+        <v>-0.1153846689979657</v>
       </c>
       <c r="E192">
-        <v>0.0698027847269107</v>
+        <v>0.1119403565368413</v>
       </c>
       <c r="F192" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4939,19 +4939,19 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>1.432830969119015</v>
+        <v>1.426649737280592</v>
       </c>
       <c r="C193">
-        <v>0.001130884742793225</v>
+        <v>0.001125118089338005</v>
       </c>
       <c r="D193">
-        <v>-0.07000002832724772</v>
+        <v>-0.08776598364985366</v>
       </c>
       <c r="E193">
-        <v>0.06999998166089894</v>
+        <v>0.07205231730075634</v>
       </c>
       <c r="F193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4959,19 +4959,19 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>1.398754864381863</v>
+        <v>1.406442110181643</v>
       </c>
       <c r="C194">
-        <v>0.001103989632503443</v>
+        <v>0.001109181474906659</v>
       </c>
       <c r="D194">
-        <v>-0.06910562732073722</v>
+        <v>-0.07505523455869945</v>
       </c>
       <c r="E194">
-        <v>0.06997741154931059</v>
+        <v>0.07876721806869069</v>
       </c>
       <c r="F194" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4979,19 +4979,19 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>1.37191087572145</v>
+        <v>1.383365908467233</v>
       </c>
       <c r="C195">
-        <v>0.001082802585415509</v>
+        <v>0.001090982577655547</v>
       </c>
       <c r="D195">
-        <v>-0.07505523455869945</v>
+        <v>-0.06910562732073722</v>
       </c>
       <c r="E195">
-        <v>0.07876721806869069</v>
+        <v>0.06997741154931059</v>
       </c>
       <c r="F195" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4999,19 +4999,19 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>1.367625453800512</v>
+        <v>1.364334759291427</v>
       </c>
       <c r="C196">
-        <v>0.001079420247672068</v>
+        <v>0.001075973784930147</v>
       </c>
       <c r="D196">
-        <v>-0.08776598364985366</v>
+        <v>-0.1026615720542988</v>
       </c>
       <c r="E196">
-        <v>0.07205231730075634</v>
+        <v>0.1296436478888401</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5019,19 +5019,19 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>1.334120137288996</v>
+        <v>1.329699427471364</v>
       </c>
       <c r="C197">
-        <v>0.001052975641112072</v>
+        <v>0.001048658854472684</v>
       </c>
       <c r="D197">
-        <v>-0.1026615720542988</v>
+        <v>-0.06849312549060282</v>
       </c>
       <c r="E197">
-        <v>0.1296436478888401</v>
+        <v>0.06932769204384637</v>
       </c>
       <c r="F197" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5039,19 +5039,19 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>1.294519661652472</v>
+        <v>1.323728563884152</v>
       </c>
       <c r="C198">
-        <v>0.001021720332795952</v>
+        <v>0.00104394997151747</v>
       </c>
       <c r="D198">
-        <v>-0.0694126800439423</v>
+        <v>-0.07000002832724772</v>
       </c>
       <c r="E198">
-        <v>0.0698027288367753</v>
+        <v>0.06999998166089894</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5059,10 +5059,10 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>1.262368758273469</v>
+        <v>1.316710314767132</v>
       </c>
       <c r="C199">
-        <v>0.0009963447184478849</v>
+        <v>0.001038415074737486</v>
       </c>
       <c r="D199">
         <v>-0.06771649541528946</v>
@@ -5079,19 +5079,19 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>1.221748464310593</v>
+        <v>1.31651039011193</v>
       </c>
       <c r="C200">
-        <v>0.0009642845022183057</v>
+        <v>0.001038257405451048</v>
       </c>
       <c r="D200">
-        <v>-0.06849312549060282</v>
+        <v>-0.0694126800439423</v>
       </c>
       <c r="E200">
-        <v>0.06932769204384637</v>
+        <v>0.0698027288367753</v>
       </c>
       <c r="F200" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5099,10 +5099,10 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>1.1474968951577</v>
+        <v>1.171241893193771</v>
       </c>
       <c r="C201">
-        <v>0.0009056802645285713</v>
+        <v>0.0009236923447900402</v>
       </c>
       <c r="D201">
         <v>-0.06994330999834741</v>
@@ -5119,10 +5119,10 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>1.132965082056107</v>
+        <v>1.083818895236752</v>
       </c>
       <c r="C202">
-        <v>0.0008942107987814576</v>
+        <v>0.0008547467628050097</v>
       </c>
       <c r="D202">
         <v>-0.06999998712539734</v>
@@ -5139,10 +5139,10 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>1.050556122575372</v>
+        <v>1.039881242294903</v>
       </c>
       <c r="C203">
-        <v>0.0008291682103988728</v>
+        <v>0.0008200956169518161</v>
       </c>
       <c r="D203">
         <v>-0.06919944750899132</v>
@@ -5151,7 +5151,7 @@
         <v>0.06989244448068677</v>
       </c>
       <c r="F203" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5159,19 +5159,19 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>0.8656416790658884</v>
+        <v>1.002805447549717</v>
       </c>
       <c r="C204">
-        <v>0.0006832215304387438</v>
+        <v>0.0007908560311906284</v>
       </c>
       <c r="D204">
-        <v>-0.0972221983067777</v>
+        <v>-0.06962025639760372</v>
       </c>
       <c r="E204">
-        <v>0.1428572115491726</v>
+        <v>0.06988248106916406</v>
       </c>
       <c r="F204" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5179,19 +5179,19 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.8613896054728223</v>
+        <v>0.8656416790658884</v>
       </c>
       <c r="C205">
-        <v>0.0006798655133960713</v>
+        <v>0.0006826827121970729</v>
       </c>
       <c r="D205">
-        <v>-0.06962025639760372</v>
+        <v>-0.0972221983067777</v>
       </c>
       <c r="E205">
-        <v>0.06988248106916406</v>
+        <v>0.1428572115491726</v>
       </c>
       <c r="F205" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5199,10 +5199,10 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.8407246857701912</v>
+        <v>0.8401654787509347</v>
       </c>
       <c r="C206">
-        <v>0.0006635553952408771</v>
+        <v>0.0006625910715701378</v>
       </c>
       <c r="D206">
         <v>-0.06948425182676632</v>
@@ -5219,10 +5219,10 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.7053159780841297</v>
+        <v>0.7710467761682691</v>
       </c>
       <c r="C207">
-        <v>0.0005566819085115468</v>
+        <v>0.0006080810537604646</v>
       </c>
       <c r="D207">
         <v>-0.06984870440182311</v>
@@ -5231,7 +5231,7 @@
         <v>0.06991534220593976</v>
       </c>
       <c r="F207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5239,19 +5239,19 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.703625619650065</v>
+        <v>0.7088419213040609</v>
       </c>
       <c r="C208">
-        <v>0.0005553477661010773</v>
+        <v>0.0005590235972429503</v>
       </c>
       <c r="D208">
-        <v>-0.06957191048317279</v>
+        <v>-0.06969986365866065</v>
       </c>
       <c r="E208">
-        <v>0.06981133514980109</v>
+        <v>0.06971903224517639</v>
       </c>
       <c r="F208" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5259,19 +5259,19 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.656492571549953</v>
+        <v>0.6699833133280954</v>
       </c>
       <c r="C209">
-        <v>0.0005181472545777056</v>
+        <v>0.0005283780073565421</v>
       </c>
       <c r="D209">
-        <v>-0.06969986365866065</v>
+        <v>-0.06957191048317279</v>
       </c>
       <c r="E209">
-        <v>0.06971903224517639</v>
+        <v>0.06981133514980109</v>
       </c>
       <c r="F209" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5279,10 +5279,10 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.5207094770997991</v>
+        <v>0.5097204246516963</v>
       </c>
       <c r="C210">
-        <v>0.0004109782771111279</v>
+        <v>0.0004019877166022842</v>
       </c>
       <c r="D210">
         <v>-0.05138337060327858</v>
@@ -5299,10 +5299,10 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.1704313290524826</v>
+        <v>0.1635188165822025</v>
       </c>
       <c r="C211">
-        <v>0.0001345156503965924</v>
+        <v>0.0001289580572414846</v>
       </c>
       <c r="D211">
         <v>-0.04887222277315439</v>
@@ -5319,10 +5319,10 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.1151020417389471</v>
+        <v>0.1067338886517916</v>
       </c>
       <c r="C212">
-        <v>9.084612607651706E-05</v>
+        <v>8.417499105030881E-05</v>
       </c>
       <c r="D212">
         <v>-0.1435185289428612</v>
